--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>['57', '85', '90+3']</t>
+  </si>
+  <si>
+    <t>['17', '28', '45']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1707,7 +1710,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2119,7 +2122,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2403,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>2.07</v>
@@ -2531,7 +2534,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2737,7 +2740,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2943,7 +2946,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3355,7 +3358,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3561,7 +3564,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3767,7 +3770,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3973,7 +3976,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4051,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0.79</v>
@@ -4385,7 +4388,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4591,7 +4594,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4672,7 +4675,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ17">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR17">
         <v>1.42</v>
@@ -4797,7 +4800,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5003,7 +5006,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5209,7 +5212,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5415,7 +5418,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5496,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5621,7 +5624,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6033,7 +6036,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6445,7 +6448,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6729,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.62</v>
@@ -7063,7 +7066,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7269,7 +7272,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7887,7 +7890,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8299,7 +8302,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8586,7 +8589,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ36">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8711,7 +8714,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8917,7 +8920,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9201,7 +9204,7 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9329,7 +9332,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10153,7 +10156,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10234,7 +10237,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ44">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10359,7 +10362,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10565,7 +10568,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10771,7 +10774,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10977,7 +10980,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11183,7 +11186,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11595,7 +11598,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11879,7 +11882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0.6899999999999999</v>
@@ -12007,7 +12010,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12213,7 +12216,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12625,7 +12628,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12706,7 +12709,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13243,7 +13246,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13449,7 +13452,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13655,7 +13658,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13939,7 +13942,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.54</v>
@@ -14067,7 +14070,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14273,7 +14276,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14685,7 +14688,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14891,7 +14894,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15097,7 +15100,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15509,7 +15512,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15715,7 +15718,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15921,7 +15924,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16127,7 +16130,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16208,7 +16211,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ73">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR73">
         <v>1.36</v>
@@ -16745,7 +16748,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17029,7 +17032,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.77</v>
@@ -17569,7 +17572,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18187,7 +18190,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18393,7 +18396,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18474,7 +18477,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ84">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR84">
         <v>1.13</v>
@@ -18883,7 +18886,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1.21</v>
@@ -19629,7 +19632,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20041,7 +20044,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20247,7 +20250,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20865,7 +20868,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21071,7 +21074,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21149,10 +21152,10 @@
         <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR97">
         <v>1.58</v>
@@ -21689,7 +21692,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22101,7 +22104,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22307,7 +22310,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22513,7 +22516,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22719,7 +22722,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22925,7 +22928,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23131,7 +23134,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23209,7 +23212,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>1.85</v>
@@ -23418,7 +23421,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ108">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23955,7 +23958,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24367,7 +24370,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24573,7 +24576,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24654,7 +24657,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ114">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -25191,7 +25194,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25809,7 +25812,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26221,7 +26224,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26427,7 +26430,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26505,7 +26508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>1.36</v>
@@ -26633,7 +26636,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27045,7 +27048,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27332,7 +27335,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27457,7 +27460,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27869,7 +27872,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28693,7 +28696,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29105,7 +29108,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29311,7 +29314,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29517,7 +29520,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29595,7 +29598,7 @@
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.36</v>
@@ -29723,7 +29726,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30341,7 +30344,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30834,7 +30837,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ144">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -30959,7 +30962,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31165,7 +31168,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31577,7 +31580,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31783,7 +31786,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31989,7 +31992,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32195,7 +32198,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32273,7 +32276,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>1.62</v>
@@ -32401,7 +32404,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32607,7 +32610,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32813,7 +32816,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33306,7 +33309,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ156">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR156">
         <v>1.59</v>
@@ -33431,7 +33434,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33637,7 +33640,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34049,7 +34052,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34255,7 +34258,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34461,7 +34464,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34618,6 +34621,212 @@
       </c>
       <c r="BP162">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7390098</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>200</v>
+      </c>
+      <c r="P163" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q163">
+        <v>4.33</v>
+      </c>
+      <c r="R163">
+        <v>2.3</v>
+      </c>
+      <c r="S163">
+        <v>2.4</v>
+      </c>
+      <c r="T163">
+        <v>1.33</v>
+      </c>
+      <c r="U163">
+        <v>3.25</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>6.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.11</v>
+      </c>
+      <c r="Z163">
+        <v>5.93</v>
+      </c>
+      <c r="AA163">
+        <v>4.59</v>
+      </c>
+      <c r="AB163">
+        <v>1.38</v>
+      </c>
+      <c r="AC163">
+        <v>1.04</v>
+      </c>
+      <c r="AD163">
+        <v>14.25</v>
+      </c>
+      <c r="AE163">
+        <v>1.24</v>
+      </c>
+      <c r="AF163">
+        <v>4.07</v>
+      </c>
+      <c r="AG163">
+        <v>1.69</v>
+      </c>
+      <c r="AH163">
+        <v>2.07</v>
+      </c>
+      <c r="AI163">
+        <v>1.7</v>
+      </c>
+      <c r="AJ163">
+        <v>2.05</v>
+      </c>
+      <c r="AK163">
+        <v>2</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>1.24</v>
+      </c>
+      <c r="AN163">
+        <v>1.38</v>
+      </c>
+      <c r="AO163">
+        <v>1.92</v>
+      </c>
+      <c r="AP163">
+        <v>1.5</v>
+      </c>
+      <c r="AQ163">
+        <v>1.79</v>
+      </c>
+      <c r="AR163">
+        <v>1.44</v>
+      </c>
+      <c r="AS163">
+        <v>1.49</v>
+      </c>
+      <c r="AT163">
+        <v>2.93</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>2</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>7</v>
+      </c>
+      <c r="BA163">
+        <v>1</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>6</v>
+      </c>
+      <c r="BD163">
+        <v>2.8</v>
+      </c>
+      <c r="BE163">
+        <v>8</v>
+      </c>
+      <c r="BF163">
+        <v>1.59</v>
+      </c>
+      <c r="BG163">
+        <v>1.29</v>
+      </c>
+      <c r="BH163">
+        <v>3.2</v>
+      </c>
+      <c r="BI163">
+        <v>1.54</v>
+      </c>
+      <c r="BJ163">
+        <v>2.3</v>
+      </c>
+      <c r="BK163">
+        <v>1.95</v>
+      </c>
+      <c r="BL163">
+        <v>1.77</v>
+      </c>
+      <c r="BM163">
+        <v>2.5</v>
+      </c>
+      <c r="BN163">
+        <v>1.46</v>
+      </c>
+      <c r="BO163">
+        <v>3.4</v>
+      </c>
+      <c r="BP163">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -34763,22 +34763,22 @@
         <v>2.93</v>
       </c>
       <c r="AU163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV163">
         <v>2</v>
       </c>
       <c r="AW163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX163">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY163">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ163">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA163">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,9 @@
     <t>['17', '28', '45']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -734,9 +737,6 @@
   </si>
   <si>
     <t>['9', '71']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['19', '74']</t>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>['67', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '28', '84']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1710,7 +1713,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1994,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
         <v>0.79</v>
@@ -2122,7 +2125,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2534,7 +2537,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2740,7 +2743,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2946,7 +2949,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3358,7 +3361,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3564,7 +3567,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3770,7 +3773,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3848,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
@@ -3976,7 +3979,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4388,7 +4391,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4594,7 +4597,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4800,7 +4803,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5006,7 +5009,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5212,7 +5215,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5418,7 +5421,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5624,7 +5627,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5705,7 +5708,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
         <v>1.62</v>
@@ -6036,7 +6039,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6114,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
         <v>0.85</v>
@@ -6448,7 +6451,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6735,7 +6738,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -7066,7 +7069,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7272,7 +7275,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7890,7 +7893,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8174,7 +8177,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ34">
         <v>0.54</v>
@@ -8302,7 +8305,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8714,7 +8717,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8920,7 +8923,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9332,7 +9335,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9413,7 +9416,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ40">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -10156,7 +10159,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10362,7 +10365,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10568,7 +10571,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10774,7 +10777,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10980,7 +10983,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11058,7 +11061,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
         <v>2.07</v>
@@ -11186,7 +11189,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11598,7 +11601,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12010,7 +12013,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12216,7 +12219,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12628,7 +12631,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13121,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1.18</v>
@@ -13246,7 +13249,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13452,7 +13455,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13658,7 +13661,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14070,7 +14073,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14276,7 +14279,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14688,7 +14691,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14894,7 +14897,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14972,7 +14975,7 @@
         <v>2.6</v>
       </c>
       <c r="AP67">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67">
         <v>1.85</v>
@@ -15799,7 +15802,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ71">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -17241,7 +17244,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ78">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17444,7 +17447,7 @@
         <v>0.83</v>
       </c>
       <c r="AP79">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79">
         <v>1.21</v>
@@ -19507,7 +19510,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ89">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR89">
         <v>1.62</v>
@@ -19916,7 +19919,7 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ91">
         <v>0.6899999999999999</v>
@@ -20044,7 +20047,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -21773,7 +21776,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ100">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -24654,7 +24657,7 @@
         <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
         <v>1.79</v>
@@ -24863,7 +24866,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25812,7 +25815,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25890,7 +25893,7 @@
         <v>1.89</v>
       </c>
       <c r="AP120">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ120">
         <v>1.77</v>
@@ -26305,7 +26308,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ122">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR122">
         <v>1.09</v>
@@ -27872,7 +27875,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28362,7 +28365,7 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ132">
         <v>0.93</v>
@@ -29395,7 +29398,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ137">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR137">
         <v>1.65</v>
@@ -30834,7 +30837,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ144">
         <v>1.79</v>
@@ -31864,7 +31867,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ149">
         <v>2.07</v>
@@ -32279,7 +32282,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -34827,6 +34830,212 @@
       </c>
       <c r="BP163">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7390099</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>201</v>
+      </c>
+      <c r="P164" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q164">
+        <v>4.75</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>2.4</v>
+      </c>
+      <c r="T164">
+        <v>1.36</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164">
+        <v>2.75</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>4.2</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>1.75</v>
+      </c>
+      <c r="AC164">
+        <v>1.05</v>
+      </c>
+      <c r="AD164">
+        <v>9.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.28</v>
+      </c>
+      <c r="AF164">
+        <v>3.55</v>
+      </c>
+      <c r="AG164">
+        <v>1.98</v>
+      </c>
+      <c r="AH164">
+        <v>1.9</v>
+      </c>
+      <c r="AI164">
+        <v>1.8</v>
+      </c>
+      <c r="AJ164">
+        <v>1.95</v>
+      </c>
+      <c r="AK164">
+        <v>2</v>
+      </c>
+      <c r="AL164">
+        <v>1.2</v>
+      </c>
+      <c r="AM164">
+        <v>1.2</v>
+      </c>
+      <c r="AN164">
+        <v>1.46</v>
+      </c>
+      <c r="AO164">
+        <v>1.62</v>
+      </c>
+      <c r="AP164">
+        <v>1.36</v>
+      </c>
+      <c r="AQ164">
+        <v>1.71</v>
+      </c>
+      <c r="AR164">
+        <v>1.44</v>
+      </c>
+      <c r="AS164">
+        <v>1.46</v>
+      </c>
+      <c r="AT164">
+        <v>2.9</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>10</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>1</v>
+      </c>
+      <c r="AY164">
+        <v>12</v>
+      </c>
+      <c r="AZ164">
+        <v>11</v>
+      </c>
+      <c r="BA164">
+        <v>12</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>16</v>
+      </c>
+      <c r="BD164">
+        <v>2.77</v>
+      </c>
+      <c r="BE164">
+        <v>8</v>
+      </c>
+      <c r="BF164">
+        <v>1.64</v>
+      </c>
+      <c r="BG164">
+        <v>1.3</v>
+      </c>
+      <c r="BH164">
+        <v>3.25</v>
+      </c>
+      <c r="BI164">
+        <v>1.52</v>
+      </c>
+      <c r="BJ164">
+        <v>2.4</v>
+      </c>
+      <c r="BK164">
+        <v>1.9</v>
+      </c>
+      <c r="BL164">
+        <v>1.9</v>
+      </c>
+      <c r="BM164">
+        <v>2.35</v>
+      </c>
+      <c r="BN164">
+        <v>1.54</v>
+      </c>
+      <c r="BO164">
+        <v>3.1</v>
+      </c>
+      <c r="BP164">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['59', '80']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -887,6 +890,9 @@
   </si>
   <si>
     <t>['10', '28', '84']</t>
+  </si>
+  <si>
+    <t>['3', '27', '87']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1713,7 +1719,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1791,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ3">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2125,7 +2131,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2206,7 +2212,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ5">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2409,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>2.07</v>
@@ -2537,7 +2543,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2618,7 +2624,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ7">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2743,7 +2749,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2949,7 +2955,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3030,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3361,7 +3367,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3567,7 +3573,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3773,7 +3779,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3979,7 +3985,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4057,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>0.79</v>
@@ -4266,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4391,7 +4397,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4469,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ16">
         <v>1.36</v>
@@ -4597,7 +4603,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4675,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
         <v>1.79</v>
@@ -4803,7 +4809,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5009,7 +5015,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5090,7 +5096,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ19">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>1.78</v>
@@ -5215,7 +5221,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5421,7 +5427,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5627,7 +5633,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6039,7 +6045,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6451,7 +6457,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6529,10 +6535,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ26">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR26">
         <v>0.75</v>
@@ -6735,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.71</v>
@@ -6941,10 +6947,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7069,7 +7075,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7275,7 +7281,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7768,7 +7774,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ32">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7893,7 +7899,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8305,7 +8311,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8383,7 +8389,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ35">
         <v>1.77</v>
@@ -8717,7 +8723,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8923,7 +8929,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9207,7 +9213,7 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9335,7 +9341,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9413,7 +9419,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
         <v>1.71</v>
@@ -9622,7 +9628,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ41">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -9828,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -10159,7 +10165,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10365,7 +10371,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10446,7 +10452,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ45">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10571,7 +10577,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10652,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10777,7 +10783,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10855,7 +10861,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ47">
         <v>0.54</v>
@@ -10983,7 +10989,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11189,7 +11195,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11473,7 +11479,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50">
         <v>0.79</v>
@@ -11601,7 +11607,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11682,7 +11688,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ51">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR51">
         <v>1.84</v>
@@ -11885,10 +11891,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.66</v>
@@ -12013,7 +12019,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12219,7 +12225,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12631,7 +12637,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13249,7 +13255,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13327,7 +13333,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ59">
         <v>2.07</v>
@@ -13455,7 +13461,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13661,7 +13667,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13945,7 +13951,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62">
         <v>0.54</v>
@@ -14073,7 +14079,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14279,7 +14285,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14566,7 +14572,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ65">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14691,7 +14697,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14772,7 +14778,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ66">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14978,7 +14984,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ67">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15103,7 +15109,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15181,7 +15187,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ68">
         <v>0.85</v>
@@ -15515,7 +15521,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15593,7 +15599,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15721,7 +15727,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15927,7 +15933,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16133,7 +16139,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16751,7 +16757,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16832,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -17035,7 +17041,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
         <v>1.77</v>
@@ -17450,7 +17456,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ79">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17575,7 +17581,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17653,7 +17659,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
         <v>1.77</v>
@@ -18193,7 +18199,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18274,7 +18280,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ83">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18399,7 +18405,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18477,7 +18483,7 @@
         <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ84">
         <v>1.79</v>
@@ -18889,10 +18895,10 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19635,7 +19641,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19922,7 +19928,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ91">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20047,7 +20053,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20125,7 +20131,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ92">
         <v>0.79</v>
@@ -20253,7 +20259,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20334,7 +20340,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ93">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20871,7 +20877,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20949,7 +20955,7 @@
         <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ96">
         <v>2.07</v>
@@ -21077,7 +21083,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21155,7 +21161,7 @@
         <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>1.79</v>
@@ -21567,7 +21573,7 @@
         <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>0.85</v>
@@ -21695,7 +21701,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22107,7 +22113,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22313,7 +22319,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22394,7 +22400,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22519,7 +22525,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22725,7 +22731,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22931,7 +22937,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23009,10 +23015,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ106">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.09</v>
@@ -23137,7 +23143,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23215,10 +23221,10 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ107">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23961,7 +23967,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24039,10 +24045,10 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ111">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR111">
         <v>1.09</v>
@@ -24373,7 +24379,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24579,7 +24585,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25072,7 +25078,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ116">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25197,7 +25203,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25275,7 +25281,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ117">
         <v>0.93</v>
@@ -25484,7 +25490,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ118">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR118">
         <v>1.53</v>
@@ -25815,7 +25821,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26227,7 +26233,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26305,7 +26311,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ122">
         <v>1.71</v>
@@ -26433,7 +26439,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26511,7 +26517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123">
         <v>1.36</v>
@@ -26639,7 +26645,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27051,7 +27057,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27463,7 +27469,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27544,7 +27550,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ128">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27747,10 +27753,10 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -27875,7 +27881,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27956,7 +27962,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ130">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28699,7 +28705,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29111,7 +29117,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29317,7 +29323,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29523,7 +29529,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29601,7 +29607,7 @@
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ138">
         <v>1.36</v>
@@ -29729,7 +29735,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30013,7 +30019,7 @@
         <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140">
         <v>1.77</v>
@@ -30222,7 +30228,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR141">
         <v>1.24</v>
@@ -30347,7 +30353,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30425,10 +30431,10 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ142">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -30634,7 +30640,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ143">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR143">
         <v>1.79</v>
@@ -30965,7 +30971,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31171,7 +31177,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31252,7 +31258,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ146">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR146">
         <v>1.36</v>
@@ -31455,7 +31461,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
         <v>0.93</v>
@@ -31583,7 +31589,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31664,7 +31670,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR148">
         <v>1.25</v>
@@ -31789,7 +31795,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31995,7 +32001,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32076,7 +32082,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ150">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32201,7 +32207,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32279,7 +32285,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ151">
         <v>1.71</v>
@@ -32407,7 +32413,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32613,7 +32619,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32691,7 +32697,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AQ153">
         <v>0.79</v>
@@ -32819,7 +32825,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33437,7 +33443,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33643,7 +33649,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33721,7 +33727,7 @@
         <v>0.77</v>
       </c>
       <c r="AP158">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
         <v>0.79</v>
@@ -33930,7 +33936,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ159">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34055,7 +34061,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34261,7 +34267,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34467,7 +34473,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34751,7 +34757,7 @@
         <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
         <v>1.79</v>
@@ -34879,7 +34885,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35036,6 +35042,624 @@
       </c>
       <c r="BP164">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7390100</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>81</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>96</v>
+      </c>
+      <c r="P165" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q165">
+        <v>4.33</v>
+      </c>
+      <c r="R165">
+        <v>2.3</v>
+      </c>
+      <c r="S165">
+        <v>2.5</v>
+      </c>
+      <c r="T165">
+        <v>1.33</v>
+      </c>
+      <c r="U165">
+        <v>3.25</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>6.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.11</v>
+      </c>
+      <c r="Z165">
+        <v>3.87</v>
+      </c>
+      <c r="AA165">
+        <v>3.7</v>
+      </c>
+      <c r="AB165">
+        <v>1.9</v>
+      </c>
+      <c r="AC165">
+        <v>1.04</v>
+      </c>
+      <c r="AD165">
+        <v>10</v>
+      </c>
+      <c r="AE165">
+        <v>1.22</v>
+      </c>
+      <c r="AF165">
+        <v>4.2</v>
+      </c>
+      <c r="AG165">
+        <v>1.66</v>
+      </c>
+      <c r="AH165">
+        <v>2.14</v>
+      </c>
+      <c r="AI165">
+        <v>1.67</v>
+      </c>
+      <c r="AJ165">
+        <v>2.1</v>
+      </c>
+      <c r="AK165">
+        <v>1.88</v>
+      </c>
+      <c r="AL165">
+        <v>1.29</v>
+      </c>
+      <c r="AM165">
+        <v>1.29</v>
+      </c>
+      <c r="AN165">
+        <v>0.38</v>
+      </c>
+      <c r="AO165">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP165">
+        <v>0.36</v>
+      </c>
+      <c r="AQ165">
+        <v>0.86</v>
+      </c>
+      <c r="AR165">
+        <v>1.15</v>
+      </c>
+      <c r="AS165">
+        <v>1.27</v>
+      </c>
+      <c r="AT165">
+        <v>2.42</v>
+      </c>
+      <c r="AU165">
+        <v>4</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>6</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>10</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>8</v>
+      </c>
+      <c r="BB165">
+        <v>7</v>
+      </c>
+      <c r="BC165">
+        <v>15</v>
+      </c>
+      <c r="BD165">
+        <v>2.1</v>
+      </c>
+      <c r="BE165">
+        <v>8</v>
+      </c>
+      <c r="BF165">
+        <v>1.91</v>
+      </c>
+      <c r="BG165">
+        <v>1.33</v>
+      </c>
+      <c r="BH165">
+        <v>3.05</v>
+      </c>
+      <c r="BI165">
+        <v>1.57</v>
+      </c>
+      <c r="BJ165">
+        <v>2.28</v>
+      </c>
+      <c r="BK165">
+        <v>1.82</v>
+      </c>
+      <c r="BL165">
+        <v>1.98</v>
+      </c>
+      <c r="BM165">
+        <v>2.5</v>
+      </c>
+      <c r="BN165">
+        <v>1.48</v>
+      </c>
+      <c r="BO165">
+        <v>3.3</v>
+      </c>
+      <c r="BP165">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7390101</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166" t="s">
+        <v>78</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>202</v>
+      </c>
+      <c r="P166" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q166">
+        <v>4</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>2.63</v>
+      </c>
+      <c r="T166">
+        <v>1.4</v>
+      </c>
+      <c r="U166">
+        <v>2.75</v>
+      </c>
+      <c r="V166">
+        <v>2.75</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>8</v>
+      </c>
+      <c r="Y166">
+        <v>1.08</v>
+      </c>
+      <c r="Z166">
+        <v>3.61</v>
+      </c>
+      <c r="AA166">
+        <v>3.5</v>
+      </c>
+      <c r="AB166">
+        <v>2.03</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>9</v>
+      </c>
+      <c r="AE166">
+        <v>1.29</v>
+      </c>
+      <c r="AF166">
+        <v>3.3</v>
+      </c>
+      <c r="AG166">
+        <v>1.87</v>
+      </c>
+      <c r="AH166">
+        <v>1.87</v>
+      </c>
+      <c r="AI166">
+        <v>1.75</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+      <c r="AK166">
+        <v>1.78</v>
+      </c>
+      <c r="AL166">
+        <v>1.3</v>
+      </c>
+      <c r="AM166">
+        <v>1.3</v>
+      </c>
+      <c r="AN166">
+        <v>1.36</v>
+      </c>
+      <c r="AO166">
+        <v>1.21</v>
+      </c>
+      <c r="AP166">
+        <v>1.47</v>
+      </c>
+      <c r="AQ166">
+        <v>1.13</v>
+      </c>
+      <c r="AR166">
+        <v>1.35</v>
+      </c>
+      <c r="AS166">
+        <v>1.36</v>
+      </c>
+      <c r="AT166">
+        <v>2.71</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>6</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>11</v>
+      </c>
+      <c r="AZ166">
+        <v>4</v>
+      </c>
+      <c r="BA166">
+        <v>2</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>3</v>
+      </c>
+      <c r="BD166">
+        <v>2.53</v>
+      </c>
+      <c r="BE166">
+        <v>8.5</v>
+      </c>
+      <c r="BF166">
+        <v>1.69</v>
+      </c>
+      <c r="BG166">
+        <v>1.2</v>
+      </c>
+      <c r="BH166">
+        <v>3.95</v>
+      </c>
+      <c r="BI166">
+        <v>1.38</v>
+      </c>
+      <c r="BJ166">
+        <v>2.85</v>
+      </c>
+      <c r="BK166">
+        <v>1.65</v>
+      </c>
+      <c r="BL166">
+        <v>2.13</v>
+      </c>
+      <c r="BM166">
+        <v>2.02</v>
+      </c>
+      <c r="BN166">
+        <v>1.72</v>
+      </c>
+      <c r="BO166">
+        <v>2.6</v>
+      </c>
+      <c r="BP166">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7390102</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45417.45833333334</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>80</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>3</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>96</v>
+      </c>
+      <c r="P167" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q167">
+        <v>5.5</v>
+      </c>
+      <c r="R167">
+        <v>2.38</v>
+      </c>
+      <c r="S167">
+        <v>2.1</v>
+      </c>
+      <c r="T167">
+        <v>1.33</v>
+      </c>
+      <c r="U167">
+        <v>3.25</v>
+      </c>
+      <c r="V167">
+        <v>2.5</v>
+      </c>
+      <c r="W167">
+        <v>1.5</v>
+      </c>
+      <c r="X167">
+        <v>6</v>
+      </c>
+      <c r="Y167">
+        <v>1.13</v>
+      </c>
+      <c r="Z167">
+        <v>5.12</v>
+      </c>
+      <c r="AA167">
+        <v>4.75</v>
+      </c>
+      <c r="AB167">
+        <v>1.54</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>14.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.22</v>
+      </c>
+      <c r="AF167">
+        <v>4.3</v>
+      </c>
+      <c r="AG167">
+        <v>1.65</v>
+      </c>
+      <c r="AH167">
+        <v>2.16</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.95</v>
+      </c>
+      <c r="AK167">
+        <v>2.4</v>
+      </c>
+      <c r="AL167">
+        <v>1.2</v>
+      </c>
+      <c r="AM167">
+        <v>1.16</v>
+      </c>
+      <c r="AN167">
+        <v>1.5</v>
+      </c>
+      <c r="AO167">
+        <v>1.85</v>
+      </c>
+      <c r="AP167">
+        <v>1.4</v>
+      </c>
+      <c r="AQ167">
+        <v>1.93</v>
+      </c>
+      <c r="AR167">
+        <v>1.44</v>
+      </c>
+      <c r="AS167">
+        <v>1.65</v>
+      </c>
+      <c r="AT167">
+        <v>3.09</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>1</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>4</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>4</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>7</v>
+      </c>
+      <c r="BD167">
+        <v>2.76</v>
+      </c>
+      <c r="BE167">
+        <v>8.5</v>
+      </c>
+      <c r="BF167">
+        <v>1.64</v>
+      </c>
+      <c r="BG167">
+        <v>1.22</v>
+      </c>
+      <c r="BH167">
+        <v>3.9</v>
+      </c>
+      <c r="BI167">
+        <v>1.4</v>
+      </c>
+      <c r="BJ167">
+        <v>2.75</v>
+      </c>
+      <c r="BK167">
+        <v>1.68</v>
+      </c>
+      <c r="BL167">
+        <v>2.08</v>
+      </c>
+      <c r="BM167">
+        <v>2.1</v>
+      </c>
+      <c r="BN167">
+        <v>1.67</v>
+      </c>
+      <c r="BO167">
+        <v>2.65</v>
+      </c>
+      <c r="BP167">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['59', '80']</t>
   </si>
   <si>
+    <t>['9', '22', '74']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -893,6 +896,9 @@
   </si>
   <si>
     <t>['3', '27', '87']</t>
+  </si>
+  <si>
+    <t>['12', '31']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -1719,7 +1725,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2131,7 +2137,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2418,7 +2424,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2543,7 +2549,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2749,7 +2755,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2955,7 +2961,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3239,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ10">
         <v>0.85</v>
@@ -3367,7 +3373,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3573,7 +3579,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3779,7 +3785,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3985,7 +3991,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4397,7 +4403,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4603,7 +4609,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4809,7 +4815,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4890,7 +4896,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ18">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR18">
         <v>1.95</v>
@@ -5015,7 +5021,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5221,7 +5227,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5427,7 +5433,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5633,7 +5639,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6045,7 +6051,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6457,7 +6463,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7075,7 +7081,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7153,10 +7159,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7281,7 +7287,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7899,7 +7905,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8311,7 +8317,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8723,7 +8729,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8804,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -8929,7 +8935,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9341,7 +9347,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10037,7 +10043,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43">
         <v>1.36</v>
@@ -10165,7 +10171,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10371,7 +10377,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10577,7 +10583,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10783,7 +10789,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10989,7 +10995,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11070,7 +11076,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR48">
         <v>1.85</v>
@@ -11195,7 +11201,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11607,7 +11613,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12019,7 +12025,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12225,7 +12231,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12303,7 +12309,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ54">
         <v>1.77</v>
@@ -12637,7 +12643,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13255,7 +13261,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13336,7 +13342,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ59">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13461,7 +13467,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13667,7 +13673,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14079,7 +14085,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14285,7 +14291,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14697,7 +14703,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14775,7 +14781,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66">
         <v>1.13</v>
@@ -15109,7 +15115,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15521,7 +15527,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15727,7 +15733,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15933,7 +15939,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16014,7 +16020,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ72">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR72">
         <v>1.12</v>
@@ -16139,7 +16145,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16423,7 +16429,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ74">
         <v>0.54</v>
@@ -16757,7 +16763,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17581,7 +17587,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18199,7 +18205,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18405,7 +18411,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -19104,7 +19110,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR87">
         <v>2.08</v>
@@ -19513,7 +19519,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89">
         <v>1.71</v>
@@ -19641,7 +19647,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20053,7 +20059,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20259,7 +20265,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20877,7 +20883,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20958,7 +20964,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ96">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR96">
         <v>1.24</v>
@@ -21083,7 +21089,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21701,7 +21707,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22113,7 +22119,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22319,7 +22325,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22397,7 +22403,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22525,7 +22531,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22731,7 +22737,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22937,7 +22943,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23143,7 +23149,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23967,7 +23973,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24379,7 +24385,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24460,7 +24466,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ113">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24585,7 +24591,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25075,7 +25081,7 @@
         <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ116">
         <v>1.93</v>
@@ -25203,7 +25209,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25821,7 +25827,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26233,7 +26239,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26439,7 +26445,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26645,7 +26651,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27057,7 +27063,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27138,7 +27144,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ126">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27469,7 +27475,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27881,7 +27887,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28165,7 +28171,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ131">
         <v>0.79</v>
@@ -28705,7 +28711,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29117,7 +29123,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29198,7 +29204,7 @@
         <v>2</v>
       </c>
       <c r="AQ136">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR136">
         <v>2.06</v>
@@ -29323,7 +29329,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29401,7 +29407,7 @@
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ137">
         <v>1.71</v>
@@ -29529,7 +29535,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29735,7 +29741,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30353,7 +30359,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30971,7 +30977,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31177,7 +31183,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31589,7 +31595,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31795,7 +31801,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31876,7 +31882,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ149">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32001,7 +32007,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32079,7 +32085,7 @@
         <v>1.92</v>
       </c>
       <c r="AP150">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ150">
         <v>1.93</v>
@@ -32207,7 +32213,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32413,7 +32419,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32619,7 +32625,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32825,7 +32831,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33443,7 +33449,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33649,7 +33655,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34061,7 +34067,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34267,7 +34273,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34348,7 +34354,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ161">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR161">
         <v>1.77</v>
@@ -34473,7 +34479,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34885,7 +34891,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35091,7 +35097,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35187,19 +35193,19 @@
         <v>4</v>
       </c>
       <c r="AV165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW165">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ165">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA165">
         <v>8</v>
@@ -35390,22 +35396,22 @@
         <v>2.71</v>
       </c>
       <c r="AU166">
+        <v>9</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>7</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>16</v>
+      </c>
+      <c r="AZ166">
         <v>5</v>
-      </c>
-      <c r="AV166">
-        <v>2</v>
-      </c>
-      <c r="AW166">
-        <v>6</v>
-      </c>
-      <c r="AX166">
-        <v>2</v>
-      </c>
-      <c r="AY166">
-        <v>11</v>
-      </c>
-      <c r="AZ166">
-        <v>4</v>
       </c>
       <c r="BA166">
         <v>2</v>
@@ -35503,7 +35509,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35599,28 +35605,28 @@
         <v>3</v>
       </c>
       <c r="AV167">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ167">
+        <v>14</v>
+      </c>
+      <c r="BA167">
         <v>8</v>
       </c>
-      <c r="BA167">
-        <v>4</v>
-      </c>
       <c r="BB167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC167">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD167">
         <v>2.76</v>
@@ -35660,6 +35666,212 @@
       </c>
       <c r="BP167">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7390103</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s">
+        <v>79</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>4</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>203</v>
+      </c>
+      <c r="P168" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q168">
+        <v>3.1</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>3.4</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>2.35</v>
+      </c>
+      <c r="AA168">
+        <v>3.35</v>
+      </c>
+      <c r="AB168">
+        <v>2.8</v>
+      </c>
+      <c r="AC168">
+        <v>1.05</v>
+      </c>
+      <c r="AD168">
+        <v>9.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.28</v>
+      </c>
+      <c r="AF168">
+        <v>3.65</v>
+      </c>
+      <c r="AG168">
+        <v>1.94</v>
+      </c>
+      <c r="AH168">
+        <v>1.92</v>
+      </c>
+      <c r="AI168">
+        <v>1.7</v>
+      </c>
+      <c r="AJ168">
+        <v>2.05</v>
+      </c>
+      <c r="AK168">
+        <v>1.42</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.55</v>
+      </c>
+      <c r="AN168">
+        <v>2.08</v>
+      </c>
+      <c r="AO168">
+        <v>2.07</v>
+      </c>
+      <c r="AP168">
+        <v>2.14</v>
+      </c>
+      <c r="AQ168">
+        <v>1.93</v>
+      </c>
+      <c r="AR168">
+        <v>1.63</v>
+      </c>
+      <c r="AS168">
+        <v>1.26</v>
+      </c>
+      <c r="AT168">
+        <v>2.89</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>14</v>
+      </c>
+      <c r="AZ168">
+        <v>9</v>
+      </c>
+      <c r="BA168">
+        <v>10</v>
+      </c>
+      <c r="BB168">
+        <v>3</v>
+      </c>
+      <c r="BC168">
+        <v>13</v>
+      </c>
+      <c r="BD168">
+        <v>1.75</v>
+      </c>
+      <c r="BE168">
+        <v>8</v>
+      </c>
+      <c r="BF168">
+        <v>2.44</v>
+      </c>
+      <c r="BG168">
+        <v>1.28</v>
+      </c>
+      <c r="BH168">
+        <v>3.35</v>
+      </c>
+      <c r="BI168">
+        <v>1.5</v>
+      </c>
+      <c r="BJ168">
+        <v>2.45</v>
+      </c>
+      <c r="BK168">
+        <v>1.85</v>
+      </c>
+      <c r="BL168">
+        <v>1.95</v>
+      </c>
+      <c r="BM168">
+        <v>2.3</v>
+      </c>
+      <c r="BN168">
+        <v>1.56</v>
+      </c>
+      <c r="BO168">
+        <v>3</v>
+      </c>
+      <c r="BP168">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>['9', '22', '74']</t>
+  </si>
+  <si>
+    <t>['12', '70', '82']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -1260,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,7 +1728,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2137,7 +2140,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2549,7 +2552,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2755,7 +2758,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2961,7 +2964,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3039,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9">
         <v>1.93</v>
@@ -3373,7 +3376,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3579,7 +3582,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3660,7 +3663,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ12">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3785,7 +3788,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3991,7 +3994,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4403,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4609,7 +4612,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4815,7 +4818,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5021,7 +5024,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5227,7 +5230,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5308,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR20">
         <v>1.52</v>
@@ -5433,7 +5436,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5511,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
         <v>1.79</v>
@@ -5639,7 +5642,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6051,7 +6054,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6463,7 +6466,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7081,7 +7084,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7287,7 +7290,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7905,7 +7908,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8317,7 +8320,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8398,7 +8401,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ35">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -8729,7 +8732,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8807,7 +8810,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37">
         <v>1.93</v>
@@ -8935,7 +8938,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9347,7 +9350,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10171,7 +10174,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10377,7 +10380,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10583,7 +10586,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10661,7 +10664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10789,7 +10792,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10995,7 +10998,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11201,7 +11204,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11613,7 +11616,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12025,7 +12028,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12231,7 +12234,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12312,7 +12315,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ54">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12643,7 +12646,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13133,7 +13136,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ58">
         <v>1.71</v>
@@ -13261,7 +13264,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13467,7 +13470,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13673,7 +13676,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14085,7 +14088,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14166,7 +14169,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ63">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14291,7 +14294,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14369,7 +14372,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ64">
         <v>0.93</v>
@@ -14703,7 +14706,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15115,7 +15118,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15527,7 +15530,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15733,7 +15736,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15939,7 +15942,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16145,7 +16148,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16763,7 +16766,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16841,7 +16844,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -17050,7 +17053,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
         <v>1.66</v>
@@ -17587,7 +17590,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17668,7 +17671,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR80">
         <v>1.17</v>
@@ -18205,7 +18208,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18411,7 +18414,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -19313,7 +19316,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ88">
         <v>0.54</v>
@@ -19647,7 +19650,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20059,7 +20062,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20265,7 +20268,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20758,7 +20761,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ95">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20883,7 +20886,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21089,7 +21092,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21707,7 +21710,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22119,7 +22122,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22325,7 +22328,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22531,7 +22534,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22612,7 +22615,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ104">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22737,7 +22740,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22943,7 +22946,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23149,7 +23152,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23639,7 +23642,7 @@
         <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ109">
         <v>1.36</v>
@@ -23973,7 +23976,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24257,7 +24260,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112">
         <v>0.85</v>
@@ -24385,7 +24388,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24591,7 +24594,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25209,7 +25212,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25827,7 +25830,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25908,7 +25911,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ120">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR120">
         <v>1.54</v>
@@ -26239,7 +26242,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26445,7 +26448,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26651,7 +26654,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26729,10 +26732,10 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ124">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR124">
         <v>1.27</v>
@@ -27063,7 +27066,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27475,7 +27478,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27887,7 +27890,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28711,7 +28714,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29123,7 +29126,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29329,7 +29332,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29535,7 +29538,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29741,7 +29744,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30028,7 +30031,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ140">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30231,7 +30234,7 @@
         <v>0.45</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ141">
         <v>0.86</v>
@@ -30359,7 +30362,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30977,7 +30980,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31183,7 +31186,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31595,7 +31598,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31673,7 +31676,7 @@
         <v>1.08</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ148">
         <v>1.13</v>
@@ -31801,7 +31804,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32007,7 +32010,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32213,7 +32216,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32419,7 +32422,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32500,7 +32503,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ152">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR152">
         <v>1.39</v>
@@ -32625,7 +32628,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32831,7 +32834,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33449,7 +33452,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33655,7 +33658,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34067,7 +34070,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34273,7 +34276,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34479,7 +34482,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34891,7 +34894,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35097,7 +35100,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35509,7 +35512,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35715,7 +35718,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35872,6 +35875,212 @@
       </c>
       <c r="BP168">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7390104</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45418.58333333334</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>204</v>
+      </c>
+      <c r="P169" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q169">
+        <v>3.25</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>3.5</v>
+      </c>
+      <c r="T169">
+        <v>1.44</v>
+      </c>
+      <c r="U169">
+        <v>2.63</v>
+      </c>
+      <c r="V169">
+        <v>3.4</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>2.6</v>
+      </c>
+      <c r="AA169">
+        <v>3.1</v>
+      </c>
+      <c r="AB169">
+        <v>2.7</v>
+      </c>
+      <c r="AC169">
+        <v>1.06</v>
+      </c>
+      <c r="AD169">
+        <v>8.9</v>
+      </c>
+      <c r="AE169">
+        <v>1.39</v>
+      </c>
+      <c r="AF169">
+        <v>2.95</v>
+      </c>
+      <c r="AG169">
+        <v>1.96</v>
+      </c>
+      <c r="AH169">
+        <v>1.77</v>
+      </c>
+      <c r="AI169">
+        <v>1.91</v>
+      </c>
+      <c r="AJ169">
+        <v>1.91</v>
+      </c>
+      <c r="AK169">
+        <v>1.47</v>
+      </c>
+      <c r="AL169">
+        <v>1.3</v>
+      </c>
+      <c r="AM169">
+        <v>1.53</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
+        <v>1.77</v>
+      </c>
+      <c r="AP169">
+        <v>1.14</v>
+      </c>
+      <c r="AQ169">
+        <v>1.64</v>
+      </c>
+      <c r="AR169">
+        <v>1.24</v>
+      </c>
+      <c r="AS169">
+        <v>1.19</v>
+      </c>
+      <c r="AT169">
+        <v>2.43</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>2</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>12</v>
+      </c>
+      <c r="BA169">
+        <v>4</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>9</v>
+      </c>
+      <c r="BD169">
+        <v>2.2</v>
+      </c>
+      <c r="BE169">
+        <v>8</v>
+      </c>
+      <c r="BF169">
+        <v>1.83</v>
+      </c>
+      <c r="BG169">
+        <v>1.25</v>
+      </c>
+      <c r="BH169">
+        <v>3.6</v>
+      </c>
+      <c r="BI169">
+        <v>1.45</v>
+      </c>
+      <c r="BJ169">
+        <v>2.55</v>
+      </c>
+      <c r="BK169">
+        <v>1.7</v>
+      </c>
+      <c r="BL169">
+        <v>2.05</v>
+      </c>
+      <c r="BM169">
+        <v>2.05</v>
+      </c>
+      <c r="BN169">
+        <v>1.7</v>
+      </c>
+      <c r="BO169">
+        <v>2.85</v>
+      </c>
+      <c r="BP169">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,9 @@
     <t>['12', '70', '82']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -902,6 +905,9 @@
   </si>
   <si>
     <t>['12', '31']</t>
+  </si>
+  <si>
+    <t>['22', '31']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1734,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2140,7 +2146,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2218,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5">
         <v>1.13</v>
@@ -2552,7 +2558,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2758,7 +2764,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2839,7 +2845,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ8">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2964,7 +2970,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3376,7 +3382,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3582,7 +3588,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3788,7 +3794,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3994,7 +4000,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4406,7 +4412,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4612,7 +4618,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4818,7 +4824,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5024,7 +5030,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5102,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5230,7 +5236,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5436,7 +5442,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5642,7 +5648,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5929,7 +5935,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ23">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -6054,7 +6060,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6466,7 +6472,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7084,7 +7090,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7290,7 +7296,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7368,7 +7374,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ30">
         <v>1.36</v>
@@ -7908,7 +7914,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8195,7 +8201,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ34">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR34">
         <v>2.06</v>
@@ -8320,7 +8326,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8732,7 +8738,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8938,7 +8944,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9016,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ38">
         <v>0.79</v>
@@ -9350,7 +9356,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10174,7 +10180,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10380,7 +10386,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10586,7 +10592,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10792,7 +10798,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10873,7 +10879,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ47">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -10998,7 +11004,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11204,7 +11210,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11282,7 +11288,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ49">
         <v>0.85</v>
@@ -11616,7 +11622,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12028,7 +12034,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12234,7 +12240,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12646,7 +12652,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13264,7 +13270,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13470,7 +13476,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13676,7 +13682,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13754,10 +13760,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ61">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
@@ -13963,7 +13969,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR62">
         <v>1.65</v>
@@ -14088,7 +14094,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14294,7 +14300,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14706,7 +14712,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15118,7 +15124,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15530,7 +15536,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15736,7 +15742,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15942,7 +15948,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16148,7 +16154,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16226,7 +16232,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ73">
         <v>1.79</v>
@@ -16435,7 +16441,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ74">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16766,7 +16772,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17590,7 +17596,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18208,7 +18214,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18414,7 +18420,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -19319,7 +19325,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ88">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.2</v>
@@ -19650,7 +19656,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19728,7 +19734,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ90">
         <v>0.93</v>
@@ -20062,7 +20068,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20268,7 +20274,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20886,7 +20892,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21092,7 +21098,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21710,7 +21716,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21788,7 +21794,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ100">
         <v>1.71</v>
@@ -22122,7 +22128,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22328,7 +22334,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22534,7 +22540,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22740,7 +22746,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22821,7 +22827,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ105">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.73</v>
@@ -22946,7 +22952,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23152,7 +23158,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23851,7 +23857,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ110">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -23976,7 +23982,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24388,7 +24394,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24466,7 +24472,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ113">
         <v>1.93</v>
@@ -24594,7 +24600,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25212,7 +25218,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25830,7 +25836,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26242,7 +26248,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26448,7 +26454,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26654,7 +26660,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26941,7 +26947,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR125">
         <v>2.05</v>
@@ -27066,7 +27072,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27478,7 +27484,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27556,7 +27562,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ128">
         <v>1.93</v>
@@ -27890,7 +27896,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28714,7 +28720,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28795,7 +28801,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ134">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29126,7 +29132,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29332,7 +29338,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29538,7 +29544,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29744,7 +29750,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29822,7 +29828,7 @@
         <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ139">
         <v>0.79</v>
@@ -30362,7 +30368,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30980,7 +30986,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31186,7 +31192,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31264,7 +31270,7 @@
         <v>0.5</v>
       </c>
       <c r="AP146">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ146">
         <v>0.86</v>
@@ -31598,7 +31604,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31804,7 +31810,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32010,7 +32016,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32216,7 +32222,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32422,7 +32428,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32628,7 +32634,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32834,7 +32840,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -32915,7 +32921,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ154">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR154">
         <v>1.52</v>
@@ -33452,7 +33458,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33658,7 +33664,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34070,7 +34076,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34148,7 +34154,7 @@
         <v>0.77</v>
       </c>
       <c r="AP160">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AQ160">
         <v>0.93</v>
@@ -34276,7 +34282,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34482,7 +34488,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34894,7 +34900,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35100,7 +35106,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35512,7 +35518,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35718,7 +35724,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35924,7 +35930,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36081,6 +36087,212 @@
       </c>
       <c r="BP169">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7390105</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45422.58333333334</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>205</v>
+      </c>
+      <c r="P170" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q170">
+        <v>2.63</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.1</v>
+      </c>
+      <c r="Z170">
+        <v>1.87</v>
+      </c>
+      <c r="AA170">
+        <v>3.6</v>
+      </c>
+      <c r="AB170">
+        <v>4</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>9.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.28</v>
+      </c>
+      <c r="AF170">
+        <v>3.65</v>
+      </c>
+      <c r="AG170">
+        <v>1.85</v>
+      </c>
+      <c r="AH170">
+        <v>2</v>
+      </c>
+      <c r="AI170">
+        <v>1.7</v>
+      </c>
+      <c r="AJ170">
+        <v>2.05</v>
+      </c>
+      <c r="AK170">
+        <v>1.28</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.77</v>
+      </c>
+      <c r="AN170">
+        <v>0.21</v>
+      </c>
+      <c r="AO170">
+        <v>0.54</v>
+      </c>
+      <c r="AP170">
+        <v>0.2</v>
+      </c>
+      <c r="AQ170">
+        <v>0.71</v>
+      </c>
+      <c r="AR170">
+        <v>1.39</v>
+      </c>
+      <c r="AS170">
+        <v>1.13</v>
+      </c>
+      <c r="AT170">
+        <v>2.52</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>7</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>11</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>2</v>
+      </c>
+      <c r="BC170">
+        <v>4</v>
+      </c>
+      <c r="BD170">
+        <v>1.58</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>2.9</v>
+      </c>
+      <c r="BG170">
+        <v>1.1</v>
+      </c>
+      <c r="BH170">
+        <v>5.3</v>
+      </c>
+      <c r="BI170">
+        <v>1.3</v>
+      </c>
+      <c r="BJ170">
+        <v>3.1</v>
+      </c>
+      <c r="BK170">
+        <v>1.54</v>
+      </c>
+      <c r="BL170">
+        <v>2.3</v>
+      </c>
+      <c r="BM170">
+        <v>2</v>
+      </c>
+      <c r="BN170">
+        <v>1.8</v>
+      </c>
+      <c r="BO170">
+        <v>2.43</v>
+      </c>
+      <c r="BP170">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,15 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['8', '29']</t>
+  </si>
+  <si>
+    <t>['24', '32']</t>
+  </si>
+  <si>
+    <t>['18', '68', '86', '90+2']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -908,6 +917,15 @@
   </si>
   <si>
     <t>['22', '31']</t>
+  </si>
+  <si>
+    <t>['11', '68']</t>
+  </si>
+  <si>
+    <t>['8', '66']</t>
+  </si>
+  <si>
+    <t>['39', '54', '90+12']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -1734,7 +1752,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1815,7 +1833,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ3">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2021,7 +2039,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2146,7 +2164,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2558,7 +2576,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2636,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2764,7 +2782,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2842,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -2970,7 +2988,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3051,7 +3069,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ9">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3254,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
@@ -3382,7 +3400,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3460,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>0.93</v>
@@ -3588,7 +3606,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3666,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ12">
         <v>1.64</v>
@@ -3794,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4000,7 +4018,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4081,7 +4099,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>2.35</v>
@@ -4412,7 +4430,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4493,7 +4511,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4618,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4824,7 +4842,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4902,7 +4920,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>1.93</v>
@@ -5030,7 +5048,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5236,7 +5254,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5442,7 +5460,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5648,7 +5666,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5726,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>1.71</v>
@@ -5932,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -6060,7 +6078,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6141,7 +6159,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
         <v>2.02</v>
@@ -6344,7 +6362,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0.93</v>
@@ -6472,7 +6490,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6553,7 +6571,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ26">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>0.75</v>
@@ -7090,7 +7108,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7168,7 +7186,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1.93</v>
@@ -7296,7 +7314,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7377,7 +7395,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ30">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7580,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7786,7 +7804,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>0.86</v>
@@ -7914,7 +7932,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7995,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR33">
         <v>1.92</v>
@@ -8326,7 +8344,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8610,7 +8628,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ36">
         <v>1.79</v>
@@ -8738,7 +8756,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8944,7 +8962,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9025,7 +9043,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ38">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR38">
         <v>1.4</v>
@@ -9356,7 +9374,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9640,7 +9658,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -10052,10 +10070,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10180,7 +10198,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10258,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>1.79</v>
@@ -10386,7 +10404,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10464,10 +10482,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10592,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10798,7 +10816,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11004,7 +11022,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11210,7 +11228,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11291,7 +11309,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ49">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11497,7 +11515,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ50">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR50">
         <v>1.22</v>
@@ -11622,7 +11640,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11700,10 +11718,10 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.84</v>
@@ -12034,7 +12052,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12112,10 +12130,10 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12240,7 +12258,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12318,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54">
         <v>1.64</v>
@@ -12524,7 +12542,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>0.93</v>
@@ -12652,7 +12670,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12936,10 +12954,10 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13270,7 +13288,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13476,7 +13494,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13554,10 +13572,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13682,7 +13700,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14094,7 +14112,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14172,7 +14190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
         <v>1.64</v>
@@ -14300,7 +14318,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14584,7 +14602,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14712,7 +14730,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14790,7 +14808,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
         <v>1.13</v>
@@ -14999,7 +15017,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ67">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15124,7 +15142,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15205,7 +15223,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ68">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15411,7 +15429,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15536,7 +15554,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15617,7 +15635,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15742,7 +15760,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15820,7 +15838,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1.71</v>
@@ -15948,7 +15966,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16026,7 +16044,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>1.93</v>
@@ -16154,7 +16172,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16438,7 +16456,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16772,7 +16790,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17262,7 +17280,7 @@
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ78">
         <v>1.71</v>
@@ -17596,7 +17614,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17880,10 +17898,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ81">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>1.7</v>
@@ -18086,10 +18104,10 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18214,7 +18232,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18292,10 +18310,10 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18420,7 +18438,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18704,10 +18722,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ85">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR85">
         <v>1.55</v>
@@ -19528,7 +19546,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ89">
         <v>1.71</v>
@@ -19656,7 +19674,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20068,7 +20086,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20149,7 +20167,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ92">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20274,7 +20292,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20352,10 +20370,10 @@
         <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20558,10 +20576,10 @@
         <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ94">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20764,7 +20782,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ95">
         <v>1.64</v>
@@ -20892,7 +20910,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21098,7 +21116,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21382,10 +21400,10 @@
         <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21591,7 +21609,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -21716,7 +21734,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22000,7 +22018,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -22128,7 +22146,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22209,7 +22227,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22334,7 +22352,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22412,7 +22430,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22540,7 +22558,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22618,7 +22636,7 @@
         <v>1.75</v>
       </c>
       <c r="AP104">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>1.64</v>
@@ -22746,7 +22764,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22824,7 +22842,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ105">
         <v>0.71</v>
@@ -22952,7 +22970,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23158,7 +23176,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23239,7 +23257,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ107">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23442,7 +23460,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ108">
         <v>1.79</v>
@@ -23651,7 +23669,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR109">
         <v>1.22</v>
@@ -23854,7 +23872,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
         <v>0.71</v>
@@ -23982,7 +24000,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24269,7 +24287,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ112">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR112">
         <v>1.22</v>
@@ -24394,7 +24412,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24600,7 +24618,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25090,10 +25108,10 @@
         <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25218,7 +25236,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25502,7 +25520,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
         <v>1.13</v>
@@ -25708,10 +25726,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ119">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25836,7 +25854,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26120,10 +26138,10 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26248,7 +26266,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26454,7 +26472,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26535,7 +26553,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26660,7 +26678,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27072,7 +27090,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27150,7 +27168,7 @@
         <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ126">
         <v>1.93</v>
@@ -27356,7 +27374,7 @@
         <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127">
         <v>1.79</v>
@@ -27484,7 +27502,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27565,7 +27583,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ128">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27896,7 +27914,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -27974,7 +27992,7 @@
         <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ130">
         <v>1.13</v>
@@ -28180,10 +28198,10 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ131">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28592,10 +28610,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ133">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR133">
         <v>1.57</v>
@@ -28720,7 +28738,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28798,7 +28816,7 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ134">
         <v>0.71</v>
@@ -29004,7 +29022,7 @@
         <v>0.82</v>
       </c>
       <c r="AP135">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135">
         <v>0.93</v>
@@ -29132,7 +29150,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29338,7 +29356,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29416,7 +29434,7 @@
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ137">
         <v>1.71</v>
@@ -29544,7 +29562,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29625,7 +29643,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ138">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR138">
         <v>1.42</v>
@@ -29750,7 +29768,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29831,7 +29849,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ139">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -30368,7 +30386,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30652,10 +30670,10 @@
         <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ143">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR143">
         <v>1.79</v>
@@ -30986,7 +31004,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31064,10 +31082,10 @@
         <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ145">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR145">
         <v>1.59</v>
@@ -31192,7 +31210,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31604,7 +31622,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31810,7 +31828,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32016,7 +32034,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32094,10 +32112,10 @@
         <v>1.92</v>
       </c>
       <c r="AP150">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ150">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32222,7 +32240,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32428,7 +32446,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32506,7 +32524,7 @@
         <v>1.83</v>
       </c>
       <c r="AP152">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ152">
         <v>1.64</v>
@@ -32634,7 +32652,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32715,7 +32733,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ153">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR153">
         <v>1.13</v>
@@ -32840,7 +32858,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -32918,7 +32936,7 @@
         <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
         <v>0.71</v>
@@ -33127,7 +33145,7 @@
         <v>2</v>
       </c>
       <c r="AQ155">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR155">
         <v>2.01</v>
@@ -33330,7 +33348,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ156">
         <v>1.79</v>
@@ -33458,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33536,10 +33554,10 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ157">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR157">
         <v>1.75</v>
@@ -33664,7 +33682,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33745,7 +33763,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR158">
         <v>1.35</v>
@@ -33948,7 +33966,7 @@
         <v>1.23</v>
       </c>
       <c r="AP159">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159">
         <v>1.13</v>
@@ -34076,7 +34094,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34282,7 +34300,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34360,7 +34378,7 @@
         <v>2.15</v>
       </c>
       <c r="AP161">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ161">
         <v>1.93</v>
@@ -34488,7 +34506,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34569,7 +34587,7 @@
         <v>2</v>
       </c>
       <c r="AQ162">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR162">
         <v>1.97</v>
@@ -34900,7 +34918,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35106,7 +35124,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35518,7 +35536,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35599,7 +35617,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ167">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR167">
         <v>1.44</v>
@@ -35724,7 +35742,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35802,7 +35820,7 @@
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ168">
         <v>1.93</v>
@@ -35930,7 +35948,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36136,7 +36154,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36293,6 +36311,1036 @@
       </c>
       <c r="BP170">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7390106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>78</v>
+      </c>
+      <c r="H171" t="s">
+        <v>81</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>206</v>
+      </c>
+      <c r="P171" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q171">
+        <v>1.95</v>
+      </c>
+      <c r="R171">
+        <v>2.5</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>1.29</v>
+      </c>
+      <c r="U171">
+        <v>3.5</v>
+      </c>
+      <c r="V171">
+        <v>2.38</v>
+      </c>
+      <c r="W171">
+        <v>1.53</v>
+      </c>
+      <c r="X171">
+        <v>5.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.14</v>
+      </c>
+      <c r="Z171">
+        <v>1.44</v>
+      </c>
+      <c r="AA171">
+        <v>4.6</v>
+      </c>
+      <c r="AB171">
+        <v>6</v>
+      </c>
+      <c r="AC171">
+        <v>1.03</v>
+      </c>
+      <c r="AD171">
+        <v>13.9</v>
+      </c>
+      <c r="AE171">
+        <v>1.18</v>
+      </c>
+      <c r="AF171">
+        <v>4.79</v>
+      </c>
+      <c r="AG171">
+        <v>1.6</v>
+      </c>
+      <c r="AH171">
+        <v>2.2</v>
+      </c>
+      <c r="AI171">
+        <v>1.75</v>
+      </c>
+      <c r="AJ171">
+        <v>2</v>
+      </c>
+      <c r="AK171">
+        <v>1.12</v>
+      </c>
+      <c r="AL171">
+        <v>1.16</v>
+      </c>
+      <c r="AM171">
+        <v>2.7</v>
+      </c>
+      <c r="AN171">
+        <v>1.31</v>
+      </c>
+      <c r="AO171">
+        <v>0.93</v>
+      </c>
+      <c r="AP171">
+        <v>1.29</v>
+      </c>
+      <c r="AQ171">
+        <v>0.93</v>
+      </c>
+      <c r="AR171">
+        <v>1.39</v>
+      </c>
+      <c r="AS171">
+        <v>1.2</v>
+      </c>
+      <c r="AT171">
+        <v>2.59</v>
+      </c>
+      <c r="AU171">
+        <v>9</v>
+      </c>
+      <c r="AV171">
+        <v>8</v>
+      </c>
+      <c r="AW171">
+        <v>7</v>
+      </c>
+      <c r="AX171">
+        <v>9</v>
+      </c>
+      <c r="AY171">
+        <v>16</v>
+      </c>
+      <c r="AZ171">
+        <v>17</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>9</v>
+      </c>
+      <c r="BD171">
+        <v>1.49</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>3.3</v>
+      </c>
+      <c r="BG171">
+        <v>1.22</v>
+      </c>
+      <c r="BH171">
+        <v>3.75</v>
+      </c>
+      <c r="BI171">
+        <v>1.41</v>
+      </c>
+      <c r="BJ171">
+        <v>2.63</v>
+      </c>
+      <c r="BK171">
+        <v>1.73</v>
+      </c>
+      <c r="BL171">
+        <v>2</v>
+      </c>
+      <c r="BM171">
+        <v>2.18</v>
+      </c>
+      <c r="BN171">
+        <v>1.6</v>
+      </c>
+      <c r="BO171">
+        <v>2.88</v>
+      </c>
+      <c r="BP171">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7390107</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>77</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>93</v>
+      </c>
+      <c r="P172" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q172">
+        <v>2.4</v>
+      </c>
+      <c r="R172">
+        <v>2.25</v>
+      </c>
+      <c r="S172">
+        <v>4.5</v>
+      </c>
+      <c r="T172">
+        <v>1.36</v>
+      </c>
+      <c r="U172">
+        <v>3</v>
+      </c>
+      <c r="V172">
+        <v>2.63</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>7</v>
+      </c>
+      <c r="Y172">
+        <v>1.1</v>
+      </c>
+      <c r="Z172">
+        <v>1.8</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>4</v>
+      </c>
+      <c r="AC172">
+        <v>1.05</v>
+      </c>
+      <c r="AD172">
+        <v>9</v>
+      </c>
+      <c r="AE172">
+        <v>1.28</v>
+      </c>
+      <c r="AF172">
+        <v>3.65</v>
+      </c>
+      <c r="AG172">
+        <v>1.73</v>
+      </c>
+      <c r="AH172">
+        <v>1.91</v>
+      </c>
+      <c r="AI172">
+        <v>1.75</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>1.2</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>1.95</v>
+      </c>
+      <c r="AN172">
+        <v>1.79</v>
+      </c>
+      <c r="AO172">
+        <v>0.79</v>
+      </c>
+      <c r="AP172">
+        <v>1.67</v>
+      </c>
+      <c r="AQ172">
+        <v>0.93</v>
+      </c>
+      <c r="AR172">
+        <v>1.53</v>
+      </c>
+      <c r="AS172">
+        <v>1.17</v>
+      </c>
+      <c r="AT172">
+        <v>2.7</v>
+      </c>
+      <c r="AU172">
+        <v>7</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>13</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>10</v>
+      </c>
+      <c r="BD172">
+        <v>1.44</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>3.55</v>
+      </c>
+      <c r="BG172">
+        <v>1.22</v>
+      </c>
+      <c r="BH172">
+        <v>3.75</v>
+      </c>
+      <c r="BI172">
+        <v>1.41</v>
+      </c>
+      <c r="BJ172">
+        <v>2.63</v>
+      </c>
+      <c r="BK172">
+        <v>1.73</v>
+      </c>
+      <c r="BL172">
+        <v>2</v>
+      </c>
+      <c r="BM172">
+        <v>2.18</v>
+      </c>
+      <c r="BN172">
+        <v>1.6</v>
+      </c>
+      <c r="BO172">
+        <v>2.88</v>
+      </c>
+      <c r="BP172">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7390108</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45424.45833333334</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>79</v>
+      </c>
+      <c r="H173" t="s">
+        <v>80</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>115</v>
+      </c>
+      <c r="P173" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q173">
+        <v>3.75</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>2.75</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.75</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>7</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>3.3</v>
+      </c>
+      <c r="AA173">
+        <v>3.4</v>
+      </c>
+      <c r="AB173">
+        <v>2.1</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>9.6</v>
+      </c>
+      <c r="AE173">
+        <v>1.25</v>
+      </c>
+      <c r="AF173">
+        <v>3.42</v>
+      </c>
+      <c r="AG173">
+        <v>1.91</v>
+      </c>
+      <c r="AH173">
+        <v>1.8</v>
+      </c>
+      <c r="AI173">
+        <v>1.7</v>
+      </c>
+      <c r="AJ173">
+        <v>2.05</v>
+      </c>
+      <c r="AK173">
+        <v>1.65</v>
+      </c>
+      <c r="AL173">
+        <v>1.3</v>
+      </c>
+      <c r="AM173">
+        <v>1.38</v>
+      </c>
+      <c r="AN173">
+        <v>2.08</v>
+      </c>
+      <c r="AO173">
+        <v>1.93</v>
+      </c>
+      <c r="AP173">
+        <v>1.93</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1.56</v>
+      </c>
+      <c r="AS173">
+        <v>1.67</v>
+      </c>
+      <c r="AT173">
+        <v>3.23</v>
+      </c>
+      <c r="AU173">
+        <v>7</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>4</v>
+      </c>
+      <c r="AX173">
+        <v>1</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>7</v>
+      </c>
+      <c r="BA173">
+        <v>9</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>13</v>
+      </c>
+      <c r="BD173">
+        <v>2.18</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>1.98</v>
+      </c>
+      <c r="BG173">
+        <v>1.2</v>
+      </c>
+      <c r="BH173">
+        <v>3.95</v>
+      </c>
+      <c r="BI173">
+        <v>1.38</v>
+      </c>
+      <c r="BJ173">
+        <v>2.75</v>
+      </c>
+      <c r="BK173">
+        <v>1.7</v>
+      </c>
+      <c r="BL173">
+        <v>2.05</v>
+      </c>
+      <c r="BM173">
+        <v>2.08</v>
+      </c>
+      <c r="BN173">
+        <v>1.65</v>
+      </c>
+      <c r="BO173">
+        <v>2.7</v>
+      </c>
+      <c r="BP173">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7390109</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>70</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>207</v>
+      </c>
+      <c r="P174" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>2.38</v>
+      </c>
+      <c r="S174">
+        <v>6.5</v>
+      </c>
+      <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3.25</v>
+      </c>
+      <c r="V174">
+        <v>2.63</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>1.45</v>
+      </c>
+      <c r="AA174">
+        <v>4.2</v>
+      </c>
+      <c r="AB174">
+        <v>6.15</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>10.2</v>
+      </c>
+      <c r="AE174">
+        <v>1.22</v>
+      </c>
+      <c r="AF174">
+        <v>3.66</v>
+      </c>
+      <c r="AG174">
+        <v>1.6</v>
+      </c>
+      <c r="AH174">
+        <v>2.2</v>
+      </c>
+      <c r="AI174">
+        <v>1.95</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>1.1</v>
+      </c>
+      <c r="AL174">
+        <v>1.17</v>
+      </c>
+      <c r="AM174">
+        <v>2.7</v>
+      </c>
+      <c r="AN174">
+        <v>2.14</v>
+      </c>
+      <c r="AO174">
+        <v>1.36</v>
+      </c>
+      <c r="AP174">
+        <v>2.2</v>
+      </c>
+      <c r="AQ174">
+        <v>1.27</v>
+      </c>
+      <c r="AR174">
+        <v>1.64</v>
+      </c>
+      <c r="AS174">
+        <v>1.15</v>
+      </c>
+      <c r="AT174">
+        <v>2.79</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>12</v>
+      </c>
+      <c r="AZ174">
+        <v>8</v>
+      </c>
+      <c r="BA174">
+        <v>3</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>5</v>
+      </c>
+      <c r="BD174">
+        <v>1.32</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>4.3</v>
+      </c>
+      <c r="BG174">
+        <v>1.29</v>
+      </c>
+      <c r="BH174">
+        <v>3.25</v>
+      </c>
+      <c r="BI174">
+        <v>1.52</v>
+      </c>
+      <c r="BJ174">
+        <v>2.33</v>
+      </c>
+      <c r="BK174">
+        <v>2</v>
+      </c>
+      <c r="BL174">
+        <v>1.8</v>
+      </c>
+      <c r="BM174">
+        <v>2.45</v>
+      </c>
+      <c r="BN174">
+        <v>1.47</v>
+      </c>
+      <c r="BO174">
+        <v>3.3</v>
+      </c>
+      <c r="BP174">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7390110</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45424.625</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" t="s">
+        <v>74</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>5</v>
+      </c>
+      <c r="O175" t="s">
+        <v>208</v>
+      </c>
+      <c r="P175" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q175">
+        <v>1.83</v>
+      </c>
+      <c r="R175">
+        <v>2.6</v>
+      </c>
+      <c r="S175">
+        <v>7</v>
+      </c>
+      <c r="T175">
+        <v>1.29</v>
+      </c>
+      <c r="U175">
+        <v>3.5</v>
+      </c>
+      <c r="V175">
+        <v>2.25</v>
+      </c>
+      <c r="W175">
+        <v>1.57</v>
+      </c>
+      <c r="X175">
+        <v>5.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.14</v>
+      </c>
+      <c r="Z175">
+        <v>1.34</v>
+      </c>
+      <c r="AA175">
+        <v>4.5</v>
+      </c>
+      <c r="AB175">
+        <v>7.34</v>
+      </c>
+      <c r="AC175">
+        <v>1.02</v>
+      </c>
+      <c r="AD175">
+        <v>14.8</v>
+      </c>
+      <c r="AE175">
+        <v>1.15</v>
+      </c>
+      <c r="AF175">
+        <v>4.55</v>
+      </c>
+      <c r="AG175">
+        <v>1.57</v>
+      </c>
+      <c r="AH175">
+        <v>2.25</v>
+      </c>
+      <c r="AI175">
+        <v>1.8</v>
+      </c>
+      <c r="AJ175">
+        <v>1.95</v>
+      </c>
+      <c r="AK175">
+        <v>1.06</v>
+      </c>
+      <c r="AL175">
+        <v>1.12</v>
+      </c>
+      <c r="AM175">
+        <v>3.2</v>
+      </c>
+      <c r="AN175">
+        <v>2.07</v>
+      </c>
+      <c r="AO175">
+        <v>0.85</v>
+      </c>
+      <c r="AP175">
+        <v>2.13</v>
+      </c>
+      <c r="AQ175">
+        <v>0.79</v>
+      </c>
+      <c r="AR175">
+        <v>1.79</v>
+      </c>
+      <c r="AS175">
+        <v>1.13</v>
+      </c>
+      <c r="AT175">
+        <v>2.92</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>2</v>
+      </c>
+      <c r="AW175">
+        <v>3</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>9</v>
+      </c>
+      <c r="AZ175">
+        <v>6</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>1</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.15</v>
+      </c>
+      <c r="BE175">
+        <v>11</v>
+      </c>
+      <c r="BF175">
+        <v>7</v>
+      </c>
+      <c r="BG175">
+        <v>1.22</v>
+      </c>
+      <c r="BH175">
+        <v>3.75</v>
+      </c>
+      <c r="BI175">
+        <v>1.41</v>
+      </c>
+      <c r="BJ175">
+        <v>2.63</v>
+      </c>
+      <c r="BK175">
+        <v>1.73</v>
+      </c>
+      <c r="BL175">
+        <v>2</v>
+      </c>
+      <c r="BM175">
+        <v>2.18</v>
+      </c>
+      <c r="BN175">
+        <v>1.6</v>
+      </c>
+      <c r="BO175">
+        <v>2.88</v>
+      </c>
+      <c r="BP175">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -37277,22 +37277,22 @@
         <v>2.92</v>
       </c>
       <c r="AU175">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX175">
         <v>4</v>
       </c>
       <c r="AY175">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ175">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA175">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,15 @@
     <t>['18', '68', '86', '90+2']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -926,6 +935,12 @@
   </si>
   <si>
     <t>['39', '54', '90+12']</t>
+  </si>
+  <si>
+    <t>['11', '48']</t>
+  </si>
+  <si>
+    <t>['23', '37']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1767,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2036,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ4">
         <v>0.93</v>
@@ -2164,7 +2179,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2576,7 +2591,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2657,7 +2672,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2782,7 +2797,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2863,7 +2878,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2988,7 +3003,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3066,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3275,7 +3290,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ10">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
@@ -3400,7 +3415,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3478,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
         <v>0.93</v>
@@ -3606,7 +3621,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3684,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3812,7 +3827,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3890,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
@@ -4018,7 +4033,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4302,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -4430,7 +4445,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4508,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
         <v>1.27</v>
@@ -4636,7 +4651,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4717,7 +4732,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR17">
         <v>1.42</v>
@@ -4842,7 +4857,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5048,7 +5063,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5129,7 +5144,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>1.78</v>
@@ -5254,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5332,10 +5347,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ20">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR20">
         <v>1.52</v>
@@ -5460,7 +5475,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5538,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5666,7 +5681,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5744,10 +5759,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>1.62</v>
@@ -5950,10 +5965,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -6078,7 +6093,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6156,10 +6171,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ24">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR24">
         <v>2.02</v>
@@ -6490,7 +6505,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6568,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6777,7 +6792,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -7108,7 +7123,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7314,7 +7329,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7804,10 +7819,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7932,7 +7947,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8010,10 +8025,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ33">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR33">
         <v>1.92</v>
@@ -8216,10 +8231,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>2.06</v>
@@ -8344,7 +8359,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8422,10 +8437,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -8631,7 +8646,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ36">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8756,7 +8771,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8834,7 +8849,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
         <v>1.93</v>
@@ -8962,7 +8977,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9374,7 +9389,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9455,7 +9470,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9658,7 +9673,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -9864,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -10198,7 +10213,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10279,7 +10294,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10404,7 +10419,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10610,7 +10625,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10688,7 +10703,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10816,7 +10831,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10894,10 +10909,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -11022,7 +11037,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11100,7 +11115,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
         <v>1.93</v>
@@ -11228,7 +11243,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11309,7 +11324,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ49">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11640,7 +11655,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11718,7 +11733,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11927,7 +11942,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.66</v>
@@ -12052,7 +12067,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12130,7 +12145,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>1.27</v>
@@ -12258,7 +12273,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12339,7 +12354,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ54">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12670,7 +12685,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12748,10 +12763,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ56">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -12954,10 +12969,10 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13160,10 +13175,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
         <v>1.18</v>
@@ -13288,7 +13303,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13366,7 +13381,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ59">
         <v>1.93</v>
@@ -13494,7 +13509,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13700,7 +13715,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13781,7 +13796,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
@@ -13987,7 +14002,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.65</v>
@@ -14112,7 +14127,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14193,7 +14208,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14318,7 +14333,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14396,7 +14411,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ64">
         <v>0.93</v>
@@ -14602,10 +14617,10 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14730,7 +14745,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15014,7 +15029,7 @@
         <v>2.6</v>
       </c>
       <c r="AP67">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -15142,7 +15157,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15220,10 +15235,10 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ68">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15426,7 +15441,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ69">
         <v>0.93</v>
@@ -15554,7 +15569,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15760,7 +15775,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15841,7 +15856,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -15966,7 +15981,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16044,7 +16059,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>1.93</v>
@@ -16172,7 +16187,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16253,7 +16268,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ73">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR73">
         <v>1.36</v>
@@ -16459,7 +16474,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16662,7 +16677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -16790,7 +16805,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16868,10 +16883,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -17077,7 +17092,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR77">
         <v>1.66</v>
@@ -17280,10 +17295,10 @@
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17486,7 +17501,7 @@
         <v>0.83</v>
       </c>
       <c r="AP79">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -17614,7 +17629,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17695,7 +17710,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR80">
         <v>1.17</v>
@@ -18107,7 +18122,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18232,7 +18247,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18310,7 +18325,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
         <v>2</v>
@@ -18438,7 +18453,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18516,10 +18531,10 @@
         <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ84">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR84">
         <v>1.13</v>
@@ -18722,7 +18737,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.27</v>
@@ -19134,7 +19149,7 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ87">
         <v>1.93</v>
@@ -19340,10 +19355,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.2</v>
@@ -19549,7 +19564,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR89">
         <v>1.62</v>
@@ -19674,7 +19689,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19958,10 +19973,10 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20086,7 +20101,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20164,7 +20179,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ92">
         <v>0.93</v>
@@ -20292,7 +20307,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20782,10 +20797,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20910,7 +20925,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21116,7 +21131,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21197,7 +21212,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR97">
         <v>1.58</v>
@@ -21400,7 +21415,7 @@
         <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>0.93</v>
@@ -21609,7 +21624,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -21734,7 +21749,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21815,7 +21830,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ100">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -22018,7 +22033,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -22146,7 +22161,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22224,7 +22239,7 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ102">
         <v>1.27</v>
@@ -22352,7 +22367,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22433,7 +22448,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22558,7 +22573,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22639,7 +22654,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22764,7 +22779,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22845,7 +22860,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.73</v>
@@ -22970,7 +22985,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23048,7 +23063,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ106">
         <v>1.13</v>
@@ -23176,7 +23191,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23460,10 +23475,10 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23666,7 +23681,7 @@
         <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ109">
         <v>1.27</v>
@@ -23872,10 +23887,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ110">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -24000,7 +24015,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24078,10 +24093,10 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ111">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.09</v>
@@ -24284,10 +24299,10 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ112">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR112">
         <v>1.22</v>
@@ -24412,7 +24427,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24618,7 +24633,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24696,10 +24711,10 @@
         <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ114">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -24902,10 +24917,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ115">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25236,7 +25251,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25726,7 +25741,7 @@
         <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>0.93</v>
@@ -25854,7 +25869,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25932,10 +25947,10 @@
         <v>1.89</v>
       </c>
       <c r="AP120">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ120">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR120">
         <v>1.54</v>
@@ -26141,7 +26156,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26266,7 +26281,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26344,10 +26359,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ122">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR122">
         <v>1.09</v>
@@ -26472,7 +26487,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26678,7 +26693,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26756,10 +26771,10 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR124">
         <v>1.27</v>
@@ -26962,10 +26977,10 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR125">
         <v>2.05</v>
@@ -27090,7 +27105,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27374,10 +27389,10 @@
         <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27502,7 +27517,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27789,7 +27804,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -27914,7 +27929,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28404,7 +28419,7 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132">
         <v>0.93</v>
@@ -28610,10 +28625,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR133">
         <v>1.57</v>
@@ -28738,7 +28753,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28816,10 +28831,10 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29150,7 +29165,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29228,7 +29243,7 @@
         <v>2.18</v>
       </c>
       <c r="AP136">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ136">
         <v>1.93</v>
@@ -29356,7 +29371,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29437,7 +29452,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ137">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR137">
         <v>1.65</v>
@@ -29562,7 +29577,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29768,7 +29783,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30055,7 +30070,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ140">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30258,10 +30273,10 @@
         <v>0.45</v>
       </c>
       <c r="AP141">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR141">
         <v>1.24</v>
@@ -30386,7 +30401,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30464,7 +30479,7 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -30876,10 +30891,10 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ144">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -31004,7 +31019,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31082,10 +31097,10 @@
         <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR145">
         <v>1.59</v>
@@ -31210,7 +31225,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31291,7 +31306,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ146">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.36</v>
@@ -31622,7 +31637,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31700,7 +31715,7 @@
         <v>1.08</v>
       </c>
       <c r="AP148">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ148">
         <v>1.13</v>
@@ -31828,7 +31843,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31906,7 +31921,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ149">
         <v>1.93</v>
@@ -32034,7 +32049,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32240,7 +32255,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32321,7 +32336,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ151">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32446,7 +32461,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32524,10 +32539,10 @@
         <v>1.83</v>
       </c>
       <c r="AP152">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR152">
         <v>1.39</v>
@@ -32652,7 +32667,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32730,7 +32745,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ153">
         <v>0.93</v>
@@ -32858,7 +32873,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -32939,7 +32954,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ154">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR154">
         <v>1.52</v>
@@ -33142,10 +33157,10 @@
         <v>0.92</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ155">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR155">
         <v>2.01</v>
@@ -33348,10 +33363,10 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ156">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR156">
         <v>1.59</v>
@@ -33476,7 +33491,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33682,7 +33697,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34094,7 +34109,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34300,7 +34315,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34506,7 +34521,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34584,7 +34599,7 @@
         <v>1.46</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ162">
         <v>1.27</v>
@@ -34793,7 +34808,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ163">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR163">
         <v>1.44</v>
@@ -34918,7 +34933,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -34996,10 +35011,10 @@
         <v>1.62</v>
       </c>
       <c r="AP164">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ164">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR164">
         <v>1.44</v>
@@ -35124,7 +35139,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35202,10 +35217,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ165">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR165">
         <v>1.15</v>
@@ -35536,7 +35551,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35742,7 +35757,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35948,7 +35963,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36026,10 +36041,10 @@
         <v>1.77</v>
       </c>
       <c r="AP169">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR169">
         <v>1.24</v>
@@ -36154,7 +36169,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36235,7 +36250,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ170">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR170">
         <v>1.39</v>
@@ -36360,7 +36375,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>1.95</v>
@@ -36438,7 +36453,7 @@
         <v>0.93</v>
       </c>
       <c r="AP171">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ171">
         <v>0.93</v>
@@ -36566,7 +36581,7 @@
         <v>93</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36772,7 +36787,7 @@
         <v>115</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -36850,7 +36865,7 @@
         <v>1.93</v>
       </c>
       <c r="AP173">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -36978,7 +36993,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37184,7 +37199,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -37265,7 +37280,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ175">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR175">
         <v>1.79</v>
@@ -37341,6 +37356,1242 @@
       </c>
       <c r="BP175">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7390111</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45427.54166666666</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>78</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>152</v>
+      </c>
+      <c r="P176" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q176">
+        <v>2.88</v>
+      </c>
+      <c r="R176">
+        <v>2.2</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.36</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>2.75</v>
+      </c>
+      <c r="W176">
+        <v>1.4</v>
+      </c>
+      <c r="X176">
+        <v>8</v>
+      </c>
+      <c r="Y176">
+        <v>1.08</v>
+      </c>
+      <c r="Z176">
+        <v>2.2</v>
+      </c>
+      <c r="AA176">
+        <v>3.5</v>
+      </c>
+      <c r="AB176">
+        <v>3.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>8.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.25</v>
+      </c>
+      <c r="AF176">
+        <v>3.6</v>
+      </c>
+      <c r="AG176">
+        <v>1.75</v>
+      </c>
+      <c r="AH176">
+        <v>1.85</v>
+      </c>
+      <c r="AI176">
+        <v>1.7</v>
+      </c>
+      <c r="AJ176">
+        <v>2.05</v>
+      </c>
+      <c r="AK176">
+        <v>1.3</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.62</v>
+      </c>
+      <c r="AN176">
+        <v>1.29</v>
+      </c>
+      <c r="AO176">
+        <v>0.86</v>
+      </c>
+      <c r="AP176">
+        <v>1.4</v>
+      </c>
+      <c r="AQ176">
+        <v>0.8</v>
+      </c>
+      <c r="AR176">
+        <v>1.44</v>
+      </c>
+      <c r="AS176">
+        <v>1.27</v>
+      </c>
+      <c r="AT176">
+        <v>2.71</v>
+      </c>
+      <c r="AU176">
+        <v>2</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>7</v>
+      </c>
+      <c r="AZ176">
+        <v>7</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>6</v>
+      </c>
+      <c r="BD176">
+        <v>1.82</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>2.33</v>
+      </c>
+      <c r="BG176">
+        <v>1.19</v>
+      </c>
+      <c r="BH176">
+        <v>4</v>
+      </c>
+      <c r="BI176">
+        <v>1.37</v>
+      </c>
+      <c r="BJ176">
+        <v>2.8</v>
+      </c>
+      <c r="BK176">
+        <v>1.65</v>
+      </c>
+      <c r="BL176">
+        <v>2.1</v>
+      </c>
+      <c r="BM176">
+        <v>2.05</v>
+      </c>
+      <c r="BN176">
+        <v>1.7</v>
+      </c>
+      <c r="BO176">
+        <v>2.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7390112</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45427.54166666666</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>77</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>209</v>
+      </c>
+      <c r="P177" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q177">
+        <v>2.75</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>4</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>2.05</v>
+      </c>
+      <c r="AA177">
+        <v>3.4</v>
+      </c>
+      <c r="AB177">
+        <v>3.4</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>10.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.33</v>
+      </c>
+      <c r="AF177">
+        <v>3.38</v>
+      </c>
+      <c r="AG177">
+        <v>1.98</v>
+      </c>
+      <c r="AH177">
+        <v>1.88</v>
+      </c>
+      <c r="AI177">
+        <v>1.75</v>
+      </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
+      <c r="AK177">
+        <v>1.3</v>
+      </c>
+      <c r="AL177">
+        <v>1.32</v>
+      </c>
+      <c r="AM177">
+        <v>1.77</v>
+      </c>
+      <c r="AN177">
+        <v>1.14</v>
+      </c>
+      <c r="AO177">
+        <v>0.71</v>
+      </c>
+      <c r="AP177">
+        <v>1.27</v>
+      </c>
+      <c r="AQ177">
+        <v>0.67</v>
+      </c>
+      <c r="AR177">
+        <v>1.25</v>
+      </c>
+      <c r="AS177">
+        <v>1.14</v>
+      </c>
+      <c r="AT177">
+        <v>2.39</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>5</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
+        <v>8</v>
+      </c>
+      <c r="BB177">
+        <v>8</v>
+      </c>
+      <c r="BC177">
+        <v>16</v>
+      </c>
+      <c r="BD177">
+        <v>2</v>
+      </c>
+      <c r="BE177">
+        <v>8</v>
+      </c>
+      <c r="BF177">
+        <v>2.05</v>
+      </c>
+      <c r="BG177">
+        <v>1.16</v>
+      </c>
+      <c r="BH177">
+        <v>4.3</v>
+      </c>
+      <c r="BI177">
+        <v>1.29</v>
+      </c>
+      <c r="BJ177">
+        <v>3.3</v>
+      </c>
+      <c r="BK177">
+        <v>1.55</v>
+      </c>
+      <c r="BL177">
+        <v>2.3</v>
+      </c>
+      <c r="BM177">
+        <v>1.95</v>
+      </c>
+      <c r="BN177">
+        <v>1.77</v>
+      </c>
+      <c r="BO177">
+        <v>2.52</v>
+      </c>
+      <c r="BP177">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7390113</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45427.625</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>79</v>
+      </c>
+      <c r="H178" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>210</v>
+      </c>
+      <c r="P178" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q178">
+        <v>3.1</v>
+      </c>
+      <c r="R178">
+        <v>2.3</v>
+      </c>
+      <c r="S178">
+        <v>3.2</v>
+      </c>
+      <c r="T178">
+        <v>1.33</v>
+      </c>
+      <c r="U178">
+        <v>3.25</v>
+      </c>
+      <c r="V178">
+        <v>2.5</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>6.5</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>2.25</v>
+      </c>
+      <c r="AA178">
+        <v>3.5</v>
+      </c>
+      <c r="AB178">
+        <v>2.9</v>
+      </c>
+      <c r="AC178">
+        <v>1.04</v>
+      </c>
+      <c r="AD178">
+        <v>10</v>
+      </c>
+      <c r="AE178">
+        <v>1.22</v>
+      </c>
+      <c r="AF178">
+        <v>4.2</v>
+      </c>
+      <c r="AG178">
+        <v>1.61</v>
+      </c>
+      <c r="AH178">
+        <v>2.05</v>
+      </c>
+      <c r="AI178">
+        <v>1.57</v>
+      </c>
+      <c r="AJ178">
+        <v>2.25</v>
+      </c>
+      <c r="AK178">
+        <v>1.48</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.5</v>
+      </c>
+      <c r="AN178">
+        <v>1.93</v>
+      </c>
+      <c r="AO178">
+        <v>1.71</v>
+      </c>
+      <c r="AP178">
+        <v>2</v>
+      </c>
+      <c r="AQ178">
+        <v>1.6</v>
+      </c>
+      <c r="AR178">
+        <v>1.58</v>
+      </c>
+      <c r="AS178">
+        <v>1.47</v>
+      </c>
+      <c r="AT178">
+        <v>3.05</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>7</v>
+      </c>
+      <c r="BA178">
+        <v>7</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>11</v>
+      </c>
+      <c r="BD178">
+        <v>2.05</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>1.95</v>
+      </c>
+      <c r="BG178">
+        <v>1.21</v>
+      </c>
+      <c r="BH178">
+        <v>3.8</v>
+      </c>
+      <c r="BI178">
+        <v>1.4</v>
+      </c>
+      <c r="BJ178">
+        <v>2.65</v>
+      </c>
+      <c r="BK178">
+        <v>1.77</v>
+      </c>
+      <c r="BL178">
+        <v>1.95</v>
+      </c>
+      <c r="BM178">
+        <v>2.15</v>
+      </c>
+      <c r="BN178">
+        <v>1.61</v>
+      </c>
+      <c r="BO178">
+        <v>2.8</v>
+      </c>
+      <c r="BP178">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7390114</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s">
+        <v>73</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>114</v>
+      </c>
+      <c r="P179" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q179">
+        <v>3.6</v>
+      </c>
+      <c r="R179">
+        <v>2.3</v>
+      </c>
+      <c r="S179">
+        <v>2.63</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3.25</v>
+      </c>
+      <c r="V179">
+        <v>2.5</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>6.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.11</v>
+      </c>
+      <c r="Z179">
+        <v>3.03</v>
+      </c>
+      <c r="AA179">
+        <v>3.68</v>
+      </c>
+      <c r="AB179">
+        <v>2.22</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>14.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.22</v>
+      </c>
+      <c r="AF179">
+        <v>4.3</v>
+      </c>
+      <c r="AG179">
+        <v>1.65</v>
+      </c>
+      <c r="AH179">
+        <v>2.15</v>
+      </c>
+      <c r="AI179">
+        <v>1.62</v>
+      </c>
+      <c r="AJ179">
+        <v>2.2</v>
+      </c>
+      <c r="AK179">
+        <v>1.72</v>
+      </c>
+      <c r="AL179">
+        <v>1.24</v>
+      </c>
+      <c r="AM179">
+        <v>1.36</v>
+      </c>
+      <c r="AN179">
+        <v>0.36</v>
+      </c>
+      <c r="AO179">
+        <v>1.64</v>
+      </c>
+      <c r="AP179">
+        <v>0.33</v>
+      </c>
+      <c r="AQ179">
+        <v>1.73</v>
+      </c>
+      <c r="AR179">
+        <v>1.16</v>
+      </c>
+      <c r="AS179">
+        <v>1.22</v>
+      </c>
+      <c r="AT179">
+        <v>2.38</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>9</v>
+      </c>
+      <c r="AW179">
+        <v>6</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>12</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>14</v>
+      </c>
+      <c r="BD179">
+        <v>2.2</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>1.91</v>
+      </c>
+      <c r="BG179">
+        <v>1.19</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>1.37</v>
+      </c>
+      <c r="BJ179">
+        <v>2.8</v>
+      </c>
+      <c r="BK179">
+        <v>1.7</v>
+      </c>
+      <c r="BL179">
+        <v>2.05</v>
+      </c>
+      <c r="BM179">
+        <v>2.06</v>
+      </c>
+      <c r="BN179">
+        <v>1.66</v>
+      </c>
+      <c r="BO179">
+        <v>2.7</v>
+      </c>
+      <c r="BP179">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7390115</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" t="s">
+        <v>74</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>96</v>
+      </c>
+      <c r="P180" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q180">
+        <v>2.88</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>3.5</v>
+      </c>
+      <c r="T180">
+        <v>1.36</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>2.33</v>
+      </c>
+      <c r="AA180">
+        <v>3.56</v>
+      </c>
+      <c r="AB180">
+        <v>2.92</v>
+      </c>
+      <c r="AC180">
+        <v>1.05</v>
+      </c>
+      <c r="AD180">
+        <v>9.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.25</v>
+      </c>
+      <c r="AF180">
+        <v>3.8</v>
+      </c>
+      <c r="AG180">
+        <v>1.75</v>
+      </c>
+      <c r="AH180">
+        <v>1.95</v>
+      </c>
+      <c r="AI180">
+        <v>1.67</v>
+      </c>
+      <c r="AJ180">
+        <v>2.1</v>
+      </c>
+      <c r="AK180">
+        <v>1.38</v>
+      </c>
+      <c r="AL180">
+        <v>1.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.6</v>
+      </c>
+      <c r="AN180">
+        <v>1.36</v>
+      </c>
+      <c r="AO180">
+        <v>0.79</v>
+      </c>
+      <c r="AP180">
+        <v>1.27</v>
+      </c>
+      <c r="AQ180">
+        <v>0.93</v>
+      </c>
+      <c r="AR180">
+        <v>1.46</v>
+      </c>
+      <c r="AS180">
+        <v>1.12</v>
+      </c>
+      <c r="AT180">
+        <v>2.58</v>
+      </c>
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>14</v>
+      </c>
+      <c r="AZ180">
+        <v>9</v>
+      </c>
+      <c r="BA180">
+        <v>4</v>
+      </c>
+      <c r="BB180">
+        <v>3</v>
+      </c>
+      <c r="BC180">
+        <v>7</v>
+      </c>
+      <c r="BD180">
+        <v>1.82</v>
+      </c>
+      <c r="BE180">
+        <v>8</v>
+      </c>
+      <c r="BF180">
+        <v>2.39</v>
+      </c>
+      <c r="BG180">
+        <v>1.28</v>
+      </c>
+      <c r="BH180">
+        <v>3.3</v>
+      </c>
+      <c r="BI180">
+        <v>1.5</v>
+      </c>
+      <c r="BJ180">
+        <v>2.35</v>
+      </c>
+      <c r="BK180">
+        <v>1.85</v>
+      </c>
+      <c r="BL180">
+        <v>1.85</v>
+      </c>
+      <c r="BM180">
+        <v>2.4</v>
+      </c>
+      <c r="BN180">
+        <v>1.49</v>
+      </c>
+      <c r="BO180">
+        <v>3.25</v>
+      </c>
+      <c r="BP180">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7390116</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45428.625</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s">
+        <v>70</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>211</v>
+      </c>
+      <c r="P181" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q181">
+        <v>2.4</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>4.33</v>
+      </c>
+      <c r="T181">
+        <v>1.36</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>7</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>1.85</v>
+      </c>
+      <c r="AA181">
+        <v>3.82</v>
+      </c>
+      <c r="AB181">
+        <v>4</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>9.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.25</v>
+      </c>
+      <c r="AF181">
+        <v>3.85</v>
+      </c>
+      <c r="AG181">
+        <v>1.73</v>
+      </c>
+      <c r="AH181">
+        <v>2</v>
+      </c>
+      <c r="AI181">
+        <v>1.7</v>
+      </c>
+      <c r="AJ181">
+        <v>2.05</v>
+      </c>
+      <c r="AK181">
+        <v>1.22</v>
+      </c>
+      <c r="AL181">
+        <v>1.22</v>
+      </c>
+      <c r="AM181">
+        <v>1.95</v>
+      </c>
+      <c r="AN181">
+        <v>2</v>
+      </c>
+      <c r="AO181">
+        <v>1.79</v>
+      </c>
+      <c r="AP181">
+        <v>1.87</v>
+      </c>
+      <c r="AQ181">
+        <v>1.87</v>
+      </c>
+      <c r="AR181">
+        <v>1.95</v>
+      </c>
+      <c r="AS181">
+        <v>1.45</v>
+      </c>
+      <c r="AT181">
+        <v>3.4</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>14</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>19</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>8</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>1.82</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+      <c r="BF181">
+        <v>2.33</v>
+      </c>
+      <c r="BG181">
+        <v>1.29</v>
+      </c>
+      <c r="BH181">
+        <v>3.2</v>
+      </c>
+      <c r="BI181">
+        <v>1.54</v>
+      </c>
+      <c r="BJ181">
+        <v>2.3</v>
+      </c>
+      <c r="BK181">
+        <v>1.9</v>
+      </c>
+      <c r="BL181">
+        <v>1.8</v>
+      </c>
+      <c r="BM181">
+        <v>2.5</v>
+      </c>
+      <c r="BN181">
+        <v>1.46</v>
+      </c>
+      <c r="BO181">
+        <v>3.4</v>
+      </c>
+      <c r="BP181">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['29', '63']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1770,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2179,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2257,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2591,7 +2594,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2797,7 +2800,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3003,7 +3006,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3415,7 +3418,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3621,7 +3624,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3827,7 +3830,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4033,7 +4036,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4320,7 +4323,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4445,7 +4448,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4651,7 +4654,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4857,7 +4860,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5063,7 +5066,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5141,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ19">
         <v>0.8</v>
@@ -5269,7 +5272,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5475,7 +5478,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5681,7 +5684,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6093,7 +6096,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6505,7 +6508,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6998,7 +7001,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7123,7 +7126,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7329,7 +7332,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7407,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ30">
         <v>1.27</v>
@@ -7947,7 +7950,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8359,7 +8362,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8771,7 +8774,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8977,7 +8980,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9055,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ38">
         <v>0.93</v>
@@ -9389,7 +9392,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9676,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -10213,7 +10216,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10419,7 +10422,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10625,7 +10628,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10706,7 +10709,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10831,7 +10834,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11037,7 +11040,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11243,7 +11246,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11321,7 +11324,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ49">
         <v>0.93</v>
@@ -11655,7 +11658,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12067,7 +12070,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12273,7 +12276,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12685,7 +12688,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13303,7 +13306,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13509,7 +13512,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13715,7 +13718,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13793,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ61">
         <v>0.67</v>
@@ -14127,7 +14130,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14333,7 +14336,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14745,7 +14748,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14826,7 +14829,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -15157,7 +15160,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15569,7 +15572,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15775,7 +15778,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15981,7 +15984,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16187,7 +16190,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16265,7 +16268,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ73">
         <v>1.87</v>
@@ -16805,7 +16808,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17504,7 +17507,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17629,7 +17632,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18247,7 +18250,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18453,7 +18456,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18946,7 +18949,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19689,7 +19692,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19767,7 +19770,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ90">
         <v>0.93</v>
@@ -20101,7 +20104,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20307,7 +20310,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20925,7 +20928,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21131,7 +21134,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21749,7 +21752,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21827,7 +21830,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ100">
         <v>1.6</v>
@@ -22161,7 +22164,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22367,7 +22370,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22573,7 +22576,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22779,7 +22782,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22985,7 +22988,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23066,7 +23069,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ106">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR106">
         <v>1.09</v>
@@ -23191,7 +23194,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -24015,7 +24018,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24427,7 +24430,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24505,7 +24508,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ113">
         <v>1.93</v>
@@ -24633,7 +24636,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25251,7 +25254,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25538,7 +25541,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR118">
         <v>1.53</v>
@@ -25869,7 +25872,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26281,7 +26284,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26487,7 +26490,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26693,7 +26696,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27105,7 +27108,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27517,7 +27520,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27595,7 +27598,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ128">
         <v>2</v>
@@ -27929,7 +27932,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28010,7 +28013,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28753,7 +28756,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29165,7 +29168,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29371,7 +29374,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29577,7 +29580,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29783,7 +29786,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29861,7 +29864,7 @@
         <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ139">
         <v>0.93</v>
@@ -30401,7 +30404,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30482,7 +30485,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -31019,7 +31022,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31225,7 +31228,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31303,7 +31306,7 @@
         <v>0.5</v>
       </c>
       <c r="AP146">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ146">
         <v>0.8</v>
@@ -31637,7 +31640,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31718,7 +31721,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ148">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR148">
         <v>1.25</v>
@@ -31843,7 +31846,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32049,7 +32052,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32255,7 +32258,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32461,7 +32464,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32667,7 +32670,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32873,7 +32876,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33491,7 +33494,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33697,7 +33700,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33984,7 +33987,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34109,7 +34112,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34187,7 +34190,7 @@
         <v>0.77</v>
       </c>
       <c r="AP160">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ160">
         <v>0.93</v>
@@ -34315,7 +34318,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34521,7 +34524,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34933,7 +34936,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35139,7 +35142,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35426,7 +35429,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35551,7 +35554,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35757,7 +35760,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35963,7 +35966,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36169,7 +36172,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36247,7 +36250,7 @@
         <v>0.54</v>
       </c>
       <c r="AP170">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ170">
         <v>0.67</v>
@@ -36375,7 +36378,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>1.95</v>
@@ -36581,7 +36584,7 @@
         <v>93</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36787,7 +36790,7 @@
         <v>115</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -36993,7 +36996,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37199,7 +37202,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -38023,7 +38026,7 @@
         <v>114</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38435,7 +38438,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38592,6 +38595,212 @@
       </c>
       <c r="BP181">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7390117</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45431.375</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>212</v>
+      </c>
+      <c r="P182" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q182">
+        <v>3.23</v>
+      </c>
+      <c r="R182">
+        <v>2.27</v>
+      </c>
+      <c r="S182">
+        <v>3.11</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>3.26</v>
+      </c>
+      <c r="V182">
+        <v>2.75</v>
+      </c>
+      <c r="W182">
+        <v>1.47</v>
+      </c>
+      <c r="X182">
+        <v>6</v>
+      </c>
+      <c r="Y182">
+        <v>1.09</v>
+      </c>
+      <c r="Z182">
+        <v>3</v>
+      </c>
+      <c r="AA182">
+        <v>3.5</v>
+      </c>
+      <c r="AB182">
+        <v>2.25</v>
+      </c>
+      <c r="AC182">
+        <v>1.05</v>
+      </c>
+      <c r="AD182">
+        <v>12.75</v>
+      </c>
+      <c r="AE182">
+        <v>1.26</v>
+      </c>
+      <c r="AF182">
+        <v>4.01</v>
+      </c>
+      <c r="AG182">
+        <v>1.74</v>
+      </c>
+      <c r="AH182">
+        <v>2.1</v>
+      </c>
+      <c r="AI182">
+        <v>1.67</v>
+      </c>
+      <c r="AJ182">
+        <v>2.1</v>
+      </c>
+      <c r="AK182">
+        <v>1.58</v>
+      </c>
+      <c r="AL182">
+        <v>1.3</v>
+      </c>
+      <c r="AM182">
+        <v>1.38</v>
+      </c>
+      <c r="AN182">
+        <v>0.2</v>
+      </c>
+      <c r="AO182">
+        <v>1.13</v>
+      </c>
+      <c r="AP182">
+        <v>0.38</v>
+      </c>
+      <c r="AQ182">
+        <v>1.06</v>
+      </c>
+      <c r="AR182">
+        <v>1.37</v>
+      </c>
+      <c r="AS182">
+        <v>1.32</v>
+      </c>
+      <c r="AT182">
+        <v>2.69</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
+        <v>2</v>
+      </c>
+      <c r="AY182">
+        <v>6</v>
+      </c>
+      <c r="AZ182">
+        <v>6</v>
+      </c>
+      <c r="BA182">
+        <v>3</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>7</v>
+      </c>
+      <c r="BD182">
+        <v>2.04</v>
+      </c>
+      <c r="BE182">
+        <v>9.5</v>
+      </c>
+      <c r="BF182">
+        <v>2.01</v>
+      </c>
+      <c r="BG182">
+        <v>1.12</v>
+      </c>
+      <c r="BH182">
+        <v>5</v>
+      </c>
+      <c r="BI182">
+        <v>1.26</v>
+      </c>
+      <c r="BJ182">
+        <v>3.34</v>
+      </c>
+      <c r="BK182">
+        <v>1.53</v>
+      </c>
+      <c r="BL182">
+        <v>2.43</v>
+      </c>
+      <c r="BM182">
+        <v>1.87</v>
+      </c>
+      <c r="BN182">
+        <v>1.92</v>
+      </c>
+      <c r="BO182">
+        <v>2.32</v>
+      </c>
+      <c r="BP182">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -38737,31 +38737,31 @@
         <v>2.69</v>
       </c>
       <c r="AU182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV182">
         <v>4</v>
       </c>
       <c r="AW182">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX182">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY182">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ182">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA182">
         <v>3</v>
       </c>
       <c r="BB182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC182">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD182">
         <v>2.04</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,15 @@
     <t>['29', '63']</t>
   </si>
   <si>
+    <t>['2', '6']</t>
+  </si>
+  <si>
+    <t>['82', '85', '89']</t>
+  </si>
+  <si>
+    <t>['11', '16', '36']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -944,6 +953,15 @@
   </si>
   <si>
     <t>['23', '37']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['18', '21']</t>
+  </si>
+  <si>
+    <t>['38', '45+2', '79']</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1663,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1770,7 +1788,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1848,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2182,7 +2200,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2466,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2594,7 +2612,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2672,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2800,7 +2818,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3006,7 +3024,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3084,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3418,7 +3436,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3499,7 +3517,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3624,7 +3642,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3830,7 +3848,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4036,7 +4054,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4114,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14">
         <v>0.93</v>
@@ -4448,7 +4466,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4654,7 +4672,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4732,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR17">
         <v>1.42</v>
@@ -4860,7 +4878,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -4938,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.95</v>
@@ -5066,7 +5084,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5147,7 +5165,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.78</v>
@@ -5272,7 +5290,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5478,7 +5496,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5556,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5684,7 +5702,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6096,7 +6114,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6383,7 +6401,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>1.76</v>
@@ -6508,7 +6526,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6792,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
         <v>1.6</v>
@@ -6998,7 +7016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7126,7 +7144,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7207,7 +7225,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7332,7 +7350,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7825,7 +7843,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7950,7 +7968,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8362,7 +8380,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8646,10 +8664,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8774,7 +8792,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8852,10 +8870,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -8980,7 +8998,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9264,10 +9282,10 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9392,7 +9410,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9470,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.6</v>
@@ -9885,7 +9903,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -10216,7 +10234,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10297,7 +10315,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10422,7 +10440,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10500,7 +10518,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10628,7 +10646,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10706,7 +10724,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.06</v>
@@ -10834,7 +10852,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11040,7 +11058,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11121,7 +11139,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.85</v>
@@ -11246,7 +11264,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11530,7 +11548,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
         <v>0.93</v>
@@ -11658,7 +11676,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11942,10 +11960,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.66</v>
@@ -12070,7 +12088,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12276,7 +12294,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12560,10 +12578,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12688,7 +12706,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12769,7 +12787,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ56">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13178,7 +13196,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>1.6</v>
@@ -13306,7 +13324,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13387,7 +13405,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ59">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13512,7 +13530,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13718,7 +13736,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14002,7 +14020,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -14130,7 +14148,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14208,7 +14226,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ63">
         <v>1.73</v>
@@ -14336,7 +14354,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14414,10 +14432,10 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.09</v>
@@ -14623,7 +14641,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14748,7 +14766,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15160,7 +15178,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15572,7 +15590,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15650,7 +15668,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.27</v>
@@ -15778,7 +15796,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15984,7 +16002,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16065,7 +16083,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.12</v>
@@ -16190,7 +16208,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16271,7 +16289,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ73">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR73">
         <v>1.36</v>
@@ -16683,7 +16701,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ75">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16808,7 +16826,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16886,10 +16904,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -17092,7 +17110,7 @@
         <v>1.8</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ77">
         <v>1.73</v>
@@ -17632,7 +17650,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17710,7 +17728,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.73</v>
@@ -17916,7 +17934,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -18250,7 +18268,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18456,7 +18474,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18537,7 +18555,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ84">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR84">
         <v>1.13</v>
@@ -18946,7 +18964,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19155,7 +19173,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ87">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>2.08</v>
@@ -19358,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19692,7 +19710,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19773,7 +19791,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ90">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19979,7 +19997,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20104,7 +20122,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20310,7 +20328,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20594,7 +20612,7 @@
         <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ94">
         <v>1.27</v>
@@ -20928,7 +20946,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21006,10 +21024,10 @@
         <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR96">
         <v>1.24</v>
@@ -21134,7 +21152,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21212,10 +21230,10 @@
         <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ97">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR97">
         <v>1.58</v>
@@ -21624,7 +21642,7 @@
         <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
         <v>0.93</v>
@@ -21752,7 +21770,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22039,7 +22057,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22164,7 +22182,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22370,7 +22388,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22451,7 +22469,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22576,7 +22594,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22782,7 +22800,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22860,7 +22878,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -22988,7 +23006,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23194,7 +23212,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23272,7 +23290,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ107">
         <v>2</v>
@@ -23481,7 +23499,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23684,7 +23702,7 @@
         <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>1.27</v>
@@ -24018,7 +24036,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24099,7 +24117,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR111">
         <v>1.09</v>
@@ -24302,7 +24320,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
         <v>0.93</v>
@@ -24430,7 +24448,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24511,7 +24529,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ113">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24636,7 +24654,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24717,7 +24735,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ114">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -25254,7 +25272,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25332,10 +25350,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25872,7 +25890,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26156,7 +26174,7 @@
         <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
         <v>0.93</v>
@@ -26284,7 +26302,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26490,7 +26508,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26568,7 +26586,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ123">
         <v>1.27</v>
@@ -26696,7 +26714,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26774,7 +26792,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
         <v>1.73</v>
@@ -27108,7 +27126,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27189,7 +27207,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ126">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27395,7 +27413,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR127">
         <v>1.28</v>
@@ -27520,7 +27538,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27804,10 +27822,10 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -27932,7 +27950,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28010,7 +28028,7 @@
         <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ130">
         <v>1.06</v>
@@ -28425,7 +28443,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ132">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR132">
         <v>1.54</v>
@@ -28756,7 +28774,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29043,7 +29061,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ135">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.46</v>
@@ -29168,7 +29186,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29249,7 +29267,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ136">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>2.06</v>
@@ -29374,7 +29392,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29580,7 +29598,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29658,7 +29676,7 @@
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
         <v>1.27</v>
@@ -29786,7 +29804,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30070,7 +30088,7 @@
         <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140">
         <v>1.73</v>
@@ -30276,10 +30294,10 @@
         <v>0.45</v>
       </c>
       <c r="AP141">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR141">
         <v>1.24</v>
@@ -30404,7 +30422,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30688,7 +30706,7 @@
         <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ143">
         <v>2</v>
@@ -30897,7 +30915,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ144">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -31022,7 +31040,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31228,7 +31246,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31309,7 +31327,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR146">
         <v>1.36</v>
@@ -31512,10 +31530,10 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31640,7 +31658,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31718,7 +31736,7 @@
         <v>1.08</v>
       </c>
       <c r="AP148">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>1.06</v>
@@ -31846,7 +31864,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31927,7 +31945,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32052,7 +32070,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32258,7 +32276,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32336,7 +32354,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
         <v>1.6</v>
@@ -32464,7 +32482,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32670,7 +32688,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32876,7 +32894,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33369,7 +33387,7 @@
         <v>2</v>
       </c>
       <c r="AQ156">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
         <v>1.59</v>
@@ -33494,7 +33512,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33572,7 +33590,7 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
         <v>1.27</v>
@@ -33700,7 +33718,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33778,7 +33796,7 @@
         <v>0.77</v>
       </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ158">
         <v>0.93</v>
@@ -34112,7 +34130,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34193,7 +34211,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ160">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34318,7 +34336,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34396,10 +34414,10 @@
         <v>2.15</v>
       </c>
       <c r="AP161">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR161">
         <v>1.77</v>
@@ -34524,7 +34542,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34808,10 +34826,10 @@
         <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ163">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR163">
         <v>1.44</v>
@@ -34936,7 +34954,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35142,7 +35160,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35223,7 +35241,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ165">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR165">
         <v>1.15</v>
@@ -35426,7 +35444,7 @@
         <v>1.21</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
         <v>1.06</v>
@@ -35554,7 +35572,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35632,7 +35650,7 @@
         <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ167">
         <v>2</v>
@@ -35760,7 +35778,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35841,7 +35859,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ168">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR168">
         <v>1.63</v>
@@ -35966,7 +35984,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36044,7 +36062,7 @@
         <v>1.77</v>
       </c>
       <c r="AP169">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
         <v>1.73</v>
@@ -36172,7 +36190,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36378,7 +36396,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>1.95</v>
@@ -36459,7 +36477,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ171">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR171">
         <v>1.39</v>
@@ -36584,7 +36602,7 @@
         <v>93</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36790,7 +36808,7 @@
         <v>115</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -36996,7 +37014,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37202,7 +37220,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -37280,7 +37298,7 @@
         <v>0.85</v>
       </c>
       <c r="AP175">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
         <v>0.93</v>
@@ -37489,7 +37507,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ176">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR176">
         <v>1.44</v>
@@ -37692,7 +37710,7 @@
         <v>0.71</v>
       </c>
       <c r="AP177">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
         <v>0.67</v>
@@ -38026,7 +38044,7 @@
         <v>114</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38438,7 +38456,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38519,7 +38537,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ181">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR181">
         <v>1.95</v>
@@ -38801,6 +38819,830 @@
       </c>
       <c r="BP182">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7390118</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45432.375</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>77</v>
+      </c>
+      <c r="H183" t="s">
+        <v>81</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>213</v>
+      </c>
+      <c r="P183" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q183">
+        <v>2.3</v>
+      </c>
+      <c r="R183">
+        <v>2.3</v>
+      </c>
+      <c r="S183">
+        <v>4.75</v>
+      </c>
+      <c r="T183">
+        <v>1.33</v>
+      </c>
+      <c r="U183">
+        <v>3.25</v>
+      </c>
+      <c r="V183">
+        <v>2.63</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.11</v>
+      </c>
+      <c r="Z183">
+        <v>1.56</v>
+      </c>
+      <c r="AA183">
+        <v>4.15</v>
+      </c>
+      <c r="AB183">
+        <v>5</v>
+      </c>
+      <c r="AC183">
+        <v>1.04</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.19</v>
+      </c>
+      <c r="AF183">
+        <v>3.94</v>
+      </c>
+      <c r="AG183">
+        <v>1.69</v>
+      </c>
+      <c r="AH183">
+        <v>2.07</v>
+      </c>
+      <c r="AI183">
+        <v>1.75</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.15</v>
+      </c>
+      <c r="AL183">
+        <v>1.22</v>
+      </c>
+      <c r="AM183">
+        <v>2.4</v>
+      </c>
+      <c r="AN183">
+        <v>1.27</v>
+      </c>
+      <c r="AO183">
+        <v>0.93</v>
+      </c>
+      <c r="AP183">
+        <v>1.38</v>
+      </c>
+      <c r="AQ183">
+        <v>0.88</v>
+      </c>
+      <c r="AR183">
+        <v>1.25</v>
+      </c>
+      <c r="AS183">
+        <v>1.25</v>
+      </c>
+      <c r="AT183">
+        <v>2.5</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>2</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>11</v>
+      </c>
+      <c r="AZ183">
+        <v>9</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>9</v>
+      </c>
+      <c r="BD183">
+        <v>1.82</v>
+      </c>
+      <c r="BE183">
+        <v>8</v>
+      </c>
+      <c r="BF183">
+        <v>2.33</v>
+      </c>
+      <c r="BG183">
+        <v>1.18</v>
+      </c>
+      <c r="BH183">
+        <v>4.05</v>
+      </c>
+      <c r="BI183">
+        <v>1.38</v>
+      </c>
+      <c r="BJ183">
+        <v>2.85</v>
+      </c>
+      <c r="BK183">
+        <v>1.7</v>
+      </c>
+      <c r="BL183">
+        <v>2.05</v>
+      </c>
+      <c r="BM183">
+        <v>2.02</v>
+      </c>
+      <c r="BN183">
+        <v>1.72</v>
+      </c>
+      <c r="BO183">
+        <v>2.6</v>
+      </c>
+      <c r="BP183">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7390119</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45432.375</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184" t="s">
+        <v>76</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>214</v>
+      </c>
+      <c r="P184" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q184">
+        <v>3.5</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>2.95</v>
+      </c>
+      <c r="T184">
+        <v>1.35</v>
+      </c>
+      <c r="U184">
+        <v>2.9</v>
+      </c>
+      <c r="V184">
+        <v>2.7</v>
+      </c>
+      <c r="W184">
+        <v>1.39</v>
+      </c>
+      <c r="X184">
+        <v>6.85</v>
+      </c>
+      <c r="Y184">
+        <v>1.07</v>
+      </c>
+      <c r="Z184">
+        <v>2.63</v>
+      </c>
+      <c r="AA184">
+        <v>3.15</v>
+      </c>
+      <c r="AB184">
+        <v>2.59</v>
+      </c>
+      <c r="AC184">
+        <v>1.03</v>
+      </c>
+      <c r="AD184">
+        <v>11.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.29</v>
+      </c>
+      <c r="AF184">
+        <v>3.55</v>
+      </c>
+      <c r="AG184">
+        <v>1.74</v>
+      </c>
+      <c r="AH184">
+        <v>2</v>
+      </c>
+      <c r="AI184">
+        <v>1.7</v>
+      </c>
+      <c r="AJ184">
+        <v>2.1</v>
+      </c>
+      <c r="AK184">
+        <v>1.65</v>
+      </c>
+      <c r="AL184">
+        <v>1.26</v>
+      </c>
+      <c r="AM184">
+        <v>1.4</v>
+      </c>
+      <c r="AN184">
+        <v>1.47</v>
+      </c>
+      <c r="AO184">
+        <v>0.8</v>
+      </c>
+      <c r="AP184">
+        <v>1.56</v>
+      </c>
+      <c r="AQ184">
+        <v>0.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.4</v>
+      </c>
+      <c r="AS184">
+        <v>1.25</v>
+      </c>
+      <c r="AT184">
+        <v>2.65</v>
+      </c>
+      <c r="AU184">
+        <v>8</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>9</v>
+      </c>
+      <c r="AX184">
+        <v>5</v>
+      </c>
+      <c r="AY184">
+        <v>17</v>
+      </c>
+      <c r="AZ184">
+        <v>10</v>
+      </c>
+      <c r="BA184">
+        <v>9</v>
+      </c>
+      <c r="BB184">
+        <v>5</v>
+      </c>
+      <c r="BC184">
+        <v>14</v>
+      </c>
+      <c r="BD184">
+        <v>1.95</v>
+      </c>
+      <c r="BE184">
+        <v>8</v>
+      </c>
+      <c r="BF184">
+        <v>2.05</v>
+      </c>
+      <c r="BG184">
+        <v>1.26</v>
+      </c>
+      <c r="BH184">
+        <v>3.5</v>
+      </c>
+      <c r="BI184">
+        <v>1.46</v>
+      </c>
+      <c r="BJ184">
+        <v>2.55</v>
+      </c>
+      <c r="BK184">
+        <v>1.7</v>
+      </c>
+      <c r="BL184">
+        <v>2.05</v>
+      </c>
+      <c r="BM184">
+        <v>2.25</v>
+      </c>
+      <c r="BN184">
+        <v>1.59</v>
+      </c>
+      <c r="BO184">
+        <v>2.9</v>
+      </c>
+      <c r="BP184">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7390120</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>74</v>
+      </c>
+      <c r="H185" t="s">
+        <v>79</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>96</v>
+      </c>
+      <c r="P185" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>2.3</v>
+      </c>
+      <c r="S185">
+        <v>2.2</v>
+      </c>
+      <c r="T185">
+        <v>1.33</v>
+      </c>
+      <c r="U185">
+        <v>3.25</v>
+      </c>
+      <c r="V185">
+        <v>2.63</v>
+      </c>
+      <c r="W185">
+        <v>1.44</v>
+      </c>
+      <c r="X185">
+        <v>6.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.11</v>
+      </c>
+      <c r="Z185">
+        <v>4.5</v>
+      </c>
+      <c r="AA185">
+        <v>4.2</v>
+      </c>
+      <c r="AB185">
+        <v>1.63</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>13</v>
+      </c>
+      <c r="AE185">
+        <v>1.2</v>
+      </c>
+      <c r="AF185">
+        <v>4.33</v>
+      </c>
+      <c r="AG185">
+        <v>1.67</v>
+      </c>
+      <c r="AH185">
+        <v>2.11</v>
+      </c>
+      <c r="AI185">
+        <v>1.75</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>2.05</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>1.24</v>
+      </c>
+      <c r="AN185">
+        <v>1.4</v>
+      </c>
+      <c r="AO185">
+        <v>1.93</v>
+      </c>
+      <c r="AP185">
+        <v>1.31</v>
+      </c>
+      <c r="AQ185">
+        <v>2</v>
+      </c>
+      <c r="AR185">
+        <v>1.4</v>
+      </c>
+      <c r="AS185">
+        <v>1.25</v>
+      </c>
+      <c r="AT185">
+        <v>2.65</v>
+      </c>
+      <c r="AU185">
+        <v>3</v>
+      </c>
+      <c r="AV185">
+        <v>2</v>
+      </c>
+      <c r="AW185">
+        <v>8</v>
+      </c>
+      <c r="AX185">
+        <v>1</v>
+      </c>
+      <c r="AY185">
+        <v>11</v>
+      </c>
+      <c r="AZ185">
+        <v>3</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>1</v>
+      </c>
+      <c r="BC185">
+        <v>6</v>
+      </c>
+      <c r="BD185">
+        <v>2.66</v>
+      </c>
+      <c r="BE185">
+        <v>8.5</v>
+      </c>
+      <c r="BF185">
+        <v>1.64</v>
+      </c>
+      <c r="BG185">
+        <v>1.33</v>
+      </c>
+      <c r="BH185">
+        <v>3.05</v>
+      </c>
+      <c r="BI185">
+        <v>1.57</v>
+      </c>
+      <c r="BJ185">
+        <v>2.28</v>
+      </c>
+      <c r="BK185">
+        <v>1.77</v>
+      </c>
+      <c r="BL185">
+        <v>1.95</v>
+      </c>
+      <c r="BM185">
+        <v>2.5</v>
+      </c>
+      <c r="BN185">
+        <v>1.48</v>
+      </c>
+      <c r="BO185">
+        <v>3.3</v>
+      </c>
+      <c r="BP185">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7390121</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45432.54166666666</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>75</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>5</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>6</v>
+      </c>
+      <c r="O186" t="s">
+        <v>215</v>
+      </c>
+      <c r="P186" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q186">
+        <v>2.63</v>
+      </c>
+      <c r="R186">
+        <v>2.38</v>
+      </c>
+      <c r="S186">
+        <v>3.6</v>
+      </c>
+      <c r="T186">
+        <v>1.3</v>
+      </c>
+      <c r="U186">
+        <v>3.4</v>
+      </c>
+      <c r="V186">
+        <v>2.5</v>
+      </c>
+      <c r="W186">
+        <v>1.5</v>
+      </c>
+      <c r="X186">
+        <v>6</v>
+      </c>
+      <c r="Y186">
+        <v>1.13</v>
+      </c>
+      <c r="Z186">
+        <v>1.85</v>
+      </c>
+      <c r="AA186">
+        <v>3.7</v>
+      </c>
+      <c r="AB186">
+        <v>3.9</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>16.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.19</v>
+      </c>
+      <c r="AF186">
+        <v>4.72</v>
+      </c>
+      <c r="AG186">
+        <v>1.58</v>
+      </c>
+      <c r="AH186">
+        <v>2.19</v>
+      </c>
+      <c r="AI186">
+        <v>1.53</v>
+      </c>
+      <c r="AJ186">
+        <v>2.38</v>
+      </c>
+      <c r="AK186">
+        <v>1.33</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.78</v>
+      </c>
+      <c r="AN186">
+        <v>2.13</v>
+      </c>
+      <c r="AO186">
+        <v>1.87</v>
+      </c>
+      <c r="AP186">
+        <v>2.06</v>
+      </c>
+      <c r="AQ186">
+        <v>1.81</v>
+      </c>
+      <c r="AR186">
+        <v>1.8</v>
+      </c>
+      <c r="AS186">
+        <v>1.42</v>
+      </c>
+      <c r="AT186">
+        <v>3.22</v>
+      </c>
+      <c r="AU186">
+        <v>2</v>
+      </c>
+      <c r="AV186">
+        <v>0</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>3</v>
+      </c>
+      <c r="AZ186">
+        <v>5</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>3</v>
+      </c>
+      <c r="BC186">
+        <v>6</v>
+      </c>
+      <c r="BD186">
+        <v>1.75</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>2.52</v>
+      </c>
+      <c r="BG186">
+        <v>1.36</v>
+      </c>
+      <c r="BH186">
+        <v>2.9</v>
+      </c>
+      <c r="BI186">
+        <v>1.65</v>
+      </c>
+      <c r="BJ186">
+        <v>2.13</v>
+      </c>
+      <c r="BK186">
+        <v>1.77</v>
+      </c>
+      <c r="BL186">
+        <v>1.95</v>
+      </c>
+      <c r="BM186">
+        <v>2.65</v>
+      </c>
+      <c r="BN186">
+        <v>1.43</v>
+      </c>
+      <c r="BO186">
+        <v>3.5</v>
+      </c>
+      <c r="BP186">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,9 @@
     <t>['11', '16', '36']</t>
   </si>
   <si>
+    <t>['15', '28', '45+2']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -962,6 +965,9 @@
   </si>
   <si>
     <t>['38', '45+2', '79']</t>
+  </si>
+  <si>
+    <t>['13', '80']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,7 +1794,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1869,7 +1875,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.93</v>
@@ -2200,7 +2206,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2612,7 +2618,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2818,7 +2824,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3024,7 +3030,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3105,7 +3111,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3436,7 +3442,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3642,7 +3648,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3848,7 +3854,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3926,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -4054,7 +4060,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4466,7 +4472,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4672,7 +4678,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4878,7 +4884,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5084,7 +5090,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5290,7 +5296,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5496,7 +5502,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5702,7 +5708,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -6114,7 +6120,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6192,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>0.93</v>
@@ -6526,7 +6532,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6607,7 +6613,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR26">
         <v>0.75</v>
@@ -7144,7 +7150,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7350,7 +7356,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7968,7 +7974,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8252,7 +8258,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8380,7 +8386,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8792,7 +8798,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8998,7 +9004,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9410,7 +9416,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10234,7 +10240,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10440,7 +10446,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10521,7 +10527,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10646,7 +10652,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10852,7 +10858,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11058,7 +11064,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11136,7 +11142,7 @@
         <v>2.25</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11264,7 +11270,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11676,7 +11682,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11757,7 +11763,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR51">
         <v>1.84</v>
@@ -12088,7 +12094,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12294,7 +12300,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12706,7 +12712,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13324,7 +13330,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13530,7 +13536,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13736,7 +13742,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14148,7 +14154,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14354,7 +14360,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14766,7 +14772,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15050,10 +15056,10 @@
         <v>2.6</v>
       </c>
       <c r="AP67">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15178,7 +15184,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15590,7 +15596,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15796,7 +15802,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16002,7 +16008,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16208,7 +16214,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16826,7 +16832,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17522,7 +17528,7 @@
         <v>0.83</v>
       </c>
       <c r="AP79">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -17650,7 +17656,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18268,7 +18274,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18349,7 +18355,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18474,7 +18480,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -19710,7 +19716,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -19994,7 +20000,7 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -20122,7 +20128,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20328,7 +20334,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20409,7 +20415,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20946,7 +20952,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21152,7 +21158,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21770,7 +21776,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22182,7 +22188,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22388,7 +22394,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22594,7 +22600,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22800,7 +22806,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23006,7 +23012,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23212,7 +23218,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23293,7 +23299,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -24036,7 +24042,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24448,7 +24454,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24654,7 +24660,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24732,7 +24738,7 @@
         <v>1.78</v>
       </c>
       <c r="AP114">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
         <v>1.81</v>
@@ -25147,7 +25153,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25272,7 +25278,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25890,7 +25896,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25968,7 +25974,7 @@
         <v>1.89</v>
       </c>
       <c r="AP120">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
         <v>1.73</v>
@@ -26302,7 +26308,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26508,7 +26514,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26714,7 +26720,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27126,7 +27132,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27538,7 +27544,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27619,7 +27625,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27950,7 +27956,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28440,7 +28446,7 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
         <v>0.88</v>
@@ -28774,7 +28780,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29186,7 +29192,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29392,7 +29398,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29598,7 +29604,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29804,7 +29810,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30422,7 +30428,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30709,7 +30715,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ143">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR143">
         <v>1.79</v>
@@ -30912,7 +30918,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
         <v>1.81</v>
@@ -31040,7 +31046,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31246,7 +31252,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31658,7 +31664,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31864,7 +31870,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31942,7 +31948,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ149">
         <v>2</v>
@@ -32070,7 +32076,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32151,7 +32157,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ150">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32276,7 +32282,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32482,7 +32488,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32688,7 +32694,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32894,7 +32900,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33512,7 +33518,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33718,7 +33724,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34130,7 +34136,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34336,7 +34342,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34542,7 +34548,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34954,7 +34960,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35032,7 +35038,7 @@
         <v>1.62</v>
       </c>
       <c r="AP164">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ164">
         <v>1.6</v>
@@ -35160,7 +35166,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35572,7 +35578,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35653,7 +35659,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ167">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR167">
         <v>1.44</v>
@@ -35778,7 +35784,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35984,7 +35990,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36190,7 +36196,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36396,7 +36402,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>1.95</v>
@@ -36602,7 +36608,7 @@
         <v>93</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36808,7 +36814,7 @@
         <v>115</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -36889,7 +36895,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37014,7 +37020,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37220,7 +37226,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -38044,7 +38050,7 @@
         <v>114</v>
       </c>
       <c r="P179" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38328,7 +38334,7 @@
         <v>0.79</v>
       </c>
       <c r="AP180">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>0.93</v>
@@ -38456,7 +38462,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -39074,7 +39080,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>3.5</v>
@@ -39280,7 +39286,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -39373,13 +39379,13 @@
         <v>2.65</v>
       </c>
       <c r="AU185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW185">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX185">
         <v>1</v>
@@ -39388,7 +39394,7 @@
         <v>11</v>
       </c>
       <c r="AZ185">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA185">
         <v>5</v>
@@ -39486,7 +39492,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>2.63</v>
@@ -39579,31 +39585,31 @@
         <v>3.22</v>
       </c>
       <c r="AU186">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV186">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW186">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX186">
+        <v>14</v>
+      </c>
+      <c r="AY186">
+        <v>14</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
         <v>5</v>
       </c>
-      <c r="AY186">
-        <v>3</v>
-      </c>
-      <c r="AZ186">
+      <c r="BB186">
         <v>5</v>
       </c>
-      <c r="BA186">
-        <v>3</v>
-      </c>
-      <c r="BB186">
-        <v>3</v>
-      </c>
       <c r="BC186">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD186">
         <v>1.75</v>
@@ -39643,6 +39649,212 @@
       </c>
       <c r="BP186">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7390122</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45433.58333333334</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" t="s">
+        <v>80</v>
+      </c>
+      <c r="I187">
+        <v>3</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>5</v>
+      </c>
+      <c r="O187" t="s">
+        <v>216</v>
+      </c>
+      <c r="P187" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q187">
+        <v>6.5</v>
+      </c>
+      <c r="R187">
+        <v>2.3</v>
+      </c>
+      <c r="S187">
+        <v>2.05</v>
+      </c>
+      <c r="T187">
+        <v>1.36</v>
+      </c>
+      <c r="U187">
+        <v>3</v>
+      </c>
+      <c r="V187">
+        <v>2.63</v>
+      </c>
+      <c r="W187">
+        <v>1.44</v>
+      </c>
+      <c r="X187">
+        <v>7</v>
+      </c>
+      <c r="Y187">
+        <v>1.1</v>
+      </c>
+      <c r="Z187">
+        <v>6.75</v>
+      </c>
+      <c r="AA187">
+        <v>4.27</v>
+      </c>
+      <c r="AB187">
+        <v>1.5</v>
+      </c>
+      <c r="AC187">
+        <v>1.01</v>
+      </c>
+      <c r="AD187">
+        <v>10</v>
+      </c>
+      <c r="AE187">
+        <v>1.23</v>
+      </c>
+      <c r="AF187">
+        <v>3.58</v>
+      </c>
+      <c r="AG187">
+        <v>1.85</v>
+      </c>
+      <c r="AH187">
+        <v>1.96</v>
+      </c>
+      <c r="AI187">
+        <v>1.95</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>2.7</v>
+      </c>
+      <c r="AL187">
+        <v>1.19</v>
+      </c>
+      <c r="AM187">
+        <v>1.1</v>
+      </c>
+      <c r="AN187">
+        <v>1.27</v>
+      </c>
+      <c r="AO187">
+        <v>2</v>
+      </c>
+      <c r="AP187">
+        <v>1.38</v>
+      </c>
+      <c r="AQ187">
+        <v>1.88</v>
+      </c>
+      <c r="AR187">
+        <v>1.49</v>
+      </c>
+      <c r="AS187">
+        <v>1.62</v>
+      </c>
+      <c r="AT187">
+        <v>3.11</v>
+      </c>
+      <c r="AU187">
+        <v>2</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>2</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>4</v>
+      </c>
+      <c r="AZ187">
+        <v>5</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>5</v>
+      </c>
+      <c r="BD187">
+        <v>3.14</v>
+      </c>
+      <c r="BE187">
+        <v>9</v>
+      </c>
+      <c r="BF187">
+        <v>1.51</v>
+      </c>
+      <c r="BG187">
+        <v>1.18</v>
+      </c>
+      <c r="BH187">
+        <v>4.15</v>
+      </c>
+      <c r="BI187">
+        <v>1.38</v>
+      </c>
+      <c r="BJ187">
+        <v>2.85</v>
+      </c>
+      <c r="BK187">
+        <v>1.65</v>
+      </c>
+      <c r="BL187">
+        <v>2.13</v>
+      </c>
+      <c r="BM187">
+        <v>2.05</v>
+      </c>
+      <c r="BN187">
+        <v>1.7</v>
+      </c>
+      <c r="BO187">
+        <v>2.6</v>
+      </c>
+      <c r="BP187">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -39791,31 +39791,31 @@
         <v>3.11</v>
       </c>
       <c r="AU187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV187">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AW187">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX187">
         <v>0</v>
       </c>
       <c r="AY187">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AZ187">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA187">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC187">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD187">
         <v>3.14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>['15', '28', '45+2']</t>
+  </si>
+  <si>
+    <t>['51', '76']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -1329,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1797,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2081,7 +2084,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2206,7 +2209,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2618,7 +2621,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2824,7 +2827,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2902,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3030,7 +3033,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3442,7 +3445,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3520,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3648,7 +3651,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3729,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3854,7 +3857,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4060,7 +4063,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4141,7 +4144,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>2.35</v>
@@ -4472,7 +4475,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4550,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ16">
         <v>1.27</v>
@@ -4678,7 +4681,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4884,7 +4887,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5090,7 +5093,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5296,7 +5299,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5377,7 +5380,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ20">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
         <v>1.52</v>
@@ -5502,7 +5505,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q21">
         <v>3.8</v>
@@ -5708,7 +5711,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>4.3</v>
@@ -5786,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.6</v>
@@ -5995,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -6120,7 +6123,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6404,7 +6407,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.88</v>
@@ -6532,7 +6535,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6610,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ26">
         <v>1.88</v>
@@ -7150,7 +7153,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7356,7 +7359,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7640,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7846,7 +7849,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7974,7 +7977,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8261,7 +8264,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR34">
         <v>2.06</v>
@@ -8386,7 +8389,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8464,10 +8467,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ35">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -8798,7 +8801,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9004,7 +9007,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9085,7 +9088,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ38">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.4</v>
@@ -9416,7 +9419,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -10240,7 +10243,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10318,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>1.81</v>
@@ -10446,7 +10449,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10652,7 +10655,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10858,7 +10861,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10936,10 +10939,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -11064,7 +11067,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11270,7 +11273,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11557,7 +11560,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.22</v>
@@ -11682,7 +11685,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12094,7 +12097,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12172,7 +12175,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.27</v>
@@ -12300,7 +12303,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12381,7 +12384,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ54">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12712,7 +12715,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12996,7 +12999,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.93</v>
@@ -13330,7 +13333,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13408,7 +13411,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13536,7 +13539,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13614,7 +13617,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1.27</v>
@@ -13742,7 +13745,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13823,7 +13826,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
@@ -14029,7 +14032,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
         <v>1.65</v>
@@ -14154,7 +14157,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14235,7 +14238,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ63">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14360,7 +14363,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>2.55</v>
@@ -14772,7 +14775,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15184,7 +15187,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15262,7 +15265,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ68">
         <v>0.93</v>
@@ -15471,7 +15474,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ69">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15596,7 +15599,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15802,7 +15805,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15880,7 +15883,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>1.6</v>
@@ -16008,7 +16011,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16086,7 +16089,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -16214,7 +16217,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16501,7 +16504,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16832,7 +16835,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17119,7 +17122,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.66</v>
@@ -17656,7 +17659,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17737,7 +17740,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.17</v>
@@ -17943,7 +17946,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.7</v>
@@ -18146,7 +18149,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>0.93</v>
@@ -18274,7 +18277,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18352,7 +18355,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.88</v>
@@ -18480,7 +18483,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18558,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ84">
         <v>1.81</v>
@@ -19385,7 +19388,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
         <v>1.2</v>
@@ -19716,7 +19719,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20128,7 +20131,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20206,10 +20209,10 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ92">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20334,7 +20337,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20412,7 +20415,7 @@
         <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
@@ -20824,10 +20827,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
         <v>1.21</v>
@@ -20952,7 +20955,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21158,7 +21161,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21442,10 +21445,10 @@
         <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21776,7 +21779,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22188,7 +22191,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22394,7 +22397,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22600,7 +22603,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22678,10 +22681,10 @@
         <v>1.75</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22806,7 +22809,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22887,7 +22890,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR105">
         <v>1.73</v>
@@ -23012,7 +23015,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23090,7 +23093,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ106">
         <v>1.06</v>
@@ -23218,7 +23221,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23914,10 +23917,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -24042,7 +24045,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>4.33</v>
@@ -24120,7 +24123,7 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ111">
         <v>0.75</v>
@@ -24454,7 +24457,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24660,7 +24663,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25278,7 +25281,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25562,7 +25565,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118">
         <v>1.06</v>
@@ -25771,7 +25774,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25896,7 +25899,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25977,7 +25980,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR120">
         <v>1.54</v>
@@ -26308,7 +26311,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26386,7 +26389,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ122">
         <v>1.6</v>
@@ -26514,7 +26517,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26720,7 +26723,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26801,7 +26804,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR124">
         <v>1.27</v>
@@ -27007,7 +27010,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
         <v>2.05</v>
@@ -27132,7 +27135,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27210,7 +27213,7 @@
         <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
         <v>2</v>
@@ -27416,7 +27419,7 @@
         <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.81</v>
@@ -27544,7 +27547,7 @@
         <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27956,7 +27959,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>2.05</v>
@@ -28243,7 +28246,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ131">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28780,7 +28783,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -28858,10 +28861,10 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29064,7 +29067,7 @@
         <v>0.82</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -29192,7 +29195,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29398,7 +29401,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29604,7 +29607,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29810,7 +29813,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -29891,7 +29894,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ139">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -30097,7 +30100,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -30428,7 +30431,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30506,7 +30509,7 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -31046,7 +31049,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31252,7 +31255,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31664,7 +31667,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31870,7 +31873,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32076,7 +32079,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32282,7 +32285,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32488,7 +32491,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32566,10 +32569,10 @@
         <v>1.83</v>
       </c>
       <c r="AP152">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR152">
         <v>1.39</v>
@@ -32694,7 +32697,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32772,10 +32775,10 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ153">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR153">
         <v>1.13</v>
@@ -32900,7 +32903,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -32978,10 +32981,10 @@
         <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR154">
         <v>1.52</v>
@@ -33518,7 +33521,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33724,7 +33727,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33805,7 +33808,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ158">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR158">
         <v>1.35</v>
@@ -34008,7 +34011,7 @@
         <v>1.23</v>
       </c>
       <c r="AP159">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ159">
         <v>1.06</v>
@@ -34136,7 +34139,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34342,7 +34345,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34548,7 +34551,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34960,7 +34963,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35166,7 +35169,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35244,7 +35247,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ165">
         <v>0.75</v>
@@ -35578,7 +35581,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35784,7 +35787,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35990,7 +35993,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36071,7 +36074,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR169">
         <v>1.24</v>
@@ -36196,7 +36199,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36277,7 +36280,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ170">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR170">
         <v>1.39</v>
@@ -36402,7 +36405,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>1.95</v>
@@ -36480,7 +36483,7 @@
         <v>0.93</v>
       </c>
       <c r="AP171">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>0.88</v>
@@ -36608,7 +36611,7 @@
         <v>93</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36686,10 +36689,10 @@
         <v>0.79</v>
       </c>
       <c r="AP172">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ172">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
         <v>1.53</v>
@@ -36814,7 +36817,7 @@
         <v>115</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -37020,7 +37023,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37226,7 +37229,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -37510,7 +37513,7 @@
         <v>0.86</v>
       </c>
       <c r="AP176">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ176">
         <v>0.75</v>
@@ -37719,7 +37722,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
         <v>1.25</v>
@@ -38050,7 +38053,7 @@
         <v>114</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38128,10 +38131,10 @@
         <v>1.64</v>
       </c>
       <c r="AP179">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AQ179">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR179">
         <v>1.16</v>
@@ -38462,7 +38465,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -39080,7 +39083,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>3.5</v>
@@ -39286,7 +39289,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -39492,7 +39495,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>2.63</v>
@@ -39698,7 +39701,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>6.5</v>
@@ -39855,6 +39858,624 @@
       </c>
       <c r="BP187">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7390123</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45437.41666666666</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>81</v>
+      </c>
+      <c r="H188" t="s">
+        <v>71</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>96</v>
+      </c>
+      <c r="P188" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q188">
+        <v>4.02</v>
+      </c>
+      <c r="R188">
+        <v>2.37</v>
+      </c>
+      <c r="S188">
+        <v>2.6</v>
+      </c>
+      <c r="T188">
+        <v>1.33</v>
+      </c>
+      <c r="U188">
+        <v>3.32</v>
+      </c>
+      <c r="V188">
+        <v>2.62</v>
+      </c>
+      <c r="W188">
+        <v>1.49</v>
+      </c>
+      <c r="X188">
+        <v>5.75</v>
+      </c>
+      <c r="Y188">
+        <v>1.1</v>
+      </c>
+      <c r="Z188">
+        <v>3.11</v>
+      </c>
+      <c r="AA188">
+        <v>3.45</v>
+      </c>
+      <c r="AB188">
+        <v>2.15</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>9.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.25</v>
+      </c>
+      <c r="AF188">
+        <v>3.85</v>
+      </c>
+      <c r="AG188">
+        <v>1.79</v>
+      </c>
+      <c r="AH188">
+        <v>2.02</v>
+      </c>
+      <c r="AI188">
+        <v>1.6</v>
+      </c>
+      <c r="AJ188">
+        <v>2.15</v>
+      </c>
+      <c r="AK188">
+        <v>1.75</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.28</v>
+      </c>
+      <c r="AN188">
+        <v>0.33</v>
+      </c>
+      <c r="AO188">
+        <v>0.67</v>
+      </c>
+      <c r="AP188">
+        <v>0.38</v>
+      </c>
+      <c r="AQ188">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR188">
+        <v>1.15</v>
+      </c>
+      <c r="AS188">
+        <v>1.14</v>
+      </c>
+      <c r="AT188">
+        <v>2.29</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>4</v>
+      </c>
+      <c r="AW188">
+        <v>8</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+      <c r="AY188">
+        <v>13</v>
+      </c>
+      <c r="AZ188">
+        <v>8</v>
+      </c>
+      <c r="BA188">
+        <v>4</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>8</v>
+      </c>
+      <c r="BD188">
+        <v>2.3</v>
+      </c>
+      <c r="BE188">
+        <v>7.5</v>
+      </c>
+      <c r="BF188">
+        <v>1.88</v>
+      </c>
+      <c r="BG188">
+        <v>1.18</v>
+      </c>
+      <c r="BH188">
+        <v>4.25</v>
+      </c>
+      <c r="BI188">
+        <v>1.4</v>
+      </c>
+      <c r="BJ188">
+        <v>2.75</v>
+      </c>
+      <c r="BK188">
+        <v>1.68</v>
+      </c>
+      <c r="BL188">
+        <v>2.08</v>
+      </c>
+      <c r="BM188">
+        <v>2.1</v>
+      </c>
+      <c r="BN188">
+        <v>1.67</v>
+      </c>
+      <c r="BO188">
+        <v>2.6</v>
+      </c>
+      <c r="BP188">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7390124</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45437.41666666666</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H189" t="s">
+        <v>77</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>114</v>
+      </c>
+      <c r="P189" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q189">
+        <v>2.38</v>
+      </c>
+      <c r="R189">
+        <v>2.3</v>
+      </c>
+      <c r="S189">
+        <v>4.5</v>
+      </c>
+      <c r="T189">
+        <v>1.33</v>
+      </c>
+      <c r="U189">
+        <v>3.25</v>
+      </c>
+      <c r="V189">
+        <v>2.63</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>6.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.11</v>
+      </c>
+      <c r="Z189">
+        <v>1.71</v>
+      </c>
+      <c r="AA189">
+        <v>3.42</v>
+      </c>
+      <c r="AB189">
+        <v>3.98</v>
+      </c>
+      <c r="AC189">
+        <v>1.04</v>
+      </c>
+      <c r="AD189">
+        <v>10</v>
+      </c>
+      <c r="AE189">
+        <v>1.22</v>
+      </c>
+      <c r="AF189">
+        <v>4.2</v>
+      </c>
+      <c r="AG189">
+        <v>1.77</v>
+      </c>
+      <c r="AH189">
+        <v>1.84</v>
+      </c>
+      <c r="AI189">
+        <v>1.7</v>
+      </c>
+      <c r="AJ189">
+        <v>2.05</v>
+      </c>
+      <c r="AK189">
+        <v>1.2</v>
+      </c>
+      <c r="AL189">
+        <v>1.2</v>
+      </c>
+      <c r="AM189">
+        <v>2</v>
+      </c>
+      <c r="AN189">
+        <v>1.4</v>
+      </c>
+      <c r="AO189">
+        <v>0.93</v>
+      </c>
+      <c r="AP189">
+        <v>1.5</v>
+      </c>
+      <c r="AQ189">
+        <v>0.88</v>
+      </c>
+      <c r="AR189">
+        <v>1.4</v>
+      </c>
+      <c r="AS189">
+        <v>1.16</v>
+      </c>
+      <c r="AT189">
+        <v>2.56</v>
+      </c>
+      <c r="AU189">
+        <v>7</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>18</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>25</v>
+      </c>
+      <c r="AZ189">
+        <v>9</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>6</v>
+      </c>
+      <c r="BC189">
+        <v>16</v>
+      </c>
+      <c r="BD189">
+        <v>1.3</v>
+      </c>
+      <c r="BE189">
+        <v>8.5</v>
+      </c>
+      <c r="BF189">
+        <v>4.35</v>
+      </c>
+      <c r="BG189">
+        <v>1.22</v>
+      </c>
+      <c r="BH189">
+        <v>3.75</v>
+      </c>
+      <c r="BI189">
+        <v>1.4</v>
+      </c>
+      <c r="BJ189">
+        <v>2.75</v>
+      </c>
+      <c r="BK189">
+        <v>1.68</v>
+      </c>
+      <c r="BL189">
+        <v>2.08</v>
+      </c>
+      <c r="BM189">
+        <v>2.1</v>
+      </c>
+      <c r="BN189">
+        <v>1.67</v>
+      </c>
+      <c r="BO189">
+        <v>2.88</v>
+      </c>
+      <c r="BP189">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7390125</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45437.41666666666</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>76</v>
+      </c>
+      <c r="H190" t="s">
+        <v>73</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>217</v>
+      </c>
+      <c r="P190" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q190">
+        <v>2.61</v>
+      </c>
+      <c r="R190">
+        <v>2.41</v>
+      </c>
+      <c r="S190">
+        <v>3.87</v>
+      </c>
+      <c r="T190">
+        <v>1.33</v>
+      </c>
+      <c r="U190">
+        <v>3.34</v>
+      </c>
+      <c r="V190">
+        <v>2.51</v>
+      </c>
+      <c r="W190">
+        <v>1.53</v>
+      </c>
+      <c r="X190">
+        <v>5.8</v>
+      </c>
+      <c r="Y190">
+        <v>1.12</v>
+      </c>
+      <c r="Z190">
+        <v>1.95</v>
+      </c>
+      <c r="AA190">
+        <v>3.48</v>
+      </c>
+      <c r="AB190">
+        <v>3.03</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.2</v>
+      </c>
+      <c r="AF190">
+        <v>4.33</v>
+      </c>
+      <c r="AG190">
+        <v>1.68</v>
+      </c>
+      <c r="AH190">
+        <v>2.2</v>
+      </c>
+      <c r="AI190">
+        <v>1.57</v>
+      </c>
+      <c r="AJ190">
+        <v>2.2</v>
+      </c>
+      <c r="AK190">
+        <v>1.33</v>
+      </c>
+      <c r="AL190">
+        <v>1.2</v>
+      </c>
+      <c r="AM190">
+        <v>1.75</v>
+      </c>
+      <c r="AN190">
+        <v>1.67</v>
+      </c>
+      <c r="AO190">
+        <v>1.73</v>
+      </c>
+      <c r="AP190">
+        <v>1.75</v>
+      </c>
+      <c r="AQ190">
+        <v>1.63</v>
+      </c>
+      <c r="AR190">
+        <v>1.54</v>
+      </c>
+      <c r="AS190">
+        <v>1.26</v>
+      </c>
+      <c r="AT190">
+        <v>2.8</v>
+      </c>
+      <c r="AU190">
+        <v>5</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>9</v>
+      </c>
+      <c r="AX190">
+        <v>14</v>
+      </c>
+      <c r="AY190">
+        <v>14</v>
+      </c>
+      <c r="AZ190">
+        <v>20</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>8</v>
+      </c>
+      <c r="BC190">
+        <v>8</v>
+      </c>
+      <c r="BD190">
+        <v>1.97</v>
+      </c>
+      <c r="BE190">
+        <v>7.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.18</v>
+      </c>
+      <c r="BG190">
+        <v>1.18</v>
+      </c>
+      <c r="BH190">
+        <v>4.25</v>
+      </c>
+      <c r="BI190">
+        <v>1.34</v>
+      </c>
+      <c r="BJ190">
+        <v>2.95</v>
+      </c>
+      <c r="BK190">
+        <v>1.57</v>
+      </c>
+      <c r="BL190">
+        <v>2.28</v>
+      </c>
+      <c r="BM190">
+        <v>1.92</v>
+      </c>
+      <c r="BN190">
+        <v>1.8</v>
+      </c>
+      <c r="BO190">
+        <v>2.45</v>
+      </c>
+      <c r="BP190">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,10 +358,10 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['31']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['9', '22', '35']</t>
@@ -484,10 +484,10 @@
     <t>['45+5']</t>
   </si>
   <si>
-    <t>['4', '74']</t>
+    <t>['64']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['4', '74']</t>
   </si>
   <si>
     <t>['9', '40', '45+3', '88']</t>
@@ -496,19 +496,19 @@
     <t>['45+4', '45+9', '54', '66', '84']</t>
   </si>
   <si>
-    <t>['45+2', '60', '86']</t>
+    <t>['25']</t>
   </si>
   <si>
-    <t>['25']</t>
+    <t>['45+2', '60', '86']</t>
   </si>
   <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['68', '83']</t>
+    <t>['43', '80']</t>
   </si>
   <si>
-    <t>['43', '80']</t>
+    <t>['68', '83']</t>
   </si>
   <si>
     <t>['9', '76']</t>
@@ -544,16 +544,16 @@
     <t>['90']</t>
   </si>
   <si>
-    <t>['43', '50']</t>
+    <t>['33', '41', '58', '71']</t>
+  </si>
+  <si>
+    <t>['67', '76', '90+6']</t>
   </si>
   <si>
     <t>['68']</t>
   </si>
   <si>
-    <t>['67', '76', '90+6']</t>
-  </si>
-  <si>
-    <t>['33', '41', '58', '71']</t>
+    <t>['43', '50']</t>
   </si>
   <si>
     <t>['8', '18', '31', '48', '52', '57']</t>
@@ -670,6 +670,9 @@
     <t>['51', '76']</t>
   </si>
   <si>
+    <t>['46', '48', '52']</t>
+  </si>
+  <si>
     <t>['44', '56']</t>
   </si>
   <si>
@@ -712,10 +715,10 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['51', '59']</t>
+    <t>['13', '65', '72', '81', '89']</t>
   </si>
   <si>
-    <t>['13', '65', '72', '81', '89']</t>
+    <t>['51', '59']</t>
   </si>
   <si>
     <t>['90+1', '90+4']</t>
@@ -778,10 +781,10 @@
     <t>['35', '50']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['40']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['24']</t>
   </si>
   <si>
     <t>['9', '71']</t>
@@ -838,10 +841,10 @@
     <t>['11', '34']</t>
   </si>
   <si>
-    <t>['44', '90+2']</t>
+    <t>['50', '51', '58']</t>
   </si>
   <si>
-    <t>['50', '51', '58']</t>
+    <t>['44', '90+2']</t>
   </si>
   <si>
     <t>['54', '63', '87']</t>
@@ -862,10 +865,10 @@
     <t>['18', '69']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['12']</t>
   </si>
   <si>
-    <t>['12']</t>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['34', '90+3']</t>
@@ -946,10 +949,10 @@
     <t>['22', '31']</t>
   </si>
   <si>
-    <t>['11', '68']</t>
+    <t>['8', '66']</t>
   </si>
   <si>
-    <t>['8', '66']</t>
+    <t>['11', '68']</t>
   </si>
   <si>
     <t>['39', '54', '90+12']</t>
@@ -971,6 +974,9 @@
   </si>
   <si>
     <t>['13', '80']</t>
+  </si>
+  <si>
+    <t>['13', '26', '82']</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
         <v>0.88</v>
@@ -1797,7 +1803,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2209,7 +2215,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2621,7 +2627,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2827,7 +2833,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3033,7 +3039,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3317,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
@@ -3445,7 +3451,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3651,7 +3657,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3857,7 +3863,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3938,7 +3944,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
@@ -4063,7 +4069,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4347,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -4475,7 +4481,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4681,7 +4687,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4887,7 +4893,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5093,7 +5099,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5299,7 +5305,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5377,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ20">
         <v>1.63</v>
@@ -5463,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6454076</v>
+        <v>6454075</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5478,61 +5484,61 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q21">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="R21">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="S21">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="T21">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V21">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="W21">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="X21">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y21">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z21">
         <v>3.3</v>
@@ -5544,16 +5550,16 @@
         <v>1.86</v>
       </c>
       <c r="AC21">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE21">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AF21">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AG21">
         <v>1.6</v>
@@ -5565,43 +5571,43 @@
         <v>1.57</v>
       </c>
       <c r="AJ21">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="AK21">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AL21">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM21">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AS21">
-        <v>0.65</v>
+        <v>1.37</v>
       </c>
       <c r="AT21">
-        <v>2.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW21">
         <v>4</v>
@@ -5610,58 +5616,58 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>5</v>
+      </c>
+      <c r="BC21">
+        <v>6</v>
+      </c>
+      <c r="BD21">
+        <v>2.85</v>
+      </c>
+      <c r="BE21">
+        <v>6</v>
+      </c>
+      <c r="BF21">
+        <v>1.57</v>
+      </c>
+      <c r="BG21">
+        <v>1.32</v>
+      </c>
+      <c r="BH21">
+        <v>3</v>
+      </c>
+      <c r="BI21">
+        <v>1.5</v>
+      </c>
+      <c r="BJ21">
+        <v>2.45</v>
+      </c>
+      <c r="BK21">
+        <v>1.86</v>
+      </c>
+      <c r="BL21">
+        <v>1.86</v>
+      </c>
+      <c r="BM21">
+        <v>2.3</v>
+      </c>
+      <c r="BN21">
+        <v>1.55</v>
+      </c>
+      <c r="BO21">
         <v>4</v>
       </c>
-      <c r="BB21">
-        <v>3</v>
-      </c>
-      <c r="BC21">
-        <v>7</v>
-      </c>
-      <c r="BD21">
-        <v>3.05</v>
-      </c>
-      <c r="BE21">
-        <v>7.5</v>
-      </c>
-      <c r="BF21">
-        <v>1.56</v>
-      </c>
-      <c r="BG21">
-        <v>1.34</v>
-      </c>
-      <c r="BH21">
-        <v>2.87</v>
-      </c>
-      <c r="BI21">
-        <v>1.57</v>
-      </c>
-      <c r="BJ21">
-        <v>2.28</v>
-      </c>
-      <c r="BK21">
-        <v>1.95</v>
-      </c>
-      <c r="BL21">
-        <v>1.78</v>
-      </c>
-      <c r="BM21">
-        <v>2.5</v>
-      </c>
-      <c r="BN21">
-        <v>1.48</v>
-      </c>
-      <c r="BO21">
-        <v>4.1</v>
-      </c>
       <c r="BP21">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5669,7 +5675,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6454075</v>
+        <v>6454076</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5684,61 +5690,61 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q22">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="R22">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="S22">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="T22">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U22">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="V22">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="W22">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="X22">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y22">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z22">
         <v>3.3</v>
@@ -5750,16 +5756,16 @@
         <v>1.86</v>
       </c>
       <c r="AC22">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE22">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AF22">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AG22">
         <v>1.6</v>
@@ -5771,43 +5777,43 @@
         <v>1.57</v>
       </c>
       <c r="AJ22">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="AK22">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AL22">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM22">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1.38</v>
+      </c>
+      <c r="AQ22">
+        <v>1.81</v>
+      </c>
+      <c r="AR22">
+        <v>1.44</v>
+      </c>
+      <c r="AS22">
+        <v>0.65</v>
+      </c>
+      <c r="AT22">
+        <v>2.09</v>
+      </c>
+      <c r="AU22">
         <v>3</v>
       </c>
-      <c r="AP22">
-        <v>1.5</v>
-      </c>
-      <c r="AQ22">
-        <v>1.6</v>
-      </c>
-      <c r="AR22">
-        <v>1.62</v>
-      </c>
-      <c r="AS22">
-        <v>1.37</v>
-      </c>
-      <c r="AT22">
-        <v>2.99</v>
-      </c>
-      <c r="AU22">
-        <v>2</v>
-      </c>
       <c r="AV22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW22">
         <v>4</v>
@@ -5816,58 +5822,58 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD22">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="BE22">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="BF22">
+        <v>1.56</v>
+      </c>
+      <c r="BG22">
+        <v>1.34</v>
+      </c>
+      <c r="BH22">
+        <v>2.87</v>
+      </c>
+      <c r="BI22">
         <v>1.57</v>
       </c>
-      <c r="BG22">
-        <v>1.32</v>
-      </c>
-      <c r="BH22">
-        <v>3</v>
-      </c>
-      <c r="BI22">
-        <v>1.5</v>
-      </c>
       <c r="BJ22">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="BK22">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="BL22">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="BM22">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BN22">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="BO22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BP22">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -6123,7 +6129,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6204,7 +6210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR24">
         <v>2.02</v>
@@ -6535,7 +6541,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6822,7 +6828,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -7153,7 +7159,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7231,7 +7237,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7359,7 +7365,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7565,7 +7571,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.38</v>
@@ -7977,7 +7983,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8055,10 +8061,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ33">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR33">
         <v>1.92</v>
@@ -8389,7 +8395,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8801,7 +8807,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9007,7 +9013,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9171,7 +9177,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6454094</v>
+        <v>6454095</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -9186,160 +9192,160 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
         <v>2.4</v>
       </c>
-      <c r="S39">
-        <v>6</v>
-      </c>
       <c r="T39">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V39">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X39">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y39">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z39">
+        <v>3.5</v>
+      </c>
+      <c r="AA39">
+        <v>3.45</v>
+      </c>
+      <c r="AB39">
+        <v>1.75</v>
+      </c>
+      <c r="AC39">
+        <v>1.05</v>
+      </c>
+      <c r="AD39">
+        <v>9</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>3.75</v>
+      </c>
+      <c r="AG39">
+        <v>1.85</v>
+      </c>
+      <c r="AH39">
+        <v>1.95</v>
+      </c>
+      <c r="AI39">
         <v>1.67</v>
       </c>
-      <c r="AA39">
-        <v>3.65</v>
-      </c>
-      <c r="AB39">
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.85</v>
+      </c>
+      <c r="AL39">
+        <v>1.29</v>
+      </c>
+      <c r="AM39">
+        <v>1.22</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>1.56</v>
+      </c>
+      <c r="AQ39">
+        <v>1.56</v>
+      </c>
+      <c r="AR39">
+        <v>1.37</v>
+      </c>
+      <c r="AS39">
+        <v>1.55</v>
+      </c>
+      <c r="AT39">
+        <v>2.92</v>
+      </c>
+      <c r="AU39">
         <v>4</v>
       </c>
-      <c r="AC39">
-        <v>1.02</v>
-      </c>
-      <c r="AD39">
-        <v>14.5</v>
-      </c>
-      <c r="AE39">
-        <v>1.2</v>
-      </c>
-      <c r="AF39">
-        <v>4.5</v>
-      </c>
-      <c r="AG39">
-        <v>1.94</v>
-      </c>
-      <c r="AH39">
-        <v>1.92</v>
-      </c>
-      <c r="AI39">
-        <v>1.8</v>
-      </c>
-      <c r="AJ39">
-        <v>1.95</v>
-      </c>
-      <c r="AK39">
-        <v>1.12</v>
-      </c>
-      <c r="AL39">
-        <v>1.17</v>
-      </c>
-      <c r="AM39">
-        <v>2.65</v>
-      </c>
-      <c r="AN39">
-        <v>2</v>
-      </c>
-      <c r="AO39">
-        <v>0.67</v>
-      </c>
-      <c r="AP39">
-        <v>1.31</v>
-      </c>
-      <c r="AQ39">
-        <v>0.88</v>
-      </c>
-      <c r="AR39">
-        <v>1.65</v>
-      </c>
-      <c r="AS39">
-        <v>1.01</v>
-      </c>
-      <c r="AT39">
-        <v>2.66</v>
-      </c>
-      <c r="AU39">
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>9</v>
+      </c>
+      <c r="AY39">
+        <v>4</v>
+      </c>
+      <c r="AZ39">
+        <v>13</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>9</v>
+      </c>
+      <c r="BC39">
+        <v>10</v>
+      </c>
+      <c r="BD39">
+        <v>2.8</v>
+      </c>
+      <c r="BE39">
         <v>8</v>
       </c>
-      <c r="AV39">
-        <v>3</v>
-      </c>
-      <c r="AW39">
-        <v>4</v>
-      </c>
-      <c r="AX39">
-        <v>3</v>
-      </c>
-      <c r="AY39">
-        <v>12</v>
-      </c>
-      <c r="AZ39">
-        <v>6</v>
-      </c>
-      <c r="BA39">
-        <v>8</v>
-      </c>
-      <c r="BB39">
-        <v>4</v>
-      </c>
-      <c r="BC39">
-        <v>12</v>
-      </c>
-      <c r="BD39">
-        <v>1.45</v>
-      </c>
-      <c r="BE39">
-        <v>8.5</v>
-      </c>
       <c r="BF39">
-        <v>3.29</v>
+        <v>1.59</v>
       </c>
       <c r="BG39">
         <v>1.25</v>
@@ -9348,28 +9354,28 @@
         <v>3.5</v>
       </c>
       <c r="BI39">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BJ39">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BK39">
         <v>1.85</v>
       </c>
       <c r="BL39">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="BM39">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BN39">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BO39">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP39">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9377,7 +9383,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6454095</v>
+        <v>6454094</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9392,160 +9398,160 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2.4</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>3.4</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1.13</v>
+      </c>
+      <c r="Z40">
+        <v>1.67</v>
+      </c>
+      <c r="AA40">
+        <v>3.65</v>
+      </c>
+      <c r="AB40">
+        <v>4</v>
+      </c>
+      <c r="AC40">
+        <v>1.02</v>
+      </c>
+      <c r="AD40">
+        <v>14.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.2</v>
+      </c>
+      <c r="AF40">
         <v>4.5</v>
       </c>
-      <c r="R40">
-        <v>2.3</v>
-      </c>
-      <c r="S40">
-        <v>2.4</v>
-      </c>
-      <c r="T40">
-        <v>1.33</v>
-      </c>
-      <c r="U40">
-        <v>3.25</v>
-      </c>
-      <c r="V40">
-        <v>2.63</v>
-      </c>
-      <c r="W40">
-        <v>1.44</v>
-      </c>
-      <c r="X40">
-        <v>6.5</v>
-      </c>
-      <c r="Y40">
-        <v>1.11</v>
-      </c>
-      <c r="Z40">
-        <v>3.5</v>
-      </c>
-      <c r="AA40">
-        <v>3.45</v>
-      </c>
-      <c r="AB40">
-        <v>1.75</v>
-      </c>
-      <c r="AC40">
-        <v>1.05</v>
-      </c>
-      <c r="AD40">
-        <v>9</v>
-      </c>
-      <c r="AE40">
-        <v>1.25</v>
-      </c>
-      <c r="AF40">
-        <v>3.75</v>
-      </c>
       <c r="AG40">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AH40">
+        <v>1.92</v>
+      </c>
+      <c r="AI40">
+        <v>1.8</v>
+      </c>
+      <c r="AJ40">
         <v>1.95</v>
       </c>
-      <c r="AI40">
-        <v>1.67</v>
-      </c>
-      <c r="AJ40">
-        <v>2.1</v>
-      </c>
       <c r="AK40">
-        <v>1.85</v>
+        <v>1.12</v>
       </c>
       <c r="AL40">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AM40">
-        <v>1.22</v>
+        <v>2.65</v>
       </c>
       <c r="AN40">
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="AS40">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="AT40">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="AU40">
+        <v>8</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
         <v>4</v>
       </c>
-      <c r="AV40">
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>12</v>
+      </c>
+      <c r="AZ40">
+        <v>6</v>
+      </c>
+      <c r="BA40">
+        <v>8</v>
+      </c>
+      <c r="BB40">
         <v>4</v>
       </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>9</v>
-      </c>
-      <c r="AY40">
-        <v>4</v>
-      </c>
-      <c r="AZ40">
-        <v>13</v>
-      </c>
-      <c r="BA40">
-        <v>1</v>
-      </c>
-      <c r="BB40">
-        <v>9</v>
-      </c>
       <c r="BC40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD40">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="BE40">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF40">
-        <v>1.59</v>
+        <v>3.29</v>
       </c>
       <c r="BG40">
         <v>1.25</v>
@@ -9554,28 +9560,28 @@
         <v>3.5</v>
       </c>
       <c r="BI40">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BJ40">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BK40">
         <v>1.85</v>
       </c>
       <c r="BL40">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="BM40">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="BN40">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BO40">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BP40">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9909,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10115,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
         <v>1.27</v>
@@ -10243,7 +10249,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10449,7 +10455,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10655,7 +10661,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10861,7 +10867,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11067,7 +11073,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11273,7 +11279,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11354,7 +11360,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ49">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11479,7 +11485,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11685,7 +11691,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12097,7 +12103,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12303,7 +12309,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12381,7 +12387,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
         <v>1.63</v>
@@ -12715,7 +12721,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12793,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ56">
         <v>1.81</v>
@@ -13002,7 +13008,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13208,7 +13214,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
         <v>1.18</v>
@@ -13333,7 +13339,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13539,7 +13545,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13745,7 +13751,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14115,7 +14121,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>6454120</v>
+        <v>6454121</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -14130,127 +14136,127 @@
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O63" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q63">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="R63">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S63">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>2.9</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.39</v>
+      </c>
+      <c r="X63">
+        <v>6.85</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>1.93</v>
+      </c>
+      <c r="AA63">
+        <v>3.5</v>
+      </c>
+      <c r="AB63">
+        <v>3.9</v>
+      </c>
+      <c r="AC63">
+        <v>1.06</v>
+      </c>
+      <c r="AD63">
+        <v>11.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.31</v>
+      </c>
+      <c r="AF63">
+        <v>3.5</v>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63">
+        <v>1.75</v>
+      </c>
+      <c r="AI63">
+        <v>1.78</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>1.26</v>
+      </c>
+      <c r="AL63">
         <v>1.25</v>
       </c>
-      <c r="U63">
-        <v>3.75</v>
-      </c>
-      <c r="V63">
-        <v>2.2</v>
-      </c>
-      <c r="W63">
-        <v>1.62</v>
-      </c>
-      <c r="X63">
-        <v>5</v>
-      </c>
-      <c r="Y63">
-        <v>1.17</v>
-      </c>
-      <c r="Z63">
-        <v>1.36</v>
-      </c>
-      <c r="AA63">
-        <v>4.8</v>
-      </c>
-      <c r="AB63">
-        <v>8</v>
-      </c>
-      <c r="AC63">
-        <v>1.02</v>
-      </c>
-      <c r="AD63">
-        <v>20</v>
-      </c>
-      <c r="AE63">
-        <v>1.17</v>
-      </c>
-      <c r="AF63">
-        <v>5</v>
-      </c>
-      <c r="AG63">
-        <v>1.48</v>
-      </c>
-      <c r="AH63">
-        <v>2.54</v>
-      </c>
-      <c r="AI63">
-        <v>1.67</v>
-      </c>
-      <c r="AJ63">
-        <v>2.1</v>
-      </c>
-      <c r="AK63">
-        <v>1.1</v>
-      </c>
-      <c r="AL63">
-        <v>1.15</v>
-      </c>
       <c r="AM63">
-        <v>2.8</v>
+        <v>1.92</v>
       </c>
       <c r="AN63">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="AO63">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP63">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
-        <v>1.68</v>
+        <v>1.09</v>
       </c>
       <c r="AS63">
-        <v>1.21</v>
+        <v>0.9</v>
       </c>
       <c r="AT63">
-        <v>2.89</v>
+        <v>1.99</v>
       </c>
       <c r="AU63">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV63">
         <v>4</v>
@@ -14259,31 +14265,31 @@
         <v>7</v>
       </c>
       <c r="AX63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB63">
         <v>3</v>
       </c>
       <c r="BC63">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD63">
-        <v>1.26</v>
+        <v>1.91</v>
       </c>
       <c r="BE63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF63">
-        <v>4.65</v>
+        <v>2.1</v>
       </c>
       <c r="BG63">
         <v>1.27</v>
@@ -14292,22 +14298,22 @@
         <v>3.55</v>
       </c>
       <c r="BI63">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ63">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BK63">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="BL63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BM63">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BN63">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="BO63">
         <v>3.4</v>
@@ -14321,7 +14327,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6454121</v>
+        <v>6454120</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14336,127 +14342,127 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q64">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="R64">
+        <v>2.6</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>1.25</v>
+      </c>
+      <c r="U64">
+        <v>3.75</v>
+      </c>
+      <c r="V64">
         <v>2.2</v>
       </c>
-      <c r="S64">
-        <v>4.33</v>
-      </c>
-      <c r="T64">
+      <c r="W64">
+        <v>1.62</v>
+      </c>
+      <c r="X64">
+        <v>5</v>
+      </c>
+      <c r="Y64">
+        <v>1.17</v>
+      </c>
+      <c r="Z64">
         <v>1.36</v>
       </c>
-      <c r="U64">
-        <v>2.9</v>
-      </c>
-      <c r="V64">
-        <v>2.75</v>
-      </c>
-      <c r="W64">
-        <v>1.39</v>
-      </c>
-      <c r="X64">
-        <v>6.85</v>
-      </c>
-      <c r="Y64">
-        <v>1.07</v>
-      </c>
-      <c r="Z64">
-        <v>1.93</v>
-      </c>
       <c r="AA64">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="AB64">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="AC64">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AD64">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AE64">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AF64">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AG64">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AH64">
-        <v>1.75</v>
+        <v>2.54</v>
       </c>
       <c r="AI64">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AJ64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK64">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AL64">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AM64">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="AN64">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>2.06</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="AS64">
-        <v>0.9</v>
+        <v>1.21</v>
       </c>
       <c r="AT64">
-        <v>1.99</v>
+        <v>2.89</v>
       </c>
       <c r="AU64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV64">
         <v>4</v>
@@ -14465,31 +14471,31 @@
         <v>7</v>
       </c>
       <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
         <v>6</v>
       </c>
-      <c r="AY64">
-        <v>16</v>
-      </c>
-      <c r="AZ64">
+      <c r="BA64">
         <v>10</v>
-      </c>
-      <c r="BA64">
-        <v>5</v>
       </c>
       <c r="BB64">
         <v>3</v>
       </c>
       <c r="BC64">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD64">
-        <v>1.91</v>
+        <v>1.26</v>
       </c>
       <c r="BE64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BF64">
-        <v>2.1</v>
+        <v>4.65</v>
       </c>
       <c r="BG64">
         <v>1.27</v>
@@ -14498,22 +14504,22 @@
         <v>3.55</v>
       </c>
       <c r="BI64">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ64">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK64">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="BL64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BM64">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="BN64">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="BO64">
         <v>3.4</v>
@@ -14775,7 +14781,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14853,7 +14859,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -15187,7 +15193,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15268,7 +15274,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ68">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15471,7 +15477,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -15599,7 +15605,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15805,7 +15811,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15886,7 +15892,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.69</v>
@@ -16011,7 +16017,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16217,7 +16223,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16501,7 +16507,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
         <v>0.6899999999999999</v>
@@ -16707,7 +16713,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16835,7 +16841,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17328,7 +17334,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17659,7 +17665,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18152,7 +18158,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18277,7 +18283,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18483,7 +18489,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -19179,7 +19185,7 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ87">
         <v>2</v>
@@ -19591,10 +19597,10 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR89">
         <v>1.62</v>
@@ -19719,7 +19725,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20131,7 +20137,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20337,7 +20343,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20955,7 +20961,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21161,7 +21167,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21531,7 +21537,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>6454155</v>
+        <v>6454158</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21546,25 +21552,25 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -21573,16 +21579,16 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="Q99">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="R99">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S99">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="T99">
         <v>1.33</v>
@@ -21591,43 +21597,43 @@
         <v>3.25</v>
       </c>
       <c r="V99">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W99">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X99">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y99">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z99">
-        <v>3.04</v>
+        <v>4.27</v>
       </c>
       <c r="AA99">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="AB99">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="AC99">
         <v>1.04</v>
       </c>
       <c r="AD99">
-        <v>12.25</v>
+        <v>13.25</v>
       </c>
       <c r="AE99">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF99">
-        <v>4.13</v>
+        <v>4.35</v>
       </c>
       <c r="AG99">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI99">
         <v>1.62</v>
@@ -21636,100 +21642,100 @@
         <v>2.2</v>
       </c>
       <c r="AK99">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AL99">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM99">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AN99">
+        <v>0.25</v>
+      </c>
+      <c r="AO99">
+        <v>1.38</v>
+      </c>
+      <c r="AP99">
+        <v>0.38</v>
+      </c>
+      <c r="AQ99">
+        <v>1.56</v>
+      </c>
+      <c r="AR99">
+        <v>1.38</v>
+      </c>
+      <c r="AS99">
+        <v>1.52</v>
+      </c>
+      <c r="AT99">
+        <v>2.9</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>8</v>
+      </c>
+      <c r="AY99">
+        <v>9</v>
+      </c>
+      <c r="AZ99">
+        <v>13</v>
+      </c>
+      <c r="BA99">
+        <v>1</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>6</v>
+      </c>
+      <c r="BD99">
+        <v>3.07</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>1.51</v>
+      </c>
+      <c r="BG99">
         <v>1.25</v>
       </c>
-      <c r="AO99">
-        <v>1.43</v>
-      </c>
-      <c r="AP99">
-        <v>1.56</v>
-      </c>
-      <c r="AQ99">
-        <v>0.93</v>
-      </c>
-      <c r="AR99">
-        <v>1.44</v>
-      </c>
-      <c r="AS99">
-        <v>1.24</v>
-      </c>
-      <c r="AT99">
-        <v>2.68</v>
-      </c>
-      <c r="AU99">
-        <v>7</v>
-      </c>
-      <c r="AV99">
-        <v>3</v>
-      </c>
-      <c r="AW99">
-        <v>3</v>
-      </c>
-      <c r="AX99">
-        <v>4</v>
-      </c>
-      <c r="AY99">
-        <v>10</v>
-      </c>
-      <c r="AZ99">
-        <v>7</v>
-      </c>
-      <c r="BA99">
-        <v>6</v>
-      </c>
-      <c r="BB99">
-        <v>8</v>
-      </c>
-      <c r="BC99">
-        <v>14</v>
-      </c>
-      <c r="BD99">
-        <v>2</v>
-      </c>
-      <c r="BE99">
-        <v>8</v>
-      </c>
-      <c r="BF99">
-        <v>2</v>
-      </c>
-      <c r="BG99">
-        <v>1.21</v>
-      </c>
       <c r="BH99">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="BI99">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="BJ99">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="BK99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BL99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BM99">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BN99">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="BO99">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP99">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21737,7 +21743,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6454158</v>
+        <v>6454155</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21752,25 +21758,25 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -21779,16 +21785,16 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="Q100">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="R100">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S100">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
         <v>1.33</v>
@@ -21797,43 +21803,43 @@
         <v>3.25</v>
       </c>
       <c r="V100">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W100">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X100">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y100">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z100">
-        <v>4.27</v>
+        <v>3.04</v>
       </c>
       <c r="AA100">
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="AB100">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="AC100">
         <v>1.04</v>
       </c>
       <c r="AD100">
-        <v>13.25</v>
+        <v>12.25</v>
       </c>
       <c r="AE100">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AF100">
-        <v>4.35</v>
+        <v>4.13</v>
       </c>
       <c r="AG100">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AH100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI100">
         <v>1.62</v>
@@ -21842,100 +21848,100 @@
         <v>2.2</v>
       </c>
       <c r="AK100">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AL100">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM100">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AN100">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>0.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS100">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AT100">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="AU100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
         <v>7</v>
       </c>
-      <c r="AX100">
+      <c r="BA100">
+        <v>6</v>
+      </c>
+      <c r="BB100">
         <v>8</v>
       </c>
-      <c r="AY100">
-        <v>9</v>
-      </c>
-      <c r="AZ100">
-        <v>13</v>
-      </c>
-      <c r="BA100">
-        <v>1</v>
-      </c>
-      <c r="BB100">
-        <v>5</v>
-      </c>
       <c r="BC100">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD100">
-        <v>3.07</v>
+        <v>2</v>
       </c>
       <c r="BE100">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF100">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="BG100">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BH100">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="BI100">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="BJ100">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="BK100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BL100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BM100">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BN100">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="BO100">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BP100">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -22191,7 +22197,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22269,7 +22275,7 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ102">
         <v>1.27</v>
@@ -22397,7 +22403,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22475,7 +22481,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
         <v>0.75</v>
@@ -22603,7 +22609,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22767,7 +22773,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>6454163</v>
+        <v>6454160</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22782,88 +22788,88 @@
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
         <v>3</v>
       </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
       <c r="N105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O105" t="s">
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q105">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="R105">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S105">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="T105">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>2.75</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>3.2</v>
+      </c>
+      <c r="AA105">
         <v>3.4</v>
       </c>
-      <c r="V105">
-        <v>2.38</v>
-      </c>
-      <c r="W105">
-        <v>1.53</v>
-      </c>
-      <c r="X105">
-        <v>6</v>
-      </c>
-      <c r="Y105">
-        <v>1.13</v>
-      </c>
-      <c r="Z105">
-        <v>1.53</v>
-      </c>
-      <c r="AA105">
-        <v>4.25</v>
-      </c>
       <c r="AB105">
-        <v>5.2</v>
+        <v>2.11</v>
       </c>
       <c r="AC105">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD105">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AE105">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF105">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="AG105">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="AH105">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="AI105">
         <v>1.75</v>
@@ -22872,100 +22878,100 @@
         <v>2</v>
       </c>
       <c r="AK105">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AL105">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM105">
-        <v>2.34</v>
+        <v>1.21</v>
       </c>
       <c r="AN105">
-        <v>1.88</v>
+        <v>0.13</v>
       </c>
       <c r="AO105">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>2.06</v>
+        <v>0.38</v>
       </c>
       <c r="AQ105">
-        <v>0.6899999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR105">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="AS105">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT105">
-        <v>2.91</v>
+        <v>2.24</v>
       </c>
       <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>6</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>14</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>5</v>
+      </c>
+      <c r="BC105">
         <v>10</v>
       </c>
-      <c r="AV105">
-        <v>6</v>
-      </c>
-      <c r="AW105">
-        <v>4</v>
-      </c>
-      <c r="AX105">
-        <v>3</v>
-      </c>
-      <c r="AY105">
-        <v>14</v>
-      </c>
-      <c r="AZ105">
-        <v>9</v>
-      </c>
-      <c r="BA105">
-        <v>10</v>
-      </c>
-      <c r="BB105">
-        <v>6</v>
-      </c>
-      <c r="BC105">
-        <v>16</v>
-      </c>
       <c r="BD105">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="BE105">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF105">
-        <v>4.07</v>
+        <v>1.83</v>
       </c>
       <c r="BG105">
         <v>1.19</v>
       </c>
       <c r="BH105">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BI105">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BJ105">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BK105">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="BL105">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="BM105">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="BN105">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="BO105">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP105">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22973,7 +22979,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>6454160</v>
+        <v>6454163</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22988,88 +22994,88 @@
         <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H106" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O106" t="s">
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q106">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="R106">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S106">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="T106">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U106">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V106">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W106">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y106">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z106">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="AA106">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="AB106">
-        <v>2.11</v>
+        <v>5.2</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD106">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AE106">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AF106">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="AG106">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="AH106">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="AI106">
         <v>1.75</v>
@@ -23078,100 +23084,100 @@
         <v>2</v>
       </c>
       <c r="AK106">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AL106">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AM106">
-        <v>1.21</v>
+        <v>2.34</v>
       </c>
       <c r="AN106">
-        <v>0.13</v>
+        <v>1.88</v>
       </c>
       <c r="AO106">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP106">
-        <v>0.38</v>
+        <v>2.06</v>
       </c>
       <c r="AQ106">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR106">
-        <v>1.09</v>
+        <v>1.73</v>
       </c>
       <c r="AS106">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT106">
-        <v>2.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU106">
+        <v>10</v>
+      </c>
+      <c r="AV106">
+        <v>6</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
         <v>3</v>
       </c>
-      <c r="AV106">
-        <v>8</v>
-      </c>
-      <c r="AW106">
-        <v>5</v>
-      </c>
-      <c r="AX106">
+      <c r="AY106">
+        <v>14</v>
+      </c>
+      <c r="AZ106">
+        <v>9</v>
+      </c>
+      <c r="BA106">
+        <v>10</v>
+      </c>
+      <c r="BB106">
         <v>6</v>
       </c>
-      <c r="AY106">
-        <v>8</v>
-      </c>
-      <c r="AZ106">
-        <v>14</v>
-      </c>
-      <c r="BA106">
-        <v>5</v>
-      </c>
-      <c r="BB106">
-        <v>5</v>
-      </c>
       <c r="BC106">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD106">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="BE106">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF106">
-        <v>1.83</v>
+        <v>4.07</v>
       </c>
       <c r="BG106">
         <v>1.19</v>
       </c>
       <c r="BH106">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BI106">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="BJ106">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BK106">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="BL106">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="BM106">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="BN106">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="BO106">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP106">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -23221,7 +23227,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -24003,7 +24009,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>6454167</v>
+        <v>6454170</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -24018,160 +24024,160 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>2</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O111" t="s">
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="Q111">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="R111">
+        <v>2.1</v>
+      </c>
+      <c r="S111">
+        <v>3.1</v>
+      </c>
+      <c r="T111">
+        <v>1.44</v>
+      </c>
+      <c r="U111">
+        <v>2.63</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111">
+        <v>1.36</v>
+      </c>
+      <c r="X111">
+        <v>9</v>
+      </c>
+      <c r="Y111">
+        <v>1.07</v>
+      </c>
+      <c r="Z111">
+        <v>2.8</v>
+      </c>
+      <c r="AA111">
+        <v>3.13</v>
+      </c>
+      <c r="AB111">
         <v>2.25</v>
       </c>
-      <c r="S111">
-        <v>2.5</v>
-      </c>
-      <c r="T111">
-        <v>1.36</v>
-      </c>
-      <c r="U111">
-        <v>3</v>
-      </c>
-      <c r="V111">
-        <v>2.63</v>
-      </c>
-      <c r="W111">
-        <v>1.44</v>
-      </c>
-      <c r="X111">
+      <c r="AC111">
+        <v>1.06</v>
+      </c>
+      <c r="AD111">
+        <v>8.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.35</v>
+      </c>
+      <c r="AF111">
+        <v>3.1</v>
+      </c>
+      <c r="AG111">
+        <v>2</v>
+      </c>
+      <c r="AH111">
+        <v>1.75</v>
+      </c>
+      <c r="AI111">
+        <v>1.8</v>
+      </c>
+      <c r="AJ111">
+        <v>1.95</v>
+      </c>
+      <c r="AK111">
+        <v>1.55</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.38</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
+        <v>1.25</v>
+      </c>
+      <c r="AP111">
+        <v>1.38</v>
+      </c>
+      <c r="AQ111">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR111">
+        <v>1.22</v>
+      </c>
+      <c r="AS111">
+        <v>1.22</v>
+      </c>
+      <c r="AT111">
+        <v>2.44</v>
+      </c>
+      <c r="AU111">
+        <v>10</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>2</v>
+      </c>
+      <c r="AX111">
         <v>7</v>
       </c>
-      <c r="Y111">
-        <v>1.1</v>
-      </c>
-      <c r="Z111">
-        <v>3.75</v>
-      </c>
-      <c r="AA111">
-        <v>3.4</v>
-      </c>
-      <c r="AB111">
-        <v>1.8</v>
-      </c>
-      <c r="AC111">
-        <v>1.05</v>
-      </c>
-      <c r="AD111">
-        <v>9.5</v>
-      </c>
-      <c r="AE111">
-        <v>1.25</v>
-      </c>
-      <c r="AF111">
-        <v>3.75</v>
-      </c>
-      <c r="AG111">
-        <v>1.75</v>
-      </c>
-      <c r="AH111">
-        <v>2</v>
-      </c>
-      <c r="AI111">
-        <v>1.7</v>
-      </c>
-      <c r="AJ111">
-        <v>2.05</v>
-      </c>
-      <c r="AK111">
-        <v>1.93</v>
-      </c>
-      <c r="AL111">
-        <v>1.22</v>
-      </c>
-      <c r="AM111">
-        <v>1.22</v>
-      </c>
-      <c r="AN111">
-        <v>0.11</v>
-      </c>
-      <c r="AO111">
-        <v>0.44</v>
-      </c>
-      <c r="AP111">
-        <v>0.38</v>
-      </c>
-      <c r="AQ111">
-        <v>0.75</v>
-      </c>
-      <c r="AR111">
-        <v>1.09</v>
-      </c>
-      <c r="AS111">
-        <v>1.25</v>
-      </c>
-      <c r="AT111">
-        <v>2.34</v>
-      </c>
-      <c r="AU111">
-        <v>5</v>
-      </c>
-      <c r="AV111">
-        <v>6</v>
-      </c>
-      <c r="AW111">
-        <v>1</v>
-      </c>
-      <c r="AX111">
-        <v>8</v>
-      </c>
       <c r="AY111">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ111">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB111">
         <v>6</v>
       </c>
       <c r="BC111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD111">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="BE111">
         <v>8</v>
       </c>
       <c r="BF111">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="BG111">
         <v>1.27</v>
@@ -24209,7 +24215,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>6454170</v>
+        <v>6454167</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24224,160 +24230,160 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <v>2</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O112" t="s">
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="Q112">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="R112">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S112">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="T112">
+        <v>1.36</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>2.63</v>
+      </c>
+      <c r="W112">
         <v>1.44</v>
       </c>
-      <c r="U112">
-        <v>2.63</v>
-      </c>
-      <c r="V112">
-        <v>3</v>
-      </c>
-      <c r="W112">
-        <v>1.36</v>
-      </c>
       <c r="X112">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y112">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z112">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="AA112">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="AB112">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AC112">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD112">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE112">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF112">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AG112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AI112">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ112">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK112">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AL112">
+        <v>1.22</v>
+      </c>
+      <c r="AM112">
+        <v>1.22</v>
+      </c>
+      <c r="AN112">
+        <v>0.11</v>
+      </c>
+      <c r="AO112">
+        <v>0.44</v>
+      </c>
+      <c r="AP112">
+        <v>0.38</v>
+      </c>
+      <c r="AQ112">
+        <v>0.75</v>
+      </c>
+      <c r="AR112">
+        <v>1.09</v>
+      </c>
+      <c r="AS112">
         <v>1.25</v>
       </c>
-      <c r="AM112">
-        <v>1.38</v>
-      </c>
-      <c r="AN112">
-        <v>1</v>
-      </c>
-      <c r="AO112">
-        <v>1.25</v>
-      </c>
-      <c r="AP112">
-        <v>1.38</v>
-      </c>
-      <c r="AQ112">
-        <v>0.93</v>
-      </c>
-      <c r="AR112">
-        <v>1.22</v>
-      </c>
-      <c r="AS112">
-        <v>1.22</v>
-      </c>
       <c r="AT112">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="AU112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY112">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB112">
         <v>6</v>
       </c>
       <c r="BC112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD112">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="BE112">
         <v>8</v>
       </c>
       <c r="BF112">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BG112">
         <v>1.27</v>
@@ -24457,7 +24463,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24663,7 +24669,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24947,10 +24953,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25153,7 +25159,7 @@
         <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ116">
         <v>1.88</v>
@@ -25281,7 +25287,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25899,7 +25905,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26186,7 +26192,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
         <v>1.79</v>
@@ -26311,7 +26317,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26392,7 +26398,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ122">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR122">
         <v>1.09</v>
@@ -26475,7 +26481,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>6454179</v>
+        <v>6454182</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26490,10 +26496,10 @@
         <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -26517,7 +26523,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26526,7 +26532,7 @@
         <v>2.1</v>
       </c>
       <c r="S123">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T123">
         <v>1.44</v>
@@ -26547,10 +26553,10 @@
         <v>1.07</v>
       </c>
       <c r="Z123">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AA123">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AB123">
         <v>2.7</v>
@@ -26559,19 +26565,19 @@
         <v>1.06</v>
       </c>
       <c r="AD123">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE123">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF123">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AG123">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="AH123">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AI123">
         <v>1.8</v>
@@ -26580,100 +26586,100 @@
         <v>1.95</v>
       </c>
       <c r="AK123">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AL123">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AM123">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AN123">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AO123">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
+        <v>1.63</v>
+      </c>
+      <c r="AR123">
         <v>1.27</v>
       </c>
-      <c r="AR123">
-        <v>1.46</v>
-      </c>
       <c r="AS123">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT123">
-        <v>2.69</v>
+        <v>2.43</v>
       </c>
       <c r="AU123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW123">
+        <v>1</v>
+      </c>
+      <c r="AX123">
+        <v>6</v>
+      </c>
+      <c r="AY123">
         <v>5</v>
       </c>
-      <c r="AX123">
-        <v>0</v>
-      </c>
-      <c r="AY123">
+      <c r="AZ123">
+        <v>11</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>11</v>
+      </c>
+      <c r="BC123">
+        <v>13</v>
+      </c>
+      <c r="BD123">
+        <v>2.2</v>
+      </c>
+      <c r="BE123">
         <v>8</v>
       </c>
-      <c r="AZ123">
-        <v>2</v>
-      </c>
-      <c r="BA123">
-        <v>1</v>
-      </c>
-      <c r="BB123">
-        <v>5</v>
-      </c>
-      <c r="BC123">
-        <v>6</v>
-      </c>
-      <c r="BD123">
-        <v>2.05</v>
-      </c>
-      <c r="BE123">
-        <v>7.5</v>
-      </c>
       <c r="BF123">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BG123">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BH123">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="BI123">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="BJ123">
+        <v>2.63</v>
+      </c>
+      <c r="BK123">
+        <v>1.72</v>
+      </c>
+      <c r="BL123">
         <v>1.98</v>
       </c>
-      <c r="BK123">
-        <v>1.77</v>
-      </c>
-      <c r="BL123">
-        <v>1.91</v>
-      </c>
       <c r="BM123">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="BN123">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BO123">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="BP123">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26681,7 +26687,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>6454182</v>
+        <v>6454179</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26696,10 +26702,10 @@
         <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -26723,7 +26729,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26732,7 +26738,7 @@
         <v>2.1</v>
       </c>
       <c r="S124">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T124">
         <v>1.44</v>
@@ -26753,10 +26759,10 @@
         <v>1.07</v>
       </c>
       <c r="Z124">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA124">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AB124">
         <v>2.7</v>
@@ -26765,19 +26771,19 @@
         <v>1.06</v>
       </c>
       <c r="AD124">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE124">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF124">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AG124">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="AH124">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AI124">
         <v>1.8</v>
@@ -26786,100 +26792,100 @@
         <v>1.95</v>
       </c>
       <c r="AK124">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AL124">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AM124">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AO124">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AQ124">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="AR124">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AS124">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>2.43</v>
+        <v>2.69</v>
       </c>
       <c r="AU124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV124">
+        <v>2</v>
+      </c>
+      <c r="AW124">
         <v>5</v>
       </c>
-      <c r="AW124">
-        <v>1</v>
-      </c>
       <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>8</v>
+      </c>
+      <c r="AZ124">
+        <v>2</v>
+      </c>
+      <c r="BA124">
+        <v>1</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
         <v>6</v>
       </c>
-      <c r="AY124">
-        <v>5</v>
-      </c>
-      <c r="AZ124">
-        <v>11</v>
-      </c>
-      <c r="BA124">
-        <v>2</v>
-      </c>
-      <c r="BB124">
-        <v>11</v>
-      </c>
-      <c r="BC124">
-        <v>13</v>
-      </c>
       <c r="BD124">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BE124">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF124">
+        <v>2</v>
+      </c>
+      <c r="BG124">
+        <v>1.24</v>
+      </c>
+      <c r="BH124">
+        <v>3.55</v>
+      </c>
+      <c r="BI124">
+        <v>1.82</v>
+      </c>
+      <c r="BJ124">
+        <v>1.98</v>
+      </c>
+      <c r="BK124">
+        <v>1.77</v>
+      </c>
+      <c r="BL124">
         <v>1.91</v>
       </c>
-      <c r="BG124">
-        <v>1.22</v>
-      </c>
-      <c r="BH124">
-        <v>3.75</v>
-      </c>
-      <c r="BI124">
-        <v>1.42</v>
-      </c>
-      <c r="BJ124">
-        <v>2.63</v>
-      </c>
-      <c r="BK124">
-        <v>1.72</v>
-      </c>
-      <c r="BL124">
-        <v>1.98</v>
-      </c>
       <c r="BM124">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="BN124">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BO124">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="BP124">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -27007,7 +27013,7 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ125">
         <v>0.6899999999999999</v>
@@ -27135,7 +27141,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27341,7 +27347,7 @@
         <v>96</v>
       </c>
       <c r="P127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27505,7 +27511,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>6454188</v>
+        <v>6454183</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27520,43 +27526,43 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H128" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" t="s">
+        <v>83</v>
+      </c>
+      <c r="P128" t="s">
         <v>96</v>
       </c>
-      <c r="P128" t="s">
-        <v>285</v>
-      </c>
       <c r="Q128">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="R128">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S128">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="T128">
         <v>1.33</v>
@@ -27565,10 +27571,10 @@
         <v>3.25</v>
       </c>
       <c r="V128">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W128">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X128">
         <v>6.5</v>
@@ -27577,76 +27583,76 @@
         <v>1.11</v>
       </c>
       <c r="Z128">
-        <v>5.75</v>
+        <v>1.36</v>
       </c>
       <c r="AA128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AB128">
-        <v>1.57</v>
+        <v>7.5</v>
       </c>
       <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>10.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.22</v>
+      </c>
+      <c r="AF128">
+        <v>3.66</v>
+      </c>
+      <c r="AG128">
+        <v>1.88</v>
+      </c>
+      <c r="AH128">
+        <v>1.98</v>
+      </c>
+      <c r="AI128">
+        <v>2.2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.62</v>
+      </c>
+      <c r="AK128">
+        <v>1.06</v>
+      </c>
+      <c r="AL128">
+        <v>1.12</v>
+      </c>
+      <c r="AM128">
+        <v>3.2</v>
+      </c>
+      <c r="AN128">
+        <v>1.5</v>
+      </c>
+      <c r="AO128">
+        <v>0.9</v>
+      </c>
+      <c r="AP128">
+        <v>1.38</v>
+      </c>
+      <c r="AQ128">
+        <v>0.88</v>
+      </c>
+      <c r="AR128">
+        <v>1.54</v>
+      </c>
+      <c r="AS128">
         <v>1.04</v>
       </c>
-      <c r="AD128">
-        <v>15</v>
-      </c>
-      <c r="AE128">
-        <v>1.21</v>
-      </c>
-      <c r="AF128">
-        <v>4.4</v>
-      </c>
-      <c r="AG128">
-        <v>1.75</v>
-      </c>
-      <c r="AH128">
-        <v>1.95</v>
-      </c>
-      <c r="AI128">
-        <v>1.8</v>
-      </c>
-      <c r="AJ128">
-        <v>1.95</v>
-      </c>
-      <c r="AK128">
-        <v>2.43</v>
-      </c>
-      <c r="AL128">
-        <v>1.25</v>
-      </c>
-      <c r="AM128">
-        <v>1.15</v>
-      </c>
-      <c r="AN128">
-        <v>0.3</v>
-      </c>
-      <c r="AO128">
-        <v>2</v>
-      </c>
-      <c r="AP128">
-        <v>0.38</v>
-      </c>
-      <c r="AQ128">
-        <v>1.88</v>
-      </c>
-      <c r="AR128">
-        <v>1.37</v>
-      </c>
-      <c r="AS128">
-        <v>1.62</v>
-      </c>
       <c r="AT128">
-        <v>2.99</v>
+        <v>2.58</v>
       </c>
       <c r="AU128">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV128">
         <v>5</v>
       </c>
       <c r="AW128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX128">
         <v>5</v>
@@ -27658,40 +27664,40 @@
         <v>10</v>
       </c>
       <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
         <v>11</v>
       </c>
-      <c r="BB128">
-        <v>7</v>
-      </c>
-      <c r="BC128">
-        <v>18</v>
-      </c>
       <c r="BD128">
-        <v>2.98</v>
+        <v>1.29</v>
       </c>
       <c r="BE128">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="BF128">
+        <v>4.45</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.42</v>
+      </c>
+      <c r="BI128">
         <v>1.52</v>
       </c>
-      <c r="BG128">
-        <v>1.14</v>
-      </c>
-      <c r="BH128">
-        <v>4.7</v>
-      </c>
-      <c r="BI128">
-        <v>1.28</v>
-      </c>
       <c r="BJ128">
-        <v>3.18</v>
+        <v>2.49</v>
       </c>
       <c r="BK128">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="BL128">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="BM128">
         <v>2.1</v>
@@ -27700,10 +27706,10 @@
         <v>1.67</v>
       </c>
       <c r="BO128">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BP128">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27711,7 +27717,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>6454187</v>
+        <v>6454184</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27726,190 +27732,190 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O129" t="s">
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q129">
+        <v>2.1</v>
+      </c>
+      <c r="R129">
+        <v>2.38</v>
+      </c>
+      <c r="S129">
+        <v>5.5</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
         <v>3.25</v>
       </c>
-      <c r="R129">
-        <v>2.2</v>
-      </c>
-      <c r="S129">
-        <v>3.2</v>
-      </c>
-      <c r="T129">
-        <v>1.36</v>
-      </c>
-      <c r="U129">
+      <c r="V129">
+        <v>2.63</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>6.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.11</v>
+      </c>
+      <c r="Z129">
+        <v>1.62</v>
+      </c>
+      <c r="AA129">
+        <v>3.8</v>
+      </c>
+      <c r="AB129">
+        <v>5.25</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>12</v>
+      </c>
+      <c r="AE129">
+        <v>1.18</v>
+      </c>
+      <c r="AF129">
+        <v>4.2</v>
+      </c>
+      <c r="AG129">
+        <v>1.7</v>
+      </c>
+      <c r="AH129">
+        <v>2</v>
+      </c>
+      <c r="AI129">
+        <v>1.8</v>
+      </c>
+      <c r="AJ129">
+        <v>1.95</v>
+      </c>
+      <c r="AK129">
+        <v>1.2</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>2.46</v>
+      </c>
+      <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR129">
+        <v>1.57</v>
+      </c>
+      <c r="AS129">
+        <v>1.2</v>
+      </c>
+      <c r="AT129">
+        <v>2.77</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
         <v>3</v>
       </c>
-      <c r="V129">
-        <v>2.75</v>
-      </c>
-      <c r="W129">
-        <v>1.4</v>
-      </c>
-      <c r="X129">
-        <v>7</v>
-      </c>
-      <c r="Y129">
-        <v>1.1</v>
-      </c>
-      <c r="Z129">
-        <v>2.5</v>
-      </c>
-      <c r="AA129">
-        <v>3.5</v>
-      </c>
-      <c r="AB129">
-        <v>2.5</v>
-      </c>
-      <c r="AC129">
-        <v>1.05</v>
-      </c>
-      <c r="AD129">
-        <v>13</v>
-      </c>
-      <c r="AE129">
-        <v>1.26</v>
-      </c>
-      <c r="AF129">
-        <v>3.9</v>
-      </c>
-      <c r="AG129">
-        <v>1.85</v>
-      </c>
-      <c r="AH129">
-        <v>2</v>
-      </c>
-      <c r="AI129">
-        <v>1.7</v>
-      </c>
-      <c r="AJ129">
-        <v>2.05</v>
-      </c>
-      <c r="AK129">
-        <v>1.53</v>
-      </c>
-      <c r="AL129">
-        <v>1.29</v>
-      </c>
-      <c r="AM129">
-        <v>1.53</v>
-      </c>
-      <c r="AN129">
-        <v>1.3</v>
-      </c>
-      <c r="AO129">
-        <v>0.5</v>
-      </c>
-      <c r="AP129">
-        <v>1.56</v>
-      </c>
-      <c r="AQ129">
-        <v>0.75</v>
-      </c>
-      <c r="AR129">
-        <v>1.39</v>
-      </c>
-      <c r="AS129">
-        <v>1.29</v>
-      </c>
-      <c r="AT129">
-        <v>2.68</v>
-      </c>
-      <c r="AU129">
-        <v>6</v>
-      </c>
-      <c r="AV129">
-        <v>2</v>
-      </c>
       <c r="AW129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB129">
         <v>3</v>
       </c>
       <c r="BC129">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD129">
-        <v>2.11</v>
+        <v>1.49</v>
       </c>
       <c r="BE129">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="BF129">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="BG129">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH129">
-        <v>4.3</v>
+        <v>3.84</v>
       </c>
       <c r="BI129">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="BJ129">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="BK129">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BL129">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="BM129">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BN129">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="BO129">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="BP129">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27917,7 +27923,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>6454186</v>
+        <v>6454185</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27932,10 +27938,10 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -27947,67 +27953,67 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O130" t="s">
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="Q130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R130">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S130">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T130">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U130">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V130">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W130">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y130">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AA130">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AB130">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AC130">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD130">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE130">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF130">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AG130">
         <v>1.65</v>
@@ -28016,106 +28022,106 @@
         <v>2.1</v>
       </c>
       <c r="AI130">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK130">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AL130">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AM130">
         <v>2.65</v>
       </c>
       <c r="AN130">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AO130">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="AQ130">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="AS130">
+        <v>1.14</v>
+      </c>
+      <c r="AT130">
+        <v>2.75</v>
+      </c>
+      <c r="AU130">
+        <v>9</v>
+      </c>
+      <c r="AV130">
+        <v>2</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>15</v>
+      </c>
+      <c r="AZ130">
+        <v>5</v>
+      </c>
+      <c r="BA130">
+        <v>9</v>
+      </c>
+      <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.3</v>
+      </c>
+      <c r="BE130">
+        <v>10.75</v>
+      </c>
+      <c r="BF130">
+        <v>4.33</v>
+      </c>
+      <c r="BG130">
         <v>1.25</v>
       </c>
-      <c r="AT130">
-        <v>3.09</v>
-      </c>
-      <c r="AU130">
-        <v>5</v>
-      </c>
-      <c r="AV130">
-        <v>8</v>
-      </c>
-      <c r="AW130">
-        <v>5</v>
-      </c>
-      <c r="AX130">
-        <v>8</v>
-      </c>
-      <c r="AY130">
-        <v>10</v>
-      </c>
-      <c r="AZ130">
-        <v>16</v>
-      </c>
-      <c r="BA130">
-        <v>8</v>
-      </c>
-      <c r="BB130">
-        <v>10</v>
-      </c>
-      <c r="BC130">
-        <v>18</v>
-      </c>
-      <c r="BD130">
-        <v>1.38</v>
-      </c>
-      <c r="BE130">
-        <v>10.5</v>
-      </c>
-      <c r="BF130">
-        <v>3.66</v>
-      </c>
-      <c r="BG130">
-        <v>1.17</v>
-      </c>
       <c r="BH130">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="BI130">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="BJ130">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="BK130">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BL130">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="BM130">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BN130">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="BO130">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="BP130">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28123,7 +28129,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>6454185</v>
+        <v>6454186</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -28138,10 +28144,10 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -28153,67 +28159,67 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O131" t="s">
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="Q131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R131">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S131">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T131">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V131">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W131">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z131">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AA131">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AB131">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AC131">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD131">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE131">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF131">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AG131">
         <v>1.65</v>
@@ -28222,106 +28228,106 @@
         <v>2.1</v>
       </c>
       <c r="AI131">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK131">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AL131">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AM131">
         <v>2.65</v>
       </c>
       <c r="AN131">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AO131">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP131">
+        <v>2.06</v>
+      </c>
+      <c r="AQ131">
+        <v>1.06</v>
+      </c>
+      <c r="AR131">
+        <v>1.84</v>
+      </c>
+      <c r="AS131">
+        <v>1.25</v>
+      </c>
+      <c r="AT131">
+        <v>3.09</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>8</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>10</v>
+      </c>
+      <c r="AZ131">
+        <v>16</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>10</v>
+      </c>
+      <c r="BC131">
+        <v>18</v>
+      </c>
+      <c r="BD131">
+        <v>1.38</v>
+      </c>
+      <c r="BE131">
+        <v>10.5</v>
+      </c>
+      <c r="BF131">
+        <v>3.66</v>
+      </c>
+      <c r="BG131">
+        <v>1.17</v>
+      </c>
+      <c r="BH131">
+        <v>4.2</v>
+      </c>
+      <c r="BI131">
+        <v>1.35</v>
+      </c>
+      <c r="BJ131">
+        <v>2.84</v>
+      </c>
+      <c r="BK131">
+        <v>1.75</v>
+      </c>
+      <c r="BL131">
+        <v>1.98</v>
+      </c>
+      <c r="BM131">
         <v>2.2</v>
       </c>
-      <c r="AQ131">
-        <v>0.88</v>
-      </c>
-      <c r="AR131">
+      <c r="BN131">
         <v>1.61</v>
       </c>
-      <c r="AS131">
-        <v>1.14</v>
-      </c>
-      <c r="AT131">
-        <v>2.75</v>
-      </c>
-      <c r="AU131">
-        <v>9</v>
-      </c>
-      <c r="AV131">
-        <v>2</v>
-      </c>
-      <c r="AW131">
-        <v>6</v>
-      </c>
-      <c r="AX131">
-        <v>3</v>
-      </c>
-      <c r="AY131">
-        <v>15</v>
-      </c>
-      <c r="AZ131">
-        <v>5</v>
-      </c>
-      <c r="BA131">
-        <v>9</v>
-      </c>
-      <c r="BB131">
-        <v>2</v>
-      </c>
-      <c r="BC131">
-        <v>11</v>
-      </c>
-      <c r="BD131">
-        <v>1.3</v>
-      </c>
-      <c r="BE131">
-        <v>10.75</v>
-      </c>
-      <c r="BF131">
-        <v>4.33</v>
-      </c>
-      <c r="BG131">
-        <v>1.25</v>
-      </c>
-      <c r="BH131">
-        <v>3.42</v>
-      </c>
-      <c r="BI131">
-        <v>1.57</v>
-      </c>
-      <c r="BJ131">
-        <v>2.28</v>
-      </c>
-      <c r="BK131">
-        <v>1.95</v>
-      </c>
-      <c r="BL131">
-        <v>1.78</v>
-      </c>
-      <c r="BM131">
-        <v>2.5</v>
-      </c>
-      <c r="BN131">
-        <v>1.48</v>
-      </c>
       <c r="BO131">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="BP131">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28329,7 +28335,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>6454183</v>
+        <v>6454187</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28344,190 +28350,190 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H132" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="P132" t="s">
         <v>96</v>
       </c>
       <c r="Q132">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>3.2</v>
+      </c>
+      <c r="T132">
+        <v>1.36</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>7</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
         <v>2.5</v>
       </c>
-      <c r="S132">
-        <v>8.5</v>
-      </c>
-      <c r="T132">
+      <c r="AA132">
+        <v>3.5</v>
+      </c>
+      <c r="AB132">
+        <v>2.5</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
+      <c r="AE132">
+        <v>1.26</v>
+      </c>
+      <c r="AF132">
+        <v>3.9</v>
+      </c>
+      <c r="AG132">
+        <v>1.85</v>
+      </c>
+      <c r="AH132">
+        <v>2</v>
+      </c>
+      <c r="AI132">
+        <v>1.7</v>
+      </c>
+      <c r="AJ132">
+        <v>2.05</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
+        <v>1.29</v>
+      </c>
+      <c r="AM132">
+        <v>1.53</v>
+      </c>
+      <c r="AN132">
+        <v>1.3</v>
+      </c>
+      <c r="AO132">
+        <v>0.5</v>
+      </c>
+      <c r="AP132">
+        <v>1.56</v>
+      </c>
+      <c r="AQ132">
+        <v>0.75</v>
+      </c>
+      <c r="AR132">
+        <v>1.39</v>
+      </c>
+      <c r="AS132">
+        <v>1.29</v>
+      </c>
+      <c r="AT132">
+        <v>2.68</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>2</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
+      <c r="AZ132">
+        <v>6</v>
+      </c>
+      <c r="BA132">
+        <v>9</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>2.11</v>
+      </c>
+      <c r="BE132">
+        <v>9.1</v>
+      </c>
+      <c r="BF132">
+        <v>1.96</v>
+      </c>
+      <c r="BG132">
+        <v>1.16</v>
+      </c>
+      <c r="BH132">
+        <v>4.3</v>
+      </c>
+      <c r="BI132">
         <v>1.33</v>
       </c>
-      <c r="U132">
-        <v>3.25</v>
-      </c>
-      <c r="V132">
-        <v>2.63</v>
-      </c>
-      <c r="W132">
-        <v>1.44</v>
-      </c>
-      <c r="X132">
-        <v>6.5</v>
-      </c>
-      <c r="Y132">
-        <v>1.11</v>
-      </c>
-      <c r="Z132">
-        <v>1.36</v>
-      </c>
-      <c r="AA132">
-        <v>4.75</v>
-      </c>
-      <c r="AB132">
-        <v>7.5</v>
-      </c>
-      <c r="AC132">
-        <v>1.01</v>
-      </c>
-      <c r="AD132">
-        <v>10.5</v>
-      </c>
-      <c r="AE132">
-        <v>1.22</v>
-      </c>
-      <c r="AF132">
-        <v>3.66</v>
-      </c>
-      <c r="AG132">
-        <v>1.88</v>
-      </c>
-      <c r="AH132">
-        <v>1.98</v>
-      </c>
-      <c r="AI132">
-        <v>2.2</v>
-      </c>
-      <c r="AJ132">
+      <c r="BJ132">
+        <v>2.93</v>
+      </c>
+      <c r="BK132">
         <v>1.62</v>
       </c>
-      <c r="AK132">
-        <v>1.06</v>
-      </c>
-      <c r="AL132">
-        <v>1.12</v>
-      </c>
-      <c r="AM132">
-        <v>3.2</v>
-      </c>
-      <c r="AN132">
-        <v>1.5</v>
-      </c>
-      <c r="AO132">
-        <v>0.9</v>
-      </c>
-      <c r="AP132">
-        <v>1.38</v>
-      </c>
-      <c r="AQ132">
-        <v>0.88</v>
-      </c>
-      <c r="AR132">
-        <v>1.54</v>
-      </c>
-      <c r="AS132">
-        <v>1.04</v>
-      </c>
-      <c r="AT132">
-        <v>2.58</v>
-      </c>
-      <c r="AU132">
-        <v>8</v>
-      </c>
-      <c r="AV132">
-        <v>5</v>
-      </c>
-      <c r="AW132">
-        <v>1</v>
-      </c>
-      <c r="AX132">
-        <v>5</v>
-      </c>
-      <c r="AY132">
-        <v>9</v>
-      </c>
-      <c r="AZ132">
-        <v>10</v>
-      </c>
-      <c r="BA132">
-        <v>7</v>
-      </c>
-      <c r="BB132">
-        <v>4</v>
-      </c>
-      <c r="BC132">
-        <v>11</v>
-      </c>
-      <c r="BD132">
-        <v>1.29</v>
-      </c>
-      <c r="BE132">
-        <v>10.75</v>
-      </c>
-      <c r="BF132">
-        <v>4.45</v>
-      </c>
-      <c r="BG132">
-        <v>1.25</v>
-      </c>
-      <c r="BH132">
-        <v>3.42</v>
-      </c>
-      <c r="BI132">
-        <v>1.52</v>
-      </c>
-      <c r="BJ132">
-        <v>2.49</v>
-      </c>
-      <c r="BK132">
-        <v>1.68</v>
-      </c>
       <c r="BL132">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="BM132">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BN132">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BO132">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP132">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28535,7 +28541,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>6454184</v>
+        <v>6454188</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28550,43 +28556,43 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H133" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="P133" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="Q133">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="R133">
         <v>2.38</v>
       </c>
       <c r="S133">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="T133">
         <v>1.33</v>
@@ -28595,10 +28601,10 @@
         <v>3.25</v>
       </c>
       <c r="V133">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W133">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X133">
         <v>6.5</v>
@@ -28607,31 +28613,31 @@
         <v>1.11</v>
       </c>
       <c r="Z133">
-        <v>1.62</v>
+        <v>5.75</v>
       </c>
       <c r="AA133">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB133">
-        <v>5.25</v>
+        <v>1.57</v>
       </c>
       <c r="AC133">
         <v>1.04</v>
       </c>
       <c r="AD133">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE133">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AF133">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AG133">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI133">
         <v>1.8</v>
@@ -28640,100 +28646,100 @@
         <v>1.95</v>
       </c>
       <c r="AK133">
-        <v>1.2</v>
+        <v>2.43</v>
       </c>
       <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.15</v>
+      </c>
+      <c r="AN133">
+        <v>0.3</v>
+      </c>
+      <c r="AO133">
+        <v>2</v>
+      </c>
+      <c r="AP133">
+        <v>0.38</v>
+      </c>
+      <c r="AQ133">
+        <v>1.88</v>
+      </c>
+      <c r="AR133">
+        <v>1.37</v>
+      </c>
+      <c r="AS133">
+        <v>1.62</v>
+      </c>
+      <c r="AT133">
+        <v>2.99</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>11</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>18</v>
+      </c>
+      <c r="BD133">
+        <v>2.98</v>
+      </c>
+      <c r="BE133">
+        <v>10</v>
+      </c>
+      <c r="BF133">
+        <v>1.52</v>
+      </c>
+      <c r="BG133">
+        <v>1.14</v>
+      </c>
+      <c r="BH133">
+        <v>4.7</v>
+      </c>
+      <c r="BI133">
         <v>1.28</v>
       </c>
-      <c r="AM133">
-        <v>2.46</v>
-      </c>
-      <c r="AN133">
-        <v>2</v>
-      </c>
-      <c r="AO133">
-        <v>1</v>
-      </c>
-      <c r="AP133">
-        <v>2</v>
-      </c>
-      <c r="AQ133">
-        <v>0.93</v>
-      </c>
-      <c r="AR133">
-        <v>1.57</v>
-      </c>
-      <c r="AS133">
-        <v>1.2</v>
-      </c>
-      <c r="AT133">
-        <v>2.77</v>
-      </c>
-      <c r="AU133">
-        <v>8</v>
-      </c>
-      <c r="AV133">
-        <v>3</v>
-      </c>
-      <c r="AW133">
-        <v>3</v>
-      </c>
-      <c r="AX133">
-        <v>2</v>
-      </c>
-      <c r="AY133">
-        <v>11</v>
-      </c>
-      <c r="AZ133">
-        <v>5</v>
-      </c>
-      <c r="BA133">
-        <v>5</v>
-      </c>
-      <c r="BB133">
-        <v>3</v>
-      </c>
-      <c r="BC133">
-        <v>8</v>
-      </c>
-      <c r="BD133">
-        <v>1.49</v>
-      </c>
-      <c r="BE133">
-        <v>9.6</v>
-      </c>
-      <c r="BF133">
-        <v>3.14</v>
-      </c>
-      <c r="BG133">
-        <v>1.2</v>
-      </c>
-      <c r="BH133">
-        <v>3.84</v>
-      </c>
-      <c r="BI133">
-        <v>1.41</v>
-      </c>
       <c r="BJ133">
-        <v>2.69</v>
+        <v>3.18</v>
       </c>
       <c r="BK133">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="BL133">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="BM133">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BN133">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BO133">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BP133">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28783,7 +28789,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29195,7 +29201,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29273,7 +29279,7 @@
         <v>2.18</v>
       </c>
       <c r="AP136">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ136">
         <v>2</v>
@@ -29401,7 +29407,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29479,10 +29485,10 @@
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.65</v>
@@ -29607,7 +29613,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29813,7 +29819,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30183,7 +30189,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7390077</v>
+        <v>7390076</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30198,190 +30204,190 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L141">
         <v>1</v>
       </c>
       <c r="M141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O141" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="Q141">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>2.38</v>
+      </c>
+      <c r="T141">
+        <v>1.33</v>
+      </c>
+      <c r="U141">
+        <v>3.25</v>
+      </c>
+      <c r="V141">
+        <v>2.63</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>6.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.11</v>
+      </c>
+      <c r="Z141">
+        <v>4.2</v>
+      </c>
+      <c r="AA141">
+        <v>3.8</v>
+      </c>
+      <c r="AB141">
+        <v>1.73</v>
+      </c>
+      <c r="AC141">
+        <v>1.05</v>
+      </c>
+      <c r="AD141">
+        <v>9.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.25</v>
+      </c>
+      <c r="AF141">
+        <v>3.99</v>
+      </c>
+      <c r="AG141">
+        <v>1.67</v>
+      </c>
+      <c r="AH141">
         <v>2.1</v>
       </c>
-      <c r="S141">
-        <v>3.2</v>
-      </c>
-      <c r="T141">
-        <v>1.44</v>
-      </c>
-      <c r="U141">
-        <v>2.63</v>
-      </c>
-      <c r="V141">
-        <v>3.25</v>
-      </c>
-      <c r="W141">
-        <v>1.33</v>
-      </c>
-      <c r="X141">
-        <v>9</v>
-      </c>
-      <c r="Y141">
-        <v>1.07</v>
-      </c>
-      <c r="Z141">
-        <v>2.8</v>
-      </c>
-      <c r="AA141">
-        <v>3.1</v>
-      </c>
-      <c r="AB141">
-        <v>2.5</v>
-      </c>
-      <c r="AC141">
+      <c r="AI141">
+        <v>1.7</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>1.95</v>
+      </c>
+      <c r="AL141">
+        <v>1.22</v>
+      </c>
+      <c r="AM141">
+        <v>1.22</v>
+      </c>
+      <c r="AN141">
+        <v>0.18</v>
+      </c>
+      <c r="AO141">
+        <v>0.91</v>
+      </c>
+      <c r="AP141">
+        <v>0.38</v>
+      </c>
+      <c r="AQ141">
         <v>1.06</v>
       </c>
-      <c r="AD141">
-        <v>8.5</v>
-      </c>
-      <c r="AE141">
-        <v>1.35</v>
-      </c>
-      <c r="AF141">
-        <v>3.1</v>
-      </c>
-      <c r="AG141">
-        <v>2</v>
-      </c>
-      <c r="AH141">
-        <v>1.73</v>
-      </c>
-      <c r="AI141">
-        <v>1.8</v>
-      </c>
-      <c r="AJ141">
-        <v>1.95</v>
-      </c>
-      <c r="AK141">
-        <v>1.53</v>
-      </c>
-      <c r="AL141">
-        <v>1.28</v>
-      </c>
-      <c r="AM141">
-        <v>1.38</v>
-      </c>
-      <c r="AN141">
-        <v>1.09</v>
-      </c>
-      <c r="AO141">
-        <v>0.45</v>
-      </c>
-      <c r="AP141">
-        <v>1.38</v>
-      </c>
-      <c r="AQ141">
-        <v>0.75</v>
-      </c>
       <c r="AR141">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AS141">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AT141">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>7</v>
+      </c>
+      <c r="AW141">
         <v>6</v>
       </c>
-      <c r="AV141">
-        <v>4</v>
-      </c>
-      <c r="AW141">
-        <v>4</v>
-      </c>
       <c r="AX141">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY141">
         <v>10</v>
       </c>
       <c r="AZ141">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA141">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC141">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BD141">
-        <v>2.77</v>
+        <v>2.43</v>
       </c>
       <c r="BE141">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF141">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BG141">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BH141">
-        <v>3.05</v>
+        <v>4.36</v>
       </c>
       <c r="BI141">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="BJ141">
-        <v>2.28</v>
+        <v>2.85</v>
       </c>
       <c r="BK141">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="BL141">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
       <c r="BM141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BN141">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="BO141">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BP141">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30389,7 +30395,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7390076</v>
+        <v>7390077</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30404,190 +30410,190 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H142" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>1</v>
       </c>
       <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>175</v>
+      </c>
+      <c r="P142" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q142">
+        <v>3.5</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>3.2</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>9</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>2.8</v>
+      </c>
+      <c r="AA142">
+        <v>3.1</v>
+      </c>
+      <c r="AB142">
+        <v>2.5</v>
+      </c>
+      <c r="AC142">
+        <v>1.06</v>
+      </c>
+      <c r="AD142">
+        <v>8.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.35</v>
+      </c>
+      <c r="AF142">
+        <v>3.1</v>
+      </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>1.73</v>
+      </c>
+      <c r="AI142">
+        <v>1.8</v>
+      </c>
+      <c r="AJ142">
+        <v>1.95</v>
+      </c>
+      <c r="AK142">
+        <v>1.53</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.38</v>
+      </c>
+      <c r="AN142">
+        <v>1.09</v>
+      </c>
+      <c r="AO142">
+        <v>0.45</v>
+      </c>
+      <c r="AP142">
+        <v>1.38</v>
+      </c>
+      <c r="AQ142">
+        <v>0.75</v>
+      </c>
+      <c r="AR142">
+        <v>1.24</v>
+      </c>
+      <c r="AS142">
+        <v>1.25</v>
+      </c>
+      <c r="AT142">
+        <v>2.49</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>4</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
         <v>3</v>
-      </c>
-      <c r="N142">
-        <v>4</v>
-      </c>
-      <c r="O142" t="s">
-        <v>185</v>
-      </c>
-      <c r="P142" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q142">
-        <v>4.5</v>
-      </c>
-      <c r="R142">
-        <v>2.3</v>
-      </c>
-      <c r="S142">
-        <v>2.38</v>
-      </c>
-      <c r="T142">
-        <v>1.33</v>
-      </c>
-      <c r="U142">
-        <v>3.25</v>
-      </c>
-      <c r="V142">
-        <v>2.63</v>
-      </c>
-      <c r="W142">
-        <v>1.44</v>
-      </c>
-      <c r="X142">
-        <v>6.5</v>
-      </c>
-      <c r="Y142">
-        <v>1.11</v>
-      </c>
-      <c r="Z142">
-        <v>4.2</v>
-      </c>
-      <c r="AA142">
-        <v>3.8</v>
-      </c>
-      <c r="AB142">
-        <v>1.73</v>
-      </c>
-      <c r="AC142">
-        <v>1.05</v>
-      </c>
-      <c r="AD142">
-        <v>9.5</v>
-      </c>
-      <c r="AE142">
-        <v>1.25</v>
-      </c>
-      <c r="AF142">
-        <v>3.99</v>
-      </c>
-      <c r="AG142">
-        <v>1.67</v>
-      </c>
-      <c r="AH142">
-        <v>2.1</v>
-      </c>
-      <c r="AI142">
-        <v>1.7</v>
-      </c>
-      <c r="AJ142">
-        <v>2.05</v>
-      </c>
-      <c r="AK142">
-        <v>1.95</v>
-      </c>
-      <c r="AL142">
-        <v>1.22</v>
-      </c>
-      <c r="AM142">
-        <v>1.22</v>
-      </c>
-      <c r="AN142">
-        <v>0.18</v>
-      </c>
-      <c r="AO142">
-        <v>0.91</v>
-      </c>
-      <c r="AP142">
-        <v>0.38</v>
-      </c>
-      <c r="AQ142">
-        <v>1.06</v>
-      </c>
-      <c r="AR142">
-        <v>1.12</v>
-      </c>
-      <c r="AS142">
-        <v>1.3</v>
-      </c>
-      <c r="AT142">
-        <v>2.42</v>
-      </c>
-      <c r="AU142">
-        <v>4</v>
-      </c>
-      <c r="AV142">
-        <v>7</v>
-      </c>
-      <c r="AW142">
-        <v>6</v>
-      </c>
-      <c r="AX142">
-        <v>8</v>
       </c>
       <c r="AY142">
         <v>10</v>
       </c>
       <c r="AZ142">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC142">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BD142">
-        <v>2.43</v>
+        <v>2.77</v>
       </c>
       <c r="BE142">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF142">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BG142">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="BH142">
-        <v>4.36</v>
+        <v>3.05</v>
       </c>
       <c r="BI142">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="BJ142">
-        <v>2.85</v>
+        <v>2.28</v>
       </c>
       <c r="BK142">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="BL142">
-        <v>2.13</v>
+        <v>1.82</v>
       </c>
       <c r="BM142">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BN142">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="BO142">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BP142">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -31049,7 +31055,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31130,7 +31136,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
         <v>1.59</v>
@@ -31255,7 +31261,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31419,7 +31425,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7390082</v>
+        <v>7390083</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31434,190 +31440,190 @@
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H147" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147">
         <v>1</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="Q147">
+        <v>3.6</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>3.1</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>2.95</v>
+      </c>
+      <c r="AA147">
+        <v>3.2</v>
+      </c>
+      <c r="AB147">
         <v>2.38</v>
       </c>
-      <c r="R147">
-        <v>2.3</v>
-      </c>
-      <c r="S147">
-        <v>4.5</v>
-      </c>
-      <c r="T147">
+      <c r="AC147">
+        <v>1.06</v>
+      </c>
+      <c r="AD147">
+        <v>7.5</v>
+      </c>
+      <c r="AE147">
         <v>1.33</v>
       </c>
-      <c r="U147">
-        <v>3.25</v>
-      </c>
-      <c r="V147">
-        <v>2.63</v>
-      </c>
-      <c r="W147">
-        <v>1.44</v>
-      </c>
-      <c r="X147">
-        <v>6.5</v>
-      </c>
-      <c r="Y147">
-        <v>1.11</v>
-      </c>
-      <c r="Z147">
+      <c r="AF147">
+        <v>3</v>
+      </c>
+      <c r="AG147">
+        <v>2.16</v>
+      </c>
+      <c r="AH147">
+        <v>1.72</v>
+      </c>
+      <c r="AI147">
+        <v>1.8</v>
+      </c>
+      <c r="AJ147">
+        <v>1.95</v>
+      </c>
+      <c r="AK147">
+        <v>1.55</v>
+      </c>
+      <c r="AL147">
+        <v>1.35</v>
+      </c>
+      <c r="AM147">
+        <v>1.4</v>
+      </c>
+      <c r="AN147">
+        <v>1.08</v>
+      </c>
+      <c r="AO147">
+        <v>1.08</v>
+      </c>
+      <c r="AP147">
+        <v>1.38</v>
+      </c>
+      <c r="AQ147">
+        <v>1.06</v>
+      </c>
+      <c r="AR147">
+        <v>1.25</v>
+      </c>
+      <c r="AS147">
+        <v>1.35</v>
+      </c>
+      <c r="AT147">
+        <v>2.6</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>5</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>2.54</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
         <v>1.69</v>
       </c>
-      <c r="AA147">
-        <v>3.95</v>
-      </c>
-      <c r="AB147">
-        <v>4.5</v>
-      </c>
-      <c r="AC147">
-        <v>1.04</v>
-      </c>
-      <c r="AD147">
-        <v>10</v>
-      </c>
-      <c r="AE147">
-        <v>1.22</v>
-      </c>
-      <c r="AF147">
-        <v>4</v>
-      </c>
-      <c r="AG147">
-        <v>1.76</v>
-      </c>
-      <c r="AH147">
-        <v>2.11</v>
-      </c>
-      <c r="AI147">
-        <v>1.7</v>
-      </c>
-      <c r="AJ147">
-        <v>2.05</v>
-      </c>
-      <c r="AK147">
-        <v>1.22</v>
-      </c>
-      <c r="AL147">
-        <v>1.26</v>
-      </c>
-      <c r="AM147">
-        <v>2.04</v>
-      </c>
-      <c r="AN147">
-        <v>1.42</v>
-      </c>
-      <c r="AO147">
-        <v>0.75</v>
-      </c>
-      <c r="AP147">
-        <v>1.56</v>
-      </c>
-      <c r="AQ147">
-        <v>0.88</v>
-      </c>
-      <c r="AR147">
-        <v>1.35</v>
-      </c>
-      <c r="AS147">
-        <v>1.13</v>
-      </c>
-      <c r="AT147">
-        <v>2.48</v>
-      </c>
-      <c r="AU147">
-        <v>6</v>
-      </c>
-      <c r="AV147">
-        <v>8</v>
-      </c>
-      <c r="AW147">
-        <v>4</v>
-      </c>
-      <c r="AX147">
-        <v>2</v>
-      </c>
-      <c r="AY147">
-        <v>10</v>
-      </c>
-      <c r="AZ147">
-        <v>10</v>
-      </c>
-      <c r="BA147">
-        <v>3</v>
-      </c>
-      <c r="BB147">
-        <v>3</v>
-      </c>
-      <c r="BC147">
-        <v>6</v>
-      </c>
-      <c r="BD147">
-        <v>1.82</v>
-      </c>
-      <c r="BE147">
-        <v>8.5</v>
-      </c>
-      <c r="BF147">
-        <v>2.32</v>
-      </c>
       <c r="BG147">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="BH147">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="BI147">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="BJ147">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="BK147">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="BL147">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BM147">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="BN147">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="BO147">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="BP147">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31625,7 +31631,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7390083</v>
+        <v>7390082</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31640,190 +31646,190 @@
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H148" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148">
         <v>1</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>83</v>
+      </c>
+      <c r="P148" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q148">
+        <v>2.38</v>
+      </c>
+      <c r="R148">
+        <v>2.3</v>
+      </c>
+      <c r="S148">
+        <v>4.5</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.69</v>
+      </c>
+      <c r="AA148">
+        <v>3.95</v>
+      </c>
+      <c r="AB148">
+        <v>4.5</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
+        <v>4</v>
+      </c>
+      <c r="AG148">
+        <v>1.76</v>
+      </c>
+      <c r="AH148">
+        <v>2.11</v>
+      </c>
+      <c r="AI148">
+        <v>1.7</v>
+      </c>
+      <c r="AJ148">
+        <v>2.05</v>
+      </c>
+      <c r="AK148">
+        <v>1.22</v>
+      </c>
+      <c r="AL148">
+        <v>1.26</v>
+      </c>
+      <c r="AM148">
+        <v>2.04</v>
+      </c>
+      <c r="AN148">
+        <v>1.42</v>
+      </c>
+      <c r="AO148">
+        <v>0.75</v>
+      </c>
+      <c r="AP148">
+        <v>1.56</v>
+      </c>
+      <c r="AQ148">
+        <v>0.88</v>
+      </c>
+      <c r="AR148">
+        <v>1.35</v>
+      </c>
+      <c r="AS148">
+        <v>1.13</v>
+      </c>
+      <c r="AT148">
+        <v>2.48</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>8</v>
+      </c>
+      <c r="AW148">
+        <v>4</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>10</v>
+      </c>
+      <c r="AZ148">
+        <v>10</v>
+      </c>
+      <c r="BA148">
         <v>3</v>
       </c>
-      <c r="O148" t="s">
-        <v>188</v>
-      </c>
-      <c r="P148" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q148">
-        <v>3.6</v>
-      </c>
-      <c r="R148">
-        <v>2.05</v>
-      </c>
-      <c r="S148">
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>6</v>
+      </c>
+      <c r="BD148">
+        <v>1.82</v>
+      </c>
+      <c r="BE148">
+        <v>8.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.32</v>
+      </c>
+      <c r="BG148">
+        <v>1.12</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>1.32</v>
+      </c>
+      <c r="BJ148">
         <v>3.1</v>
       </c>
-      <c r="T148">
-        <v>1.44</v>
-      </c>
-      <c r="U148">
-        <v>2.63</v>
-      </c>
-      <c r="V148">
-        <v>3.25</v>
-      </c>
-      <c r="W148">
-        <v>1.33</v>
-      </c>
-      <c r="X148">
-        <v>9</v>
-      </c>
-      <c r="Y148">
-        <v>1.07</v>
-      </c>
-      <c r="Z148">
-        <v>2.95</v>
-      </c>
-      <c r="AA148">
-        <v>3.2</v>
-      </c>
-      <c r="AB148">
-        <v>2.38</v>
-      </c>
-      <c r="AC148">
-        <v>1.06</v>
-      </c>
-      <c r="AD148">
-        <v>7.5</v>
-      </c>
-      <c r="AE148">
-        <v>1.33</v>
-      </c>
-      <c r="AF148">
-        <v>3</v>
-      </c>
-      <c r="AG148">
-        <v>2.16</v>
-      </c>
-      <c r="AH148">
-        <v>1.72</v>
-      </c>
-      <c r="AI148">
-        <v>1.8</v>
-      </c>
-      <c r="AJ148">
-        <v>1.95</v>
-      </c>
-      <c r="AK148">
-        <v>1.55</v>
-      </c>
-      <c r="AL148">
-        <v>1.35</v>
-      </c>
-      <c r="AM148">
-        <v>1.4</v>
-      </c>
-      <c r="AN148">
-        <v>1.08</v>
-      </c>
-      <c r="AO148">
-        <v>1.08</v>
-      </c>
-      <c r="AP148">
-        <v>1.38</v>
-      </c>
-      <c r="AQ148">
-        <v>1.06</v>
-      </c>
-      <c r="AR148">
-        <v>1.25</v>
-      </c>
-      <c r="AS148">
-        <v>1.35</v>
-      </c>
-      <c r="AT148">
-        <v>2.6</v>
-      </c>
-      <c r="AU148">
-        <v>4</v>
-      </c>
-      <c r="AV148">
-        <v>5</v>
-      </c>
-      <c r="AW148">
-        <v>1</v>
-      </c>
-      <c r="AX148">
-        <v>6</v>
-      </c>
-      <c r="AY148">
-        <v>5</v>
-      </c>
-      <c r="AZ148">
-        <v>11</v>
-      </c>
-      <c r="BA148">
-        <v>6</v>
-      </c>
-      <c r="BB148">
-        <v>4</v>
-      </c>
-      <c r="BC148">
-        <v>10</v>
-      </c>
-      <c r="BD148">
-        <v>2.54</v>
-      </c>
-      <c r="BE148">
-        <v>8</v>
-      </c>
-      <c r="BF148">
-        <v>1.69</v>
-      </c>
-      <c r="BG148">
-        <v>1.25</v>
-      </c>
-      <c r="BH148">
-        <v>3.6</v>
-      </c>
-      <c r="BI148">
-        <v>1.46</v>
-      </c>
-      <c r="BJ148">
-        <v>2.55</v>
-      </c>
       <c r="BK148">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="BL148">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="BM148">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="BN148">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="BO148">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="BP148">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31873,7 +31879,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32079,7 +32085,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32157,7 +32163,7 @@
         <v>1.92</v>
       </c>
       <c r="AP150">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
@@ -32285,7 +32291,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32366,7 +32372,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32491,7 +32497,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32697,7 +32703,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32903,7 +32909,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33187,10 +33193,10 @@
         <v>0.92</v>
       </c>
       <c r="AP155">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ155">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>2.01</v>
@@ -33521,7 +33527,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33727,7 +33733,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33891,7 +33897,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7390094</v>
+        <v>7390095</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33906,160 +33912,160 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H159" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O159" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="P159" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="Q159">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R159">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S159">
+        <v>4.75</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
         <v>3.25</v>
       </c>
-      <c r="T159">
-        <v>1.36</v>
-      </c>
-      <c r="U159">
-        <v>3</v>
-      </c>
       <c r="V159">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W159">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y159">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z159">
-        <v>2.89</v>
+        <v>1.92</v>
       </c>
       <c r="AA159">
-        <v>3.63</v>
+        <v>2.38</v>
       </c>
       <c r="AB159">
-        <v>2.06</v>
+        <v>5.93</v>
       </c>
       <c r="AC159">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD159">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE159">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AF159">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AG159">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AH159">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="AI159">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ159">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK159">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AL159">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AM159">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>1.85</v>
+        <v>0.23</v>
       </c>
       <c r="AO159">
-        <v>1.23</v>
+        <v>0.77</v>
       </c>
       <c r="AP159">
+        <v>0.38</v>
+      </c>
+      <c r="AQ159">
+        <v>0.88</v>
+      </c>
+      <c r="AR159">
+        <v>1.33</v>
+      </c>
+      <c r="AS159">
+        <v>1.16</v>
+      </c>
+      <c r="AT159">
+        <v>2.49</v>
+      </c>
+      <c r="AU159">
+        <v>9</v>
+      </c>
+      <c r="AV159">
+        <v>9</v>
+      </c>
+      <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>14</v>
+      </c>
+      <c r="AZ159">
+        <v>13</v>
+      </c>
+      <c r="BA159">
+        <v>14</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>19</v>
+      </c>
+      <c r="BD159">
         <v>1.75</v>
-      </c>
-      <c r="AQ159">
-        <v>1.06</v>
-      </c>
-      <c r="AR159">
-        <v>1.54</v>
-      </c>
-      <c r="AS159">
-        <v>1.35</v>
-      </c>
-      <c r="AT159">
-        <v>2.89</v>
-      </c>
-      <c r="AU159">
-        <v>6</v>
-      </c>
-      <c r="AV159">
-        <v>6</v>
-      </c>
-      <c r="AW159">
-        <v>2</v>
-      </c>
-      <c r="AX159">
-        <v>3</v>
-      </c>
-      <c r="AY159">
-        <v>8</v>
-      </c>
-      <c r="AZ159">
-        <v>9</v>
-      </c>
-      <c r="BA159">
-        <v>7</v>
-      </c>
-      <c r="BB159">
-        <v>8</v>
-      </c>
-      <c r="BC159">
-        <v>15</v>
-      </c>
-      <c r="BD159">
-        <v>1.95</v>
       </c>
       <c r="BE159">
         <v>8</v>
       </c>
       <c r="BF159">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="BG159">
         <v>1.22</v>
@@ -34097,7 +34103,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7390095</v>
+        <v>7390094</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34112,160 +34118,160 @@
         <v>5</v>
       </c>
       <c r="G160" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H160" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>96</v>
+      </c>
+      <c r="P160" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q160">
+        <v>3.1</v>
+      </c>
+      <c r="R160">
+        <v>2.2</v>
+      </c>
+      <c r="S160">
+        <v>3.25</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
         <v>3</v>
       </c>
-      <c r="O160" t="s">
-        <v>197</v>
-      </c>
-      <c r="P160" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q160">
-        <v>2.3</v>
-      </c>
-      <c r="R160">
-        <v>2.38</v>
-      </c>
-      <c r="S160">
-        <v>4.75</v>
-      </c>
-      <c r="T160">
-        <v>1.33</v>
-      </c>
-      <c r="U160">
-        <v>3.25</v>
-      </c>
       <c r="V160">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W160">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X160">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y160">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z160">
-        <v>1.92</v>
+        <v>2.89</v>
       </c>
       <c r="AA160">
-        <v>2.38</v>
+        <v>3.63</v>
       </c>
       <c r="AB160">
-        <v>5.93</v>
+        <v>2.06</v>
       </c>
       <c r="AC160">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD160">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE160">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AF160">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AG160">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AH160">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AI160">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ160">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK160">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AL160">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AM160">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="AN160">
-        <v>0.23</v>
+        <v>1.85</v>
       </c>
       <c r="AO160">
-        <v>0.77</v>
+        <v>1.23</v>
       </c>
       <c r="AP160">
-        <v>0.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ160">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AR160">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AS160">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AT160">
-        <v>2.49</v>
+        <v>2.89</v>
       </c>
       <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>2</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
         <v>9</v>
       </c>
-      <c r="AV160">
-        <v>9</v>
-      </c>
-      <c r="AW160">
-        <v>5</v>
-      </c>
-      <c r="AX160">
-        <v>4</v>
-      </c>
-      <c r="AY160">
-        <v>14</v>
-      </c>
-      <c r="AZ160">
-        <v>13</v>
-      </c>
       <c r="BA160">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BB160">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC160">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BD160">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BE160">
         <v>8</v>
       </c>
       <c r="BF160">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="BG160">
         <v>1.22</v>
@@ -34345,7 +34351,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34551,7 +34557,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34629,7 +34635,7 @@
         <v>1.46</v>
       </c>
       <c r="AP162">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ162">
         <v>1.27</v>
@@ -34963,7 +34969,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35044,7 +35050,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
         <v>1.44</v>
@@ -35169,7 +35175,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35375,7 +35381,7 @@
         <v>202</v>
       </c>
       <c r="P166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -35581,7 +35587,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35787,7 +35793,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35865,7 +35871,7 @@
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ168">
         <v>2</v>
@@ -35993,7 +35999,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36199,7 +36205,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36363,7 +36369,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7390106</v>
+        <v>7390107</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36378,88 +36384,88 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H171" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>1</v>
       </c>
       <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
         <v>3</v>
       </c>
-      <c r="L171">
-        <v>2</v>
-      </c>
-      <c r="M171">
-        <v>2</v>
-      </c>
-      <c r="N171">
+      <c r="O171" t="s">
+        <v>93</v>
+      </c>
+      <c r="P171" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q171">
+        <v>2.4</v>
+      </c>
+      <c r="R171">
+        <v>2.25</v>
+      </c>
+      <c r="S171">
+        <v>4.5</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.63</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.8</v>
+      </c>
+      <c r="AA171">
+        <v>3.6</v>
+      </c>
+      <c r="AB171">
         <v>4</v>
       </c>
-      <c r="O171" t="s">
-        <v>206</v>
-      </c>
-      <c r="P171" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q171">
-        <v>1.95</v>
-      </c>
-      <c r="R171">
-        <v>2.5</v>
-      </c>
-      <c r="S171">
-        <v>6</v>
-      </c>
-      <c r="T171">
-        <v>1.29</v>
-      </c>
-      <c r="U171">
-        <v>3.5</v>
-      </c>
-      <c r="V171">
-        <v>2.38</v>
-      </c>
-      <c r="W171">
-        <v>1.53</v>
-      </c>
-      <c r="X171">
-        <v>5.5</v>
-      </c>
-      <c r="Y171">
-        <v>1.14</v>
-      </c>
-      <c r="Z171">
-        <v>1.44</v>
-      </c>
-      <c r="AA171">
-        <v>4.6</v>
-      </c>
-      <c r="AB171">
-        <v>6</v>
-      </c>
       <c r="AC171">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD171">
-        <v>13.9</v>
+        <v>9</v>
       </c>
       <c r="AE171">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AF171">
-        <v>4.79</v>
+        <v>3.65</v>
       </c>
       <c r="AG171">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AH171">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AI171">
         <v>1.75</v>
@@ -36468,70 +36474,70 @@
         <v>2</v>
       </c>
       <c r="AK171">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AL171">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AM171">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AN171">
-        <v>1.31</v>
+        <v>1.79</v>
       </c>
       <c r="AO171">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ171">
         <v>0.88</v>
       </c>
       <c r="AR171">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS171">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT171">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="AU171">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV171">
+        <v>5</v>
+      </c>
+      <c r="AW171">
+        <v>6</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+      <c r="AY171">
+        <v>13</v>
+      </c>
+      <c r="AZ171">
         <v>8</v>
       </c>
-      <c r="AW171">
-        <v>7</v>
-      </c>
-      <c r="AX171">
-        <v>9</v>
-      </c>
-      <c r="AY171">
-        <v>16</v>
-      </c>
-      <c r="AZ171">
-        <v>17</v>
-      </c>
       <c r="BA171">
+        <v>6</v>
+      </c>
+      <c r="BB171">
         <v>4</v>
       </c>
-      <c r="BB171">
-        <v>5</v>
-      </c>
       <c r="BC171">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD171">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BE171">
         <v>8</v>
       </c>
       <c r="BF171">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BG171">
         <v>1.22</v>
@@ -36569,7 +36575,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7390107</v>
+        <v>7390106</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36584,88 +36590,88 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H172" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172">
         <v>1</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M172">
         <v>2</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O172" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q172">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="R172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S172">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T172">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U172">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V172">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W172">
+        <v>1.53</v>
+      </c>
+      <c r="X172">
+        <v>5.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.14</v>
+      </c>
+      <c r="Z172">
         <v>1.44</v>
       </c>
-      <c r="X172">
-        <v>7</v>
-      </c>
-      <c r="Y172">
-        <v>1.1</v>
-      </c>
-      <c r="Z172">
-        <v>1.8</v>
-      </c>
       <c r="AA172">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="AB172">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC172">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD172">
-        <v>9</v>
+        <v>13.9</v>
       </c>
       <c r="AE172">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AF172">
-        <v>3.65</v>
+        <v>4.79</v>
       </c>
       <c r="AG172">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AH172">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AI172">
         <v>1.75</v>
@@ -36674,70 +36680,70 @@
         <v>2</v>
       </c>
       <c r="AK172">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AL172">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AM172">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="AN172">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="AO172">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
       </c>
       <c r="AR172">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS172">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AT172">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="AU172">
+        <v>9</v>
+      </c>
+      <c r="AV172">
+        <v>8</v>
+      </c>
+      <c r="AW172">
         <v>7</v>
       </c>
-      <c r="AV172">
+      <c r="AX172">
+        <v>9</v>
+      </c>
+      <c r="AY172">
+        <v>16</v>
+      </c>
+      <c r="AZ172">
+        <v>17</v>
+      </c>
+      <c r="BA172">
+        <v>4</v>
+      </c>
+      <c r="BB172">
         <v>5</v>
       </c>
-      <c r="AW172">
-        <v>6</v>
-      </c>
-      <c r="AX172">
-        <v>3</v>
-      </c>
-      <c r="AY172">
-        <v>13</v>
-      </c>
-      <c r="AZ172">
-        <v>8</v>
-      </c>
-      <c r="BA172">
-        <v>6</v>
-      </c>
-      <c r="BB172">
-        <v>4</v>
-      </c>
       <c r="BC172">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD172">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BE172">
         <v>8</v>
       </c>
       <c r="BF172">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BG172">
         <v>1.22</v>
@@ -36814,10 +36820,10 @@
         <v>4</v>
       </c>
       <c r="O173" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -37023,7 +37029,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37101,7 +37107,7 @@
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174">
         <v>1.27</v>
@@ -37229,7 +37235,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -37310,7 +37316,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ175">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.79</v>
@@ -37928,7 +37934,7 @@
         <v>2</v>
       </c>
       <c r="AQ178">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR178">
         <v>1.58</v>
@@ -38050,10 +38056,10 @@
         <v>3</v>
       </c>
       <c r="O179" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38340,7 +38346,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
         <v>1.46</v>
@@ -38465,7 +38471,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38543,7 +38549,7 @@
         <v>1.79</v>
       </c>
       <c r="AP181">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ181">
         <v>1.81</v>
@@ -39083,7 +39089,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>3.5</v>
@@ -39289,7 +39295,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -39495,7 +39501,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>2.63</v>
@@ -39701,7 +39707,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q187">
         <v>6.5</v>
@@ -40110,7 +40116,7 @@
         <v>1</v>
       </c>
       <c r="O189" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P189" t="s">
         <v>96</v>
@@ -40476,6 +40482,418 @@
       </c>
       <c r="BP190">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7390126</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>70</v>
+      </c>
+      <c r="H191" t="s">
+        <v>74</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>6</v>
+      </c>
+      <c r="O191" t="s">
+        <v>218</v>
+      </c>
+      <c r="P191" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q191">
+        <v>1.74</v>
+      </c>
+      <c r="R191">
+        <v>2.85</v>
+      </c>
+      <c r="S191">
+        <v>7.33</v>
+      </c>
+      <c r="T191">
+        <v>1.24</v>
+      </c>
+      <c r="U191">
+        <v>3.82</v>
+      </c>
+      <c r="V191">
+        <v>2.2</v>
+      </c>
+      <c r="W191">
+        <v>1.67</v>
+      </c>
+      <c r="X191">
+        <v>4.7</v>
+      </c>
+      <c r="Y191">
+        <v>1.17</v>
+      </c>
+      <c r="Z191">
+        <v>1.33</v>
+      </c>
+      <c r="AA191">
+        <v>5.3</v>
+      </c>
+      <c r="AB191">
+        <v>8.74</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>22</v>
+      </c>
+      <c r="AE191">
+        <v>1.12</v>
+      </c>
+      <c r="AF191">
+        <v>5.25</v>
+      </c>
+      <c r="AG191">
+        <v>1.45</v>
+      </c>
+      <c r="AH191">
+        <v>2.63</v>
+      </c>
+      <c r="AI191">
+        <v>1.76</v>
+      </c>
+      <c r="AJ191">
+        <v>2.01</v>
+      </c>
+      <c r="AK191">
+        <v>1.07</v>
+      </c>
+      <c r="AL191">
+        <v>1.15</v>
+      </c>
+      <c r="AM191">
+        <v>3.32</v>
+      </c>
+      <c r="AN191">
+        <v>2.2</v>
+      </c>
+      <c r="AO191">
+        <v>0.93</v>
+      </c>
+      <c r="AP191">
+        <v>2.13</v>
+      </c>
+      <c r="AQ191">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR191">
+        <v>1.62</v>
+      </c>
+      <c r="AS191">
+        <v>1.12</v>
+      </c>
+      <c r="AT191">
+        <v>2.74</v>
+      </c>
+      <c r="AU191">
+        <v>10</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>16</v>
+      </c>
+      <c r="AX191">
+        <v>5</v>
+      </c>
+      <c r="AY191">
+        <v>26</v>
+      </c>
+      <c r="AZ191">
+        <v>8</v>
+      </c>
+      <c r="BA191">
+        <v>6</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>1.23</v>
+      </c>
+      <c r="BE191">
+        <v>10</v>
+      </c>
+      <c r="BF191">
+        <v>5.15</v>
+      </c>
+      <c r="BG191">
+        <v>1.27</v>
+      </c>
+      <c r="BH191">
+        <v>3.35</v>
+      </c>
+      <c r="BI191">
+        <v>1.52</v>
+      </c>
+      <c r="BJ191">
+        <v>2.4</v>
+      </c>
+      <c r="BK191">
+        <v>1.9</v>
+      </c>
+      <c r="BL191">
+        <v>1.9</v>
+      </c>
+      <c r="BM191">
+        <v>2.35</v>
+      </c>
+      <c r="BN191">
+        <v>1.54</v>
+      </c>
+      <c r="BO191">
+        <v>3.2</v>
+      </c>
+      <c r="BP191">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7390127</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>80</v>
+      </c>
+      <c r="H192" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>152</v>
+      </c>
+      <c r="P192" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q192">
+        <v>2.41</v>
+      </c>
+      <c r="R192">
+        <v>2.55</v>
+      </c>
+      <c r="S192">
+        <v>4.03</v>
+      </c>
+      <c r="T192">
+        <v>1.25</v>
+      </c>
+      <c r="U192">
+        <v>3.5</v>
+      </c>
+      <c r="V192">
+        <v>2.27</v>
+      </c>
+      <c r="W192">
+        <v>1.63</v>
+      </c>
+      <c r="X192">
+        <v>4.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.16</v>
+      </c>
+      <c r="Z192">
+        <v>1.88</v>
+      </c>
+      <c r="AA192">
+        <v>4.2</v>
+      </c>
+      <c r="AB192">
+        <v>3.51</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>11</v>
+      </c>
+      <c r="AE192">
+        <v>1.17</v>
+      </c>
+      <c r="AF192">
+        <v>5</v>
+      </c>
+      <c r="AG192">
+        <v>1.42</v>
+      </c>
+      <c r="AH192">
+        <v>2.74</v>
+      </c>
+      <c r="AI192">
+        <v>1.48</v>
+      </c>
+      <c r="AJ192">
+        <v>2.4</v>
+      </c>
+      <c r="AK192">
+        <v>1.28</v>
+      </c>
+      <c r="AL192">
+        <v>1.2</v>
+      </c>
+      <c r="AM192">
+        <v>1.85</v>
+      </c>
+      <c r="AN192">
+        <v>1.87</v>
+      </c>
+      <c r="AO192">
+        <v>1.6</v>
+      </c>
+      <c r="AP192">
+        <v>1.81</v>
+      </c>
+      <c r="AQ192">
+        <v>1.56</v>
+      </c>
+      <c r="AR192">
+        <v>1.96</v>
+      </c>
+      <c r="AS192">
+        <v>1.44</v>
+      </c>
+      <c r="AT192">
+        <v>3.4</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>9</v>
+      </c>
+      <c r="AX192">
+        <v>8</v>
+      </c>
+      <c r="AY192">
+        <v>15</v>
+      </c>
+      <c r="AZ192">
+        <v>13</v>
+      </c>
+      <c r="BA192">
+        <v>3</v>
+      </c>
+      <c r="BB192">
+        <v>6</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.91</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>2.2</v>
+      </c>
+      <c r="BG192">
+        <v>1.15</v>
+      </c>
+      <c r="BH192">
+        <v>4.5</v>
+      </c>
+      <c r="BI192">
+        <v>1.52</v>
+      </c>
+      <c r="BJ192">
+        <v>2.4</v>
+      </c>
+      <c r="BK192">
+        <v>1.85</v>
+      </c>
+      <c r="BL192">
+        <v>1.87</v>
+      </c>
+      <c r="BM192">
+        <v>2.35</v>
+      </c>
+      <c r="BN192">
+        <v>1.54</v>
+      </c>
+      <c r="BO192">
+        <v>2.52</v>
+      </c>
+      <c r="BP192">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['51', '76']</t>
   </si>
   <si>
+    <t>['17', '64']</t>
+  </si>
+  <si>
     <t>['46', '48', '52']</t>
   </si>
   <si>
@@ -974,6 +977,9 @@
   </si>
   <si>
     <t>['13', '80']</t>
+  </si>
+  <si>
+    <t>['41', '59', '78']</t>
   </si>
   <si>
     <t>['13', '26', '82']</t>
@@ -1338,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,7 +1809,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2215,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2627,7 +2633,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2833,7 +2839,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3039,7 +3045,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3451,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3657,7 +3663,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -3863,7 +3869,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4069,7 +4075,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4481,7 +4487,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4562,7 +4568,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ16">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4687,7 +4693,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4893,7 +4899,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5099,7 +5105,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5305,7 +5311,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5511,7 +5517,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>4.3</v>
@@ -5717,7 +5723,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>3.8</v>
@@ -6001,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>0.6899999999999999</v>
@@ -6129,7 +6135,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6541,7 +6547,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7159,7 +7165,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7365,7 +7371,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7446,7 +7452,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7983,7 +7989,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8395,7 +8401,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8807,7 +8813,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9013,7 +9019,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9219,7 +9225,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>4.5</v>
@@ -9709,7 +9715,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>1.06</v>
@@ -10124,7 +10130,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10249,7 +10255,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10455,7 +10461,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10661,7 +10667,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10867,7 +10873,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11073,7 +11079,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11279,7 +11285,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11691,7 +11697,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11769,7 +11775,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1.88</v>
@@ -12103,7 +12109,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12184,7 +12190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12309,7 +12315,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12721,7 +12727,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -13339,7 +13345,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13545,7 +13551,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13626,7 +13632,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13751,7 +13757,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14163,7 +14169,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>2.55</v>
@@ -14369,7 +14375,7 @@
         <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14653,7 +14659,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14781,7 +14787,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -15193,7 +15199,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15605,7 +15611,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15686,7 +15692,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15811,7 +15817,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16017,7 +16023,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16223,7 +16229,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16841,7 +16847,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17331,7 +17337,7 @@
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>1.56</v>
@@ -17665,7 +17671,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18283,7 +18289,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18489,7 +18495,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18773,10 +18779,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.55</v>
@@ -19725,7 +19731,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20137,7 +20143,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20343,7 +20349,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20630,7 +20636,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20961,7 +20967,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21167,7 +21173,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21579,7 +21585,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22069,7 +22075,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
         <v>0.88</v>
@@ -22197,7 +22203,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22278,7 +22284,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ102">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22403,7 +22409,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22609,7 +22615,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22815,7 +22821,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -23021,7 +23027,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23227,7 +23233,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23511,7 +23517,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ108">
         <v>1.81</v>
@@ -23720,7 +23726,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ109">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.22</v>
@@ -24257,7 +24263,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q112">
         <v>4.33</v>
@@ -24463,7 +24469,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24669,7 +24675,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -25287,7 +25293,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25777,7 +25783,7 @@
         <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
         <v>0.88</v>
@@ -25905,7 +25911,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26317,7 +26323,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26523,7 +26529,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26729,7 +26735,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26810,7 +26816,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ124">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.46</v>
@@ -27141,7 +27147,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27837,7 +27843,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
         <v>0.9399999999999999</v>
@@ -28171,7 +28177,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>2.05</v>
@@ -28583,7 +28589,7 @@
         <v>96</v>
       </c>
       <c r="P133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>5.5</v>
@@ -28789,7 +28795,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29201,7 +29207,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29407,7 +29413,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29613,7 +29619,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29694,7 +29700,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ138">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR138">
         <v>1.42</v>
@@ -29819,7 +29825,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30231,7 +30237,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>4.5</v>
@@ -31055,7 +31061,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31133,7 +31139,7 @@
         <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
         <v>0.9399999999999999</v>
@@ -31261,7 +31267,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31467,7 +31473,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31879,7 +31885,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32085,7 +32091,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32291,7 +32297,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32497,7 +32503,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32703,7 +32709,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32909,7 +32915,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33399,7 +33405,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
         <v>1.81</v>
@@ -33527,7 +33533,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33608,7 +33614,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ157">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR157">
         <v>1.75</v>
@@ -33733,7 +33739,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33939,7 +33945,7 @@
         <v>197</v>
       </c>
       <c r="P159" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -34351,7 +34357,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34557,7 +34563,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34638,7 +34644,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ162">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR162">
         <v>1.97</v>
@@ -34969,7 +34975,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35175,7 +35181,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35587,7 +35593,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35793,7 +35799,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -35999,7 +36005,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36205,7 +36211,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36411,7 +36417,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36617,7 +36623,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>1.95</v>
@@ -36823,7 +36829,7 @@
         <v>114</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -36901,7 +36907,7 @@
         <v>1.93</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ173">
         <v>1.88</v>
@@ -37029,7 +37035,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37110,7 +37116,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ174">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR174">
         <v>1.64</v>
@@ -37235,7 +37241,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -37931,7 +37937,7 @@
         <v>1.71</v>
       </c>
       <c r="AP178">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ178">
         <v>1.56</v>
@@ -38059,7 +38065,7 @@
         <v>115</v>
       </c>
       <c r="P179" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38471,7 +38477,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -39089,7 +39095,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>3.5</v>
@@ -39295,7 +39301,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -39501,7 +39507,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>2.63</v>
@@ -39707,7 +39713,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q187">
         <v>6.5</v>
@@ -40325,7 +40331,7 @@
         <v>217</v>
       </c>
       <c r="P190" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q190">
         <v>2.61</v>
@@ -40489,7 +40495,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7390126</v>
+        <v>7390127</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40504,166 +40510,166 @@
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H191" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>152</v>
+      </c>
+      <c r="P191" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q191">
+        <v>2.41</v>
+      </c>
+      <c r="R191">
+        <v>2.55</v>
+      </c>
+      <c r="S191">
+        <v>4.03</v>
+      </c>
+      <c r="T191">
+        <v>1.25</v>
+      </c>
+      <c r="U191">
+        <v>3.5</v>
+      </c>
+      <c r="V191">
+        <v>2.27</v>
+      </c>
+      <c r="W191">
+        <v>1.63</v>
+      </c>
+      <c r="X191">
+        <v>4.9</v>
+      </c>
+      <c r="Y191">
+        <v>1.16</v>
+      </c>
+      <c r="Z191">
+        <v>1.88</v>
+      </c>
+      <c r="AA191">
+        <v>4.2</v>
+      </c>
+      <c r="AB191">
+        <v>3.51</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>11</v>
+      </c>
+      <c r="AE191">
+        <v>1.17</v>
+      </c>
+      <c r="AF191">
+        <v>5</v>
+      </c>
+      <c r="AG191">
+        <v>1.42</v>
+      </c>
+      <c r="AH191">
+        <v>2.74</v>
+      </c>
+      <c r="AI191">
+        <v>1.48</v>
+      </c>
+      <c r="AJ191">
+        <v>2.4</v>
+      </c>
+      <c r="AK191">
+        <v>1.28</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>1.85</v>
+      </c>
+      <c r="AN191">
+        <v>1.87</v>
+      </c>
+      <c r="AO191">
+        <v>1.6</v>
+      </c>
+      <c r="AP191">
+        <v>1.81</v>
+      </c>
+      <c r="AQ191">
+        <v>1.56</v>
+      </c>
+      <c r="AR191">
+        <v>1.96</v>
+      </c>
+      <c r="AS191">
+        <v>1.44</v>
+      </c>
+      <c r="AT191">
+        <v>3.4</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
         <v>3</v>
       </c>
-      <c r="M191">
+      <c r="AY191">
+        <v>11</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
         <v>3</v>
       </c>
-      <c r="N191">
+      <c r="BB191">
         <v>6</v>
       </c>
-      <c r="O191" t="s">
-        <v>218</v>
-      </c>
-      <c r="P191" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q191">
-        <v>1.74</v>
-      </c>
-      <c r="R191">
-        <v>2.85</v>
-      </c>
-      <c r="S191">
-        <v>7.33</v>
-      </c>
-      <c r="T191">
-        <v>1.24</v>
-      </c>
-      <c r="U191">
-        <v>3.82</v>
-      </c>
-      <c r="V191">
+      <c r="BC191">
+        <v>9</v>
+      </c>
+      <c r="BD191">
+        <v>1.91</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
         <v>2.2</v>
       </c>
-      <c r="W191">
-        <v>1.67</v>
-      </c>
-      <c r="X191">
-        <v>4.7</v>
-      </c>
-      <c r="Y191">
-        <v>1.17</v>
-      </c>
-      <c r="Z191">
-        <v>1.33</v>
-      </c>
-      <c r="AA191">
-        <v>5.3</v>
-      </c>
-      <c r="AB191">
-        <v>8.74</v>
-      </c>
-      <c r="AC191">
-        <v>1.02</v>
-      </c>
-      <c r="AD191">
-        <v>22</v>
-      </c>
-      <c r="AE191">
-        <v>1.12</v>
-      </c>
-      <c r="AF191">
-        <v>5.25</v>
-      </c>
-      <c r="AG191">
-        <v>1.45</v>
-      </c>
-      <c r="AH191">
-        <v>2.63</v>
-      </c>
-      <c r="AI191">
-        <v>1.76</v>
-      </c>
-      <c r="AJ191">
-        <v>2.01</v>
-      </c>
-      <c r="AK191">
-        <v>1.07</v>
-      </c>
-      <c r="AL191">
+      <c r="BG191">
         <v>1.15</v>
       </c>
-      <c r="AM191">
-        <v>3.32</v>
-      </c>
-      <c r="AN191">
-        <v>2.2</v>
-      </c>
-      <c r="AO191">
-        <v>0.93</v>
-      </c>
-      <c r="AP191">
-        <v>2.13</v>
-      </c>
-      <c r="AQ191">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR191">
-        <v>1.62</v>
-      </c>
-      <c r="AS191">
-        <v>1.12</v>
-      </c>
-      <c r="AT191">
-        <v>2.74</v>
-      </c>
-      <c r="AU191">
-        <v>10</v>
-      </c>
-      <c r="AV191">
-        <v>3</v>
-      </c>
-      <c r="AW191">
-        <v>16</v>
-      </c>
-      <c r="AX191">
-        <v>5</v>
-      </c>
-      <c r="AY191">
-        <v>26</v>
-      </c>
-      <c r="AZ191">
-        <v>8</v>
-      </c>
-      <c r="BA191">
-        <v>6</v>
-      </c>
-      <c r="BB191">
-        <v>2</v>
-      </c>
-      <c r="BC191">
-        <v>8</v>
-      </c>
-      <c r="BD191">
-        <v>1.23</v>
-      </c>
-      <c r="BE191">
-        <v>10</v>
-      </c>
-      <c r="BF191">
-        <v>5.15</v>
-      </c>
-      <c r="BG191">
-        <v>1.27</v>
-      </c>
       <c r="BH191">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="BI191">
         <v>1.52</v>
@@ -40672,10 +40678,10 @@
         <v>2.4</v>
       </c>
       <c r="BK191">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BL191">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="BM191">
         <v>2.35</v>
@@ -40684,10 +40690,10 @@
         <v>1.54</v>
       </c>
       <c r="BO191">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="BP191">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40695,7 +40701,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7390127</v>
+        <v>7390128</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40710,70 +40716,70 @@
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H192" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I192">
         <v>1</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O192" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="P192" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="Q192">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="R192">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="S192">
-        <v>4.03</v>
+        <v>5.75</v>
       </c>
       <c r="T192">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U192">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="V192">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="W192">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="X192">
-        <v>4.9</v>
+        <v>5.25</v>
       </c>
       <c r="Y192">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="Z192">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="AA192">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AB192">
-        <v>3.51</v>
+        <v>7</v>
       </c>
       <c r="AC192">
         <v>1.03</v>
@@ -40782,94 +40788,94 @@
         <v>11</v>
       </c>
       <c r="AE192">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF192">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AG192">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AH192">
-        <v>2.74</v>
+        <v>2.25</v>
       </c>
       <c r="AI192">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="AJ192">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AK192">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="AL192">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AM192">
-        <v>1.85</v>
+        <v>2.95</v>
       </c>
       <c r="AN192">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AO192">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="AP192">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ192">
+        <v>1.38</v>
+      </c>
+      <c r="AR192">
         <v>1.56</v>
       </c>
-      <c r="AR192">
-        <v>1.96</v>
-      </c>
       <c r="AS192">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AT192">
-        <v>3.4</v>
+        <v>2.69</v>
       </c>
       <c r="AU192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV192">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW192">
         <v>9</v>
       </c>
       <c r="AX192">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY192">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ192">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BA192">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB192">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC192">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD192">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="BE192">
         <v>8</v>
       </c>
       <c r="BF192">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="BG192">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="BH192">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="BI192">
         <v>1.52</v>
@@ -40878,10 +40884,10 @@
         <v>2.4</v>
       </c>
       <c r="BK192">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BL192">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="BM192">
         <v>2.35</v>
@@ -40890,10 +40896,216 @@
         <v>1.54</v>
       </c>
       <c r="BO192">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="BP192">
-        <v>1.46</v>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7390126</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
+        <v>6</v>
+      </c>
+      <c r="O193" t="s">
+        <v>219</v>
+      </c>
+      <c r="P193" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q193">
+        <v>1.74</v>
+      </c>
+      <c r="R193">
+        <v>2.85</v>
+      </c>
+      <c r="S193">
+        <v>7.33</v>
+      </c>
+      <c r="T193">
+        <v>1.24</v>
+      </c>
+      <c r="U193">
+        <v>3.82</v>
+      </c>
+      <c r="V193">
+        <v>2.2</v>
+      </c>
+      <c r="W193">
+        <v>1.67</v>
+      </c>
+      <c r="X193">
+        <v>4.7</v>
+      </c>
+      <c r="Y193">
+        <v>1.17</v>
+      </c>
+      <c r="Z193">
+        <v>1.33</v>
+      </c>
+      <c r="AA193">
+        <v>5.3</v>
+      </c>
+      <c r="AB193">
+        <v>8.74</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>22</v>
+      </c>
+      <c r="AE193">
+        <v>1.12</v>
+      </c>
+      <c r="AF193">
+        <v>5.25</v>
+      </c>
+      <c r="AG193">
+        <v>1.45</v>
+      </c>
+      <c r="AH193">
+        <v>2.63</v>
+      </c>
+      <c r="AI193">
+        <v>1.76</v>
+      </c>
+      <c r="AJ193">
+        <v>2.01</v>
+      </c>
+      <c r="AK193">
+        <v>1.07</v>
+      </c>
+      <c r="AL193">
+        <v>1.15</v>
+      </c>
+      <c r="AM193">
+        <v>3.32</v>
+      </c>
+      <c r="AN193">
+        <v>2.2</v>
+      </c>
+      <c r="AO193">
+        <v>0.93</v>
+      </c>
+      <c r="AP193">
+        <v>2.13</v>
+      </c>
+      <c r="AQ193">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR193">
+        <v>1.62</v>
+      </c>
+      <c r="AS193">
+        <v>1.12</v>
+      </c>
+      <c r="AT193">
+        <v>2.74</v>
+      </c>
+      <c r="AU193">
+        <v>7</v>
+      </c>
+      <c r="AV193">
+        <v>0</v>
+      </c>
+      <c r="AW193">
+        <v>10</v>
+      </c>
+      <c r="AX193">
+        <v>3</v>
+      </c>
+      <c r="AY193">
+        <v>17</v>
+      </c>
+      <c r="AZ193">
+        <v>3</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>8</v>
+      </c>
+      <c r="BD193">
+        <v>1.23</v>
+      </c>
+      <c r="BE193">
+        <v>10</v>
+      </c>
+      <c r="BF193">
+        <v>5.15</v>
+      </c>
+      <c r="BG193">
+        <v>1.27</v>
+      </c>
+      <c r="BH193">
+        <v>3.35</v>
+      </c>
+      <c r="BI193">
+        <v>1.52</v>
+      </c>
+      <c r="BJ193">
+        <v>2.4</v>
+      </c>
+      <c r="BK193">
+        <v>1.9</v>
+      </c>
+      <c r="BL193">
+        <v>1.9</v>
+      </c>
+      <c r="BM193">
+        <v>2.35</v>
+      </c>
+      <c r="BN193">
+        <v>1.54</v>
+      </c>
+      <c r="BO193">
+        <v>3.2</v>
+      </c>
+      <c r="BP193">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -40630,22 +40630,22 @@
         <v>3.4</v>
       </c>
       <c r="AU191">
+        <v>6</v>
+      </c>
+      <c r="AV191">
         <v>5</v>
       </c>
-      <c r="AV191">
-        <v>4</v>
-      </c>
       <c r="AW191">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX191">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY191">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ191">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA191">
         <v>3</v>
@@ -40836,22 +40836,22 @@
         <v>2.69</v>
       </c>
       <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
         <v>4</v>
       </c>
-      <c r="AV192">
-        <v>3</v>
-      </c>
       <c r="AW192">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AX192">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY192">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ192">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA192">
         <v>12</v>
@@ -41042,31 +41042,31 @@
         <v>2.74</v>
       </c>
       <c r="AU193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW193">
+        <v>16</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>26</v>
+      </c>
+      <c r="AZ193">
+        <v>8</v>
+      </c>
+      <c r="BA193">
         <v>10</v>
       </c>
-      <c r="AX193">
-        <v>3</v>
-      </c>
-      <c r="AY193">
-        <v>17</v>
-      </c>
-      <c r="AZ193">
-        <v>3</v>
-      </c>
-      <c r="BA193">
-        <v>6</v>
-      </c>
       <c r="BB193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC193">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD193">
         <v>1.23</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>['46', '48', '52']</t>
+  </si>
+  <si>
+    <t>['13', '56']</t>
   </si>
   <si>
     <t>['44', '56']</t>
@@ -1344,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1809,7 +1812,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2221,7 +2224,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2302,7 +2305,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ5">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2633,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2839,7 +2842,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3045,7 +3048,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3457,7 +3460,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
@@ -3663,7 +3666,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3869,7 +3872,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4075,7 +4078,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4359,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4487,7 +4490,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4693,7 +4696,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4899,7 +4902,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5105,7 +5108,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>2.83</v>
@@ -5311,7 +5314,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>1.92</v>
@@ -5389,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>1.63</v>
@@ -5517,7 +5520,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>4.3</v>
@@ -5723,7 +5726,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>3.8</v>
@@ -6135,7 +6138,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6547,7 +6550,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7040,7 +7043,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7165,7 +7168,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7371,7 +7374,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7989,7 +7992,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8067,7 +8070,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ33">
         <v>0.9399999999999999</v>
@@ -8401,7 +8404,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8813,7 +8816,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9019,7 +9022,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9225,7 +9228,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>4.5</v>
@@ -9718,7 +9721,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>2.07</v>
@@ -9921,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10255,7 +10258,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10461,7 +10464,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10667,7 +10670,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10748,7 +10751,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.17</v>
@@ -10873,7 +10876,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11079,7 +11082,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11285,7 +11288,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11697,7 +11700,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12109,7 +12112,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12315,7 +12318,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12727,7 +12730,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12805,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1.81</v>
@@ -13345,7 +13348,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13551,7 +13554,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13757,7 +13760,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14169,7 +14172,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>2.55</v>
@@ -14375,7 +14378,7 @@
         <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14787,7 +14790,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>2.1</v>
@@ -14868,7 +14871,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -15199,7 +15202,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15483,7 +15486,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -15611,7 +15614,7 @@
         <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15817,7 +15820,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16023,7 +16026,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16229,7 +16232,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16719,7 +16722,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16847,7 +16850,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17546,7 +17549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17671,7 +17674,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18289,7 +18292,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18495,7 +18498,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>6.5</v>
@@ -18988,7 +18991,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ86">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.6</v>
@@ -19191,7 +19194,7 @@
         <v>2.29</v>
       </c>
       <c r="AP87">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>2</v>
@@ -19731,7 +19734,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>2.05</v>
@@ -20143,7 +20146,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>3.75</v>
@@ -20349,7 +20352,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20967,7 +20970,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21173,7 +21176,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21585,7 +21588,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22203,7 +22206,7 @@
         <v>122</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22281,7 +22284,7 @@
         <v>1.38</v>
       </c>
       <c r="AP102">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22409,7 +22412,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>2.1</v>
@@ -22615,7 +22618,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22821,7 +22824,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22902,7 +22905,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ105">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.09</v>
@@ -23027,7 +23030,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23233,7 +23236,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -24263,7 +24266,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>4.33</v>
@@ -24469,7 +24472,7 @@
         <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24675,7 +24678,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>3.75</v>
@@ -24959,7 +24962,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115">
         <v>1.56</v>
@@ -25293,7 +25296,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25580,7 +25583,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.53</v>
@@ -25911,7 +25914,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26323,7 +26326,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26529,7 +26532,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26735,7 +26738,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27019,7 +27022,7 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125">
         <v>0.6899999999999999</v>
@@ -27147,7 +27150,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -28177,7 +28180,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>2.05</v>
@@ -28258,7 +28261,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.84</v>
@@ -28589,7 +28592,7 @@
         <v>96</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>5.5</v>
@@ -28795,7 +28798,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>2.6</v>
@@ -29207,7 +29210,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29285,7 +29288,7 @@
         <v>2.18</v>
       </c>
       <c r="AP136">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ136">
         <v>2</v>
@@ -29413,7 +29416,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>2.5</v>
@@ -29619,7 +29622,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29825,7 +29828,7 @@
         <v>96</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>2.63</v>
@@ -30237,7 +30240,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>4.5</v>
@@ -30318,7 +30321,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ141">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.12</v>
@@ -31061,7 +31064,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31267,7 +31270,7 @@
         <v>113</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>2.85</v>
@@ -31473,7 +31476,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31554,7 +31557,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.25</v>
@@ -31885,7 +31888,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32091,7 +32094,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>3.25</v>
@@ -32297,7 +32300,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32503,7 +32506,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q152">
         <v>2.38</v>
@@ -32709,7 +32712,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32915,7 +32918,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>2.38</v>
@@ -33199,7 +33202,7 @@
         <v>0.92</v>
       </c>
       <c r="AP155">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33533,7 +33536,7 @@
         <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>2.25</v>
@@ -33739,7 +33742,7 @@
         <v>106</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33945,7 +33948,7 @@
         <v>197</v>
       </c>
       <c r="P159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -34232,7 +34235,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ160">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34357,7 +34360,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34563,7 +34566,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -34641,7 +34644,7 @@
         <v>1.46</v>
       </c>
       <c r="AP162">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ162">
         <v>1.38</v>
@@ -34975,7 +34978,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35181,7 +35184,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35468,7 +35471,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ166">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35593,7 +35596,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>5.5</v>
@@ -35799,7 +35802,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36005,7 +36008,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36211,7 +36214,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>2.63</v>
@@ -36417,7 +36420,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>2.4</v>
@@ -36623,7 +36626,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>1.95</v>
@@ -36829,7 +36832,7 @@
         <v>114</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>3.75</v>
@@ -37035,7 +37038,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -37241,7 +37244,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q175">
         <v>1.83</v>
@@ -38065,7 +38068,7 @@
         <v>115</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>3.6</v>
@@ -38477,7 +38480,7 @@
         <v>211</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38555,7 +38558,7 @@
         <v>1.79</v>
       </c>
       <c r="AP181">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ181">
         <v>1.81</v>
@@ -38764,7 +38767,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>1.37</v>
@@ -39095,7 +39098,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>3.5</v>
@@ -39301,7 +39304,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -39507,7 +39510,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.63</v>
@@ -39713,7 +39716,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>6.5</v>
@@ -40331,7 +40334,7 @@
         <v>217</v>
       </c>
       <c r="P190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q190">
         <v>2.61</v>
@@ -40615,7 +40618,7 @@
         <v>1.6</v>
       </c>
       <c r="AP191">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ191">
         <v>1.56</v>
@@ -40743,7 +40746,7 @@
         <v>218</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q192">
         <v>1.85</v>
@@ -40949,7 +40952,7 @@
         <v>219</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>1.74</v>
@@ -41106,6 +41109,212 @@
       </c>
       <c r="BP193">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7440673</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45443.58333333334</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>80</v>
+      </c>
+      <c r="H194" t="s">
+        <v>78</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>220</v>
+      </c>
+      <c r="P194" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q194">
+        <v>1.83</v>
+      </c>
+      <c r="R194">
+        <v>2.6</v>
+      </c>
+      <c r="S194">
+        <v>7</v>
+      </c>
+      <c r="T194">
+        <v>1.29</v>
+      </c>
+      <c r="U194">
+        <v>3.5</v>
+      </c>
+      <c r="V194">
+        <v>2.25</v>
+      </c>
+      <c r="W194">
+        <v>1.57</v>
+      </c>
+      <c r="X194">
+        <v>5.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.14</v>
+      </c>
+      <c r="Z194">
+        <v>1.33</v>
+      </c>
+      <c r="AA194">
+        <v>5</v>
+      </c>
+      <c r="AB194">
+        <v>7.5</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>12</v>
+      </c>
+      <c r="AE194">
+        <v>1.18</v>
+      </c>
+      <c r="AF194">
+        <v>4.86</v>
+      </c>
+      <c r="AG194">
+        <v>1.55</v>
+      </c>
+      <c r="AH194">
+        <v>2.3</v>
+      </c>
+      <c r="AI194">
+        <v>1.8</v>
+      </c>
+      <c r="AJ194">
+        <v>1.95</v>
+      </c>
+      <c r="AK194">
+        <v>1.09</v>
+      </c>
+      <c r="AL194">
+        <v>1.12</v>
+      </c>
+      <c r="AM194">
+        <v>2.9</v>
+      </c>
+      <c r="AN194">
+        <v>1.84</v>
+      </c>
+      <c r="AO194">
+        <v>1.28</v>
+      </c>
+      <c r="AP194">
+        <v>1.88</v>
+      </c>
+      <c r="AQ194">
+        <v>1.24</v>
+      </c>
+      <c r="AR194">
+        <v>1.95</v>
+      </c>
+      <c r="AS194">
+        <v>1.33</v>
+      </c>
+      <c r="AT194">
+        <v>3.28</v>
+      </c>
+      <c r="AU194">
+        <v>3</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>4</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>7</v>
+      </c>
+      <c r="AZ194">
+        <v>4</v>
+      </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>7</v>
+      </c>
+      <c r="BD194">
+        <v>1.41</v>
+      </c>
+      <c r="BE194">
+        <v>9.5</v>
+      </c>
+      <c r="BF194">
+        <v>3.35</v>
+      </c>
+      <c r="BG194">
+        <v>1.13</v>
+      </c>
+      <c r="BH194">
+        <v>4.85</v>
+      </c>
+      <c r="BI194">
+        <v>1.27</v>
+      </c>
+      <c r="BJ194">
+        <v>3.28</v>
+      </c>
+      <c r="BK194">
+        <v>1.51</v>
+      </c>
+      <c r="BL194">
+        <v>2.39</v>
+      </c>
+      <c r="BM194">
+        <v>1.9</v>
+      </c>
+      <c r="BN194">
+        <v>1.9</v>
+      </c>
+      <c r="BO194">
+        <v>2.36</v>
+      </c>
+      <c r="BP194">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -41251,31 +41251,31 @@
         <v>3.28</v>
       </c>
       <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>4</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>9</v>
+      </c>
+      <c r="BA194">
         <v>3</v>
       </c>
-      <c r="AV194">
-        <v>3</v>
-      </c>
-      <c r="AW194">
-        <v>4</v>
-      </c>
-      <c r="AX194">
-        <v>1</v>
-      </c>
-      <c r="AY194">
+      <c r="BB194">
         <v>7</v>
       </c>
-      <c r="AZ194">
-        <v>4</v>
-      </c>
-      <c r="BA194">
-        <v>2</v>
-      </c>
-      <c r="BB194">
-        <v>5</v>
-      </c>
       <c r="BC194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD194">
         <v>1.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -41251,22 +41251,22 @@
         <v>3.28</v>
       </c>
       <c r="AU194">
+        <v>7</v>
+      </c>
+      <c r="AV194">
+        <v>6</v>
+      </c>
+      <c r="AW194">
         <v>4</v>
       </c>
-      <c r="AV194">
+      <c r="AX194">
         <v>5</v>
       </c>
-      <c r="AW194">
-        <v>5</v>
-      </c>
-      <c r="AX194">
-        <v>4</v>
-      </c>
       <c r="AY194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA194">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -41242,13 +41242,13 @@
         <v>1.24</v>
       </c>
       <c r="AR194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AS194">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT194">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="AU194">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -28870,25 +28870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN134">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AO134">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ134">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
       </c>
       <c r="AS134">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="AT134">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AU134">
         <v>11</v>
@@ -29076,25 +29076,25 @@
         <v>2.3</v>
       </c>
       <c r="AN135">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="AO135">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR135">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AS135">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AT135">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU135">
         <v>11</v>
@@ -29282,25 +29282,25 @@
         <v>1.92</v>
       </c>
       <c r="AN136">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AO136">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AP136">
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR136">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AS136">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT136">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29488,25 +29488,25 @@
         <v>2</v>
       </c>
       <c r="AN137">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="AO137">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR137">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS137">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AT137">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -29694,25 +29694,25 @@
         <v>1.36</v>
       </c>
       <c r="AN138">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="AO138">
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
       </c>
       <c r="AR138">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT138">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29900,25 +29900,25 @@
         <v>1.87</v>
       </c>
       <c r="AN139">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AO139">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AP139">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AS139">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AT139">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AU139">
         <v>3</v>
@@ -30106,25 +30106,25 @@
         <v>1.36</v>
       </c>
       <c r="AN140">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AO140">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR140">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AS140">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30312,25 +30312,25 @@
         <v>1.22</v>
       </c>
       <c r="AN141">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="AO141">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR141">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS141">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT141">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30518,25 +30518,25 @@
         <v>1.38</v>
       </c>
       <c r="AN142">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="AO142">
-        <v>0.45</v>
+        <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ142">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR142">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS142">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT142">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30724,25 +30724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AO143">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="AP143">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ143">
         <v>1.88</v>
       </c>
       <c r="AR143">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="AS143">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AT143">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU143">
         <v>7</v>
@@ -30930,25 +30930,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AO144">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AP144">
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR144">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT144">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="AU144">
         <v>3</v>
@@ -31136,25 +31136,25 @@
         <v>2.8</v>
       </c>
       <c r="AN145">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AO145">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AP145">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR145">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT145">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31342,25 +31342,25 @@
         <v>1.6</v>
       </c>
       <c r="AN146">
-        <v>0.25</v>
+        <v>1.04</v>
       </c>
       <c r="AO146">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP146">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS146">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AT146">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31548,25 +31548,25 @@
         <v>1.4</v>
       </c>
       <c r="AN147">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AO147">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR147">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AS147">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT147">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31754,25 +31754,25 @@
         <v>2.04</v>
       </c>
       <c r="AN148">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AO148">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="AP148">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ148">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR148">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AS148">
         <v>1.13</v>
       </c>
       <c r="AT148">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="AU148">
         <v>6</v>
@@ -31960,25 +31960,25 @@
         <v>1.31</v>
       </c>
       <c r="AN149">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AO149">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AP149">
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT149">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32166,25 +32166,25 @@
         <v>1.49</v>
       </c>
       <c r="AN150">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AO150">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AP150">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
       </c>
       <c r="AR150">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AT150">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32372,25 +32372,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="AP151">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR151">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS151">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT151">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32578,25 +32578,25 @@
         <v>1.9</v>
       </c>
       <c r="AN152">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AO152">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ152">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR152">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS152">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT152">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -32784,25 +32784,25 @@
         <v>1.35</v>
       </c>
       <c r="AN153">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="AO153">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP153">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ153">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS153">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AT153">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -32990,25 +32990,25 @@
         <v>2.05</v>
       </c>
       <c r="AN154">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO154">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ154">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AS154">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT154">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33196,25 +33196,25 @@
         <v>3</v>
       </c>
       <c r="AN155">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AO155">
-        <v>0.92</v>
+        <v>1.16</v>
       </c>
       <c r="AP155">
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="AS155">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT155">
-        <v>3.16</v>
+        <v>3.13</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33402,25 +33402,25 @@
         <v>1.62</v>
       </c>
       <c r="AN156">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR156">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AT156">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33608,25 +33608,25 @@
         <v>2.22</v>
       </c>
       <c r="AN157">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="AO157">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
       </c>
       <c r="AR157">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AS157">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AT157">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="AU157">
         <v>11</v>
@@ -33814,25 +33814,25 @@
         <v>1.62</v>
       </c>
       <c r="AN158">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="AO158">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR158">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AS158">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT158">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34020,25 +34020,25 @@
         <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="AO159">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="AP159">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS159">
         <v>1.16</v>
       </c>
       <c r="AT159">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34226,25 +34226,25 @@
         <v>1.57</v>
       </c>
       <c r="AN160">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="AO160">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AP160">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR160">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS160">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT160">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34432,25 +34432,25 @@
         <v>1.68</v>
       </c>
       <c r="AN161">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AO161">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AP161">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR161">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AS161">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT161">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34638,7 +34638,7 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AO162">
         <v>1.46</v>
@@ -34650,13 +34650,13 @@
         <v>1.38</v>
       </c>
       <c r="AR162">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AS162">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT162">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -34844,25 +34844,25 @@
         <v>1.24</v>
       </c>
       <c r="AN163">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="AO163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ163">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR163">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS163">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT163">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35050,25 +35050,25 @@
         <v>1.2</v>
       </c>
       <c r="AN164">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AO164">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AP164">
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR164">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AS164">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AT164">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35256,25 +35256,25 @@
         <v>1.29</v>
       </c>
       <c r="AN165">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AO165">
-        <v>0.6899999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="AP165">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ165">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR165">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AS165">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT165">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35462,25 +35462,25 @@
         <v>1.3</v>
       </c>
       <c r="AN166">
-        <v>1.36</v>
+        <v>0.96</v>
       </c>
       <c r="AO166">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR166">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AS166">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT166">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU166">
         <v>9</v>
@@ -35668,25 +35668,25 @@
         <v>1.16</v>
       </c>
       <c r="AN167">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO167">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AP167">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ167">
         <v>1.88</v>
       </c>
       <c r="AR167">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AS167">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AT167">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU167">
         <v>3</v>
@@ -35874,25 +35874,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AO168">
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR168">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AS168">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AT168">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU168">
         <v>7</v>
@@ -36080,25 +36080,25 @@
         <v>1.53</v>
       </c>
       <c r="AN169">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO169">
-        <v>1.77</v>
+        <v>0.96</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AS169">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT169">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="AU169">
         <v>7</v>
@@ -36286,25 +36286,25 @@
         <v>1.77</v>
       </c>
       <c r="AN170">
-        <v>0.21</v>
+        <v>0.93</v>
       </c>
       <c r="AO170">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR170">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AS170">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AT170">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36492,25 +36492,25 @@
         <v>1.95</v>
       </c>
       <c r="AN171">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="AO171">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ171">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR171">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT171">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36698,25 +36698,25 @@
         <v>2.7</v>
       </c>
       <c r="AN172">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AO172">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ172">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR172">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AS172">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT172">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="AU172">
         <v>9</v>
@@ -36904,25 +36904,25 @@
         <v>1.38</v>
       </c>
       <c r="AN173">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AO173">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AP173">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
         <v>1.88</v>
       </c>
       <c r="AR173">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="AT173">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37110,25 +37110,25 @@
         <v>2.7</v>
       </c>
       <c r="AN174">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="AO174">
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ174">
         <v>1.38</v>
       </c>
       <c r="AR174">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS174">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT174">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37316,25 +37316,25 @@
         <v>3.2</v>
       </c>
       <c r="AN175">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="AO175">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="AP175">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AS175">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AT175">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU175">
         <v>10</v>
@@ -37522,25 +37522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN176">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AO176">
-        <v>0.86</v>
+        <v>1.28</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ176">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS176">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT176">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="AU176">
         <v>2</v>
@@ -37728,25 +37728,25 @@
         <v>1.77</v>
       </c>
       <c r="AN177">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AO177">
-        <v>0.71</v>
+        <v>1.1</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR177">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS177">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT177">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37937,19 +37937,19 @@
         <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AP178">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ178">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR178">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AS178">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
         <v>3.05</v>
@@ -38140,25 +38140,25 @@
         <v>1.36</v>
       </c>
       <c r="AN179">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="AO179">
-        <v>1.64</v>
+        <v>0.9</v>
       </c>
       <c r="AP179">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ179">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR179">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AS179">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AT179">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38346,25 +38346,25 @@
         <v>1.6</v>
       </c>
       <c r="AN180">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AO180">
-        <v>0.79</v>
+        <v>1.1</v>
       </c>
       <c r="AP180">
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR180">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AT180">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38555,22 +38555,22 @@
         <v>2</v>
       </c>
       <c r="AO181">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AP181">
         <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR181">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AT181">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="AU181">
         <v>5</v>
@@ -38758,25 +38758,25 @@
         <v>1.38</v>
       </c>
       <c r="AN182">
-        <v>0.2</v>
+        <v>0.97</v>
       </c>
       <c r="AO182">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AP182">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ182">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR182">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AS182">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT182">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -38964,25 +38964,25 @@
         <v>2.4</v>
       </c>
       <c r="AN183">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AO183">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ183">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR183">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS183">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT183">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39170,25 +39170,25 @@
         <v>1.4</v>
       </c>
       <c r="AN184">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AO184">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ184">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AS184">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT184">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39376,25 +39376,25 @@
         <v>1.24</v>
       </c>
       <c r="AN185">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AO185">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AP185">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR185">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AS185">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AT185">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU185">
         <v>4</v>
@@ -39582,25 +39582,25 @@
         <v>1.78</v>
       </c>
       <c r="AN186">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AO186">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="AP186">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ186">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR186">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AS186">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AT186">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39791,7 +39791,7 @@
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AP187">
         <v>1.38</v>
@@ -39800,10 +39800,10 @@
         <v>1.88</v>
       </c>
       <c r="AR187">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AS187">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AT187">
         <v>3.11</v>
@@ -39994,25 +39994,25 @@
         <v>1.28</v>
       </c>
       <c r="AN188">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="AO188">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP188">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ188">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR188">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AS188">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>2.29</v>
+        <v>2.48</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40200,25 +40200,25 @@
         <v>2</v>
       </c>
       <c r="AN189">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AO189">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ189">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR189">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS189">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AT189">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40406,25 +40406,25 @@
         <v>1.75</v>
       </c>
       <c r="AN190">
-        <v>1.67</v>
+        <v>1.19</v>
       </c>
       <c r="AO190">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="AP190">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ190">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR190">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AS190">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AT190">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="AU190">
         <v>5</v>
@@ -40615,22 +40615,22 @@
         <v>1.87</v>
       </c>
       <c r="AO191">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="AP191">
         <v>1.88</v>
       </c>
       <c r="AQ191">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR191">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AS191">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AT191">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40821,22 +40821,22 @@
         <v>2</v>
       </c>
       <c r="AO192">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AP192">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ192">
         <v>1.38</v>
       </c>
       <c r="AR192">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS192">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AT192">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41024,25 +41024,25 @@
         <v>3.32</v>
       </c>
       <c r="AN193">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO193">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AP193">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR193">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS193">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT193">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="AU193">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -28870,25 +28870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN134">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AO134">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
       </c>
       <c r="AS134">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AT134">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AU134">
         <v>11</v>
@@ -29076,25 +29076,25 @@
         <v>2.3</v>
       </c>
       <c r="AN135">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="AO135">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AP135">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AS135">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AT135">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AU135">
         <v>11</v>
@@ -29282,25 +29282,25 @@
         <v>1.92</v>
       </c>
       <c r="AN136">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AO136">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AP136">
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR136">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AS136">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT136">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29488,25 +29488,25 @@
         <v>2</v>
       </c>
       <c r="AN137">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS137">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AT137">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -29694,25 +29694,25 @@
         <v>1.36</v>
       </c>
       <c r="AN138">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="AO138">
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
       </c>
       <c r="AR138">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS138">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AT138">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29900,25 +29900,25 @@
         <v>1.87</v>
       </c>
       <c r="AN139">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AO139">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AT139">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU139">
         <v>3</v>
@@ -30106,25 +30106,25 @@
         <v>1.36</v>
       </c>
       <c r="AN140">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AO140">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR140">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AS140">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT140">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30312,25 +30312,25 @@
         <v>1.22</v>
       </c>
       <c r="AN141">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="AO141">
-        <v>1.13</v>
+        <v>0.91</v>
       </c>
       <c r="AP141">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ141">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR141">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AS141">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AT141">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30518,25 +30518,25 @@
         <v>1.38</v>
       </c>
       <c r="AN142">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="AO142">
-        <v>1.13</v>
+        <v>0.45</v>
       </c>
       <c r="AP142">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
+        <v>0.75</v>
+      </c>
+      <c r="AR142">
+        <v>1.24</v>
+      </c>
+      <c r="AS142">
         <v>1.25</v>
       </c>
-      <c r="AR142">
-        <v>1.18</v>
-      </c>
-      <c r="AS142">
-        <v>1.39</v>
-      </c>
       <c r="AT142">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30724,25 +30724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AO143">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ143">
         <v>1.88</v>
       </c>
       <c r="AR143">
+        <v>1.79</v>
+      </c>
+      <c r="AS143">
         <v>1.62</v>
       </c>
-      <c r="AS143">
-        <v>1.83</v>
-      </c>
       <c r="AT143">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU143">
         <v>7</v>
@@ -30930,25 +30930,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AO144">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP144">
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR144">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS144">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="AU144">
         <v>3</v>
@@ -31136,25 +31136,25 @@
         <v>2.8</v>
       </c>
       <c r="AN145">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="AO145">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS145">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31342,25 +31342,25 @@
         <v>1.6</v>
       </c>
       <c r="AN146">
-        <v>1.04</v>
+        <v>0.25</v>
       </c>
       <c r="AO146">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR146">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS146">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AT146">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31548,25 +31548,25 @@
         <v>1.4</v>
       </c>
       <c r="AN147">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AO147">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AP147">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR147">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS147">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT147">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31754,25 +31754,25 @@
         <v>2.04</v>
       </c>
       <c r="AN148">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AO148">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AS148">
         <v>1.13</v>
       </c>
       <c r="AT148">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="AU148">
         <v>6</v>
@@ -31960,25 +31960,25 @@
         <v>1.31</v>
       </c>
       <c r="AN149">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AP149">
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR149">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS149">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT149">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32166,25 +32166,25 @@
         <v>1.49</v>
       </c>
       <c r="AN150">
+        <v>2.17</v>
+      </c>
+      <c r="AO150">
+        <v>1.92</v>
+      </c>
+      <c r="AP150">
         <v>2.13</v>
-      </c>
-      <c r="AO150">
-        <v>1.88</v>
-      </c>
-      <c r="AP150">
-        <v>1.97</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
       </c>
       <c r="AR150">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AS150">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32372,25 +32372,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AO151">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR151">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS151">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT151">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32578,25 +32578,25 @@
         <v>1.9</v>
       </c>
       <c r="AN152">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AO152">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AP152">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR152">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AS152">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AT152">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -32784,25 +32784,25 @@
         <v>1.35</v>
       </c>
       <c r="AN153">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="AO153">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ153">
+        <v>0.88</v>
+      </c>
+      <c r="AR153">
         <v>1.13</v>
       </c>
-      <c r="AR153">
-        <v>1.15</v>
-      </c>
       <c r="AS153">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AT153">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -32990,25 +32990,25 @@
         <v>2.05</v>
       </c>
       <c r="AN154">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AO154">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR154">
+        <v>1.52</v>
+      </c>
+      <c r="AS154">
         <v>1.13</v>
       </c>
-      <c r="AR154">
-        <v>1.39</v>
-      </c>
-      <c r="AS154">
-        <v>1.24</v>
-      </c>
       <c r="AT154">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33196,25 +33196,25 @@
         <v>3</v>
       </c>
       <c r="AN155">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AO155">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="AP155">
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="AS155">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT155">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33402,25 +33402,25 @@
         <v>1.62</v>
       </c>
       <c r="AN156">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS156">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33608,25 +33608,25 @@
         <v>2.22</v>
       </c>
       <c r="AN157">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="AO157">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
       </c>
       <c r="AR157">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AS157">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AU157">
         <v>11</v>
@@ -33814,25 +33814,25 @@
         <v>1.62</v>
       </c>
       <c r="AN158">
-        <v>0.96</v>
+        <v>1.38</v>
       </c>
       <c r="AO158">
+        <v>0.77</v>
+      </c>
+      <c r="AP158">
+        <v>1.56</v>
+      </c>
+      <c r="AQ158">
         <v>0.88</v>
       </c>
-      <c r="AP158">
-        <v>1.13</v>
-      </c>
-      <c r="AQ158">
-        <v>1.13</v>
-      </c>
       <c r="AR158">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AS158">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT158">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34020,25 +34020,25 @@
         <v>2.15</v>
       </c>
       <c r="AN159">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="AO159">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ159">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR159">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS159">
         <v>1.16</v>
       </c>
       <c r="AT159">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34226,25 +34226,25 @@
         <v>1.57</v>
       </c>
       <c r="AN160">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="AO160">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AP160">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ160">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR160">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS160">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT160">
-        <v>2.78</v>
+        <v>2.89</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34432,25 +34432,25 @@
         <v>1.68</v>
       </c>
       <c r="AN161">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="AO161">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AP161">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR161">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AS161">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT161">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34638,7 +34638,7 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AO162">
         <v>1.46</v>
@@ -34650,13 +34650,13 @@
         <v>1.38</v>
       </c>
       <c r="AR162">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AS162">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT162">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -34844,25 +34844,25 @@
         <v>1.24</v>
       </c>
       <c r="AN163">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ163">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS163">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT163">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35050,25 +35050,25 @@
         <v>1.2</v>
       </c>
       <c r="AN164">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AO164">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AP164">
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS164">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AT164">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35256,25 +35256,25 @@
         <v>1.29</v>
       </c>
       <c r="AN165">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="AO165">
-        <v>1.26</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ165">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR165">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AS165">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT165">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35462,25 +35462,25 @@
         <v>1.3</v>
       </c>
       <c r="AN166">
-        <v>0.96</v>
+        <v>1.36</v>
       </c>
       <c r="AO166">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AP166">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR166">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AS166">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT166">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="AU166">
         <v>9</v>
@@ -35668,25 +35668,25 @@
         <v>1.16</v>
       </c>
       <c r="AN167">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO167">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ167">
         <v>1.88</v>
       </c>
       <c r="AR167">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS167">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AT167">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="AU167">
         <v>3</v>
@@ -35874,25 +35874,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="AO168">
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ168">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR168">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AS168">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AT168">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU168">
         <v>7</v>
@@ -36080,25 +36080,25 @@
         <v>1.53</v>
       </c>
       <c r="AN169">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO169">
-        <v>0.96</v>
+        <v>1.77</v>
       </c>
       <c r="AP169">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR169">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS169">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AT169">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="AU169">
         <v>7</v>
@@ -36286,25 +36286,25 @@
         <v>1.77</v>
       </c>
       <c r="AN170">
-        <v>0.93</v>
+        <v>0.21</v>
       </c>
       <c r="AO170">
-        <v>1.04</v>
+        <v>0.54</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ170">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR170">
+        <v>1.39</v>
+      </c>
+      <c r="AS170">
         <v>1.13</v>
       </c>
-      <c r="AR170">
-        <v>1.3</v>
-      </c>
-      <c r="AS170">
-        <v>1.27</v>
-      </c>
       <c r="AT170">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36492,25 +36492,25 @@
         <v>1.95</v>
       </c>
       <c r="AN171">
-        <v>1.32</v>
+        <v>1.79</v>
       </c>
       <c r="AO171">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR171">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS171">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AT171">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36698,25 +36698,25 @@
         <v>2.7</v>
       </c>
       <c r="AN172">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AO172">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AS172">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AT172">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="AU172">
         <v>9</v>
@@ -36904,25 +36904,25 @@
         <v>1.38</v>
       </c>
       <c r="AN173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO173">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ173">
         <v>1.88</v>
       </c>
       <c r="AR173">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT173">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37110,25 +37110,25 @@
         <v>2.7</v>
       </c>
       <c r="AN174">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="AO174">
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174">
         <v>1.38</v>
       </c>
       <c r="AR174">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS174">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT174">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37316,25 +37316,25 @@
         <v>3.2</v>
       </c>
       <c r="AN175">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="AO175">
-        <v>1.14</v>
+        <v>0.85</v>
       </c>
       <c r="AP175">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR175">
+        <v>1.79</v>
+      </c>
+      <c r="AS175">
         <v>1.13</v>
       </c>
-      <c r="AR175">
-        <v>1.63</v>
-      </c>
-      <c r="AS175">
-        <v>1.28</v>
-      </c>
       <c r="AT175">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU175">
         <v>10</v>
@@ -37522,25 +37522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN176">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AO176">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
       <c r="AP176">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR176">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AS176">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT176">
-        <v>2.78</v>
+        <v>2.71</v>
       </c>
       <c r="AU176">
         <v>2</v>
@@ -37728,25 +37728,25 @@
         <v>1.77</v>
       </c>
       <c r="AN177">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AO177">
-        <v>1.1</v>
+        <v>0.71</v>
       </c>
       <c r="AP177">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS177">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT177">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37937,19 +37937,19 @@
         <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AP178">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ178">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR178">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT178">
         <v>3.05</v>
@@ -38140,25 +38140,25 @@
         <v>1.36</v>
       </c>
       <c r="AN179">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="AO179">
-        <v>0.9</v>
+        <v>1.64</v>
       </c>
       <c r="AP179">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR179">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AS179">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AT179">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38346,25 +38346,25 @@
         <v>1.6</v>
       </c>
       <c r="AN180">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AO180">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP180">
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AT180">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38555,22 +38555,22 @@
         <v>2</v>
       </c>
       <c r="AO181">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AP181">
         <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR181">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="AS181">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>5</v>
@@ -38758,25 +38758,25 @@
         <v>1.38</v>
       </c>
       <c r="AN182">
-        <v>0.97</v>
+        <v>0.2</v>
       </c>
       <c r="AO182">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AP182">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ182">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR182">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AS182">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT182">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -38964,25 +38964,25 @@
         <v>2.4</v>
       </c>
       <c r="AN183">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AO183">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
       <c r="AP183">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ183">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR183">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS183">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT183">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39170,25 +39170,25 @@
         <v>1.4</v>
       </c>
       <c r="AN184">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="AO184">
-        <v>1.23</v>
+        <v>0.8</v>
       </c>
       <c r="AP184">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ184">
+        <v>0.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.4</v>
+      </c>
+      <c r="AS184">
         <v>1.25</v>
       </c>
-      <c r="AR184">
-        <v>1.27</v>
-      </c>
-      <c r="AS184">
-        <v>1.39</v>
-      </c>
       <c r="AT184">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39376,25 +39376,25 @@
         <v>1.24</v>
       </c>
       <c r="AN185">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AO185">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AP185">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR185">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AS185">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU185">
         <v>4</v>
@@ -39582,25 +39582,25 @@
         <v>1.78</v>
       </c>
       <c r="AN186">
+        <v>2.13</v>
+      </c>
+      <c r="AO186">
         <v>1.87</v>
       </c>
-      <c r="AO186">
-        <v>2.03</v>
-      </c>
       <c r="AP186">
+        <v>2.06</v>
+      </c>
+      <c r="AQ186">
         <v>1.81</v>
       </c>
-      <c r="AQ186">
-        <v>1.97</v>
-      </c>
       <c r="AR186">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AS186">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AT186">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39791,7 +39791,7 @@
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AP187">
         <v>1.38</v>
@@ -39800,10 +39800,10 @@
         <v>1.88</v>
       </c>
       <c r="AR187">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AS187">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AT187">
         <v>3.11</v>
@@ -39994,25 +39994,25 @@
         <v>1.28</v>
       </c>
       <c r="AN188">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="AO188">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP188">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ188">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR188">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AS188">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AT188">
-        <v>2.48</v>
+        <v>2.29</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40200,25 +40200,25 @@
         <v>2</v>
       </c>
       <c r="AN189">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AO189">
+        <v>0.93</v>
+      </c>
+      <c r="AP189">
+        <v>1.5</v>
+      </c>
+      <c r="AQ189">
+        <v>0.88</v>
+      </c>
+      <c r="AR189">
+        <v>1.4</v>
+      </c>
+      <c r="AS189">
         <v>1.16</v>
       </c>
-      <c r="AP189">
-        <v>1.24</v>
-      </c>
-      <c r="AQ189">
-        <v>1.13</v>
-      </c>
-      <c r="AR189">
-        <v>1.36</v>
-      </c>
-      <c r="AS189">
-        <v>1.21</v>
-      </c>
       <c r="AT189">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40406,25 +40406,25 @@
         <v>1.75</v>
       </c>
       <c r="AN190">
-        <v>1.19</v>
+        <v>1.67</v>
       </c>
       <c r="AO190">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR190">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS190">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AT190">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="AU190">
         <v>5</v>
@@ -40615,22 +40615,22 @@
         <v>1.87</v>
       </c>
       <c r="AO191">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AP191">
         <v>1.88</v>
       </c>
       <c r="AQ191">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR191">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="AS191">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40821,22 +40821,22 @@
         <v>2</v>
       </c>
       <c r="AO192">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ192">
         <v>1.38</v>
       </c>
       <c r="AR192">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS192">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AT192">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41024,25 +41024,25 @@
         <v>3.32</v>
       </c>
       <c r="AN193">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO193">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AP193">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS193">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT193">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="AU193">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -2099,7 +2099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2920,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AU8">
         <v>6</v>
@@ -3126,19 +3126,19 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
         <v>1.88</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AS9">
         <v>1.6</v>
       </c>
       <c r="AT9">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3332,19 +3332,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AT10">
-        <v>1.97</v>
+        <v>4.32</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3532,25 +3532,25 @@
         <v>1.92</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AS11">
         <v>0.9399999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.9399999999999999</v>
+        <v>2.55</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3738,25 +3738,25 @@
         <v>1.71</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3947,22 +3947,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT13">
-        <v>1.62</v>
+        <v>3.57</v>
       </c>
       <c r="AU13">
         <v>12</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
-        <v>2.35</v>
+        <v>1.64</v>
       </c>
       <c r="AS14">
-        <v>0.88</v>
+        <v>1.16</v>
       </c>
       <c r="AT14">
-        <v>3.23</v>
+        <v>2.8</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4356,7 +4356,7 @@
         <v>3.2</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -4365,16 +4365,16 @@
         <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS15">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>1.61</v>
+        <v>3.22</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4562,25 +4562,25 @@
         <v>1.25</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AU16">
         <v>2</v>
@@ -4768,25 +4768,25 @@
         <v>1.27</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR17">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AT17">
-        <v>1.42</v>
+        <v>3.3</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4977,22 +4977,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR18">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="AS18">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AT18">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5180,25 +5180,25 @@
         <v>1.65</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AS19">
-        <v>0.8100000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="AT19">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5389,22 +5389,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP20">
         <v>1.88</v>
       </c>
       <c r="AQ20">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AS20">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT20">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5592,25 +5592,25 @@
         <v>1.18</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR21">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AS21">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5801,22 +5801,22 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR22">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AS22">
-        <v>0.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT22">
-        <v>2.09</v>
+        <v>2.68</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6004,25 +6004,25 @@
         <v>2.12</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AS23">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AT23">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="AU23">
         <v>10</v>
@@ -6210,25 +6210,25 @@
         <v>2.1</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="AS24">
-        <v>0.93</v>
+        <v>1.62</v>
       </c>
       <c r="AT24">
-        <v>2.95</v>
+        <v>3.37</v>
       </c>
       <c r="AU24">
         <v>9</v>
@@ -6416,25 +6416,25 @@
         <v>2.55</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="AS25">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AT25">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6622,25 +6622,25 @@
         <v>1.13</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ26">
         <v>1.88</v>
       </c>
       <c r="AR26">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AS26">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AT26">
-        <v>2.35</v>
+        <v>2.71</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6828,25 +6828,25 @@
         <v>1.4</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR27">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="AS27">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT27">
-        <v>3.49</v>
+        <v>3.17</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -7034,25 +7034,25 @@
         <v>1.65</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR28">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AS28">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AT28">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7240,25 +7240,25 @@
         <v>1.6</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO29">
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR29">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="AS29">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AT29">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7446,25 +7446,25 @@
         <v>1.39</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
       </c>
       <c r="AR30">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS30">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="AT30">
-        <v>2.73</v>
+        <v>3.19</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7652,25 +7652,25 @@
         <v>1.94</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AS31">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7858,25 +7858,25 @@
         <v>1.5</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO32">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AS32">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8067,22 +8067,22 @@
         <v>3</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33">
         <v>1.88</v>
       </c>
       <c r="AQ33">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AS33">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AT33">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8270,25 +8270,25 @@
         <v>1.95</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP34">
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="AS34">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT34">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8476,25 +8476,25 @@
         <v>1.36</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AS35">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT35">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8682,25 +8682,25 @@
         <v>1.83</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP36">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ36">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR36">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AS36">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AT36">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8891,22 +8891,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR37">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS37">
-        <v>1.11</v>
+        <v>1.49</v>
       </c>
       <c r="AT37">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9094,25 +9094,25 @@
         <v>2</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS38">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9300,25 +9300,25 @@
         <v>1.22</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP39">
+        <v>1.13</v>
+      </c>
+      <c r="AQ39">
+        <v>1.81</v>
+      </c>
+      <c r="AR39">
+        <v>1.3</v>
+      </c>
+      <c r="AS39">
         <v>1.56</v>
       </c>
-      <c r="AQ39">
-        <v>1.56</v>
-      </c>
-      <c r="AR39">
-        <v>1.37</v>
-      </c>
-      <c r="AS39">
-        <v>1.55</v>
-      </c>
       <c r="AT39">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9506,25 +9506,25 @@
         <v>2.65</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO40">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR40">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AS40">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AT40">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9712,25 +9712,25 @@
         <v>2.16</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR41">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
       <c r="AS41">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AT41">
-        <v>3.08</v>
+        <v>2.56</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9918,25 +9918,25 @@
         <v>2.45</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP42">
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="AT42">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -10124,25 +10124,25 @@
         <v>1.55</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP43">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
       </c>
       <c r="AR43">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AS43">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
       <c r="AT43">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10330,25 +10330,25 @@
         <v>1.42</v>
       </c>
       <c r="AN44">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR44">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AS44">
-        <v>0.86</v>
+        <v>1.18</v>
       </c>
       <c r="AT44">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="AU44">
         <v>7</v>
@@ -10536,25 +10536,25 @@
         <v>1.65</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AP45">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ45">
         <v>1.88</v>
       </c>
       <c r="AR45">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS45">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="AT45">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -10742,25 +10742,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AO46">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR46">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AS46">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AT46">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10948,25 +10948,25 @@
         <v>1.32</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ47">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AS47">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT47">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11154,25 +11154,25 @@
         <v>1.65</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AO48">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AP48">
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR48">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="AS48">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11360,25 +11360,25 @@
         <v>1.5</v>
       </c>
       <c r="AN49">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP49">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AS49">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>2.52</v>
+        <v>2.81</v>
       </c>
       <c r="AU49">
         <v>2</v>
@@ -11566,25 +11566,25 @@
         <v>1.83</v>
       </c>
       <c r="AN50">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO50">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS50">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AT50">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11772,25 +11772,25 @@
         <v>1.45</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
         <v>1.88</v>
       </c>
       <c r="AR51">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AT51">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="AU51">
         <v>6</v>
@@ -11978,25 +11978,25 @@
         <v>1.61</v>
       </c>
       <c r="AN52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP52">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AS52">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="AT52">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12184,25 +12184,25 @@
         <v>1.32</v>
       </c>
       <c r="AN53">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
       </c>
       <c r="AR53">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AS53">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AT53">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12390,25 +12390,25 @@
         <v>2.1</v>
       </c>
       <c r="AN54">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AS54">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12596,25 +12596,25 @@
         <v>4.5</v>
       </c>
       <c r="AN55">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AS55">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="AT55">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12802,25 +12802,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AP56">
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR56">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13008,25 +13008,25 @@
         <v>1.35</v>
       </c>
       <c r="AN57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO57">
-        <v>1.75</v>
+        <v>2.11</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AS57">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="AT57">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -13214,25 +13214,25 @@
         <v>1.25</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AO58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR58">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AS58">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AT58">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU58">
         <v>2</v>
@@ -13420,25 +13420,25 @@
         <v>1.18</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO59">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR59">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="AS59">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AT59">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13626,25 +13626,25 @@
         <v>1.5</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
       </c>
       <c r="AR60">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="AS60">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AT60">
-        <v>3.18</v>
+        <v>2.97</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13832,25 +13832,25 @@
         <v>1.68</v>
       </c>
       <c r="AN61">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AO61">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
       </c>
       <c r="AS61">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT61">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AU61">
         <v>8</v>
@@ -14038,25 +14038,25 @@
         <v>2.05</v>
       </c>
       <c r="AN62">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO62">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR62">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AS62">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT62">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14244,25 +14244,25 @@
         <v>1.92</v>
       </c>
       <c r="AN63">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO63">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AS63">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="AT63">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14450,25 +14450,25 @@
         <v>2.8</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AO64">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP64">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ64">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AT64">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14656,25 +14656,25 @@
         <v>2</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO65">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AS65">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14862,25 +14862,25 @@
         <v>2.4</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR66">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AS66">
         <v>1.13</v>
       </c>
       <c r="AT66">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -15068,10 +15068,10 @@
         <v>1.36</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO67">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AP67">
         <v>1.38</v>
@@ -15080,13 +15080,13 @@
         <v>1.88</v>
       </c>
       <c r="AR67">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AT67">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15274,25 +15274,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO68">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP68">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AS68">
-        <v>1.07</v>
+        <v>1.39</v>
       </c>
       <c r="AT68">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15480,25 +15480,25 @@
         <v>3.3</v>
       </c>
       <c r="AN69">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO69">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AP69">
         <v>1.88</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AS69">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AT69">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AU69">
         <v>10</v>
@@ -15686,25 +15686,25 @@
         <v>1.36</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1.38</v>
       </c>
       <c r="AR70">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15892,25 +15892,25 @@
         <v>1.29</v>
       </c>
       <c r="AN71">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR71">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="AS71">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AT71">
-        <v>3.34</v>
+        <v>3.07</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16098,25 +16098,25 @@
         <v>1.28</v>
       </c>
       <c r="AN72">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AO72">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR72">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AT72">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16304,25 +16304,25 @@
         <v>1.35</v>
       </c>
       <c r="AN73">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AP73">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR73">
+        <v>1.25</v>
+      </c>
+      <c r="AS73">
         <v>1.36</v>
       </c>
-      <c r="AS73">
-        <v>1.09</v>
-      </c>
       <c r="AT73">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16510,25 +16510,25 @@
         <v>2.45</v>
       </c>
       <c r="AN74">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AO74">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ74">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AS74">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT74">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16716,25 +16716,25 @@
         <v>4.2</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AO75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP75">
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="AS75">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="AT75">
-        <v>2.96</v>
+        <v>2.83</v>
       </c>
       <c r="AU75">
         <v>13</v>
@@ -16925,22 +16925,22 @@
         <v>0.67</v>
       </c>
       <c r="AO76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP76">
+        <v>1.13</v>
+      </c>
+      <c r="AQ76">
+        <v>1.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.16</v>
+      </c>
+      <c r="AS76">
         <v>1.38</v>
       </c>
-      <c r="AQ76">
-        <v>0.75</v>
-      </c>
-      <c r="AR76">
-        <v>1.23</v>
-      </c>
-      <c r="AS76">
-        <v>1.14</v>
-      </c>
       <c r="AT76">
-        <v>2.37</v>
+        <v>2.54</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17128,25 +17128,25 @@
         <v>2.25</v>
       </c>
       <c r="AN77">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AO77">
-        <v>1.8</v>
+        <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="AS77">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT77">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17334,25 +17334,25 @@
         <v>1.63</v>
       </c>
       <c r="AN78">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="AO78">
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR78">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT78">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17540,25 +17540,25 @@
         <v>2</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO79">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP79">
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR79">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS79">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT79">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17746,25 +17746,25 @@
         <v>1.62</v>
       </c>
       <c r="AN80">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AO80">
-        <v>1.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR80">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS80">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT80">
-        <v>2.29</v>
+        <v>2.42</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -17952,22 +17952,22 @@
         <v>3</v>
       </c>
       <c r="AN81">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AO81">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP81">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AS81">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="AT81">
         <v>2.79</v>
@@ -18158,25 +18158,25 @@
         <v>1.48</v>
       </c>
       <c r="AN82">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO82">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AS82">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AT82">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -18364,25 +18364,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO83">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ83">
         <v>1.88</v>
       </c>
       <c r="AR83">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="AT83">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18570,25 +18570,25 @@
         <v>1.09</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AO84">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AP84">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ84">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="AU84">
         <v>3</v>
@@ -18776,25 +18776,25 @@
         <v>1.92</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO85">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
       </c>
       <c r="AR85">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AS85">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AT85">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU85">
         <v>5</v>
@@ -18982,25 +18982,25 @@
         <v>2.1</v>
       </c>
       <c r="AN86">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AO86">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR86">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AS86">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AT86">
-        <v>2.72</v>
+        <v>2.59</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19188,25 +19188,25 @@
         <v>1.93</v>
       </c>
       <c r="AN87">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AO87">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AP87">
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR87">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="AS87">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AT87">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19394,25 +19394,25 @@
         <v>1.5</v>
       </c>
       <c r="AN88">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AS88">
         <v>1.23</v>
       </c>
       <c r="AT88">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19600,25 +19600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO89">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ89">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR89">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AS89">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AT89">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19806,25 +19806,25 @@
         <v>2.5</v>
       </c>
       <c r="AN90">
-        <v>0.29</v>
+        <v>0.93</v>
       </c>
       <c r="AO90">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="AP90">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR90">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS90">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="AT90">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20012,25 +20012,25 @@
         <v>1.93</v>
       </c>
       <c r="AN91">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO91">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP91">
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU91">
         <v>7</v>
@@ -20218,22 +20218,22 @@
         <v>1.36</v>
       </c>
       <c r="AN92">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO92">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR92">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AS92">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AT92">
         <v>2.17</v>
@@ -20424,25 +20424,25 @@
         <v>1.13</v>
       </c>
       <c r="AN93">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="AO93">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
       </c>
       <c r="AR93">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AS93">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="AT93">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20630,25 +20630,25 @@
         <v>2</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO94">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
       </c>
       <c r="AR94">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AS94">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AT94">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20836,25 +20836,25 @@
         <v>1.77</v>
       </c>
       <c r="AN95">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>1.57</v>
+        <v>0.87</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ95">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS95">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21042,25 +21042,25 @@
         <v>1.12</v>
       </c>
       <c r="AN96">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AO96">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS96">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT96">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21248,25 +21248,25 @@
         <v>1.41</v>
       </c>
       <c r="AN97">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AO97">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ97">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR97">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AS97">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT97">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21454,25 +21454,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO98">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP98">
+        <v>1.24</v>
+      </c>
+      <c r="AQ98">
         <v>1.13</v>
       </c>
-      <c r="AO98">
-        <v>0.63</v>
-      </c>
-      <c r="AP98">
-        <v>1.5</v>
-      </c>
-      <c r="AQ98">
-        <v>0.88</v>
-      </c>
       <c r="AR98">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS98">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT98">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21660,25 +21660,25 @@
         <v>1.22</v>
       </c>
       <c r="AN99">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AO99">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR99">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT99">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU99">
         <v>2</v>
@@ -21866,25 +21866,25 @@
         <v>1.35</v>
       </c>
       <c r="AN100">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO100">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ100">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AS100">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AT100">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -22072,25 +22072,25 @@
         <v>3.6</v>
       </c>
       <c r="AN101">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AO101">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR101">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AS101">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AT101">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="AU101">
         <v>9</v>
@@ -22278,10 +22278,10 @@
         <v>2.19</v>
       </c>
       <c r="AN102">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AO102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AP102">
         <v>1.88</v>
@@ -22290,13 +22290,13 @@
         <v>1.38</v>
       </c>
       <c r="AR102">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="AS102">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AT102">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22484,25 +22484,25 @@
         <v>2.45</v>
       </c>
       <c r="AN103">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AO103">
-        <v>0.5</v>
+        <v>1.19</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS103">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT103">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU103">
         <v>11</v>
@@ -22690,25 +22690,25 @@
         <v>1.83</v>
       </c>
       <c r="AN104">
-        <v>1.88</v>
+        <v>1.12</v>
       </c>
       <c r="AO104">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AS104">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AT104">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22896,22 +22896,22 @@
         <v>1.21</v>
       </c>
       <c r="AN105">
-        <v>0.13</v>
+        <v>0.41</v>
       </c>
       <c r="AO105">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP105">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR105">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AS105">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AT105">
         <v>2.24</v>
@@ -23102,25 +23102,25 @@
         <v>2.34</v>
       </c>
       <c r="AN106">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AO106">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AP106">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ106">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AS106">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AT106">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AU106">
         <v>10</v>
@@ -23308,25 +23308,25 @@
         <v>1.25</v>
       </c>
       <c r="AN107">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="AO107">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AP107">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
         <v>1.88</v>
       </c>
       <c r="AR107">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS107">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AT107">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23517,22 +23517,22 @@
         <v>2</v>
       </c>
       <c r="AO108">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AP108">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR108">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AS108">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AT108">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -23720,25 +23720,25 @@
         <v>1.22</v>
       </c>
       <c r="AN109">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO109">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
       </c>
       <c r="AR109">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS109">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23926,25 +23926,25 @@
         <v>1.75</v>
       </c>
       <c r="AN110">
+        <v>1.06</v>
+      </c>
+      <c r="AO110">
         <v>1.11</v>
       </c>
-      <c r="AO110">
-        <v>0.78</v>
-      </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR110">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS110">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AT110">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -24132,25 +24132,25 @@
         <v>1.38</v>
       </c>
       <c r="AN111">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO111">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR111">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS111">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT111">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="AU111">
         <v>10</v>
@@ -24338,25 +24338,25 @@
         <v>1.22</v>
       </c>
       <c r="AN112">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="AO112">
-        <v>0.44</v>
+        <v>1.06</v>
       </c>
       <c r="AP112">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AS112">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT112">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24544,25 +24544,25 @@
         <v>1.25</v>
       </c>
       <c r="AN113">
-        <v>0.33</v>
+        <v>1.11</v>
       </c>
       <c r="AO113">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP113">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR113">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AS113">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AT113">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24750,25 +24750,25 @@
         <v>1.38</v>
       </c>
       <c r="AN114">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="AO114">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AP114">
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR114">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AS114">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="AU114">
         <v>10</v>
@@ -24956,25 +24956,25 @@
         <v>2</v>
       </c>
       <c r="AN115">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO115">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP115">
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR115">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="AS115">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AT115">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25162,25 +25162,25 @@
         <v>1.42</v>
       </c>
       <c r="AN116">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="AO116">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="AP116">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ116">
         <v>1.88</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AS116">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AT116">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25368,25 +25368,25 @@
         <v>2.34</v>
       </c>
       <c r="AN117">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="AO117">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="AP117">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR117">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AS117">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AT117">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25574,25 +25574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN118">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP118">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR118">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS118">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AT118">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25783,22 +25783,22 @@
         <v>2.11</v>
       </c>
       <c r="AO119">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="AP119">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ119">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR119">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AS119">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AT119">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU119">
         <v>6</v>
@@ -25986,25 +25986,25 @@
         <v>1.94</v>
       </c>
       <c r="AN120">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AO120">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="AP120">
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR120">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AS120">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26192,25 +26192,25 @@
         <v>2.22</v>
       </c>
       <c r="AN121">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AO121">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AP121">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ121">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AS121">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AT121">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="AU121">
         <v>11</v>
@@ -26398,25 +26398,25 @@
         <v>1.11</v>
       </c>
       <c r="AN122">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="AO122">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="AP122">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AQ122">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR122">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AS122">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AT122">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26604,25 +26604,25 @@
         <v>1.49</v>
       </c>
       <c r="AN123">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AO123">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR123">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AS123">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AT123">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26810,25 +26810,25 @@
         <v>1.5</v>
       </c>
       <c r="AN124">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AO124">
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
       </c>
       <c r="AR124">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AS124">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AT124">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27016,25 +27016,25 @@
         <v>3.6</v>
       </c>
       <c r="AN125">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AO125">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AP125">
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR125">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="AS125">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT125">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27222,22 +27222,22 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="AO126">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR126">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS126">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT126">
         <v>2.85</v>
@@ -27428,25 +27428,25 @@
         <v>1.3</v>
       </c>
       <c r="AN127">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AO127">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AQ127">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR127">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AS127">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AT127">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27634,25 +27634,25 @@
         <v>3.2</v>
       </c>
       <c r="AN128">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO128">
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
       <c r="AP128">
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR128">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AS128">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="AT128">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -27840,25 +27840,25 @@
         <v>2.46</v>
       </c>
       <c r="AN129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP129">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ129">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR129">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AS129">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT129">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -28046,25 +28046,25 @@
         <v>2.65</v>
       </c>
       <c r="AN130">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP130">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR130">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AS130">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AT130">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU130">
         <v>9</v>
@@ -28252,25 +28252,25 @@
         <v>2.65</v>
       </c>
       <c r="AN131">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="AO131">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AP131">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR131">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="AS131">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT131">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28458,25 +28458,25 @@
         <v>1.53</v>
       </c>
       <c r="AN132">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="AO132">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR132">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AS132">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT132">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28664,25 +28664,25 @@
         <v>1.15</v>
       </c>
       <c r="AN133">
-        <v>0.3</v>
+        <v>1.14</v>
       </c>
       <c r="AO133">
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
         <v>1.88</v>
       </c>
       <c r="AR133">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AS133">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AT133">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29282,25 +29282,25 @@
         <v>1.92</v>
       </c>
       <c r="AN136">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AO136">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AP136">
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR136">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AS136">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT136">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29488,25 +29488,25 @@
         <v>2</v>
       </c>
       <c r="AN137">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="AO137">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR137">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS137">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AT137">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -29694,25 +29694,25 @@
         <v>1.36</v>
       </c>
       <c r="AN138">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="AO138">
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
       </c>
       <c r="AR138">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AS138">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT138">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30724,25 +30724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AO143">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="AP143">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ143">
         <v>1.88</v>
       </c>
       <c r="AR143">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="AS143">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AT143">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU143">
         <v>7</v>
@@ -30930,25 +30930,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AO144">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AP144">
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR144">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT144">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="AU144">
         <v>3</v>
@@ -31136,25 +31136,25 @@
         <v>2.8</v>
       </c>
       <c r="AN145">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AO145">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AP145">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR145">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT145">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31960,25 +31960,25 @@
         <v>1.31</v>
       </c>
       <c r="AN149">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AO149">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AP149">
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT149">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32166,25 +32166,25 @@
         <v>1.49</v>
       </c>
       <c r="AN150">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AO150">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AP150">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
       </c>
       <c r="AR150">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AT150">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32372,25 +32372,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="AP151">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR151">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS151">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT151">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -33196,25 +33196,25 @@
         <v>3</v>
       </c>
       <c r="AN155">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AO155">
-        <v>0.92</v>
+        <v>1.16</v>
       </c>
       <c r="AP155">
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="AS155">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT155">
-        <v>3.16</v>
+        <v>3.13</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33402,25 +33402,25 @@
         <v>1.62</v>
       </c>
       <c r="AN156">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR156">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AT156">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33608,25 +33608,25 @@
         <v>2.22</v>
       </c>
       <c r="AN157">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="AO157">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
       </c>
       <c r="AR157">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AS157">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AT157">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="AU157">
         <v>11</v>
@@ -34432,25 +34432,25 @@
         <v>1.68</v>
       </c>
       <c r="AN161">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AO161">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AP161">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR161">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AS161">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT161">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34638,7 +34638,7 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AO162">
         <v>1.46</v>
@@ -34650,13 +34650,13 @@
         <v>1.38</v>
       </c>
       <c r="AR162">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AS162">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT162">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -34844,25 +34844,25 @@
         <v>1.24</v>
       </c>
       <c r="AN163">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="AO163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ163">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR163">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS163">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT163">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35050,25 +35050,25 @@
         <v>1.2</v>
       </c>
       <c r="AN164">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AO164">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AP164">
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR164">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AS164">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AT164">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35668,25 +35668,25 @@
         <v>1.16</v>
       </c>
       <c r="AN167">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO167">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AP167">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ167">
         <v>1.88</v>
       </c>
       <c r="AR167">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AS167">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AT167">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU167">
         <v>3</v>
@@ -35874,25 +35874,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AO168">
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR168">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AS168">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AT168">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU168">
         <v>7</v>
@@ -36904,25 +36904,25 @@
         <v>1.38</v>
       </c>
       <c r="AN173">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AO173">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AP173">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
         <v>1.88</v>
       </c>
       <c r="AR173">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="AT173">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37110,25 +37110,25 @@
         <v>2.7</v>
       </c>
       <c r="AN174">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="AO174">
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ174">
         <v>1.38</v>
       </c>
       <c r="AR174">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS174">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT174">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37316,25 +37316,25 @@
         <v>3.2</v>
       </c>
       <c r="AN175">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="AO175">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="AP175">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AS175">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AT175">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU175">
         <v>10</v>
@@ -37937,19 +37937,19 @@
         <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AP178">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ178">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR178">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AS178">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
         <v>3.05</v>
@@ -38346,25 +38346,25 @@
         <v>1.6</v>
       </c>
       <c r="AN180">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AO180">
-        <v>0.79</v>
+        <v>1.1</v>
       </c>
       <c r="AP180">
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR180">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AT180">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38555,22 +38555,22 @@
         <v>2</v>
       </c>
       <c r="AO181">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AP181">
         <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR181">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AT181">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="AU181">
         <v>5</v>
@@ -39376,25 +39376,25 @@
         <v>1.24</v>
       </c>
       <c r="AN185">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AO185">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AP185">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR185">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AS185">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AT185">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU185">
         <v>4</v>
@@ -39582,25 +39582,25 @@
         <v>1.78</v>
       </c>
       <c r="AN186">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AO186">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="AP186">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AQ186">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AR186">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AS186">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AT186">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39791,7 +39791,7 @@
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AP187">
         <v>1.38</v>
@@ -39800,10 +39800,10 @@
         <v>1.88</v>
       </c>
       <c r="AR187">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AS187">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AT187">
         <v>3.11</v>
@@ -40615,22 +40615,22 @@
         <v>1.87</v>
       </c>
       <c r="AO191">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="AP191">
         <v>1.88</v>
       </c>
       <c r="AQ191">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AR191">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AS191">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AT191">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40821,22 +40821,22 @@
         <v>2</v>
       </c>
       <c r="AO192">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AP192">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ192">
         <v>1.38</v>
       </c>
       <c r="AR192">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS192">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AT192">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41024,25 +41024,25 @@
         <v>3.32</v>
       </c>
       <c r="AN193">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO193">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AP193">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AR193">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS193">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT193">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="AU193">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -29282,25 +29282,25 @@
         <v>1.92</v>
       </c>
       <c r="AN136">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AO136">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AP136">
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR136">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AS136">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT136">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29488,25 +29488,25 @@
         <v>2</v>
       </c>
       <c r="AN137">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS137">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AT137">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -29694,25 +29694,25 @@
         <v>1.36</v>
       </c>
       <c r="AN138">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="AO138">
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
       </c>
       <c r="AR138">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS138">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AT138">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30724,25 +30724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AO143">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ143">
         <v>1.88</v>
       </c>
       <c r="AR143">
+        <v>1.79</v>
+      </c>
+      <c r="AS143">
         <v>1.62</v>
       </c>
-      <c r="AS143">
-        <v>1.83</v>
-      </c>
       <c r="AT143">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU143">
         <v>7</v>
@@ -30930,25 +30930,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AO144">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP144">
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR144">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS144">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="AU144">
         <v>3</v>
@@ -31136,25 +31136,25 @@
         <v>2.8</v>
       </c>
       <c r="AN145">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="AO145">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS145">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31960,25 +31960,25 @@
         <v>1.31</v>
       </c>
       <c r="AN149">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AP149">
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR149">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS149">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT149">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32166,25 +32166,25 @@
         <v>1.49</v>
       </c>
       <c r="AN150">
+        <v>2.17</v>
+      </c>
+      <c r="AO150">
+        <v>1.92</v>
+      </c>
+      <c r="AP150">
         <v>2.13</v>
-      </c>
-      <c r="AO150">
-        <v>1.88</v>
-      </c>
-      <c r="AP150">
-        <v>1.97</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
       </c>
       <c r="AR150">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AS150">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32372,25 +32372,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AO151">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR151">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS151">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT151">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -33196,25 +33196,25 @@
         <v>3</v>
       </c>
       <c r="AN155">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AO155">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="AP155">
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="AS155">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT155">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33402,25 +33402,25 @@
         <v>1.62</v>
       </c>
       <c r="AN156">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS156">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33608,25 +33608,25 @@
         <v>2.22</v>
       </c>
       <c r="AN157">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="AO157">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
       </c>
       <c r="AR157">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AS157">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AU157">
         <v>11</v>
@@ -34432,25 +34432,25 @@
         <v>1.68</v>
       </c>
       <c r="AN161">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="AO161">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AP161">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR161">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AS161">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT161">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34638,7 +34638,7 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AO162">
         <v>1.46</v>
@@ -34650,13 +34650,13 @@
         <v>1.38</v>
       </c>
       <c r="AR162">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AS162">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT162">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -34844,25 +34844,25 @@
         <v>1.24</v>
       </c>
       <c r="AN163">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ163">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS163">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT163">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35050,25 +35050,25 @@
         <v>1.2</v>
       </c>
       <c r="AN164">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AO164">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AP164">
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS164">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AT164">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35668,25 +35668,25 @@
         <v>1.16</v>
       </c>
       <c r="AN167">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO167">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ167">
         <v>1.88</v>
       </c>
       <c r="AR167">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS167">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AT167">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="AU167">
         <v>3</v>
@@ -35874,25 +35874,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="AO168">
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ168">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR168">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AS168">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AT168">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU168">
         <v>7</v>
@@ -36904,25 +36904,25 @@
         <v>1.38</v>
       </c>
       <c r="AN173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO173">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ173">
         <v>1.88</v>
       </c>
       <c r="AR173">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT173">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37110,25 +37110,25 @@
         <v>2.7</v>
       </c>
       <c r="AN174">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="AO174">
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174">
         <v>1.38</v>
       </c>
       <c r="AR174">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS174">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT174">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37316,25 +37316,25 @@
         <v>3.2</v>
       </c>
       <c r="AN175">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="AO175">
-        <v>1.14</v>
+        <v>0.85</v>
       </c>
       <c r="AP175">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR175">
+        <v>1.79</v>
+      </c>
+      <c r="AS175">
         <v>1.13</v>
       </c>
-      <c r="AR175">
-        <v>1.63</v>
-      </c>
-      <c r="AS175">
-        <v>1.28</v>
-      </c>
       <c r="AT175">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU175">
         <v>10</v>
@@ -37937,19 +37937,19 @@
         <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AP178">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ178">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR178">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT178">
         <v>3.05</v>
@@ -38346,25 +38346,25 @@
         <v>1.6</v>
       </c>
       <c r="AN180">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AO180">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP180">
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AT180">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38555,22 +38555,22 @@
         <v>2</v>
       </c>
       <c r="AO181">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AP181">
         <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR181">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="AS181">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>5</v>
@@ -39376,25 +39376,25 @@
         <v>1.24</v>
       </c>
       <c r="AN185">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AO185">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AP185">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR185">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AS185">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU185">
         <v>4</v>
@@ -39582,25 +39582,25 @@
         <v>1.78</v>
       </c>
       <c r="AN186">
+        <v>2.13</v>
+      </c>
+      <c r="AO186">
         <v>1.87</v>
       </c>
-      <c r="AO186">
-        <v>2.03</v>
-      </c>
       <c r="AP186">
+        <v>2.06</v>
+      </c>
+      <c r="AQ186">
         <v>1.81</v>
       </c>
-      <c r="AQ186">
-        <v>1.97</v>
-      </c>
       <c r="AR186">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AS186">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AT186">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39791,7 +39791,7 @@
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AP187">
         <v>1.38</v>
@@ -39800,10 +39800,10 @@
         <v>1.88</v>
       </c>
       <c r="AR187">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AS187">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AT187">
         <v>3.11</v>
@@ -40615,22 +40615,22 @@
         <v>1.87</v>
       </c>
       <c r="AO191">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AP191">
         <v>1.88</v>
       </c>
       <c r="AQ191">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR191">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="AS191">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40821,22 +40821,22 @@
         <v>2</v>
       </c>
       <c r="AO192">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ192">
         <v>1.38</v>
       </c>
       <c r="AR192">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS192">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AT192">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41024,25 +41024,25 @@
         <v>3.32</v>
       </c>
       <c r="AN193">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO193">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AP193">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS193">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT193">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="AU193">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -2099,7 +2099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2920,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>6</v>
@@ -3126,19 +3126,19 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>1.88</v>
       </c>
       <c r="AR9">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>1.6</v>
       </c>
       <c r="AT9">
-        <v>2.48</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3332,19 +3332,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
       </c>
       <c r="AS10">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>4.32</v>
+        <v>1.97</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3532,25 +3532,25 @@
         <v>1.92</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0.9399999999999999</v>
       </c>
       <c r="AT11">
-        <v>2.55</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3738,25 +3738,25 @@
         <v>1.71</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3947,22 +3947,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
       </c>
       <c r="AS13">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.57</v>
+        <v>1.62</v>
       </c>
       <c r="AU13">
         <v>12</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
-        <v>1.64</v>
+        <v>2.35</v>
       </c>
       <c r="AS14">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AT14">
-        <v>2.8</v>
+        <v>3.23</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4356,7 +4356,7 @@
         <v>3.2</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -4365,16 +4365,16 @@
         <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AT15">
-        <v>3.22</v>
+        <v>1.61</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4562,25 +4562,25 @@
         <v>1.25</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
       </c>
       <c r="AR16">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>2</v>
@@ -4768,25 +4768,25 @@
         <v>1.27</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR17">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AS17">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4977,22 +4977,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ18">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="AS18">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AT18">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5180,25 +5180,25 @@
         <v>1.65</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT19">
-        <v>2.86</v>
+        <v>2.59</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5389,22 +5389,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
         <v>1.88</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS20">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5592,25 +5592,25 @@
         <v>1.18</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AT21">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5801,22 +5801,22 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR22">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AS22">
-        <v>1.49</v>
+        <v>0.65</v>
       </c>
       <c r="AT22">
-        <v>2.68</v>
+        <v>2.09</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6004,25 +6004,25 @@
         <v>2.12</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR23">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AS23">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="AU23">
         <v>10</v>
@@ -6210,25 +6210,25 @@
         <v>2.1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR24">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="AS24">
-        <v>1.62</v>
+        <v>0.93</v>
       </c>
       <c r="AT24">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="AU24">
         <v>9</v>
@@ -6416,25 +6416,25 @@
         <v>2.55</v>
       </c>
       <c r="AN25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="AS25">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AT25">
-        <v>2.5</v>
+        <v>2.81</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6622,25 +6622,25 @@
         <v>1.13</v>
       </c>
       <c r="AN26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ26">
         <v>1.88</v>
       </c>
       <c r="AR26">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AS26">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>2.71</v>
+        <v>2.35</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6828,25 +6828,25 @@
         <v>1.4</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="AS27">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT27">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -7034,25 +7034,25 @@
         <v>1.65</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AS28">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT28">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7240,25 +7240,25 @@
         <v>1.6</v>
       </c>
       <c r="AN29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO29">
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR29">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="AS29">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AT29">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7446,25 +7446,25 @@
         <v>1.39</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
       </c>
       <c r="AR30">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS30">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="AT30">
-        <v>3.19</v>
+        <v>2.73</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7652,25 +7652,25 @@
         <v>1.94</v>
       </c>
       <c r="AN31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT31">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7858,25 +7858,25 @@
         <v>1.5</v>
       </c>
       <c r="AN32">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AT32">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8067,22 +8067,22 @@
         <v>3</v>
       </c>
       <c r="AO33">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
         <v>1.88</v>
       </c>
       <c r="AQ33">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR33">
+        <v>1.92</v>
+      </c>
+      <c r="AS33">
         <v>1.13</v>
       </c>
-      <c r="AR33">
-        <v>1.69</v>
-      </c>
-      <c r="AS33">
-        <v>1.44</v>
-      </c>
       <c r="AT33">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8270,25 +8270,25 @@
         <v>1.95</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR34">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="AS34">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT34">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8476,25 +8476,25 @@
         <v>1.36</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS35">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8682,25 +8682,25 @@
         <v>1.83</v>
       </c>
       <c r="AN36">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
+        <v>2.06</v>
+      </c>
+      <c r="AQ36">
         <v>1.81</v>
       </c>
-      <c r="AQ36">
-        <v>1.97</v>
-      </c>
       <c r="AR36">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AS36">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AT36">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8891,22 +8891,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS37">
-        <v>1.49</v>
+        <v>1.11</v>
       </c>
       <c r="AT37">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9094,25 +9094,25 @@
         <v>2</v>
       </c>
       <c r="AN38">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS38">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AT38">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9300,25 +9300,25 @@
         <v>1.22</v>
       </c>
       <c r="AN39">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS39">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9506,25 +9506,25 @@
         <v>2.65</v>
       </c>
       <c r="AN40">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ40">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AS40">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT40">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9712,25 +9712,25 @@
         <v>2.16</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.46</v>
+        <v>2.07</v>
       </c>
       <c r="AS41">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT41">
-        <v>2.56</v>
+        <v>3.08</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9918,25 +9918,25 @@
         <v>2.45</v>
       </c>
       <c r="AN42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP42">
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="AS42">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -10124,25 +10124,25 @@
         <v>1.55</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
       </c>
       <c r="AR43">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="AT43">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10330,25 +10330,25 @@
         <v>1.42</v>
       </c>
       <c r="AN44">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AO44">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR44">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AS44">
-        <v>1.18</v>
+        <v>0.86</v>
       </c>
       <c r="AT44">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AU44">
         <v>7</v>
@@ -10536,25 +10536,25 @@
         <v>1.65</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ45">
         <v>1.88</v>
       </c>
       <c r="AR45">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS45">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT45">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -10742,25 +10742,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AP46">
+        <v>1.38</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.17</v>
+      </c>
+      <c r="AS46">
         <v>1.13</v>
       </c>
-      <c r="AQ46">
-        <v>1.24</v>
-      </c>
-      <c r="AR46">
-        <v>1.13</v>
-      </c>
-      <c r="AS46">
-        <v>1.16</v>
-      </c>
       <c r="AT46">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10948,25 +10948,25 @@
         <v>1.32</v>
       </c>
       <c r="AN47">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR47">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS47">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT47">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11154,25 +11154,25 @@
         <v>1.65</v>
       </c>
       <c r="AN48">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AP48">
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR48">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AT48">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11360,25 +11360,25 @@
         <v>1.5</v>
       </c>
       <c r="AN49">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO49">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT49">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="AU49">
         <v>2</v>
@@ -11566,25 +11566,25 @@
         <v>1.83</v>
       </c>
       <c r="AN50">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO50">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AS50">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT50">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11772,25 +11772,25 @@
         <v>1.45</v>
       </c>
       <c r="AN51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO51">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1.88</v>
       </c>
       <c r="AR51">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
       <c r="AS51">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AU51">
         <v>6</v>
@@ -11978,25 +11978,25 @@
         <v>1.61</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO52">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AS52">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="AT52">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12184,25 +12184,25 @@
         <v>1.32</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO53">
+        <v>1.67</v>
+      </c>
+      <c r="AP53">
         <v>1.5</v>
-      </c>
-      <c r="AP53">
-        <v>1.24</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
       </c>
       <c r="AR53">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AS53">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12390,25 +12390,25 @@
         <v>2.1</v>
       </c>
       <c r="AN54">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT54">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12596,25 +12596,25 @@
         <v>4.5</v>
       </c>
       <c r="AN55">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS55">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="AT55">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12802,25 +12802,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AO56">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP56">
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR56">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13008,25 +13008,25 @@
         <v>1.35</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO57">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AS57">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="AT57">
-        <v>2.52</v>
+        <v>2.19</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -13214,25 +13214,25 @@
         <v>1.25</v>
       </c>
       <c r="AN58">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AO58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AS58">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU58">
         <v>2</v>
@@ -13420,25 +13420,25 @@
         <v>1.18</v>
       </c>
       <c r="AN59">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO59">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ59">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR59">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AT59">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13626,25 +13626,25 @@
         <v>1.5</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
       </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AT60">
-        <v>2.97</v>
+        <v>3.18</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13832,25 +13832,25 @@
         <v>1.68</v>
       </c>
       <c r="AN61">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AO61">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
       </c>
       <c r="AS61">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT61">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AU61">
         <v>8</v>
@@ -14038,25 +14038,25 @@
         <v>2.05</v>
       </c>
       <c r="AN62">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AS62">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT62">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14244,25 +14244,25 @@
         <v>1.92</v>
       </c>
       <c r="AN63">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO63">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP63">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AS63">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="AT63">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14450,25 +14450,25 @@
         <v>2.8</v>
       </c>
       <c r="AN64">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AS64">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AT64">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14656,25 +14656,25 @@
         <v>2</v>
       </c>
       <c r="AN65">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AT65">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14862,25 +14862,25 @@
         <v>2.4</v>
       </c>
       <c r="AN66">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS66">
         <v>1.13</v>
       </c>
       <c r="AT66">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -15068,10 +15068,10 @@
         <v>1.36</v>
       </c>
       <c r="AN67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP67">
         <v>1.38</v>
@@ -15080,13 +15080,13 @@
         <v>1.88</v>
       </c>
       <c r="AR67">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AS67">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15274,25 +15274,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AO68">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS68">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="AT68">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15480,25 +15480,25 @@
         <v>3.3</v>
       </c>
       <c r="AN69">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP69">
         <v>1.88</v>
       </c>
       <c r="AQ69">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS69">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT69">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AU69">
         <v>10</v>
@@ -15686,25 +15686,25 @@
         <v>1.36</v>
       </c>
       <c r="AN70">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AO70">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.38</v>
       </c>
       <c r="AR70">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15892,25 +15892,25 @@
         <v>1.29</v>
       </c>
       <c r="AN71">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO71">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="AS71">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AT71">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16098,25 +16098,25 @@
         <v>1.28</v>
       </c>
       <c r="AN72">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AO72">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR72">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AS72">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16304,25 +16304,25 @@
         <v>1.35</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO73">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ73">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR73">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AS73">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AT73">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16510,25 +16510,25 @@
         <v>2.45</v>
       </c>
       <c r="AN74">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AO74">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS74">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16716,25 +16716,25 @@
         <v>4.2</v>
       </c>
       <c r="AN75">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP75">
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="AS75">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="AT75">
-        <v>2.83</v>
+        <v>2.96</v>
       </c>
       <c r="AU75">
         <v>13</v>
@@ -16925,22 +16925,22 @@
         <v>0.67</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AT76">
-        <v>2.54</v>
+        <v>2.37</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17128,25 +17128,25 @@
         <v>2.25</v>
       </c>
       <c r="AN77">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AO77">
-        <v>0.92</v>
+        <v>1.8</v>
       </c>
       <c r="AP77">
+        <v>1.31</v>
+      </c>
+      <c r="AQ77">
+        <v>1.63</v>
+      </c>
+      <c r="AR77">
+        <v>1.66</v>
+      </c>
+      <c r="AS77">
         <v>1.13</v>
       </c>
-      <c r="AQ77">
-        <v>1</v>
-      </c>
-      <c r="AR77">
-        <v>1.39</v>
-      </c>
-      <c r="AS77">
-        <v>1.23</v>
-      </c>
       <c r="AT77">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17334,25 +17334,25 @@
         <v>1.63</v>
       </c>
       <c r="AN78">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO78">
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR78">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17540,25 +17540,25 @@
         <v>2</v>
       </c>
       <c r="AN79">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP79">
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS79">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17746,25 +17746,25 @@
         <v>1.62</v>
       </c>
       <c r="AN80">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT80">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -17952,22 +17952,22 @@
         <v>3</v>
       </c>
       <c r="AN81">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AO81">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AS81">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AT81">
         <v>2.79</v>
@@ -18158,25 +18158,25 @@
         <v>1.48</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO82">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AS82">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AT82">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -18364,25 +18364,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.88</v>
       </c>
       <c r="AR83">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18570,25 +18570,25 @@
         <v>1.09</v>
       </c>
       <c r="AN84">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO84">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ84">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR84">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AT84">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU84">
         <v>3</v>
@@ -18776,25 +18776,25 @@
         <v>1.92</v>
       </c>
       <c r="AN85">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO85">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
       </c>
       <c r="AR85">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AS85">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AT85">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU85">
         <v>5</v>
@@ -18982,25 +18982,25 @@
         <v>2.1</v>
       </c>
       <c r="AN86">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AO86">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AT86">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19188,25 +19188,25 @@
         <v>1.93</v>
       </c>
       <c r="AN87">
+        <v>2.14</v>
+      </c>
+      <c r="AO87">
         <v>2.29</v>
-      </c>
-      <c r="AO87">
-        <v>2.07</v>
       </c>
       <c r="AP87">
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR87">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="AS87">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AT87">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19394,25 +19394,25 @@
         <v>1.5</v>
       </c>
       <c r="AN88">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="AO88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS88">
         <v>1.23</v>
       </c>
       <c r="AT88">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19600,25 +19600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN89">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR89">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AS89">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19806,25 +19806,25 @@
         <v>2.5</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AO90">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ90">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AS90">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="AT90">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20012,25 +20012,25 @@
         <v>1.93</v>
       </c>
       <c r="AN91">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO91">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AP91">
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT91">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU91">
         <v>7</v>
@@ -20218,22 +20218,22 @@
         <v>1.36</v>
       </c>
       <c r="AN92">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ92">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AS92">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AT92">
         <v>2.17</v>
@@ -20424,25 +20424,25 @@
         <v>1.13</v>
       </c>
       <c r="AN93">
-        <v>1.07</v>
+        <v>1.71</v>
       </c>
       <c r="AO93">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
       </c>
       <c r="AR93">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS93">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="AT93">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20630,25 +20630,25 @@
         <v>2</v>
       </c>
       <c r="AN94">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
       </c>
       <c r="AR94">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT94">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20836,25 +20836,25 @@
         <v>1.77</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO95">
-        <v>0.87</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AT95">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21042,25 +21042,25 @@
         <v>1.12</v>
       </c>
       <c r="AN96">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR96">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS96">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21248,25 +21248,25 @@
         <v>1.41</v>
       </c>
       <c r="AN97">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AO97">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ97">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR97">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AS97">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21454,25 +21454,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO98">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR98">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS98">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21660,25 +21660,25 @@
         <v>1.22</v>
       </c>
       <c r="AN99">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO99">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ99">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS99">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT99">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU99">
         <v>2</v>
@@ -21866,25 +21866,25 @@
         <v>1.35</v>
       </c>
       <c r="AN100">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS100">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AT100">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -22072,25 +22072,25 @@
         <v>3.6</v>
       </c>
       <c r="AN101">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AO101">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AS101">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="AT101">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="AU101">
         <v>9</v>
@@ -22278,10 +22278,10 @@
         <v>2.19</v>
       </c>
       <c r="AN102">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AO102">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AP102">
         <v>1.88</v>
@@ -22290,13 +22290,13 @@
         <v>1.38</v>
       </c>
       <c r="AR102">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AT102">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22484,25 +22484,25 @@
         <v>2.45</v>
       </c>
       <c r="AN103">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>1.19</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS103">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT103">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU103">
         <v>11</v>
@@ -22690,25 +22690,25 @@
         <v>1.83</v>
       </c>
       <c r="AN104">
+        <v>1.88</v>
+      </c>
+      <c r="AO104">
+        <v>1.75</v>
+      </c>
+      <c r="AP104">
+        <v>1.75</v>
+      </c>
+      <c r="AQ104">
+        <v>1.63</v>
+      </c>
+      <c r="AR104">
+        <v>1.52</v>
+      </c>
+      <c r="AS104">
         <v>1.12</v>
       </c>
-      <c r="AO104">
-        <v>1</v>
-      </c>
-      <c r="AP104">
-        <v>1.25</v>
-      </c>
-      <c r="AQ104">
-        <v>1</v>
-      </c>
-      <c r="AR104">
-        <v>1.38</v>
-      </c>
-      <c r="AS104">
-        <v>1.23</v>
-      </c>
       <c r="AT104">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22896,22 +22896,22 @@
         <v>1.21</v>
       </c>
       <c r="AN105">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="AO105">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ105">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AS105">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AT105">
         <v>2.24</v>
@@ -23102,25 +23102,25 @@
         <v>2.34</v>
       </c>
       <c r="AN106">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AO106">
+        <v>0.88</v>
+      </c>
+      <c r="AP106">
+        <v>2.06</v>
+      </c>
+      <c r="AQ106">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR106">
+        <v>1.73</v>
+      </c>
+      <c r="AS106">
         <v>1.18</v>
       </c>
-      <c r="AP106">
-        <v>1.81</v>
-      </c>
-      <c r="AQ106">
-        <v>1.13</v>
-      </c>
-      <c r="AR106">
-        <v>1.62</v>
-      </c>
-      <c r="AS106">
-        <v>1.32</v>
-      </c>
       <c r="AT106">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AU106">
         <v>10</v>
@@ -23308,25 +23308,25 @@
         <v>1.25</v>
       </c>
       <c r="AN107">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AO107">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ107">
         <v>1.88</v>
       </c>
       <c r="AR107">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS107">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="AT107">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23517,22 +23517,22 @@
         <v>2</v>
       </c>
       <c r="AO108">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ108">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR108">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AS108">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AT108">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -23720,25 +23720,25 @@
         <v>1.22</v>
       </c>
       <c r="AN109">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
       </c>
       <c r="AR109">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT109">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23926,25 +23926,25 @@
         <v>1.75</v>
       </c>
       <c r="AN110">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AO110">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT110">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -24132,25 +24132,25 @@
         <v>1.38</v>
       </c>
       <c r="AN111">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO111">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS111">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT111">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AU111">
         <v>10</v>
@@ -24338,25 +24338,25 @@
         <v>1.22</v>
       </c>
       <c r="AN112">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="AO112">
-        <v>1.06</v>
+        <v>0.44</v>
       </c>
       <c r="AP112">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ112">
+        <v>0.75</v>
+      </c>
+      <c r="AR112">
+        <v>1.09</v>
+      </c>
+      <c r="AS112">
         <v>1.25</v>
       </c>
-      <c r="AR112">
-        <v>1.02</v>
-      </c>
-      <c r="AS112">
-        <v>1.39</v>
-      </c>
       <c r="AT112">
-        <v>2.41</v>
+        <v>2.34</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24544,25 +24544,25 @@
         <v>1.25</v>
       </c>
       <c r="AN113">
-        <v>1.11</v>
+        <v>0.33</v>
       </c>
       <c r="AO113">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ113">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR113">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AS113">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT113">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24750,25 +24750,25 @@
         <v>1.38</v>
       </c>
       <c r="AN114">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AO114">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AP114">
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR114">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AT114">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="AU114">
         <v>10</v>
@@ -24956,25 +24956,25 @@
         <v>2</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO115">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP115">
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="AS115">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AT115">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25162,25 +25162,25 @@
         <v>1.42</v>
       </c>
       <c r="AN116">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AO116">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ116">
         <v>1.88</v>
       </c>
       <c r="AR116">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AS116">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AT116">
-        <v>3.42</v>
+        <v>3.24</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25368,25 +25368,25 @@
         <v>2.34</v>
       </c>
       <c r="AN117">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO117">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR117">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS117">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AT117">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25574,25 +25574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN118">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="AO118">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR118">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT118">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25783,22 +25783,22 @@
         <v>2.11</v>
       </c>
       <c r="AO119">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AS119">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AT119">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AU119">
         <v>6</v>
@@ -25986,25 +25986,25 @@
         <v>1.94</v>
       </c>
       <c r="AN120">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AO120">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="AP120">
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR120">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS120">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AT120">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26192,25 +26192,25 @@
         <v>2.22</v>
       </c>
       <c r="AN121">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT121">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="AU121">
         <v>11</v>
@@ -26398,25 +26398,25 @@
         <v>1.11</v>
       </c>
       <c r="AN122">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="AO122">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ122">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR122">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AS122">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26604,25 +26604,25 @@
         <v>1.49</v>
       </c>
       <c r="AN123">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="AO123">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AT123">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26810,25 +26810,25 @@
         <v>1.5</v>
       </c>
       <c r="AN124">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="AO124">
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
       </c>
       <c r="AR124">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27016,25 +27016,25 @@
         <v>3.6</v>
       </c>
       <c r="AN125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP125">
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="AS125">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AT125">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27222,22 +27222,22 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="AO126">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR126">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT126">
         <v>2.85</v>
@@ -27428,25 +27428,25 @@
         <v>1.3</v>
       </c>
       <c r="AN127">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AO127">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR127">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AS127">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AT127">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27634,25 +27634,25 @@
         <v>3.2</v>
       </c>
       <c r="AN128">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO128">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="AP128">
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AS128">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AT128">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -27840,25 +27840,25 @@
         <v>2.46</v>
       </c>
       <c r="AN129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT129">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -28046,25 +28046,25 @@
         <v>2.65</v>
       </c>
       <c r="AN130">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="AO130">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AS130">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AT130">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU130">
         <v>9</v>
@@ -28252,25 +28252,25 @@
         <v>2.65</v>
       </c>
       <c r="AN131">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AO131">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AP131">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AS131">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT131">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28458,25 +28458,25 @@
         <v>1.53</v>
       </c>
       <c r="AN132">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="AO132">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AS132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT132">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28664,25 +28664,25 @@
         <v>1.15</v>
       </c>
       <c r="AN133">
-        <v>1.14</v>
+        <v>0.3</v>
       </c>
       <c r="AO133">
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ133">
         <v>1.88</v>
       </c>
       <c r="AR133">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AS133">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AT133">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="AU133">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -2099,7 +2099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2920,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>6</v>
@@ -3126,19 +3126,19 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>1.88</v>
       </c>
       <c r="AR9">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>1.6</v>
       </c>
       <c r="AT9">
-        <v>2.48</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3332,19 +3332,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>1.97</v>
       </c>
       <c r="AS10">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>4.32</v>
+        <v>1.97</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3532,25 +3532,25 @@
         <v>1.92</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0.9399999999999999</v>
       </c>
       <c r="AT11">
-        <v>2.55</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3738,25 +3738,25 @@
         <v>1.71</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3947,22 +3947,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>1.62</v>
       </c>
       <c r="AS13">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.57</v>
+        <v>1.62</v>
       </c>
       <c r="AU13">
         <v>12</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
-        <v>1.64</v>
+        <v>2.35</v>
       </c>
       <c r="AS14">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AT14">
-        <v>2.8</v>
+        <v>3.23</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4356,7 +4356,7 @@
         <v>3.2</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -4365,16 +4365,16 @@
         <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AT15">
-        <v>3.22</v>
+        <v>1.61</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4562,25 +4562,25 @@
         <v>1.25</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
       </c>
       <c r="AR16">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>2</v>
@@ -4768,25 +4768,25 @@
         <v>1.27</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR17">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AS17">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4977,22 +4977,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ18">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="AS18">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AT18">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5180,25 +5180,25 @@
         <v>1.65</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT19">
-        <v>2.86</v>
+        <v>2.59</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5389,22 +5389,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
         <v>1.88</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS20">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5592,25 +5592,25 @@
         <v>1.18</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AT21">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5801,22 +5801,22 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR22">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AS22">
-        <v>1.49</v>
+        <v>0.65</v>
       </c>
       <c r="AT22">
-        <v>2.68</v>
+        <v>2.09</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6004,25 +6004,25 @@
         <v>2.12</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR23">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AS23">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="AU23">
         <v>10</v>
@@ -6210,25 +6210,25 @@
         <v>2.1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR24">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="AS24">
-        <v>1.62</v>
+        <v>0.93</v>
       </c>
       <c r="AT24">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="AU24">
         <v>9</v>
@@ -6416,25 +6416,25 @@
         <v>2.55</v>
       </c>
       <c r="AN25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="AS25">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AT25">
-        <v>2.5</v>
+        <v>2.81</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6622,25 +6622,25 @@
         <v>1.13</v>
       </c>
       <c r="AN26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ26">
         <v>1.88</v>
       </c>
       <c r="AR26">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AS26">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>2.71</v>
+        <v>2.35</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6828,25 +6828,25 @@
         <v>1.4</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="AS27">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT27">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -7034,25 +7034,25 @@
         <v>1.65</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AS28">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT28">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7240,25 +7240,25 @@
         <v>1.6</v>
       </c>
       <c r="AN29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO29">
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR29">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="AS29">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AT29">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7446,25 +7446,25 @@
         <v>1.39</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
       </c>
       <c r="AR30">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS30">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="AT30">
-        <v>3.19</v>
+        <v>2.73</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7652,25 +7652,25 @@
         <v>1.94</v>
       </c>
       <c r="AN31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT31">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7858,25 +7858,25 @@
         <v>1.5</v>
       </c>
       <c r="AN32">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AT32">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8067,22 +8067,22 @@
         <v>3</v>
       </c>
       <c r="AO33">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
         <v>1.88</v>
       </c>
       <c r="AQ33">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR33">
+        <v>1.92</v>
+      </c>
+      <c r="AS33">
         <v>1.13</v>
       </c>
-      <c r="AR33">
-        <v>1.69</v>
-      </c>
-      <c r="AS33">
-        <v>1.44</v>
-      </c>
       <c r="AT33">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8270,25 +8270,25 @@
         <v>1.95</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR34">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="AS34">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT34">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8476,25 +8476,25 @@
         <v>1.36</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS35">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8682,25 +8682,25 @@
         <v>1.83</v>
       </c>
       <c r="AN36">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
+        <v>2.06</v>
+      </c>
+      <c r="AQ36">
         <v>1.81</v>
       </c>
-      <c r="AQ36">
-        <v>1.97</v>
-      </c>
       <c r="AR36">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AS36">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AT36">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8891,22 +8891,22 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS37">
-        <v>1.49</v>
+        <v>1.11</v>
       </c>
       <c r="AT37">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9094,25 +9094,25 @@
         <v>2</v>
       </c>
       <c r="AN38">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS38">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AT38">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9300,25 +9300,25 @@
         <v>1.22</v>
       </c>
       <c r="AN39">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS39">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9506,25 +9506,25 @@
         <v>2.65</v>
       </c>
       <c r="AN40">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ40">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AS40">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT40">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9712,25 +9712,25 @@
         <v>2.16</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.46</v>
+        <v>2.07</v>
       </c>
       <c r="AS41">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT41">
-        <v>2.56</v>
+        <v>3.08</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9918,25 +9918,25 @@
         <v>2.45</v>
       </c>
       <c r="AN42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP42">
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="AS42">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -10124,25 +10124,25 @@
         <v>1.55</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
       </c>
       <c r="AR43">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="AT43">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10330,25 +10330,25 @@
         <v>1.42</v>
       </c>
       <c r="AN44">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AO44">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR44">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AS44">
-        <v>1.18</v>
+        <v>0.86</v>
       </c>
       <c r="AT44">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AU44">
         <v>7</v>
@@ -10536,25 +10536,25 @@
         <v>1.65</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ45">
         <v>1.88</v>
       </c>
       <c r="AR45">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS45">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT45">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -10742,25 +10742,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AP46">
+        <v>1.38</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.17</v>
+      </c>
+      <c r="AS46">
         <v>1.13</v>
       </c>
-      <c r="AQ46">
-        <v>1.24</v>
-      </c>
-      <c r="AR46">
-        <v>1.13</v>
-      </c>
-      <c r="AS46">
-        <v>1.16</v>
-      </c>
       <c r="AT46">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10948,25 +10948,25 @@
         <v>1.32</v>
       </c>
       <c r="AN47">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR47">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS47">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT47">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11154,25 +11154,25 @@
         <v>1.65</v>
       </c>
       <c r="AN48">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AP48">
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR48">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AT48">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11360,25 +11360,25 @@
         <v>1.5</v>
       </c>
       <c r="AN49">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO49">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT49">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="AU49">
         <v>2</v>
@@ -11566,25 +11566,25 @@
         <v>1.83</v>
       </c>
       <c r="AN50">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO50">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AS50">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT50">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11772,25 +11772,25 @@
         <v>1.45</v>
       </c>
       <c r="AN51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO51">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1.88</v>
       </c>
       <c r="AR51">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
       <c r="AS51">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AU51">
         <v>6</v>
@@ -11978,25 +11978,25 @@
         <v>1.61</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO52">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AS52">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="AT52">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12184,25 +12184,25 @@
         <v>1.32</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO53">
+        <v>1.67</v>
+      </c>
+      <c r="AP53">
         <v>1.5</v>
-      </c>
-      <c r="AP53">
-        <v>1.24</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
       </c>
       <c r="AR53">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AS53">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12390,25 +12390,25 @@
         <v>2.1</v>
       </c>
       <c r="AN54">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT54">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12596,25 +12596,25 @@
         <v>4.5</v>
       </c>
       <c r="AN55">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS55">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="AT55">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12802,25 +12802,25 @@
         <v>2</v>
       </c>
       <c r="AN56">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AO56">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP56">
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR56">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13008,25 +13008,25 @@
         <v>1.35</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO57">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AS57">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="AT57">
-        <v>2.52</v>
+        <v>2.19</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -13214,25 +13214,25 @@
         <v>1.25</v>
       </c>
       <c r="AN58">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AO58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AS58">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU58">
         <v>2</v>
@@ -13420,25 +13420,25 @@
         <v>1.18</v>
       </c>
       <c r="AN59">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO59">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ59">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR59">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AT59">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13626,25 +13626,25 @@
         <v>1.5</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
       </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AT60">
-        <v>2.97</v>
+        <v>3.18</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13832,25 +13832,25 @@
         <v>1.68</v>
       </c>
       <c r="AN61">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AO61">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61">
         <v>1.21</v>
       </c>
       <c r="AS61">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT61">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AU61">
         <v>8</v>
@@ -14038,25 +14038,25 @@
         <v>2.05</v>
       </c>
       <c r="AN62">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AS62">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT62">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14244,25 +14244,25 @@
         <v>1.92</v>
       </c>
       <c r="AN63">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO63">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP63">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AS63">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="AT63">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14450,25 +14450,25 @@
         <v>2.8</v>
       </c>
       <c r="AN64">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AS64">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AT64">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14656,25 +14656,25 @@
         <v>2</v>
       </c>
       <c r="AN65">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AT65">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14862,25 +14862,25 @@
         <v>2.4</v>
       </c>
       <c r="AN66">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS66">
         <v>1.13</v>
       </c>
       <c r="AT66">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -15068,10 +15068,10 @@
         <v>1.36</v>
       </c>
       <c r="AN67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP67">
         <v>1.38</v>
@@ -15080,13 +15080,13 @@
         <v>1.88</v>
       </c>
       <c r="AR67">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AS67">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15274,25 +15274,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AO68">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS68">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="AT68">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15480,25 +15480,25 @@
         <v>3.3</v>
       </c>
       <c r="AN69">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP69">
         <v>1.88</v>
       </c>
       <c r="AQ69">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS69">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT69">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AU69">
         <v>10</v>
@@ -15686,25 +15686,25 @@
         <v>1.36</v>
       </c>
       <c r="AN70">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AO70">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.38</v>
       </c>
       <c r="AR70">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15892,25 +15892,25 @@
         <v>1.29</v>
       </c>
       <c r="AN71">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO71">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="AS71">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AT71">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16098,25 +16098,25 @@
         <v>1.28</v>
       </c>
       <c r="AN72">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AO72">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR72">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AS72">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16304,25 +16304,25 @@
         <v>1.35</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO73">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ73">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR73">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AS73">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AT73">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16510,25 +16510,25 @@
         <v>2.45</v>
       </c>
       <c r="AN74">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AO74">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS74">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16716,25 +16716,25 @@
         <v>4.2</v>
       </c>
       <c r="AN75">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP75">
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="AS75">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="AT75">
-        <v>2.83</v>
+        <v>2.96</v>
       </c>
       <c r="AU75">
         <v>13</v>
@@ -16925,22 +16925,22 @@
         <v>0.67</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AT76">
-        <v>2.54</v>
+        <v>2.37</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17128,25 +17128,25 @@
         <v>2.25</v>
       </c>
       <c r="AN77">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AO77">
-        <v>0.92</v>
+        <v>1.8</v>
       </c>
       <c r="AP77">
+        <v>1.31</v>
+      </c>
+      <c r="AQ77">
+        <v>1.63</v>
+      </c>
+      <c r="AR77">
+        <v>1.66</v>
+      </c>
+      <c r="AS77">
         <v>1.13</v>
       </c>
-      <c r="AQ77">
-        <v>1</v>
-      </c>
-      <c r="AR77">
-        <v>1.39</v>
-      </c>
-      <c r="AS77">
-        <v>1.23</v>
-      </c>
       <c r="AT77">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17334,25 +17334,25 @@
         <v>1.63</v>
       </c>
       <c r="AN78">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO78">
         <v>1.83</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR78">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17540,25 +17540,25 @@
         <v>2</v>
       </c>
       <c r="AN79">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP79">
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS79">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17746,25 +17746,25 @@
         <v>1.62</v>
       </c>
       <c r="AN80">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT80">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -17952,22 +17952,22 @@
         <v>3</v>
       </c>
       <c r="AN81">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AO81">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AS81">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AT81">
         <v>2.79</v>
@@ -18158,25 +18158,25 @@
         <v>1.48</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO82">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AS82">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AT82">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -18364,25 +18364,25 @@
         <v>1.22</v>
       </c>
       <c r="AN83">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.88</v>
       </c>
       <c r="AR83">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18570,25 +18570,25 @@
         <v>1.09</v>
       </c>
       <c r="AN84">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO84">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AP84">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ84">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR84">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AT84">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU84">
         <v>3</v>
@@ -18776,25 +18776,25 @@
         <v>1.92</v>
       </c>
       <c r="AN85">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO85">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
       </c>
       <c r="AR85">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AS85">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AT85">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU85">
         <v>5</v>
@@ -18982,25 +18982,25 @@
         <v>2.1</v>
       </c>
       <c r="AN86">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AO86">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AT86">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -19188,25 +19188,25 @@
         <v>1.93</v>
       </c>
       <c r="AN87">
+        <v>2.14</v>
+      </c>
+      <c r="AO87">
         <v>2.29</v>
-      </c>
-      <c r="AO87">
-        <v>2.07</v>
       </c>
       <c r="AP87">
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR87">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="AS87">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AT87">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19394,25 +19394,25 @@
         <v>1.5</v>
       </c>
       <c r="AN88">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="AO88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS88">
         <v>1.23</v>
       </c>
       <c r="AT88">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19600,25 +19600,25 @@
         <v>1.53</v>
       </c>
       <c r="AN89">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR89">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AS89">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19806,25 +19806,25 @@
         <v>2.5</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AO90">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ90">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AS90">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="AT90">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20012,25 +20012,25 @@
         <v>1.93</v>
       </c>
       <c r="AN91">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO91">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AP91">
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT91">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU91">
         <v>7</v>
@@ -20218,22 +20218,22 @@
         <v>1.36</v>
       </c>
       <c r="AN92">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ92">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AS92">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AT92">
         <v>2.17</v>
@@ -20424,25 +20424,25 @@
         <v>1.13</v>
       </c>
       <c r="AN93">
-        <v>1.07</v>
+        <v>1.71</v>
       </c>
       <c r="AO93">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
       </c>
       <c r="AR93">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS93">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="AT93">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -20630,25 +20630,25 @@
         <v>2</v>
       </c>
       <c r="AN94">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP94">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
       </c>
       <c r="AR94">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT94">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20836,25 +20836,25 @@
         <v>1.77</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO95">
-        <v>0.87</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AT95">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -21042,25 +21042,25 @@
         <v>1.12</v>
       </c>
       <c r="AN96">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR96">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS96">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21248,25 +21248,25 @@
         <v>1.41</v>
       </c>
       <c r="AN97">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AO97">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP97">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ97">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR97">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AS97">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21454,25 +21454,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO98">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AP98">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR98">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS98">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21660,25 +21660,25 @@
         <v>1.22</v>
       </c>
       <c r="AN99">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO99">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ99">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS99">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT99">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU99">
         <v>2</v>
@@ -21866,25 +21866,25 @@
         <v>1.35</v>
       </c>
       <c r="AN100">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS100">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AT100">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -22072,25 +22072,25 @@
         <v>3.6</v>
       </c>
       <c r="AN101">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AO101">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AS101">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="AT101">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="AU101">
         <v>9</v>
@@ -22278,10 +22278,10 @@
         <v>2.19</v>
       </c>
       <c r="AN102">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AO102">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AP102">
         <v>1.88</v>
@@ -22290,13 +22290,13 @@
         <v>1.38</v>
       </c>
       <c r="AR102">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AT102">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22484,25 +22484,25 @@
         <v>2.45</v>
       </c>
       <c r="AN103">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>1.19</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS103">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT103">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU103">
         <v>11</v>
@@ -22690,25 +22690,25 @@
         <v>1.83</v>
       </c>
       <c r="AN104">
+        <v>1.88</v>
+      </c>
+      <c r="AO104">
+        <v>1.75</v>
+      </c>
+      <c r="AP104">
+        <v>1.75</v>
+      </c>
+      <c r="AQ104">
+        <v>1.63</v>
+      </c>
+      <c r="AR104">
+        <v>1.52</v>
+      </c>
+      <c r="AS104">
         <v>1.12</v>
       </c>
-      <c r="AO104">
-        <v>1</v>
-      </c>
-      <c r="AP104">
-        <v>1.25</v>
-      </c>
-      <c r="AQ104">
-        <v>1</v>
-      </c>
-      <c r="AR104">
-        <v>1.38</v>
-      </c>
-      <c r="AS104">
-        <v>1.23</v>
-      </c>
       <c r="AT104">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22896,22 +22896,22 @@
         <v>1.21</v>
       </c>
       <c r="AN105">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="AO105">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ105">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AS105">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AT105">
         <v>2.24</v>
@@ -23102,25 +23102,25 @@
         <v>2.34</v>
       </c>
       <c r="AN106">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AO106">
+        <v>0.88</v>
+      </c>
+      <c r="AP106">
+        <v>2.06</v>
+      </c>
+      <c r="AQ106">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR106">
+        <v>1.73</v>
+      </c>
+      <c r="AS106">
         <v>1.18</v>
       </c>
-      <c r="AP106">
-        <v>1.81</v>
-      </c>
-      <c r="AQ106">
-        <v>1.13</v>
-      </c>
-      <c r="AR106">
-        <v>1.62</v>
-      </c>
-      <c r="AS106">
-        <v>1.32</v>
-      </c>
       <c r="AT106">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AU106">
         <v>10</v>
@@ -23308,25 +23308,25 @@
         <v>1.25</v>
       </c>
       <c r="AN107">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AO107">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ107">
         <v>1.88</v>
       </c>
       <c r="AR107">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS107">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="AT107">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23517,22 +23517,22 @@
         <v>2</v>
       </c>
       <c r="AO108">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ108">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR108">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AS108">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AT108">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -23720,25 +23720,25 @@
         <v>1.22</v>
       </c>
       <c r="AN109">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AP109">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
       </c>
       <c r="AR109">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT109">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23926,25 +23926,25 @@
         <v>1.75</v>
       </c>
       <c r="AN110">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AO110">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT110">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -24132,25 +24132,25 @@
         <v>1.38</v>
       </c>
       <c r="AN111">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO111">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS111">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT111">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AU111">
         <v>10</v>
@@ -24338,25 +24338,25 @@
         <v>1.22</v>
       </c>
       <c r="AN112">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="AO112">
-        <v>1.06</v>
+        <v>0.44</v>
       </c>
       <c r="AP112">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ112">
+        <v>0.75</v>
+      </c>
+      <c r="AR112">
+        <v>1.09</v>
+      </c>
+      <c r="AS112">
         <v>1.25</v>
       </c>
-      <c r="AR112">
-        <v>1.02</v>
-      </c>
-      <c r="AS112">
-        <v>1.39</v>
-      </c>
       <c r="AT112">
-        <v>2.41</v>
+        <v>2.34</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24544,25 +24544,25 @@
         <v>1.25</v>
       </c>
       <c r="AN113">
-        <v>1.11</v>
+        <v>0.33</v>
       </c>
       <c r="AO113">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ113">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR113">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AS113">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT113">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24750,25 +24750,25 @@
         <v>1.38</v>
       </c>
       <c r="AN114">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AO114">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AP114">
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR114">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AT114">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="AU114">
         <v>10</v>
@@ -24956,25 +24956,25 @@
         <v>2</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO115">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP115">
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="AS115">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AT115">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25162,25 +25162,25 @@
         <v>1.42</v>
       </c>
       <c r="AN116">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AO116">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AP116">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ116">
         <v>1.88</v>
       </c>
       <c r="AR116">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AS116">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AT116">
-        <v>3.42</v>
+        <v>3.24</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25368,25 +25368,25 @@
         <v>2.34</v>
       </c>
       <c r="AN117">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO117">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR117">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS117">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AT117">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25574,25 +25574,25 @@
         <v>1.4</v>
       </c>
       <c r="AN118">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="AO118">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR118">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT118">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25783,22 +25783,22 @@
         <v>2.11</v>
       </c>
       <c r="AO119">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="AP119">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AS119">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AT119">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AU119">
         <v>6</v>
@@ -25986,25 +25986,25 @@
         <v>1.94</v>
       </c>
       <c r="AN120">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AO120">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="AP120">
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR120">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS120">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AT120">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26192,25 +26192,25 @@
         <v>2.22</v>
       </c>
       <c r="AN121">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP121">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT121">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="AU121">
         <v>11</v>
@@ -26398,25 +26398,25 @@
         <v>1.11</v>
       </c>
       <c r="AN122">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="AO122">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="AP122">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AQ122">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR122">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AS122">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26604,25 +26604,25 @@
         <v>1.49</v>
       </c>
       <c r="AN123">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="AO123">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AT123">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26810,25 +26810,25 @@
         <v>1.5</v>
       </c>
       <c r="AN124">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="AO124">
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
       </c>
       <c r="AR124">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27016,25 +27016,25 @@
         <v>3.6</v>
       </c>
       <c r="AN125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP125">
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="AS125">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AT125">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27222,22 +27222,22 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="AO126">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR126">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT126">
         <v>2.85</v>
@@ -27428,25 +27428,25 @@
         <v>1.3</v>
       </c>
       <c r="AN127">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AO127">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AP127">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR127">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AS127">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AT127">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27634,25 +27634,25 @@
         <v>3.2</v>
       </c>
       <c r="AN128">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO128">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="AP128">
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AS128">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AT128">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -27840,25 +27840,25 @@
         <v>2.46</v>
       </c>
       <c r="AN129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO129">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT129">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -28046,25 +28046,25 @@
         <v>2.65</v>
       </c>
       <c r="AN130">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="AO130">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AS130">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AT130">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU130">
         <v>9</v>
@@ -28252,25 +28252,25 @@
         <v>2.65</v>
       </c>
       <c r="AN131">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AO131">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AP131">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AS131">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT131">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28458,25 +28458,25 @@
         <v>1.53</v>
       </c>
       <c r="AN132">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="AO132">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AS132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT132">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28664,25 +28664,25 @@
         <v>1.15</v>
       </c>
       <c r="AN133">
-        <v>1.14</v>
+        <v>0.3</v>
       </c>
       <c r="AO133">
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AQ133">
         <v>1.88</v>
       </c>
       <c r="AR133">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AS133">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AT133">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29282,25 +29282,25 @@
         <v>1.92</v>
       </c>
       <c r="AN136">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AO136">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AP136">
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR136">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AS136">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AT136">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29488,25 +29488,25 @@
         <v>2</v>
       </c>
       <c r="AN137">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS137">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AT137">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -29694,25 +29694,25 @@
         <v>1.36</v>
       </c>
       <c r="AN138">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="AO138">
         <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
       </c>
       <c r="AR138">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS138">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AT138">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30724,25 +30724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AO143">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="AP143">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ143">
         <v>1.88</v>
       </c>
       <c r="AR143">
+        <v>1.79</v>
+      </c>
+      <c r="AS143">
         <v>1.62</v>
       </c>
-      <c r="AS143">
-        <v>1.83</v>
-      </c>
       <c r="AT143">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU143">
         <v>7</v>
@@ -30930,25 +30930,25 @@
         <v>1.35</v>
       </c>
       <c r="AN144">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AO144">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP144">
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR144">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS144">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="AU144">
         <v>3</v>
@@ -31136,25 +31136,25 @@
         <v>2.8</v>
       </c>
       <c r="AN145">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="AO145">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS145">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31960,25 +31960,25 @@
         <v>1.31</v>
       </c>
       <c r="AN149">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AP149">
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR149">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS149">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT149">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32166,25 +32166,25 @@
         <v>1.49</v>
       </c>
       <c r="AN150">
+        <v>2.17</v>
+      </c>
+      <c r="AO150">
+        <v>1.92</v>
+      </c>
+      <c r="AP150">
         <v>2.13</v>
-      </c>
-      <c r="AO150">
-        <v>1.88</v>
-      </c>
-      <c r="AP150">
-        <v>1.97</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
       </c>
       <c r="AR150">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AS150">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32372,25 +32372,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AO151">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR151">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS151">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT151">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -33196,25 +33196,25 @@
         <v>3</v>
       </c>
       <c r="AN155">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AO155">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="AP155">
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="AS155">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT155">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33402,25 +33402,25 @@
         <v>1.62</v>
       </c>
       <c r="AN156">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AO156">
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS156">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33608,25 +33608,25 @@
         <v>2.22</v>
       </c>
       <c r="AN157">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="AO157">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
       </c>
       <c r="AR157">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AS157">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AU157">
         <v>11</v>
@@ -34432,25 +34432,25 @@
         <v>1.68</v>
       </c>
       <c r="AN161">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="AO161">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AP161">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR161">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AS161">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT161">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34638,7 +34638,7 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AO162">
         <v>1.46</v>
@@ -34650,13 +34650,13 @@
         <v>1.38</v>
       </c>
       <c r="AR162">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="AS162">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT162">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -34844,25 +34844,25 @@
         <v>1.24</v>
       </c>
       <c r="AN163">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ163">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS163">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT163">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35050,25 +35050,25 @@
         <v>1.2</v>
       </c>
       <c r="AN164">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AO164">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AP164">
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS164">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AT164">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35668,25 +35668,25 @@
         <v>1.16</v>
       </c>
       <c r="AN167">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO167">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ167">
         <v>1.88</v>
       </c>
       <c r="AR167">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS167">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AT167">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="AU167">
         <v>3</v>
@@ -35874,25 +35874,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="AO168">
         <v>2.07</v>
       </c>
       <c r="AP168">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ168">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR168">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AS168">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AT168">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU168">
         <v>7</v>
@@ -36904,25 +36904,25 @@
         <v>1.38</v>
       </c>
       <c r="AN173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO173">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ173">
         <v>1.88</v>
       </c>
       <c r="AR173">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT173">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37110,25 +37110,25 @@
         <v>2.7</v>
       </c>
       <c r="AN174">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="AO174">
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174">
         <v>1.38</v>
       </c>
       <c r="AR174">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS174">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT174">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37316,25 +37316,25 @@
         <v>3.2</v>
       </c>
       <c r="AN175">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="AO175">
-        <v>1.14</v>
+        <v>0.85</v>
       </c>
       <c r="AP175">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR175">
+        <v>1.79</v>
+      </c>
+      <c r="AS175">
         <v>1.13</v>
       </c>
-      <c r="AR175">
-        <v>1.63</v>
-      </c>
-      <c r="AS175">
-        <v>1.28</v>
-      </c>
       <c r="AT175">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU175">
         <v>10</v>
@@ -37937,19 +37937,19 @@
         <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AP178">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ178">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR178">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT178">
         <v>3.05</v>
@@ -38346,25 +38346,25 @@
         <v>1.6</v>
       </c>
       <c r="AN180">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AO180">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP180">
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AT180">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38555,22 +38555,22 @@
         <v>2</v>
       </c>
       <c r="AO181">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AP181">
         <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AR181">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="AS181">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>5</v>
@@ -39376,25 +39376,25 @@
         <v>1.24</v>
       </c>
       <c r="AN185">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AO185">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AP185">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR185">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AS185">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU185">
         <v>4</v>
@@ -39582,25 +39582,25 @@
         <v>1.78</v>
       </c>
       <c r="AN186">
+        <v>2.13</v>
+      </c>
+      <c r="AO186">
         <v>1.87</v>
       </c>
-      <c r="AO186">
-        <v>2.03</v>
-      </c>
       <c r="AP186">
+        <v>2.06</v>
+      </c>
+      <c r="AQ186">
         <v>1.81</v>
       </c>
-      <c r="AQ186">
-        <v>1.97</v>
-      </c>
       <c r="AR186">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AS186">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AT186">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39791,7 +39791,7 @@
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AP187">
         <v>1.38</v>
@@ -39800,10 +39800,10 @@
         <v>1.88</v>
       </c>
       <c r="AR187">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AS187">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AT187">
         <v>3.11</v>
@@ -40615,22 +40615,22 @@
         <v>1.87</v>
       </c>
       <c r="AO191">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AP191">
         <v>1.88</v>
       </c>
       <c r="AQ191">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AR191">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="AS191">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40821,22 +40821,22 @@
         <v>2</v>
       </c>
       <c r="AO192">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ192">
         <v>1.38</v>
       </c>
       <c r="AR192">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS192">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AT192">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41024,25 +41024,25 @@
         <v>3.32</v>
       </c>
       <c r="AN193">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO193">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AP193">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS193">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT193">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="AU193">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20232024.xlsx
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ2">
         <v>7</v>
@@ -1917,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA3">
         <v>8</v>
@@ -2123,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="AY4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA4">
         <v>8</v>
@@ -2329,10 +2329,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5">
         <v>8</v>
@@ -2535,10 +2535,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>13</v>
@@ -2741,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="AY7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -2947,10 +2947,10 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA8">
         <v>5</v>
@@ -3153,10 +3153,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -3359,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -3565,10 +3565,10 @@
         <v>5</v>
       </c>
       <c r="AY11">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3771,10 +3771,10 @@
         <v>5</v>
       </c>
       <c r="AY12">
+        <v>15</v>
+      </c>
+      <c r="AZ12">
         <v>13</v>
-      </c>
-      <c r="AZ12">
-        <v>10</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -3977,10 +3977,10 @@
         <v>5</v>
       </c>
       <c r="AY13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>9</v>
@@ -4183,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ14">
         <v>10</v>
@@ -4389,10 +4389,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA15">
         <v>7</v>
@@ -4595,10 +4595,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>4</v>
@@ -4801,10 +4801,10 @@
         <v>2</v>
       </c>
       <c r="AY17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -5007,10 +5007,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="AY19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ19">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -5419,10 +5419,10 @@
         <v>2</v>
       </c>
       <c r="AY20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA20">
         <v>9</v>
@@ -5625,10 +5625,10 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA21">
         <v>1</v>
@@ -5831,10 +5831,10 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -6037,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="AY23">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -6243,10 +6243,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6449,10 +6449,10 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA25">
         <v>9</v>
@@ -6655,10 +6655,10 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA26">
         <v>8</v>
@@ -6861,10 +6861,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -7067,10 +7067,10 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA28">
         <v>4</v>
@@ -7273,10 +7273,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>6</v>
       </c>
       <c r="AY30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>1</v>
@@ -7688,7 +7688,7 @@
         <v>13</v>
       </c>
       <c r="AZ31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -7891,10 +7891,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -8097,10 +8097,10 @@
         <v>1</v>
       </c>
       <c r="AY33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA33">
         <v>7</v>
@@ -8303,10 +8303,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8509,10 +8509,10 @@
         <v>3</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>10</v>
       </c>
       <c r="AZ36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8921,10 +8921,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA37">
         <v>1</v>
@@ -9127,10 +9127,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -9333,10 +9333,10 @@
         <v>9</v>
       </c>
       <c r="AY39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA39">
         <v>1</v>
@@ -9542,7 +9542,7 @@
         <v>12</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA40">
         <v>8</v>
@@ -9745,10 +9745,10 @@
         <v>9</v>
       </c>
       <c r="AY41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9951,10 +9951,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA42">
         <v>4</v>
@@ -10157,10 +10157,10 @@
         <v>3</v>
       </c>
       <c r="AY43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -10363,10 +10363,10 @@
         <v>4</v>
       </c>
       <c r="AY44">
+        <v>19</v>
+      </c>
+      <c r="AZ44">
         <v>15</v>
-      </c>
-      <c r="AZ44">
-        <v>10</v>
       </c>
       <c r="BA44">
         <v>4</v>
@@ -10569,10 +10569,10 @@
         <v>4</v>
       </c>
       <c r="AY45">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA45">
         <v>13</v>
@@ -10778,7 +10778,7 @@
         <v>10</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA46">
         <v>1</v>
@@ -10981,10 +10981,10 @@
         <v>8</v>
       </c>
       <c r="AY47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA47">
         <v>6</v>
@@ -11187,10 +11187,10 @@
         <v>7</v>
       </c>
       <c r="AY48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA48">
         <v>3</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11599,10 +11599,10 @@
         <v>6</v>
       </c>
       <c r="AY50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ50">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11805,10 +11805,10 @@
         <v>3</v>
       </c>
       <c r="AY51">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -12011,10 +12011,10 @@
         <v>2</v>
       </c>
       <c r="AY52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA52">
         <v>1</v>
@@ -12220,7 +12220,7 @@
         <v>5</v>
       </c>
       <c r="AZ53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA53">
         <v>1</v>
@@ -12423,10 +12423,10 @@
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -12629,10 +12629,10 @@
         <v>2</v>
       </c>
       <c r="AY55">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA55">
         <v>8</v>
@@ -12835,10 +12835,10 @@
         <v>5</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA56">
         <v>3</v>
@@ -13041,10 +13041,10 @@
         <v>2</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA57">
         <v>7</v>
@@ -13247,10 +13247,10 @@
         <v>10</v>
       </c>
       <c r="AY58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ58">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA58">
         <v>3</v>
@@ -13453,10 +13453,10 @@
         <v>7</v>
       </c>
       <c r="AY59">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13659,10 +13659,10 @@
         <v>10</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA60">
         <v>2</v>
@@ -13865,10 +13865,10 @@
         <v>6</v>
       </c>
       <c r="AY61">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ61">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA61">
         <v>7</v>
@@ -14071,7 +14071,7 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ62">
         <v>7</v>
@@ -14277,10 +14277,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ63">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14483,10 +14483,10 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA64">
         <v>10</v>
@@ -14689,10 +14689,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ65">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA65">
         <v>6</v>
@@ -14895,10 +14895,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ66">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA66">
         <v>6</v>
@@ -15101,10 +15101,10 @@
         <v>6</v>
       </c>
       <c r="AY67">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA67">
         <v>4</v>
@@ -15307,10 +15307,10 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15513,10 +15513,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA69">
         <v>12</v>
@@ -15719,10 +15719,10 @@
         <v>2</v>
       </c>
       <c r="AY70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA70">
         <v>2</v>
@@ -15925,10 +15925,10 @@
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA71">
         <v>7</v>
@@ -16131,10 +16131,10 @@
         <v>2</v>
       </c>
       <c r="AY72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA72">
         <v>2</v>
@@ -16337,10 +16337,10 @@
         <v>6</v>
       </c>
       <c r="AY73">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16543,10 +16543,10 @@
         <v>1</v>
       </c>
       <c r="AY74">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA74">
         <v>7</v>
@@ -16749,10 +16749,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA75">
         <v>7</v>
@@ -16955,10 +16955,10 @@
         <v>14</v>
       </c>
       <c r="AY76">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ76">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BA76">
         <v>7</v>
@@ -17161,10 +17161,10 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ77">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA77">
         <v>7</v>
@@ -17367,10 +17367,10 @@
         <v>5</v>
       </c>
       <c r="AY78">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ78">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA78">
         <v>5</v>
@@ -17573,10 +17573,10 @@
         <v>2</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17779,10 +17779,10 @@
         <v>5</v>
       </c>
       <c r="AY80">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ80">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA80">
         <v>10</v>
@@ -17985,7 +17985,7 @@
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ81">
         <v>9</v>
@@ -18191,10 +18191,10 @@
         <v>10</v>
       </c>
       <c r="AY82">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ82">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -18397,10 +18397,10 @@
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ83">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA83">
         <v>10</v>
@@ -18603,10 +18603,10 @@
         <v>5</v>
       </c>
       <c r="AY84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ84">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA84">
         <v>1</v>
@@ -19015,10 +19015,10 @@
         <v>3</v>
       </c>
       <c r="AY86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ86">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA86">
         <v>5</v>
@@ -19221,10 +19221,10 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA87">
         <v>3</v>
@@ -19427,10 +19427,10 @@
         <v>3</v>
       </c>
       <c r="AY88">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA88">
         <v>7</v>
@@ -19633,10 +19633,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
+        <v>11</v>
+      </c>
+      <c r="AZ89">
         <v>8</v>
-      </c>
-      <c r="AZ89">
-        <v>7</v>
       </c>
       <c r="BA89">
         <v>3</v>
@@ -19839,10 +19839,10 @@
         <v>2</v>
       </c>
       <c r="AY90">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA90">
         <v>5</v>
@@ -20045,7 +20045,7 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ91">
         <v>5</v>
@@ -20251,10 +20251,10 @@
         <v>5</v>
       </c>
       <c r="AY92">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ92">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA92">
         <v>2</v>
@@ -20457,10 +20457,10 @@
         <v>7</v>
       </c>
       <c r="AY93">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ93">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA93">
         <v>4</v>
@@ -20663,10 +20663,10 @@
         <v>3</v>
       </c>
       <c r="AY94">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ94">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20869,10 +20869,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ95">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -21075,10 +21075,10 @@
         <v>1</v>
       </c>
       <c r="AY96">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA96">
         <v>10</v>
@@ -21281,10 +21281,10 @@
         <v>7</v>
       </c>
       <c r="AY97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ97">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA97">
         <v>0</v>
@@ -21487,10 +21487,10 @@
         <v>5</v>
       </c>
       <c r="AY98">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA98">
         <v>7</v>
@@ -21693,10 +21693,10 @@
         <v>8</v>
       </c>
       <c r="AY99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ99">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA99">
         <v>1</v>
@@ -21899,10 +21899,10 @@
         <v>4</v>
       </c>
       <c r="AY100">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ100">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA100">
         <v>6</v>
@@ -22105,10 +22105,10 @@
         <v>1</v>
       </c>
       <c r="AY101">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ101">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA101">
         <v>6</v>
@@ -22311,10 +22311,10 @@
         <v>2</v>
       </c>
       <c r="AY102">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA102">
         <v>6</v>
@@ -22517,10 +22517,10 @@
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ103">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA103">
         <v>5</v>
@@ -22723,10 +22723,10 @@
         <v>3</v>
       </c>
       <c r="AY104">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22929,10 +22929,10 @@
         <v>6</v>
       </c>
       <c r="AY105">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA105">
         <v>5</v>
@@ -23135,10 +23135,10 @@
         <v>3</v>
       </c>
       <c r="AY106">
+        <v>25</v>
+      </c>
+      <c r="AZ106">
         <v>14</v>
-      </c>
-      <c r="AZ106">
-        <v>9</v>
       </c>
       <c r="BA106">
         <v>10</v>
@@ -23341,7 +23341,7 @@
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ107">
         <v>9</v>
@@ -23547,10 +23547,10 @@
         <v>6</v>
       </c>
       <c r="AY108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ108">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA108">
         <v>0</v>
@@ -23753,7 +23753,7 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ109">
         <v>9</v>
@@ -23959,10 +23959,10 @@
         <v>7</v>
       </c>
       <c r="AY110">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA110">
         <v>6</v>
@@ -24168,7 +24168,7 @@
         <v>12</v>
       </c>
       <c r="AZ111">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA111">
         <v>2</v>
@@ -24371,10 +24371,10 @@
         <v>8</v>
       </c>
       <c r="AY112">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ112">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA112">
         <v>4</v>
@@ -24580,7 +24580,7 @@
         <v>12</v>
       </c>
       <c r="AZ113">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA113">
         <v>7</v>
@@ -24783,10 +24783,10 @@
         <v>3</v>
       </c>
       <c r="AY114">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ114">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA114">
         <v>4</v>
@@ -24989,10 +24989,10 @@
         <v>2</v>
       </c>
       <c r="AY115">
+        <v>21</v>
+      </c>
+      <c r="AZ115">
         <v>15</v>
-      </c>
-      <c r="AZ115">
-        <v>8</v>
       </c>
       <c r="BA115">
         <v>7</v>
@@ -25195,10 +25195,10 @@
         <v>7</v>
       </c>
       <c r="AY116">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ116">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA116">
         <v>2</v>
@@ -25401,10 +25401,10 @@
         <v>3</v>
       </c>
       <c r="AY117">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ117">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA117">
         <v>5</v>
@@ -25607,10 +25607,10 @@
         <v>7</v>
       </c>
       <c r="AY118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ118">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA118">
         <v>3</v>
@@ -25813,10 +25813,10 @@
         <v>2</v>
       </c>
       <c r="AY119">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA119">
         <v>10</v>
@@ -26019,10 +26019,10 @@
         <v>4</v>
       </c>
       <c r="AY120">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ120">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26225,10 +26225,10 @@
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA121">
         <v>5</v>
@@ -26431,10 +26431,10 @@
         <v>4</v>
       </c>
       <c r="AY122">
+        <v>15</v>
+      </c>
+      <c r="AZ122">
         <v>12</v>
-      </c>
-      <c r="AZ122">
-        <v>9</v>
       </c>
       <c r="BA122">
         <v>6</v>
@@ -26640,7 +26640,7 @@
         <v>5</v>
       </c>
       <c r="AZ123">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA123">
         <v>2</v>
@@ -26843,10 +26843,10 @@
         <v>0</v>
       </c>
       <c r="AY124">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA124">
         <v>1</v>
@@ -27049,10 +27049,10 @@
         <v>2</v>
       </c>
       <c r="AY125">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA125">
         <v>11</v>
@@ -27255,10 +27255,10 @@
         <v>2</v>
       </c>
       <c r="AY126">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ126">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27461,10 +27461,10 @@
         <v>3</v>
       </c>
       <c r="AY127">
+        <v>18</v>
+      </c>
+      <c r="AZ127">
         <v>13</v>
-      </c>
-      <c r="AZ127">
-        <v>9</v>
       </c>
       <c r="BA127">
         <v>5</v>
@@ -27667,10 +27667,10 @@
         <v>5</v>
       </c>
       <c r="AY128">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ128">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA128">
         <v>7</v>
@@ -27873,10 +27873,10 @@
         <v>2</v>
       </c>
       <c r="AY129">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ129">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA129">
         <v>5</v>
@@ -28079,10 +28079,10 @@
         <v>3</v>
       </c>
       <c r="AY130">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ130">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA130">
         <v>9</v>
@@ -28285,10 +28285,10 @@
         <v>8</v>
       </c>
       <c r="AY131">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ131">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA131">
         <v>8</v>
@@ -28491,10 +28491,10 @@
         <v>4</v>
       </c>
       <c r="AY132">
+        <v>18</v>
+      </c>
+      <c r="AZ132">
         <v>10</v>
-      </c>
-      <c r="AZ132">
-        <v>6</v>
       </c>
       <c r="BA132">
         <v>9</v>
@@ -28903,10 +28903,10 @@
         <v>3</v>
       </c>
       <c r="AY134">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ134">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA134">
         <v>4</v>
@@ -29109,10 +29109,10 @@
         <v>8</v>
       </c>
       <c r="AY135">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ135">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA135">
         <v>4</v>
@@ -29315,10 +29315,10 @@
         <v>1</v>
       </c>
       <c r="AY136">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA136">
         <v>7</v>
@@ -29521,10 +29521,10 @@
         <v>3</v>
       </c>
       <c r="AY137">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA137">
         <v>9</v>
@@ -29727,10 +29727,10 @@
         <v>4</v>
       </c>
       <c r="AY138">
+        <v>16</v>
+      </c>
+      <c r="AZ138">
         <v>12</v>
-      </c>
-      <c r="AZ138">
-        <v>10</v>
       </c>
       <c r="BA138">
         <v>6</v>
@@ -29933,10 +29933,10 @@
         <v>6</v>
       </c>
       <c r="AY139">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ139">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA139">
         <v>5</v>
@@ -30139,7 +30139,7 @@
         <v>5</v>
       </c>
       <c r="AY140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ140">
         <v>7</v>
@@ -30345,10 +30345,10 @@
         <v>8</v>
       </c>
       <c r="AY141">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ141">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA141">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>3</v>
       </c>
       <c r="AY142">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA142">
         <v>8</v>
@@ -30757,10 +30757,10 @@
         <v>12</v>
       </c>
       <c r="AY143">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ143">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA143">
         <v>12</v>
@@ -30963,10 +30963,10 @@
         <v>4</v>
       </c>
       <c r="AY144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA144">
         <v>5</v>
@@ -31169,10 +31169,10 @@
         <v>4</v>
       </c>
       <c r="AY145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA145">
         <v>4</v>
@@ -31375,10 +31375,10 @@
         <v>6</v>
       </c>
       <c r="AY146">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ146">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA146">
         <v>3</v>
@@ -31581,10 +31581,10 @@
         <v>6</v>
       </c>
       <c r="AY147">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ147">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA147">
         <v>6</v>
@@ -31787,10 +31787,10 @@
         <v>2</v>
       </c>
       <c r="AY148">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ148">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -31993,10 +31993,10 @@
         <v>2</v>
       </c>
       <c r="AY149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ149">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA149">
         <v>2</v>
@@ -32199,10 +32199,10 @@
         <v>8</v>
       </c>
       <c r="AY150">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ150">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA150">
         <v>9</v>
@@ -32405,10 +32405,10 @@
         <v>4</v>
       </c>
       <c r="AY151">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ151">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA151">
         <v>4</v>
@@ -32611,10 +32611,10 @@
         <v>4</v>
       </c>
       <c r="AY152">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ152">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA152">
         <v>2</v>
@@ -32817,10 +32817,10 @@
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ153">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -33023,10 +33023,10 @@
         <v>5</v>
       </c>
       <c r="AY154">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ154">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA154">
         <v>6</v>
@@ -33229,7 +33229,7 @@
         <v>4</v>
       </c>
       <c r="AY155">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ155">
         <v>7</v>
@@ -33435,10 +33435,10 @@
         <v>7</v>
       </c>
       <c r="AY156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ156">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA156">
         <v>5</v>
@@ -33641,10 +33641,10 @@
         <v>1</v>
       </c>
       <c r="AY157">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ157">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA157">
         <v>8</v>
@@ -33847,10 +33847,10 @@
         <v>7</v>
       </c>
       <c r="AY158">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ158">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA158">
         <v>4</v>
@@ -34053,10 +34053,10 @@
         <v>4</v>
       </c>
       <c r="AY159">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ159">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA159">
         <v>14</v>
@@ -34259,10 +34259,10 @@
         <v>3</v>
       </c>
       <c r="AY160">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ160">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA160">
         <v>7</v>
@@ -34465,10 +34465,10 @@
         <v>3</v>
       </c>
       <c r="AY161">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ161">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA161">
         <v>5</v>
@@ -34671,7 +34671,7 @@
         <v>1</v>
       </c>
       <c r="AY162">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ162">
         <v>6</v>
@@ -34877,10 +34877,10 @@
         <v>7</v>
       </c>
       <c r="AY163">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ163">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA163">
         <v>1</v>
@@ -35083,10 +35083,10 @@
         <v>1</v>
       </c>
       <c r="AY164">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ164">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA164">
         <v>12</v>
@@ -35289,10 +35289,10 @@
         <v>5</v>
       </c>
       <c r="AY165">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA165">
         <v>8</v>
@@ -35495,7 +35495,7 @@
         <v>2</v>
       </c>
       <c r="AY166">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ166">
         <v>5</v>
@@ -35701,10 +35701,10 @@
         <v>4</v>
       </c>
       <c r="AY167">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ167">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA167">
         <v>8</v>
@@ -35907,10 +35907,10 @@
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ168">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA168">
         <v>10</v>
@@ -36113,10 +36113,10 @@
         <v>6</v>
       </c>
       <c r="AY169">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ169">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA169">
         <v>4</v>
@@ -36319,10 +36319,10 @@
         <v>4</v>
       </c>
       <c r="AY170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ170">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA170">
         <v>2</v>
@@ -36525,10 +36525,10 @@
         <v>3</v>
       </c>
       <c r="AY171">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA171">
         <v>6</v>
@@ -36731,10 +36731,10 @@
         <v>9</v>
       </c>
       <c r="AY172">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ172">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA172">
         <v>4</v>
@@ -36937,10 +36937,10 @@
         <v>1</v>
       </c>
       <c r="AY173">
+        <v>17</v>
+      </c>
+      <c r="AZ173">
         <v>11</v>
-      </c>
-      <c r="AZ173">
-        <v>7</v>
       </c>
       <c r="BA173">
         <v>9</v>
@@ -37143,10 +37143,10 @@
         <v>5</v>
       </c>
       <c r="AY174">
+        <v>14</v>
+      </c>
+      <c r="AZ174">
         <v>12</v>
-      </c>
-      <c r="AZ174">
-        <v>8</v>
       </c>
       <c r="BA174">
         <v>3</v>
@@ -37349,10 +37349,10 @@
         <v>4</v>
       </c>
       <c r="AY175">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ175">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA175">
         <v>8</v>
@@ -37555,10 +37555,10 @@
         <v>4</v>
       </c>
       <c r="AY176">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA176">
         <v>4</v>
@@ -37761,10 +37761,10 @@
         <v>3</v>
       </c>
       <c r="AY177">
+        <v>12</v>
+      </c>
+      <c r="AZ177">
         <v>10</v>
-      </c>
-      <c r="AZ177">
-        <v>8</v>
       </c>
       <c r="BA177">
         <v>8</v>
@@ -37967,10 +37967,10 @@
         <v>4</v>
       </c>
       <c r="AY178">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ178">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA178">
         <v>7</v>
@@ -38173,10 +38173,10 @@
         <v>3</v>
       </c>
       <c r="AY179">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ179">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA179">
         <v>8</v>
@@ -38379,10 +38379,10 @@
         <v>4</v>
       </c>
       <c r="AY180">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA180">
         <v>4</v>
@@ -38585,7 +38585,7 @@
         <v>4</v>
       </c>
       <c r="AY181">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ181">
         <v>8</v>
@@ -38791,10 +38791,10 @@
         <v>8</v>
       </c>
       <c r="AY182">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ182">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA182">
         <v>3</v>
@@ -38997,10 +38997,10 @@
         <v>7</v>
       </c>
       <c r="AY183">
+        <v>13</v>
+      </c>
+      <c r="AZ183">
         <v>11</v>
-      </c>
-      <c r="AZ183">
-        <v>9</v>
       </c>
       <c r="BA183">
         <v>5</v>
@@ -39203,10 +39203,10 @@
         <v>5</v>
       </c>
       <c r="AY184">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ184">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA184">
         <v>9</v>
@@ -39409,10 +39409,10 @@
         <v>1</v>
       </c>
       <c r="AY185">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA185">
         <v>5</v>
@@ -39615,10 +39615,10 @@
         <v>14</v>
       </c>
       <c r="AY186">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ186">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA186">
         <v>5</v>
@@ -39821,7 +39821,7 @@
         <v>0</v>
       </c>
       <c r="AY187">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ187">
         <v>12</v>
@@ -40027,7 +40027,7 @@
         <v>4</v>
       </c>
       <c r="AY188">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ188">
         <v>8</v>
@@ -40233,10 +40233,10 @@
         <v>4</v>
       </c>
       <c r="AY189">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AZ189">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA189">
         <v>10</v>
@@ -40439,10 +40439,10 @@
         <v>14</v>
       </c>
       <c r="AY190">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ190">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="BA190">
         <v>0</v>
@@ -40645,10 +40645,10 @@
         <v>8</v>
       </c>
       <c r="AY191">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ191">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA191">
         <v>3</v>
@@ -40851,10 +40851,10 @@
         <v>10</v>
       </c>
       <c r="AY192">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ192">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA192">
         <v>12</v>
@@ -41057,10 +41057,10 @@
         <v>5</v>
       </c>
       <c r="AY193">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AZ193">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA193">
         <v>10</v>
@@ -41263,10 +41263,10 @@
         <v>5</v>
       </c>
       <c r="AY194">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ194">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA194">
         <v>3</v>
